--- a/ScrumTeamStats_Template.xlsx
+++ b/ScrumTeamStats_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Git/vba-jira/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C778E25-607A-4642-8D10-BA57BE49E8A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0384A1-562A-6D4E-BB62-80E0F1C3154D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="20340" windowHeight="27140" xr2:uid="{29FB89B4-D308-7843-B61E-411B20763035}"/>
+    <workbookView xWindow="400" yWindow="460" windowWidth="36740" windowHeight="27140" xr2:uid="{29FB89B4-D308-7843-B61E-411B20763035}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Metrics" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="ResourceNamesDestination">[2]!ResourceNames</definedName>
     <definedName name="TeamId">[1]Instructions!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
   <si>
     <t>Feature</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>Average Lead Time (created - released) for Features released in the last 3 months</t>
-  </si>
-  <si>
-    <t>Number of code deployments in the previous calendar month</t>
   </si>
   <si>
     <t>TiP
@@ -220,9 +217,6 @@
     <t>&lt;3d</t>
   </si>
   <si>
-    <t>Release Velocity</t>
-  </si>
-  <si>
     <t>Efficiency</t>
   </si>
   <si>
@@ -302,9 +296,6 @@
     <t>Time to Resolve</t>
   </si>
   <si>
-    <t>Bugs (prod issues) with an Affects Version from last month's release / Number of PBIs released over the same period</t>
-  </si>
-  <si>
     <t>Correct Status</t>
   </si>
   <si>
@@ -342,6 +333,9 @@
   </si>
   <si>
     <t>Team Name - As Of: 10-Jun-20</t>
+  </si>
+  <si>
+    <t>Bugs (prod issues) with an Affects Version from the last 3 months of releases / Number of PBIs released over the same period</t>
   </si>
 </sst>
 </file>
@@ -987,206 +981,26 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="90"/>
-    </xf>
     <xf numFmtId="167" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1194,77 +1008,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1294,20 +1051,71 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1327,9 +1135,196 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -7533,319 +7528,6 @@
           <cell r="AT2" t="str">
             <v>Feature</v>
           </cell>
-          <cell r="AU2" t="str">
-            <v>Defects</v>
-          </cell>
-          <cell r="AV2" t="str">
-            <v>Risks</v>
-          </cell>
-          <cell r="AW2" t="str">
-            <v>Debts</v>
-          </cell>
-          <cell r="AX2" t="str">
-            <v>Enablers</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="AS5" t="str">
-            <v>Velocity</v>
-          </cell>
-          <cell r="AT5">
-            <v>5</v>
-          </cell>
-          <cell r="AU5">
-            <v>3</v>
-          </cell>
-          <cell r="AV5">
-            <v>6</v>
-          </cell>
-          <cell r="AW5">
-            <v>2</v>
-          </cell>
-          <cell r="AX5">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="AS6" t="str">
-            <v>Baseline</v>
-          </cell>
-          <cell r="AT6">
-            <v>7</v>
-          </cell>
-          <cell r="AU6">
-            <v>1</v>
-          </cell>
-          <cell r="AV6">
-            <v>1.6666666666666667</v>
-          </cell>
-          <cell r="AW6">
-            <v>1.3333333333333333</v>
-          </cell>
-          <cell r="AX6">
-            <v>0.3</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="AS11" t="str">
-            <v>Features</v>
-          </cell>
-          <cell r="AT11">
-            <v>0</v>
-          </cell>
-          <cell r="AU11">
-            <v>3</v>
-          </cell>
-          <cell r="AV11">
-            <v>9</v>
-          </cell>
-          <cell r="AW11">
-            <v>2</v>
-          </cell>
-          <cell r="AX11">
-            <v>6</v>
-          </cell>
-          <cell r="AY11">
-            <v>4</v>
-          </cell>
-          <cell r="AZ11">
-            <v>5</v>
-          </cell>
-          <cell r="BA11">
-            <v>2</v>
-          </cell>
-          <cell r="BB11">
-            <v>13</v>
-          </cell>
-          <cell r="BC11">
-            <v>9</v>
-          </cell>
-          <cell r="BD11">
-            <v>0</v>
-          </cell>
-          <cell r="BE11">
-            <v>5</v>
-          </cell>
-          <cell r="BF11">
-            <v>90</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="AS12" t="str">
-            <v>Defects</v>
-          </cell>
-          <cell r="AT12">
-            <v>1</v>
-          </cell>
-          <cell r="AU12">
-            <v>1</v>
-          </cell>
-          <cell r="AV12">
-            <v>3</v>
-          </cell>
-          <cell r="AW12">
-            <v>1</v>
-          </cell>
-          <cell r="AX12">
-            <v>1</v>
-          </cell>
-          <cell r="AY12">
-            <v>2</v>
-          </cell>
-          <cell r="AZ12">
-            <v>3</v>
-          </cell>
-          <cell r="BA12">
-            <v>1</v>
-          </cell>
-          <cell r="BB12">
-            <v>2</v>
-          </cell>
-          <cell r="BC12">
-            <v>0</v>
-          </cell>
-          <cell r="BD12">
-            <v>0</v>
-          </cell>
-          <cell r="BE12">
-            <v>3</v>
-          </cell>
-          <cell r="BF12">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="AS13" t="str">
-            <v>Risks</v>
-          </cell>
-          <cell r="AT13">
-            <v>0</v>
-          </cell>
-          <cell r="AU13">
-            <v>0</v>
-          </cell>
-          <cell r="AV13">
-            <v>2</v>
-          </cell>
-          <cell r="AW13">
-            <v>1</v>
-          </cell>
-          <cell r="AX13">
-            <v>0</v>
-          </cell>
-          <cell r="AY13">
-            <v>0</v>
-          </cell>
-          <cell r="AZ13">
-            <v>3</v>
-          </cell>
-          <cell r="BA13">
-            <v>0</v>
-          </cell>
-          <cell r="BB13">
-            <v>2</v>
-          </cell>
-          <cell r="BC13">
-            <v>5</v>
-          </cell>
-          <cell r="BD13">
-            <v>0</v>
-          </cell>
-          <cell r="BE13">
-            <v>6</v>
-          </cell>
-          <cell r="BF13">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="AS14" t="str">
-            <v>Debts</v>
-          </cell>
-          <cell r="AT14">
-            <v>0</v>
-          </cell>
-          <cell r="AU14">
-            <v>0</v>
-          </cell>
-          <cell r="AV14">
-            <v>0</v>
-          </cell>
-          <cell r="AW14">
-            <v>1</v>
-          </cell>
-          <cell r="AX14">
-            <v>1</v>
-          </cell>
-          <cell r="AY14">
-            <v>0</v>
-          </cell>
-          <cell r="AZ14">
-            <v>2</v>
-          </cell>
-          <cell r="BA14">
-            <v>1</v>
-          </cell>
-          <cell r="BB14">
-            <v>1</v>
-          </cell>
-          <cell r="BC14">
-            <v>1</v>
-          </cell>
-          <cell r="BD14">
-            <v>0</v>
-          </cell>
-          <cell r="BE14">
-            <v>2</v>
-          </cell>
-          <cell r="BF14">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="AS15" t="str">
-            <v>Enablers</v>
-          </cell>
-          <cell r="AT15">
-            <v>0</v>
-          </cell>
-          <cell r="AU15">
-            <v>0</v>
-          </cell>
-          <cell r="AV15">
-            <v>2</v>
-          </cell>
-          <cell r="AW15">
-            <v>1</v>
-          </cell>
-          <cell r="AX15">
-            <v>0</v>
-          </cell>
-          <cell r="AY15">
-            <v>0</v>
-          </cell>
-          <cell r="AZ15">
-            <v>2</v>
-          </cell>
-          <cell r="BA15">
-            <v>1</v>
-          </cell>
-          <cell r="BB15">
-            <v>1</v>
-          </cell>
-          <cell r="BC15">
-            <v>0</v>
-          </cell>
-          <cell r="BD15">
-            <v>0</v>
-          </cell>
-          <cell r="BE15">
-            <v>5</v>
-          </cell>
-          <cell r="BF15">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="AT16">
-            <v>43646</v>
-          </cell>
-          <cell r="AU16">
-            <v>43677</v>
-          </cell>
-          <cell r="AV16">
-            <v>43708</v>
-          </cell>
-          <cell r="AW16">
-            <v>43738</v>
-          </cell>
-          <cell r="AX16">
-            <v>43769</v>
-          </cell>
-          <cell r="AY16">
-            <v>43799</v>
-          </cell>
-          <cell r="AZ16">
-            <v>43830</v>
-          </cell>
-          <cell r="BA16">
-            <v>43861</v>
-          </cell>
-          <cell r="BB16">
-            <v>43890</v>
-          </cell>
-          <cell r="BC16">
-            <v>43921</v>
-          </cell>
-          <cell r="BD16">
-            <v>43951</v>
-          </cell>
-          <cell r="BE16">
-            <v>43982</v>
-          </cell>
-          <cell r="BF16" t="str">
-            <v>Backlog</v>
-          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="10" refreshError="1"/>
@@ -8201,2648 +7883,2588 @@
   </sheetPr>
   <dimension ref="B2:BH57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB58" sqref="AB58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.6640625" style="4" customWidth="1"/>
-    <col min="3" max="41" width="5.6640625" style="4" customWidth="1"/>
-    <col min="42" max="42" width="2.6640625" style="4" customWidth="1"/>
-    <col min="43" max="44" width="6" style="4" customWidth="1"/>
-    <col min="45" max="45" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="46" max="64" width="6" style="4" customWidth="1"/>
-    <col min="65" max="65" width="4" style="4" customWidth="1"/>
-    <col min="66" max="66" width="3.6640625" style="4" customWidth="1"/>
-    <col min="67" max="67" width="4" style="4" customWidth="1"/>
-    <col min="68" max="68" width="3.6640625" style="4" customWidth="1"/>
-    <col min="69" max="70" width="4" style="4" customWidth="1"/>
-    <col min="71" max="71" width="3.6640625" style="4" customWidth="1"/>
-    <col min="72" max="72" width="4" style="4" customWidth="1"/>
-    <col min="73" max="73" width="3.6640625" style="4" customWidth="1"/>
-    <col min="74" max="75" width="4" style="4" customWidth="1"/>
-    <col min="76" max="76" width="3.6640625" style="4" customWidth="1"/>
-    <col min="77" max="77" width="4" style="4" customWidth="1"/>
-    <col min="78" max="78" width="3.6640625" style="4" customWidth="1"/>
-    <col min="79" max="80" width="4" style="4" customWidth="1"/>
-    <col min="81" max="81" width="3.6640625" style="4" customWidth="1"/>
-    <col min="82" max="82" width="4" style="4" customWidth="1"/>
-    <col min="83" max="83" width="3.6640625" style="4" customWidth="1"/>
-    <col min="84" max="85" width="4" style="4" customWidth="1"/>
-    <col min="86" max="86" width="3.6640625" style="4" customWidth="1"/>
-    <col min="87" max="87" width="4" style="4" customWidth="1"/>
-    <col min="88" max="88" width="3.6640625" style="4" customWidth="1"/>
-    <col min="89" max="90" width="4" style="4" customWidth="1"/>
-    <col min="91" max="91" width="3.6640625" style="4" customWidth="1"/>
-    <col min="92" max="92" width="4" style="4" customWidth="1"/>
-    <col min="93" max="93" width="3.6640625" style="4" customWidth="1"/>
-    <col min="94" max="95" width="4" style="4" customWidth="1"/>
-    <col min="96" max="96" width="3.6640625" style="4" customWidth="1"/>
-    <col min="97" max="97" width="4" style="4" customWidth="1"/>
-    <col min="98" max="98" width="3.6640625" style="4" customWidth="1"/>
-    <col min="99" max="99" width="4" style="4" customWidth="1"/>
-    <col min="100" max="16384" width="9.1640625" style="4"/>
+    <col min="1" max="2" width="2.6640625" style="1" customWidth="1"/>
+    <col min="3" max="41" width="5.6640625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="2.6640625" style="1" customWidth="1"/>
+    <col min="43" max="44" width="6" style="1" customWidth="1"/>
+    <col min="45" max="45" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="64" width="6" style="1" customWidth="1"/>
+    <col min="65" max="65" width="4" style="1" customWidth="1"/>
+    <col min="66" max="66" width="3.6640625" style="1" customWidth="1"/>
+    <col min="67" max="67" width="4" style="1" customWidth="1"/>
+    <col min="68" max="68" width="3.6640625" style="1" customWidth="1"/>
+    <col min="69" max="70" width="4" style="1" customWidth="1"/>
+    <col min="71" max="71" width="3.6640625" style="1" customWidth="1"/>
+    <col min="72" max="72" width="4" style="1" customWidth="1"/>
+    <col min="73" max="73" width="3.6640625" style="1" customWidth="1"/>
+    <col min="74" max="75" width="4" style="1" customWidth="1"/>
+    <col min="76" max="76" width="3.6640625" style="1" customWidth="1"/>
+    <col min="77" max="77" width="4" style="1" customWidth="1"/>
+    <col min="78" max="78" width="3.6640625" style="1" customWidth="1"/>
+    <col min="79" max="80" width="4" style="1" customWidth="1"/>
+    <col min="81" max="81" width="3.6640625" style="1" customWidth="1"/>
+    <col min="82" max="82" width="4" style="1" customWidth="1"/>
+    <col min="83" max="83" width="3.6640625" style="1" customWidth="1"/>
+    <col min="84" max="85" width="4" style="1" customWidth="1"/>
+    <col min="86" max="86" width="3.6640625" style="1" customWidth="1"/>
+    <col min="87" max="87" width="4" style="1" customWidth="1"/>
+    <col min="88" max="88" width="3.6640625" style="1" customWidth="1"/>
+    <col min="89" max="90" width="4" style="1" customWidth="1"/>
+    <col min="91" max="91" width="3.6640625" style="1" customWidth="1"/>
+    <col min="92" max="92" width="4" style="1" customWidth="1"/>
+    <col min="93" max="93" width="3.6640625" style="1" customWidth="1"/>
+    <col min="94" max="95" width="4" style="1" customWidth="1"/>
+    <col min="96" max="96" width="3.6640625" style="1" customWidth="1"/>
+    <col min="97" max="97" width="4" style="1" customWidth="1"/>
+    <col min="98" max="98" width="3.6640625" style="1" customWidth="1"/>
+    <col min="99" max="99" width="4" style="1" customWidth="1"/>
+    <col min="100" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="3"/>
-      <c r="AT2" s="5" t="s">
+      <c r="B2" s="140" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="141"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="141"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="141"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="141"/>
+      <c r="V2" s="141"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="141"/>
+      <c r="Z2" s="141"/>
+      <c r="AA2" s="141"/>
+      <c r="AB2" s="141"/>
+      <c r="AC2" s="141"/>
+      <c r="AD2" s="141"/>
+      <c r="AE2" s="141"/>
+      <c r="AF2" s="141"/>
+      <c r="AG2" s="141"/>
+      <c r="AH2" s="141"/>
+      <c r="AI2" s="141"/>
+      <c r="AJ2" s="141"/>
+      <c r="AK2" s="141"/>
+      <c r="AL2" s="141"/>
+      <c r="AM2" s="141"/>
+      <c r="AN2" s="141"/>
+      <c r="AO2" s="141"/>
+      <c r="AP2" s="142"/>
+      <c r="AT2" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="AU2" s="5" t="s">
+      <c r="AU2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="AV2" s="5" t="s">
+      <c r="AV2" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="AW2" s="5" t="s">
+      <c r="AW2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="AX2" s="5" t="s">
+      <c r="AX2" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="7"/>
-      <c r="AP3" s="8"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="144"/>
+      <c r="T3" s="144"/>
+      <c r="U3" s="144"/>
+      <c r="V3" s="144"/>
+      <c r="W3" s="144"/>
+      <c r="X3" s="144"/>
+      <c r="Y3" s="144"/>
+      <c r="Z3" s="144"/>
+      <c r="AA3" s="144"/>
+      <c r="AB3" s="144"/>
+      <c r="AC3" s="144"/>
+      <c r="AD3" s="144"/>
+      <c r="AE3" s="144"/>
+      <c r="AF3" s="144"/>
+      <c r="AG3" s="144"/>
+      <c r="AH3" s="144"/>
+      <c r="AI3" s="144"/>
+      <c r="AJ3" s="144"/>
+      <c r="AK3" s="144"/>
+      <c r="AL3" s="144"/>
+      <c r="AM3" s="144"/>
+      <c r="AN3" s="144"/>
+      <c r="AO3" s="144"/>
+      <c r="AP3" s="145"/>
+      <c r="AS3" s="146"/>
+      <c r="AT3" s="100"/>
+      <c r="AU3" s="100"/>
+      <c r="AV3" s="100"/>
+      <c r="AW3" s="100"/>
+      <c r="AX3" s="100"/>
     </row>
     <row r="4" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B4" s="9"/>
-      <c r="AP4" s="10"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="AP4" s="3"/>
+      <c r="AS4" s="146">
+        <v>43992</v>
+      </c>
+      <c r="AT4" s="100"/>
+      <c r="AU4" s="100"/>
+      <c r="AV4" s="100"/>
+      <c r="AW4" s="100"/>
+      <c r="AX4" s="100"/>
     </row>
     <row r="5" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="9"/>
-      <c r="D5" s="11" t="s">
+      <c r="B5" s="2"/>
+      <c r="D5" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15">
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="69">
         <f>BB22</f>
         <v>0.88</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16" t="s">
+      <c r="K5" s="69"/>
+      <c r="L5" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="17"/>
-      <c r="X5" s="11" t="s">
+      <c r="M5" s="123"/>
+      <c r="N5" s="123"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="123"/>
+      <c r="Q5" s="123"/>
+      <c r="R5" s="123"/>
+      <c r="S5" s="123"/>
+      <c r="T5" s="124"/>
+      <c r="X5" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="18" t="s">
+      <c r="Y5" s="119"/>
+      <c r="Z5" s="119"/>
+      <c r="AA5" s="119"/>
+      <c r="AB5" s="63"/>
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="16" t="s">
+      <c r="AE5" s="120"/>
+      <c r="AF5" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="16"/>
-      <c r="AJ5" s="16"/>
-      <c r="AK5" s="16"/>
-      <c r="AL5" s="16"/>
-      <c r="AM5" s="16"/>
-      <c r="AN5" s="17"/>
-      <c r="AP5" s="10"/>
-      <c r="AS5" s="4" t="s">
+      <c r="AG5" s="123"/>
+      <c r="AH5" s="123"/>
+      <c r="AI5" s="123"/>
+      <c r="AJ5" s="123"/>
+      <c r="AK5" s="123"/>
+      <c r="AL5" s="123"/>
+      <c r="AM5" s="123"/>
+      <c r="AN5" s="124"/>
+      <c r="AP5" s="3"/>
+      <c r="AS5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AT5" s="19">
+      <c r="AT5" s="4">
         <v>5</v>
       </c>
-      <c r="AU5" s="19">
+      <c r="AU5" s="4">
         <v>3</v>
       </c>
-      <c r="AV5" s="19">
+      <c r="AV5" s="4">
         <v>6</v>
       </c>
-      <c r="AW5" s="19">
+      <c r="AW5" s="4">
         <v>2</v>
       </c>
-      <c r="AX5" s="19">
+      <c r="AX5" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="9"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="26"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="25"/>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="25"/>
-      <c r="AI6" s="25"/>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="25"/>
-      <c r="AL6" s="25"/>
-      <c r="AM6" s="25"/>
-      <c r="AN6" s="26"/>
-      <c r="AP6" s="10"/>
-      <c r="AS6" s="4" t="s">
+      <c r="B6" s="2"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="73"/>
+      <c r="X6" s="135"/>
+      <c r="Y6" s="136"/>
+      <c r="Z6" s="136"/>
+      <c r="AA6" s="136"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="121"/>
+      <c r="AE6" s="121"/>
+      <c r="AF6" s="72"/>
+      <c r="AG6" s="72"/>
+      <c r="AH6" s="72"/>
+      <c r="AI6" s="72"/>
+      <c r="AJ6" s="72"/>
+      <c r="AK6" s="72"/>
+      <c r="AL6" s="72"/>
+      <c r="AM6" s="72"/>
+      <c r="AN6" s="73"/>
+      <c r="AP6" s="3"/>
+      <c r="AS6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AT6" s="19">
+      <c r="AT6" s="4">
         <v>7</v>
       </c>
-      <c r="AU6" s="19">
+      <c r="AU6" s="4">
         <v>1</v>
       </c>
-      <c r="AV6" s="19">
+      <c r="AV6" s="4">
         <v>1.6666666666666667</v>
       </c>
-      <c r="AW6" s="19">
+      <c r="AW6" s="4">
         <v>1.3333333333333333</v>
       </c>
-      <c r="AX6" s="19">
+      <c r="AX6" s="4">
         <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="9"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="34"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="33"/>
-      <c r="AG7" s="33"/>
-      <c r="AH7" s="33"/>
-      <c r="AI7" s="33"/>
-      <c r="AJ7" s="33"/>
-      <c r="AK7" s="33"/>
-      <c r="AL7" s="33"/>
-      <c r="AM7" s="33"/>
-      <c r="AN7" s="34"/>
-      <c r="AP7" s="10"/>
+      <c r="B7" s="2"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="76"/>
+      <c r="X7" s="137"/>
+      <c r="Y7" s="138"/>
+      <c r="Z7" s="138"/>
+      <c r="AA7" s="138"/>
+      <c r="AB7" s="67"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="122"/>
+      <c r="AE7" s="122"/>
+      <c r="AF7" s="75"/>
+      <c r="AG7" s="75"/>
+      <c r="AH7" s="75"/>
+      <c r="AI7" s="75"/>
+      <c r="AJ7" s="75"/>
+      <c r="AK7" s="75"/>
+      <c r="AL7" s="75"/>
+      <c r="AM7" s="75"/>
+      <c r="AN7" s="76"/>
+      <c r="AP7" s="3"/>
     </row>
     <row r="8" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="9"/>
-      <c r="AP8" s="10"/>
+      <c r="B8" s="2"/>
+      <c r="AP8" s="3"/>
     </row>
     <row r="9" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B9" s="9"/>
-      <c r="C9" s="36" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="38"/>
-      <c r="W9" s="39" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="6"/>
+      <c r="W9" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="40"/>
-      <c r="AH9" s="40"/>
-      <c r="AI9" s="40"/>
-      <c r="AJ9" s="40"/>
-      <c r="AK9" s="40"/>
-      <c r="AL9" s="40"/>
-      <c r="AM9" s="40"/>
-      <c r="AN9" s="40"/>
-      <c r="AO9" s="41"/>
-      <c r="AP9" s="10"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="3"/>
     </row>
     <row r="10" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="12" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="44" t="s">
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="45"/>
-      <c r="M10" s="11" t="s">
+      <c r="K10" s="132"/>
+      <c r="M10" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="46">
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="83">
         <v>0.46666666666666667</v>
       </c>
-      <c r="T10" s="47"/>
-      <c r="U10" s="48"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="50" t="s">
+      <c r="T10" s="84"/>
+      <c r="U10" s="9"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="51">
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="92">
         <v>156</v>
       </c>
-      <c r="AE10" s="52"/>
-      <c r="AG10" s="11" t="s">
+      <c r="AE10" s="93"/>
+      <c r="AG10" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="AH10" s="43"/>
-      <c r="AI10" s="43"/>
-      <c r="AJ10" s="43"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="14"/>
-      <c r="AM10" s="53">
+      <c r="AH10" s="60"/>
+      <c r="AI10" s="60"/>
+      <c r="AJ10" s="60"/>
+      <c r="AK10" s="63"/>
+      <c r="AL10" s="64"/>
+      <c r="AM10" s="115">
         <v>3</v>
       </c>
-      <c r="AN10" s="54"/>
-      <c r="AO10" s="55"/>
-      <c r="AP10" s="10"/>
+      <c r="AN10" s="116"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="3"/>
     </row>
     <row r="11" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="9"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="58"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="48"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="62"/>
-      <c r="AE11" s="63"/>
-      <c r="AG11" s="59"/>
-      <c r="AH11" s="56"/>
-      <c r="AI11" s="56"/>
-      <c r="AJ11" s="56"/>
-      <c r="AK11" s="22"/>
-      <c r="AL11" s="23"/>
-      <c r="AM11" s="64"/>
-      <c r="AN11" s="65"/>
-      <c r="AO11" s="55"/>
-      <c r="AP11" s="10"/>
-      <c r="AS11" s="66" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="134"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="9"/>
+      <c r="W11" s="129"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="65"/>
+      <c r="AC11" s="66"/>
+      <c r="AD11" s="94"/>
+      <c r="AE11" s="95"/>
+      <c r="AG11" s="61"/>
+      <c r="AH11" s="62"/>
+      <c r="AI11" s="62"/>
+      <c r="AJ11" s="62"/>
+      <c r="AK11" s="65"/>
+      <c r="AL11" s="66"/>
+      <c r="AM11" s="117"/>
+      <c r="AN11" s="118"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="3"/>
+      <c r="AS11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AT11" s="67">
+      <c r="AT11" s="12">
         <v>0</v>
       </c>
-      <c r="AU11" s="67">
+      <c r="AU11" s="12">
         <v>3</v>
       </c>
-      <c r="AV11" s="67">
+      <c r="AV11" s="12">
         <v>9</v>
       </c>
-      <c r="AW11" s="67">
+      <c r="AW11" s="12">
         <v>2</v>
       </c>
-      <c r="AX11" s="67">
+      <c r="AX11" s="12">
         <v>6</v>
       </c>
-      <c r="AY11" s="67">
+      <c r="AY11" s="12">
         <v>4</v>
       </c>
-      <c r="AZ11" s="67">
+      <c r="AZ11" s="12">
         <v>5</v>
       </c>
-      <c r="BA11" s="67">
+      <c r="BA11" s="12">
         <v>2</v>
       </c>
-      <c r="BB11" s="67">
+      <c r="BB11" s="12">
         <v>13</v>
       </c>
-      <c r="BC11" s="67">
+      <c r="BC11" s="12">
         <v>9</v>
       </c>
-      <c r="BD11" s="67">
+      <c r="BD11" s="12">
         <v>0</v>
       </c>
-      <c r="BE11" s="67">
+      <c r="BE11" s="12">
         <v>5</v>
       </c>
-      <c r="BF11" s="67">
+      <c r="BF11" s="12">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="9"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="48"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="30"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="62"/>
-      <c r="AE12" s="63"/>
-      <c r="AG12" s="59"/>
-      <c r="AH12" s="56"/>
-      <c r="AI12" s="56"/>
-      <c r="AJ12" s="56"/>
-      <c r="AK12" s="30"/>
-      <c r="AL12" s="31"/>
-      <c r="AM12" s="64"/>
-      <c r="AN12" s="65"/>
-      <c r="AO12" s="55"/>
-      <c r="AP12" s="10"/>
-      <c r="AS12" s="66" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="134"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="85"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="9"/>
+      <c r="W12" s="129"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="67"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="94"/>
+      <c r="AE12" s="95"/>
+      <c r="AG12" s="61"/>
+      <c r="AH12" s="62"/>
+      <c r="AI12" s="62"/>
+      <c r="AJ12" s="62"/>
+      <c r="AK12" s="67"/>
+      <c r="AL12" s="68"/>
+      <c r="AM12" s="117"/>
+      <c r="AN12" s="118"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="3"/>
+      <c r="AS12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AT12" s="67">
+      <c r="AT12" s="12">
         <v>1</v>
       </c>
-      <c r="AU12" s="67">
+      <c r="AU12" s="12">
         <v>1</v>
       </c>
-      <c r="AV12" s="67">
+      <c r="AV12" s="12">
         <v>3</v>
       </c>
-      <c r="AW12" s="67">
+      <c r="AW12" s="12">
         <v>1</v>
       </c>
-      <c r="AX12" s="67">
+      <c r="AX12" s="12">
         <v>1</v>
       </c>
-      <c r="AY12" s="67">
+      <c r="AY12" s="12">
         <v>2</v>
       </c>
-      <c r="AZ12" s="67">
+      <c r="AZ12" s="12">
         <v>3</v>
       </c>
-      <c r="BA12" s="67">
+      <c r="BA12" s="12">
         <v>1</v>
       </c>
-      <c r="BB12" s="67">
+      <c r="BB12" s="12">
         <v>2</v>
       </c>
-      <c r="BC12" s="67">
+      <c r="BC12" s="12">
         <v>0</v>
       </c>
-      <c r="BD12" s="67">
+      <c r="BD12" s="12">
         <v>0</v>
       </c>
-      <c r="BE12" s="67">
+      <c r="BE12" s="12">
         <v>3</v>
       </c>
-      <c r="BF12" s="67">
+      <c r="BF12" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B13" s="9"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="25" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26"/>
-      <c r="M13" s="68" t="s">
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="73"/>
+      <c r="M13" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="48"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="68" t="s">
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="9"/>
+      <c r="W13" s="129"/>
+      <c r="X13" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="25"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="26"/>
-      <c r="AG13" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH13" s="25"/>
-      <c r="AI13" s="25"/>
-      <c r="AJ13" s="25"/>
-      <c r="AK13" s="25"/>
-      <c r="AL13" s="25"/>
-      <c r="AM13" s="25"/>
-      <c r="AN13" s="26"/>
-      <c r="AO13" s="55"/>
-      <c r="AP13" s="10"/>
-      <c r="AS13" s="66" t="s">
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="72"/>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="73"/>
+      <c r="AG13" s="71" t="str">
+        <f>"Number of code deployments in the previous calendar month ("&amp;TEXT(BE16,"mmm")&amp;")"</f>
+        <v>Number of code deployments in the previous calendar month (May)</v>
+      </c>
+      <c r="AH13" s="72"/>
+      <c r="AI13" s="72"/>
+      <c r="AJ13" s="72"/>
+      <c r="AK13" s="72"/>
+      <c r="AL13" s="72"/>
+      <c r="AM13" s="72"/>
+      <c r="AN13" s="73"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="3"/>
+      <c r="AS13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AT13" s="67">
+      <c r="AT13" s="12">
         <v>0</v>
       </c>
-      <c r="AU13" s="67">
+      <c r="AU13" s="12">
         <v>0</v>
       </c>
-      <c r="AV13" s="67">
+      <c r="AV13" s="12">
         <v>2</v>
       </c>
-      <c r="AW13" s="67">
+      <c r="AW13" s="12">
         <v>1</v>
       </c>
-      <c r="AX13" s="67">
+      <c r="AX13" s="12">
         <v>0</v>
       </c>
-      <c r="AY13" s="67">
+      <c r="AY13" s="12">
         <v>0</v>
       </c>
-      <c r="AZ13" s="67">
+      <c r="AZ13" s="12">
         <v>3</v>
       </c>
-      <c r="BA13" s="67">
+      <c r="BA13" s="12">
         <v>0</v>
       </c>
-      <c r="BB13" s="67">
+      <c r="BB13" s="12">
         <v>2</v>
       </c>
-      <c r="BC13" s="67">
+      <c r="BC13" s="12">
         <v>5</v>
       </c>
-      <c r="BD13" s="67">
+      <c r="BD13" s="12">
         <v>0</v>
       </c>
-      <c r="BE13" s="67">
+      <c r="BE13" s="12">
         <v>6</v>
       </c>
-      <c r="BF13" s="67">
+      <c r="BF13" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B14" s="9"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="48"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="34"/>
-      <c r="AG14" s="69"/>
-      <c r="AH14" s="33"/>
-      <c r="AI14" s="33"/>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="33"/>
-      <c r="AL14" s="33"/>
-      <c r="AM14" s="33"/>
-      <c r="AN14" s="34"/>
-      <c r="AO14" s="55"/>
-      <c r="AP14" s="10"/>
-      <c r="AS14" s="66" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="76"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="9"/>
+      <c r="W14" s="129"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="76"/>
+      <c r="AG14" s="74"/>
+      <c r="AH14" s="75"/>
+      <c r="AI14" s="75"/>
+      <c r="AJ14" s="75"/>
+      <c r="AK14" s="75"/>
+      <c r="AL14" s="75"/>
+      <c r="AM14" s="75"/>
+      <c r="AN14" s="76"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="3"/>
+      <c r="AS14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AT14" s="67">
+      <c r="AT14" s="12">
         <v>0</v>
       </c>
-      <c r="AU14" s="67">
+      <c r="AU14" s="12">
         <v>0</v>
       </c>
-      <c r="AV14" s="67">
+      <c r="AV14" s="12">
         <v>0</v>
       </c>
-      <c r="AW14" s="67">
+      <c r="AW14" s="12">
         <v>1</v>
       </c>
-      <c r="AX14" s="67">
+      <c r="AX14" s="12">
         <v>1</v>
       </c>
-      <c r="AY14" s="67">
+      <c r="AY14" s="12">
         <v>0</v>
       </c>
-      <c r="AZ14" s="67">
+      <c r="AZ14" s="12">
         <v>2</v>
       </c>
-      <c r="BA14" s="67">
+      <c r="BA14" s="12">
         <v>1</v>
       </c>
-      <c r="BB14" s="67">
+      <c r="BB14" s="12">
         <v>1</v>
       </c>
-      <c r="BC14" s="67">
+      <c r="BC14" s="12">
         <v>1</v>
       </c>
-      <c r="BD14" s="67">
+      <c r="BD14" s="12">
         <v>0</v>
       </c>
-      <c r="BE14" s="67">
+      <c r="BE14" s="12">
         <v>2</v>
       </c>
-      <c r="BF14" s="67">
+      <c r="BF14" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B15" s="9"/>
-      <c r="C15" s="42"/>
-      <c r="U15" s="48"/>
-      <c r="W15" s="49"/>
-      <c r="AO15" s="55"/>
-      <c r="AP15" s="10"/>
-      <c r="AS15" s="66" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="126"/>
+      <c r="U15" s="9"/>
+      <c r="W15" s="129"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="3"/>
+      <c r="AS15" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="AT15" s="67">
+      <c r="AT15" s="12">
         <v>0</v>
       </c>
-      <c r="AU15" s="67">
+      <c r="AU15" s="12">
         <v>0</v>
       </c>
-      <c r="AV15" s="67">
+      <c r="AV15" s="12">
         <v>2</v>
       </c>
-      <c r="AW15" s="67">
+      <c r="AW15" s="12">
         <v>1</v>
       </c>
-      <c r="AX15" s="67">
+      <c r="AX15" s="12">
         <v>0</v>
       </c>
-      <c r="AY15" s="67">
+      <c r="AY15" s="12">
         <v>0</v>
       </c>
-      <c r="AZ15" s="67">
+      <c r="AZ15" s="12">
         <v>2</v>
       </c>
-      <c r="BA15" s="67">
+      <c r="BA15" s="12">
         <v>1</v>
       </c>
-      <c r="BB15" s="67">
+      <c r="BB15" s="12">
         <v>1</v>
       </c>
-      <c r="BC15" s="67">
+      <c r="BC15" s="12">
         <v>0</v>
       </c>
-      <c r="BD15" s="67">
+      <c r="BD15" s="12">
         <v>0</v>
       </c>
-      <c r="BE15" s="67">
+      <c r="BE15" s="12">
         <v>5</v>
       </c>
-      <c r="BF15" s="67">
+      <c r="BF15" s="12">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="9"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="12" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="119" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="83">
+        <v>0.60897012673056483</v>
+      </c>
+      <c r="K16" s="84"/>
+      <c r="M16" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="46">
-        <v>0.60897012673056483</v>
-      </c>
-      <c r="K16" s="47"/>
-      <c r="M16" s="11" t="s">
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="83">
+        <v>0.51899473632415571</v>
+      </c>
+      <c r="T16" s="84"/>
+      <c r="U16" s="9"/>
+      <c r="W16" s="129"/>
+      <c r="X16" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="46">
-        <v>0.51899473632415571</v>
-      </c>
-      <c r="T16" s="47"/>
-      <c r="U16" s="48"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="50" t="s">
+      <c r="Y16" s="60"/>
+      <c r="Z16" s="60"/>
+      <c r="AA16" s="60"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="64"/>
+      <c r="AD16" s="92">
+        <v>73</v>
+      </c>
+      <c r="AE16" s="93"/>
+      <c r="AG16" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="51">
-        <v>73</v>
-      </c>
-      <c r="AE16" s="52"/>
-      <c r="AG16" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH16" s="43"/>
-      <c r="AI16" s="43"/>
-      <c r="AJ16" s="43"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="14"/>
-      <c r="AM16" s="53">
+      <c r="AH16" s="60"/>
+      <c r="AI16" s="60"/>
+      <c r="AJ16" s="60"/>
+      <c r="AK16" s="63"/>
+      <c r="AL16" s="64"/>
+      <c r="AM16" s="115">
         <f>BB33</f>
         <v>7</v>
       </c>
-      <c r="AN16" s="54"/>
-      <c r="AO16" s="55"/>
-      <c r="AP16" s="10"/>
-      <c r="AS16" s="66"/>
-      <c r="AT16" s="70">
+      <c r="AN16" s="116"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="3"/>
+      <c r="AS16" s="11"/>
+      <c r="AT16" s="114">
         <v>43646</v>
       </c>
-      <c r="AU16" s="70">
+      <c r="AU16" s="114">
         <v>43677</v>
       </c>
-      <c r="AV16" s="70">
+      <c r="AV16" s="114">
         <v>43708</v>
       </c>
-      <c r="AW16" s="70">
+      <c r="AW16" s="114">
         <v>43738</v>
       </c>
-      <c r="AX16" s="70">
+      <c r="AX16" s="114">
         <v>43769</v>
       </c>
-      <c r="AY16" s="70">
+      <c r="AY16" s="114">
         <v>43799</v>
       </c>
-      <c r="AZ16" s="70">
+      <c r="AZ16" s="114">
         <v>43830</v>
       </c>
-      <c r="BA16" s="70">
+      <c r="BA16" s="114">
         <v>43861</v>
       </c>
-      <c r="BB16" s="70">
+      <c r="BB16" s="114">
         <v>43890</v>
       </c>
-      <c r="BC16" s="70">
+      <c r="BC16" s="114">
         <v>43921</v>
       </c>
-      <c r="BD16" s="70">
+      <c r="BD16" s="114">
         <v>43951</v>
       </c>
-      <c r="BE16" s="70">
+      <c r="BE16" s="114">
         <v>43982</v>
       </c>
-      <c r="BF16" s="5" t="s">
-        <v>28</v>
+      <c r="BF16" s="100" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="9"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="61"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="48"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="62"/>
-      <c r="AE17" s="63"/>
-      <c r="AG17" s="59"/>
-      <c r="AH17" s="56"/>
-      <c r="AI17" s="56"/>
-      <c r="AJ17" s="56"/>
-      <c r="AK17" s="22"/>
-      <c r="AL17" s="23"/>
-      <c r="AM17" s="64"/>
-      <c r="AN17" s="65"/>
-      <c r="AO17" s="55"/>
-      <c r="AP17" s="10"/>
-      <c r="AS17" s="71"/>
-      <c r="AT17" s="70"/>
-      <c r="AU17" s="70"/>
-      <c r="AV17" s="70"/>
-      <c r="AW17" s="70"/>
-      <c r="AX17" s="70"/>
-      <c r="AY17" s="70"/>
-      <c r="AZ17" s="70"/>
-      <c r="BA17" s="70"/>
-      <c r="BB17" s="70"/>
-      <c r="BC17" s="70"/>
-      <c r="BD17" s="70"/>
-      <c r="BE17" s="70"/>
-      <c r="BF17" s="5"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="86"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="9"/>
+      <c r="W17" s="129"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="62"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="66"/>
+      <c r="AD17" s="94"/>
+      <c r="AE17" s="95"/>
+      <c r="AG17" s="61"/>
+      <c r="AH17" s="62"/>
+      <c r="AI17" s="62"/>
+      <c r="AJ17" s="62"/>
+      <c r="AK17" s="65"/>
+      <c r="AL17" s="66"/>
+      <c r="AM17" s="117"/>
+      <c r="AN17" s="118"/>
+      <c r="AO17" s="10"/>
+      <c r="AP17" s="3"/>
+      <c r="AS17" s="13"/>
+      <c r="AT17" s="114"/>
+      <c r="AU17" s="114"/>
+      <c r="AV17" s="114"/>
+      <c r="AW17" s="114"/>
+      <c r="AX17" s="114"/>
+      <c r="AY17" s="114"/>
+      <c r="AZ17" s="114"/>
+      <c r="BA17" s="114"/>
+      <c r="BB17" s="114"/>
+      <c r="BC17" s="114"/>
+      <c r="BD17" s="114"/>
+      <c r="BE17" s="114"/>
+      <c r="BF17" s="100"/>
     </row>
     <row r="18" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="9"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="61"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="61"/>
-      <c r="U18" s="48"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="56"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="62"/>
-      <c r="AE18" s="63"/>
-      <c r="AG18" s="59"/>
-      <c r="AH18" s="56"/>
-      <c r="AI18" s="56"/>
-      <c r="AJ18" s="56"/>
-      <c r="AK18" s="30"/>
-      <c r="AL18" s="31"/>
-      <c r="AM18" s="64"/>
-      <c r="AN18" s="65"/>
-      <c r="AO18" s="55"/>
-      <c r="AP18" s="10"/>
-      <c r="AS18" s="71"/>
-      <c r="AT18" s="70"/>
-      <c r="AU18" s="70"/>
-      <c r="AV18" s="70"/>
-      <c r="AW18" s="70"/>
-      <c r="AX18" s="70"/>
-      <c r="AY18" s="70"/>
-      <c r="AZ18" s="70"/>
-      <c r="BA18" s="70"/>
-      <c r="BB18" s="70"/>
-      <c r="BC18" s="70"/>
-      <c r="BD18" s="70"/>
-      <c r="BE18" s="70"/>
-      <c r="BF18" s="5"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="86"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="85"/>
+      <c r="T18" s="86"/>
+      <c r="U18" s="9"/>
+      <c r="W18" s="129"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="67"/>
+      <c r="AC18" s="68"/>
+      <c r="AD18" s="94"/>
+      <c r="AE18" s="95"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="62"/>
+      <c r="AI18" s="62"/>
+      <c r="AJ18" s="62"/>
+      <c r="AK18" s="67"/>
+      <c r="AL18" s="68"/>
+      <c r="AM18" s="117"/>
+      <c r="AN18" s="118"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="3"/>
+      <c r="AS18" s="13"/>
+      <c r="AT18" s="114"/>
+      <c r="AU18" s="114"/>
+      <c r="AV18" s="114"/>
+      <c r="AW18" s="114"/>
+      <c r="AX18" s="114"/>
+      <c r="AY18" s="114"/>
+      <c r="AZ18" s="114"/>
+      <c r="BA18" s="114"/>
+      <c r="BB18" s="114"/>
+      <c r="BC18" s="114"/>
+      <c r="BD18" s="114"/>
+      <c r="BE18" s="114"/>
+      <c r="BF18" s="100"/>
     </row>
     <row r="19" spans="2:60" x14ac:dyDescent="0.2">
-      <c r="B19" s="9"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="25" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="73"/>
+      <c r="M19" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="26"/>
-      <c r="M19" s="68" t="s">
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="72"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="9"/>
+      <c r="W19" s="129"/>
+      <c r="X19" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="48"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="68" t="s">
+      <c r="Y19" s="72"/>
+      <c r="Z19" s="72"/>
+      <c r="AA19" s="72"/>
+      <c r="AB19" s="72"/>
+      <c r="AC19" s="72"/>
+      <c r="AD19" s="72"/>
+      <c r="AE19" s="73"/>
+      <c r="AG19" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="26"/>
-      <c r="AG19" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH19" s="25"/>
-      <c r="AI19" s="25"/>
-      <c r="AJ19" s="25"/>
-      <c r="AK19" s="25"/>
-      <c r="AL19" s="25"/>
-      <c r="AM19" s="25"/>
-      <c r="AN19" s="26"/>
-      <c r="AO19" s="55"/>
-      <c r="AP19" s="10"/>
+      <c r="AH19" s="72"/>
+      <c r="AI19" s="72"/>
+      <c r="AJ19" s="72"/>
+      <c r="AK19" s="72"/>
+      <c r="AL19" s="72"/>
+      <c r="AM19" s="72"/>
+      <c r="AN19" s="73"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="3"/>
     </row>
     <row r="20" spans="2:60" x14ac:dyDescent="0.2">
-      <c r="B20" s="9"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="48"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="69"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="33"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="34"/>
-      <c r="AG20" s="69"/>
-      <c r="AH20" s="33"/>
-      <c r="AI20" s="33"/>
-      <c r="AJ20" s="33"/>
-      <c r="AK20" s="33"/>
-      <c r="AL20" s="33"/>
-      <c r="AM20" s="33"/>
-      <c r="AN20" s="34"/>
-      <c r="AO20" s="55"/>
-      <c r="AP20" s="10"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="76"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="9"/>
+      <c r="W20" s="129"/>
+      <c r="X20" s="74"/>
+      <c r="Y20" s="75"/>
+      <c r="Z20" s="75"/>
+      <c r="AA20" s="75"/>
+      <c r="AB20" s="75"/>
+      <c r="AC20" s="75"/>
+      <c r="AD20" s="75"/>
+      <c r="AE20" s="76"/>
+      <c r="AG20" s="74"/>
+      <c r="AH20" s="75"/>
+      <c r="AI20" s="75"/>
+      <c r="AJ20" s="75"/>
+      <c r="AK20" s="75"/>
+      <c r="AL20" s="75"/>
+      <c r="AM20" s="75"/>
+      <c r="AN20" s="76"/>
+      <c r="AO20" s="10"/>
+      <c r="AP20" s="3"/>
     </row>
     <row r="21" spans="2:60" x14ac:dyDescent="0.2">
-      <c r="B21" s="9"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="74"/>
-      <c r="S21" s="74"/>
-      <c r="T21" s="74"/>
-      <c r="U21" s="75"/>
-      <c r="W21" s="76"/>
-      <c r="X21" s="77"/>
-      <c r="Y21" s="77"/>
-      <c r="Z21" s="77"/>
-      <c r="AA21" s="77"/>
-      <c r="AB21" s="77"/>
-      <c r="AC21" s="77"/>
-      <c r="AD21" s="77"/>
-      <c r="AE21" s="77"/>
-      <c r="AF21" s="77"/>
-      <c r="AG21" s="77"/>
-      <c r="AH21" s="77"/>
-      <c r="AI21" s="77"/>
-      <c r="AJ21" s="77"/>
-      <c r="AK21" s="77"/>
-      <c r="AL21" s="77"/>
-      <c r="AM21" s="77"/>
-      <c r="AN21" s="77"/>
-      <c r="AO21" s="78"/>
-      <c r="AP21" s="10"/>
-      <c r="AW21" s="79" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="16"/>
+      <c r="W21" s="130"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="17"/>
+      <c r="AO21" s="18"/>
+      <c r="AP21" s="3"/>
+      <c r="AW21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX21" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AX21" s="79" t="s">
+      <c r="AY21" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AY21" s="79" t="s">
+      <c r="AZ21" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AZ21" s="79" t="s">
+      <c r="BA21" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="BA21" s="79" t="s">
+      <c r="BB21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="BB21" s="79" t="s">
+      <c r="BD21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="BD21" s="4" t="s">
+      <c r="BE21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="BE21" s="4" t="s">
+      <c r="BF21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="BF21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="BG21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="BH21" s="4" t="s">
+      <c r="BG21" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="BH21" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="9"/>
+      <c r="B22" s="2"/>
       <c r="C22"/>
-      <c r="AF22" s="80"/>
-      <c r="AG22" s="80"/>
-      <c r="AH22" s="80"/>
-      <c r="AI22" s="80"/>
-      <c r="AJ22" s="80"/>
-      <c r="AK22" s="80"/>
-      <c r="AL22" s="80"/>
-      <c r="AM22" s="80"/>
-      <c r="AN22" s="80"/>
-      <c r="AO22" s="80"/>
-      <c r="AP22" s="10"/>
-      <c r="AS22" s="4" t="s">
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="20"/>
+      <c r="AL22" s="20"/>
+      <c r="AM22" s="20"/>
+      <c r="AN22" s="20"/>
+      <c r="AO22" s="20"/>
+      <c r="AP22" s="3"/>
+      <c r="AS22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AW22" s="81">
+      <c r="AW22" s="21">
         <v>0.2</v>
       </c>
-      <c r="AX22" s="81">
+      <c r="AX22" s="21">
         <v>0.92500000000000004</v>
       </c>
-      <c r="AY22" s="81">
+      <c r="AY22" s="21">
         <v>0.75</v>
       </c>
-      <c r="AZ22" s="81">
+      <c r="AZ22" s="21">
         <v>1</v>
       </c>
-      <c r="BA22" s="81">
+      <c r="BA22" s="21">
         <v>0.88</v>
       </c>
-      <c r="BB22" s="81">
+      <c r="BB22" s="21">
         <v>0.88</v>
       </c>
-      <c r="BD22" s="4" t="s">
+      <c r="BD22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BE22" s="4" t="s">
+      <c r="BF22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BF22" s="4" t="s">
+      <c r="BG22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BG22" s="4" t="s">
+      <c r="BH22" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="BH22" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="23" spans="2:60" x14ac:dyDescent="0.2">
-      <c r="B23" s="9"/>
-      <c r="C23" s="82" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="83"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="83"/>
-      <c r="S23" s="83"/>
-      <c r="T23" s="83"/>
-      <c r="U23" s="83"/>
-      <c r="V23" s="83"/>
-      <c r="W23" s="83"/>
-      <c r="X23" s="83"/>
-      <c r="Y23" s="83"/>
-      <c r="Z23" s="83"/>
-      <c r="AA23" s="83"/>
-      <c r="AB23" s="83"/>
-      <c r="AC23" s="83"/>
-      <c r="AD23" s="84"/>
-      <c r="AE23" s="85"/>
-      <c r="AF23" s="86" t="s">
+      <c r="AO23" s="25"/>
+      <c r="AP23" s="3"/>
+      <c r="AS23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW23" s="1">
+        <v>302400</v>
+      </c>
+      <c r="AX23" s="1">
+        <v>504000</v>
+      </c>
+      <c r="AY23" s="1">
+        <v>376200</v>
+      </c>
+      <c r="AZ23" s="1">
+        <v>347400</v>
+      </c>
+      <c r="BA23" s="1">
+        <v>601200</v>
+      </c>
+      <c r="BB23" s="1">
+        <v>601200</v>
+      </c>
+      <c r="BD23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AO23" s="87"/>
-      <c r="AP23" s="10"/>
-      <c r="AS23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AW23" s="4">
-        <v>302400</v>
-      </c>
-      <c r="AX23" s="4">
-        <v>504000</v>
-      </c>
-      <c r="AY23" s="4">
-        <v>376200</v>
-      </c>
-      <c r="AZ23" s="4">
-        <v>347400</v>
-      </c>
-      <c r="BA23" s="4">
-        <v>601200</v>
-      </c>
-      <c r="BB23" s="4">
-        <v>601200</v>
-      </c>
-      <c r="BD23" s="4" t="s">
+      <c r="BE23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BE23" s="4" t="s">
+      <c r="BF23" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="BF23" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="24" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="9"/>
-      <c r="C24" s="88"/>
-      <c r="O24" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="90"/>
-      <c r="S24" s="91" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="102"/>
+      <c r="O24" s="106" t="str">
+        <f>"Release Velocity "&amp;CHAR(10)&amp;TEXT(AS4,"dd-mmm")</f>
+        <v>Release Velocity 
+10-Jun</v>
+      </c>
+      <c r="P24" s="107"/>
+      <c r="Q24" s="107"/>
+      <c r="R24" s="107"/>
+      <c r="S24" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="T24" s="92"/>
-      <c r="V24" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="W24" s="43"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="43"/>
-      <c r="Z24" s="93"/>
-      <c r="AA24" s="94"/>
-      <c r="AB24" s="95">
+      <c r="T24" s="27"/>
+      <c r="V24" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="W24" s="60"/>
+      <c r="X24" s="60"/>
+      <c r="Y24" s="60"/>
+      <c r="Z24" s="110"/>
+      <c r="AA24" s="111"/>
+      <c r="AB24" s="87">
         <f>BB35</f>
         <v>1.3620751316435028E-2</v>
       </c>
-      <c r="AC24" s="96"/>
-      <c r="AD24" s="97"/>
-      <c r="AE24" s="85"/>
-      <c r="AF24" s="86"/>
-      <c r="AG24" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH24" s="43"/>
-      <c r="AI24" s="43"/>
-      <c r="AJ24" s="43"/>
-      <c r="AK24" s="13"/>
-      <c r="AL24" s="14"/>
-      <c r="AM24" s="51">
+      <c r="AC24" s="88"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="104"/>
+      <c r="AG24" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH24" s="60"/>
+      <c r="AI24" s="60"/>
+      <c r="AJ24" s="60"/>
+      <c r="AK24" s="63"/>
+      <c r="AL24" s="64"/>
+      <c r="AM24" s="92">
         <f>BB37</f>
         <v>137.6</v>
       </c>
-      <c r="AN24" s="52"/>
-      <c r="AO24" s="85"/>
-      <c r="AP24" s="10"/>
+      <c r="AN24" s="93"/>
+      <c r="AO24" s="24"/>
+      <c r="AP24" s="3"/>
     </row>
     <row r="25" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="9"/>
-      <c r="C25" s="88"/>
-      <c r="O25" s="98"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="99"/>
-      <c r="S25" s="100" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="102"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="109"/>
+      <c r="Q25" s="109"/>
+      <c r="R25" s="109"/>
+      <c r="S25" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="T25" s="101"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="102"/>
-      <c r="AA25" s="103"/>
-      <c r="AB25" s="104"/>
-      <c r="AC25" s="105"/>
-      <c r="AD25" s="97"/>
-      <c r="AE25" s="85"/>
-      <c r="AF25" s="86"/>
-      <c r="AG25" s="59"/>
-      <c r="AH25" s="56"/>
-      <c r="AI25" s="56"/>
-      <c r="AJ25" s="56"/>
-      <c r="AK25" s="22"/>
-      <c r="AL25" s="23"/>
-      <c r="AM25" s="62"/>
-      <c r="AN25" s="63"/>
-      <c r="AO25" s="85"/>
-      <c r="AP25" s="10"/>
-      <c r="AS25" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW25" s="67">
+      <c r="T25" s="30"/>
+      <c r="V25" s="61"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="112"/>
+      <c r="AA25" s="113"/>
+      <c r="AB25" s="89"/>
+      <c r="AC25" s="90"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="24"/>
+      <c r="AF25" s="104"/>
+      <c r="AG25" s="61"/>
+      <c r="AH25" s="62"/>
+      <c r="AI25" s="62"/>
+      <c r="AJ25" s="62"/>
+      <c r="AK25" s="65"/>
+      <c r="AL25" s="66"/>
+      <c r="AM25" s="94"/>
+      <c r="AN25" s="95"/>
+      <c r="AO25" s="24"/>
+      <c r="AP25" s="3"/>
+      <c r="AS25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW25" s="12">
         <v>32.46987951807229</v>
       </c>
-      <c r="AX25" s="67">
+      <c r="AX25" s="12">
         <v>39.769230769230766</v>
       </c>
-      <c r="AY25" s="67">
+      <c r="AY25" s="12">
         <v>27.166666666666668</v>
       </c>
-      <c r="AZ25" s="67">
+      <c r="AZ25" s="12">
         <v>14</v>
       </c>
-      <c r="BA25" s="67">
+      <c r="BA25" s="12">
         <v>17</v>
       </c>
-      <c r="BB25" s="67">
+      <c r="BB25" s="12">
         <v>20</v>
       </c>
-      <c r="BD25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF25" s="4" t="s">
-        <v>56</v>
+      <c r="BD25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF25" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="9"/>
-      <c r="C26" s="88"/>
-      <c r="O26" s="98"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="99"/>
-      <c r="S26" s="100" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="102"/>
+      <c r="O26" s="108"/>
+      <c r="P26" s="109"/>
+      <c r="Q26" s="109"/>
+      <c r="R26" s="109"/>
+      <c r="S26" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="T26" s="101"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="102"/>
-      <c r="AA26" s="103"/>
-      <c r="AB26" s="104"/>
-      <c r="AC26" s="105"/>
-      <c r="AD26" s="97"/>
-      <c r="AE26" s="85"/>
-      <c r="AF26" s="86"/>
-      <c r="AG26" s="59"/>
-      <c r="AH26" s="56"/>
-      <c r="AI26" s="56"/>
-      <c r="AJ26" s="56"/>
-      <c r="AK26" s="30"/>
-      <c r="AL26" s="31"/>
-      <c r="AM26" s="62"/>
-      <c r="AN26" s="63"/>
-      <c r="AO26" s="85"/>
-      <c r="AP26" s="10"/>
-      <c r="AS26" s="4" t="s">
+      <c r="T26" s="30"/>
+      <c r="V26" s="61"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="112"/>
+      <c r="AA26" s="113"/>
+      <c r="AB26" s="89"/>
+      <c r="AC26" s="90"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="24"/>
+      <c r="AF26" s="104"/>
+      <c r="AG26" s="61"/>
+      <c r="AH26" s="62"/>
+      <c r="AI26" s="62"/>
+      <c r="AJ26" s="62"/>
+      <c r="AK26" s="67"/>
+      <c r="AL26" s="68"/>
+      <c r="AM26" s="94"/>
+      <c r="AN26" s="95"/>
+      <c r="AO26" s="24"/>
+      <c r="AP26" s="3"/>
+      <c r="AS26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW26" s="21">
+        <v>5.1724137931034482E-2</v>
+      </c>
+      <c r="AX26" s="21">
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="AY26" s="21">
+        <v>0.64150943396226412</v>
+      </c>
+      <c r="AZ26" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA26" s="21">
+        <v>0.83783783783783783</v>
+      </c>
+      <c r="BB26" s="21">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="BD26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BH26" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="AW26" s="81">
-        <v>5.1724137931034482E-2</v>
-      </c>
-      <c r="AX26" s="81">
-        <v>0.26315789473684209</v>
-      </c>
-      <c r="AY26" s="81">
-        <v>0.64150943396226412</v>
-      </c>
-      <c r="AZ26" s="81">
-        <v>1</v>
-      </c>
-      <c r="BA26" s="81">
-        <v>0.83783783783783783</v>
-      </c>
-      <c r="BB26" s="81">
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="BD26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="BF26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="BG26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="BH26" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="27" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="9"/>
-      <c r="C27" s="88"/>
-      <c r="O27" s="106" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="102"/>
+      <c r="O27" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="97"/>
+      <c r="S27" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="30"/>
+      <c r="V27" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="W27" s="97"/>
+      <c r="X27" s="97"/>
+      <c r="Y27" s="97"/>
+      <c r="Z27" s="97"/>
+      <c r="AA27" s="97"/>
+      <c r="AB27" s="97"/>
+      <c r="AC27" s="97"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="24"/>
+      <c r="AF27" s="104"/>
+      <c r="AG27" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="P27" s="107"/>
-      <c r="Q27" s="107"/>
-      <c r="R27" s="107"/>
-      <c r="S27" s="100" t="s">
-        <v>3</v>
-      </c>
-      <c r="T27" s="101"/>
-      <c r="V27" s="106" t="s">
+      <c r="AH27" s="72"/>
+      <c r="AI27" s="72"/>
+      <c r="AJ27" s="72"/>
+      <c r="AK27" s="72"/>
+      <c r="AL27" s="72"/>
+      <c r="AM27" s="72"/>
+      <c r="AN27" s="73"/>
+      <c r="AO27" s="24"/>
+      <c r="AP27" s="3"/>
+      <c r="AS27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="W27" s="107"/>
-      <c r="X27" s="107"/>
-      <c r="Y27" s="107"/>
-      <c r="Z27" s="107"/>
-      <c r="AA27" s="107"/>
-      <c r="AB27" s="107"/>
-      <c r="AC27" s="107"/>
-      <c r="AD27" s="97"/>
-      <c r="AE27" s="85"/>
-      <c r="AF27" s="86"/>
-      <c r="AG27" s="68" t="s">
+      <c r="AW27" s="31">
+        <v>0.76029542340884804</v>
+      </c>
+      <c r="AX27" s="31">
+        <v>0.76029542340884804</v>
+      </c>
+      <c r="AY27" s="31">
+        <v>0.79120337968461985</v>
+      </c>
+      <c r="AZ27" s="31">
+        <v>0.84008886045782594</v>
+      </c>
+      <c r="BA27" s="31">
+        <v>1.3221664701611811</v>
+      </c>
+      <c r="BB27" s="31">
+        <v>0.60897012673056483</v>
+      </c>
+      <c r="BD27" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AH27" s="25"/>
-      <c r="AI27" s="25"/>
-      <c r="AJ27" s="25"/>
-      <c r="AK27" s="25"/>
-      <c r="AL27" s="25"/>
-      <c r="AM27" s="25"/>
-      <c r="AN27" s="26"/>
-      <c r="AO27" s="85"/>
-      <c r="AP27" s="10"/>
-      <c r="AS27" s="4" t="s">
+      <c r="BE27" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AW27" s="108">
-        <v>0.76029542340884804</v>
-      </c>
-      <c r="AX27" s="108">
-        <v>0.76029542340884804</v>
-      </c>
-      <c r="AY27" s="108">
-        <v>0.79120337968461985</v>
-      </c>
-      <c r="AZ27" s="108">
-        <v>0.84008886045782594</v>
-      </c>
-      <c r="BA27" s="108">
-        <v>1.3221664701611811</v>
-      </c>
-      <c r="BB27" s="108">
-        <v>0.60897012673056483</v>
-      </c>
-      <c r="BD27" s="4" t="s">
+      <c r="BF27" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="BE27" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="BF27" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="28" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="9"/>
-      <c r="C28" s="88"/>
-      <c r="O28" s="109"/>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="110"/>
-      <c r="R28" s="110"/>
-      <c r="S28" s="111" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="102"/>
+      <c r="O28" s="98"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="99"/>
+      <c r="R28" s="99"/>
+      <c r="S28" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="T28" s="112"/>
-      <c r="V28" s="106"/>
-      <c r="W28" s="107"/>
-      <c r="X28" s="107"/>
-      <c r="Y28" s="107"/>
-      <c r="Z28" s="107"/>
-      <c r="AA28" s="107"/>
-      <c r="AB28" s="107"/>
-      <c r="AC28" s="107"/>
-      <c r="AD28" s="97"/>
-      <c r="AE28" s="85"/>
-      <c r="AF28" s="86"/>
-      <c r="AG28" s="69"/>
-      <c r="AH28" s="33"/>
-      <c r="AI28" s="33"/>
-      <c r="AJ28" s="33"/>
-      <c r="AK28" s="33"/>
-      <c r="AL28" s="33"/>
-      <c r="AM28" s="33"/>
-      <c r="AN28" s="34"/>
-      <c r="AO28" s="85"/>
-      <c r="AP28" s="10"/>
-      <c r="AS28" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW28" s="81">
+      <c r="T28" s="33"/>
+      <c r="V28" s="96"/>
+      <c r="W28" s="97"/>
+      <c r="X28" s="97"/>
+      <c r="Y28" s="97"/>
+      <c r="Z28" s="97"/>
+      <c r="AA28" s="97"/>
+      <c r="AB28" s="97"/>
+      <c r="AC28" s="97"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="104"/>
+      <c r="AG28" s="74"/>
+      <c r="AH28" s="75"/>
+      <c r="AI28" s="75"/>
+      <c r="AJ28" s="75"/>
+      <c r="AK28" s="75"/>
+      <c r="AL28" s="75"/>
+      <c r="AM28" s="75"/>
+      <c r="AN28" s="76"/>
+      <c r="AO28" s="24"/>
+      <c r="AP28" s="3"/>
+      <c r="AS28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW28" s="21">
         <v>1.1791440964995212</v>
       </c>
-      <c r="AX28" s="81">
+      <c r="AX28" s="21">
         <v>1.0117651106127619</v>
       </c>
-      <c r="AY28" s="81">
+      <c r="AY28" s="21">
         <v>0.98287811183078511</v>
       </c>
-      <c r="AZ28" s="81">
+      <c r="AZ28" s="21">
         <v>0.72482845074783719</v>
       </c>
-      <c r="BA28" s="81">
+      <c r="BA28" s="21">
         <v>0.76394336665463713</v>
       </c>
-      <c r="BB28" s="81">
+      <c r="BB28" s="21">
         <v>0.51899473632415571</v>
       </c>
-      <c r="BD28" s="4" t="s">
+      <c r="BD28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF28" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="BE28" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="BF28" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="29" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="9"/>
-      <c r="C29" s="88"/>
-      <c r="AD29" s="97"/>
-      <c r="AE29" s="85"/>
-      <c r="AF29" s="86"/>
-      <c r="AO29" s="85"/>
-      <c r="AP29" s="10"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="102"/>
+      <c r="AD29" s="28"/>
+      <c r="AE29" s="24"/>
+      <c r="AF29" s="104"/>
+      <c r="AO29" s="24"/>
+      <c r="AP29" s="3"/>
     </row>
     <row r="30" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="9"/>
-      <c r="C30" s="88"/>
-      <c r="P30" s="113"/>
-      <c r="Q30" s="114"/>
-      <c r="R30" s="114"/>
-      <c r="S30" s="114"/>
-      <c r="T30" s="114"/>
-      <c r="U30" s="114"/>
-      <c r="V30" s="114"/>
-      <c r="W30" s="114"/>
-      <c r="X30" s="114"/>
-      <c r="Y30" s="114"/>
-      <c r="Z30" s="114"/>
-      <c r="AA30" s="115"/>
-      <c r="AB30" s="116"/>
-      <c r="AC30" s="117" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD30" s="97"/>
-      <c r="AE30" s="85"/>
-      <c r="AF30" s="86"/>
-      <c r="AG30" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH30" s="43"/>
-      <c r="AI30" s="43"/>
-      <c r="AJ30" s="43"/>
-      <c r="AK30" s="13"/>
-      <c r="AL30" s="14"/>
-      <c r="AM30" s="46">
+      <c r="B30" s="2"/>
+      <c r="C30" s="102"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="35"/>
+      <c r="AA30" s="36"/>
+      <c r="AB30" s="37"/>
+      <c r="AC30" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD30" s="28"/>
+      <c r="AE30" s="24"/>
+      <c r="AF30" s="104"/>
+      <c r="AG30" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH30" s="60"/>
+      <c r="AI30" s="60"/>
+      <c r="AJ30" s="60"/>
+      <c r="AK30" s="63"/>
+      <c r="AL30" s="64"/>
+      <c r="AM30" s="83">
         <v>0.01</v>
       </c>
-      <c r="AN30" s="47"/>
-      <c r="AO30" s="85"/>
-      <c r="AP30" s="10"/>
-      <c r="AS30" s="4" t="s">
+      <c r="AN30" s="84"/>
+      <c r="AO30" s="24"/>
+      <c r="AP30" s="3"/>
+      <c r="AS30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AW30" s="4">
+      <c r="AW30" s="1">
         <v>108.76923076923077</v>
       </c>
-      <c r="AX30" s="4">
+      <c r="AX30" s="1">
         <v>108.76923076923077</v>
       </c>
-      <c r="AY30" s="4">
+      <c r="AY30" s="1">
         <v>131.11111111111111</v>
       </c>
-      <c r="AZ30" s="4">
+      <c r="AZ30" s="1">
         <v>133.5</v>
       </c>
-      <c r="BA30" s="4">
+      <c r="BA30" s="1">
         <v>110.45454545454545</v>
       </c>
-      <c r="BB30" s="4">
+      <c r="BB30" s="1">
         <v>155.77272727272728</v>
       </c>
     </row>
     <row r="31" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="9"/>
-      <c r="C31" s="88"/>
-      <c r="P31" s="118"/>
-      <c r="Q31" s="119"/>
-      <c r="R31" s="119"/>
-      <c r="S31" s="119"/>
-      <c r="T31" s="119"/>
-      <c r="U31" s="119"/>
-      <c r="V31" s="119"/>
-      <c r="W31" s="119"/>
-      <c r="X31" s="119"/>
-      <c r="Y31" s="119"/>
-      <c r="Z31" s="119"/>
-      <c r="AA31" s="120"/>
-      <c r="AB31" s="121"/>
-      <c r="AC31" s="122" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD31" s="97"/>
-      <c r="AE31" s="85"/>
-      <c r="AF31" s="86"/>
-      <c r="AG31" s="59"/>
-      <c r="AH31" s="56"/>
-      <c r="AI31" s="56"/>
-      <c r="AJ31" s="56"/>
-      <c r="AK31" s="22"/>
-      <c r="AL31" s="23"/>
-      <c r="AM31" s="60"/>
-      <c r="AN31" s="61"/>
-      <c r="AO31" s="85"/>
-      <c r="AP31" s="10"/>
-      <c r="AS31" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW31" s="4">
+      <c r="B31" s="2"/>
+      <c r="C31" s="102"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="41"/>
+      <c r="AB31" s="42"/>
+      <c r="AC31" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD31" s="28"/>
+      <c r="AE31" s="24"/>
+      <c r="AF31" s="104"/>
+      <c r="AG31" s="61"/>
+      <c r="AH31" s="62"/>
+      <c r="AI31" s="62"/>
+      <c r="AJ31" s="62"/>
+      <c r="AK31" s="65"/>
+      <c r="AL31" s="66"/>
+      <c r="AM31" s="85"/>
+      <c r="AN31" s="86"/>
+      <c r="AO31" s="24"/>
+      <c r="AP31" s="3"/>
+      <c r="AS31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW31" s="1">
         <v>1</v>
       </c>
-      <c r="AX31" s="4">
+      <c r="AX31" s="1">
         <v>1</v>
       </c>
-      <c r="AY31" s="4">
+      <c r="AY31" s="1">
         <v>1</v>
       </c>
-      <c r="AZ31" s="4">
+      <c r="AZ31" s="1">
         <v>1</v>
       </c>
-      <c r="BA31" s="4">
+      <c r="BA31" s="1">
         <v>0</v>
       </c>
-      <c r="BB31" s="4">
+      <c r="BB31" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="9"/>
-      <c r="C32" s="88"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="123"/>
-      <c r="Q32" s="66"/>
-      <c r="R32" s="66"/>
-      <c r="S32" s="66"/>
-      <c r="T32" s="66"/>
-      <c r="U32" s="66"/>
-      <c r="V32" s="66"/>
-      <c r="W32" s="66"/>
-      <c r="X32" s="66"/>
-      <c r="Y32" s="66"/>
-      <c r="Z32" s="66"/>
-      <c r="AA32" s="124"/>
-      <c r="AB32" s="66"/>
-      <c r="AC32" s="66"/>
-      <c r="AD32" s="97"/>
-      <c r="AE32" s="85"/>
-      <c r="AF32" s="86"/>
-      <c r="AG32" s="59"/>
-      <c r="AH32" s="56"/>
-      <c r="AI32" s="56"/>
-      <c r="AJ32" s="56"/>
-      <c r="AK32" s="30"/>
-      <c r="AL32" s="31"/>
-      <c r="AM32" s="60"/>
-      <c r="AN32" s="61"/>
-      <c r="AO32" s="85"/>
-      <c r="AP32" s="10"/>
-      <c r="AS32" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AW32" s="4">
+      <c r="B32" s="2"/>
+      <c r="C32" s="102"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="45"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="24"/>
+      <c r="AF32" s="104"/>
+      <c r="AG32" s="61"/>
+      <c r="AH32" s="62"/>
+      <c r="AI32" s="62"/>
+      <c r="AJ32" s="62"/>
+      <c r="AK32" s="67"/>
+      <c r="AL32" s="68"/>
+      <c r="AM32" s="85"/>
+      <c r="AN32" s="86"/>
+      <c r="AO32" s="24"/>
+      <c r="AP32" s="3"/>
+      <c r="AS32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW32" s="1">
         <v>70.115384615384613</v>
       </c>
-      <c r="AX32" s="4">
+      <c r="AX32" s="1">
         <v>70.115384615384613</v>
       </c>
-      <c r="AY32" s="4">
+      <c r="AY32" s="1">
         <v>70.043478260869563</v>
       </c>
-      <c r="AZ32" s="4">
+      <c r="AZ32" s="1">
         <v>58.086956521739133</v>
       </c>
-      <c r="BA32" s="4">
+      <c r="BA32" s="1">
         <v>101.07142857142857</v>
       </c>
-      <c r="BB32" s="4">
+      <c r="BB32" s="1">
         <v>72.954545454545453</v>
       </c>
     </row>
     <row r="33" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B33" s="9"/>
-      <c r="C33" s="88"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="P33" s="125"/>
-      <c r="AA33" s="126"/>
-      <c r="AD33" s="97"/>
-      <c r="AE33" s="85"/>
-      <c r="AF33" s="86"/>
-      <c r="AG33" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH33" s="25"/>
-      <c r="AI33" s="25"/>
-      <c r="AJ33" s="25"/>
-      <c r="AK33" s="25"/>
-      <c r="AL33" s="25"/>
-      <c r="AM33" s="25"/>
-      <c r="AN33" s="26"/>
-      <c r="AO33" s="85"/>
-      <c r="AP33" s="10"/>
-      <c r="AS33" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AW33" s="4">
+      <c r="B33" s="2"/>
+      <c r="C33" s="102"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="P33" s="46"/>
+      <c r="AA33" s="47"/>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="24"/>
+      <c r="AF33" s="104"/>
+      <c r="AG33" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH33" s="72"/>
+      <c r="AI33" s="72"/>
+      <c r="AJ33" s="72"/>
+      <c r="AK33" s="72"/>
+      <c r="AL33" s="72"/>
+      <c r="AM33" s="72"/>
+      <c r="AN33" s="73"/>
+      <c r="AO33" s="24"/>
+      <c r="AP33" s="3"/>
+      <c r="AS33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AW33" s="1">
         <v>5</v>
       </c>
-      <c r="AX33" s="4">
+      <c r="AX33" s="1">
         <v>5</v>
       </c>
-      <c r="AY33" s="4">
+      <c r="AY33" s="1">
         <v>3</v>
       </c>
-      <c r="AZ33" s="4">
+      <c r="AZ33" s="1">
         <v>7</v>
       </c>
-      <c r="BA33" s="4">
+      <c r="BA33" s="1">
         <v>7</v>
       </c>
-      <c r="BB33" s="4">
+      <c r="BB33" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B34" s="9"/>
-      <c r="C34" s="88"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="66"/>
-      <c r="P34" s="125"/>
-      <c r="AA34" s="126"/>
-      <c r="AD34" s="97"/>
-      <c r="AE34" s="85"/>
-      <c r="AF34" s="86"/>
-      <c r="AG34" s="69"/>
-      <c r="AH34" s="33"/>
-      <c r="AI34" s="33"/>
-      <c r="AJ34" s="33"/>
-      <c r="AK34" s="33"/>
-      <c r="AL34" s="33"/>
-      <c r="AM34" s="33"/>
-      <c r="AN34" s="34"/>
-      <c r="AO34" s="85"/>
-      <c r="AP34" s="10"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="102"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="P34" s="46"/>
+      <c r="AA34" s="47"/>
+      <c r="AD34" s="28"/>
+      <c r="AE34" s="24"/>
+      <c r="AF34" s="104"/>
+      <c r="AG34" s="74"/>
+      <c r="AH34" s="75"/>
+      <c r="AI34" s="75"/>
+      <c r="AJ34" s="75"/>
+      <c r="AK34" s="75"/>
+      <c r="AL34" s="75"/>
+      <c r="AM34" s="75"/>
+      <c r="AN34" s="76"/>
+      <c r="AO34" s="24"/>
+      <c r="AP34" s="3"/>
     </row>
     <row r="35" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B35" s="9"/>
-      <c r="C35" s="88"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="66"/>
-      <c r="P35" s="125"/>
-      <c r="AA35" s="126"/>
-      <c r="AD35" s="97"/>
-      <c r="AE35" s="85"/>
-      <c r="AF35" s="86"/>
-      <c r="AO35" s="85"/>
-      <c r="AP35" s="10"/>
-      <c r="AS35" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AW35" s="108">
+      <c r="B35" s="2"/>
+      <c r="C35" s="102"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="P35" s="46"/>
+      <c r="AA35" s="47"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="24"/>
+      <c r="AF35" s="104"/>
+      <c r="AO35" s="24"/>
+      <c r="AP35" s="3"/>
+      <c r="AS35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW35" s="31">
         <v>1.1395737985651008E-2</v>
       </c>
-      <c r="AX35" s="108">
+      <c r="AX35" s="31">
         <v>1.4073484347259517E-2</v>
       </c>
-      <c r="AY35" s="108">
+      <c r="AY35" s="31">
         <v>1.6490914680101287E-2</v>
       </c>
-      <c r="AZ35" s="108">
+      <c r="AZ35" s="31">
         <v>1.6966455046575634E-2</v>
       </c>
-      <c r="BA35" s="108">
+      <c r="BA35" s="31">
         <v>1.3620751316435028E-2</v>
       </c>
-      <c r="BB35" s="108">
+      <c r="BB35" s="31">
         <v>1.3620751316435028E-2</v>
       </c>
     </row>
     <row r="36" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="9"/>
-      <c r="C36" s="88"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="66"/>
-      <c r="P36" s="125"/>
-      <c r="AA36" s="126"/>
-      <c r="AD36" s="97"/>
-      <c r="AE36" s="85"/>
-      <c r="AF36" s="86"/>
-      <c r="AG36" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH36" s="43"/>
-      <c r="AI36" s="43"/>
-      <c r="AJ36" s="43"/>
-      <c r="AK36" s="13"/>
-      <c r="AL36" s="14"/>
-      <c r="AM36" s="46">
+      <c r="B36" s="2"/>
+      <c r="C36" s="102"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="P36" s="46"/>
+      <c r="AA36" s="47"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="24"/>
+      <c r="AF36" s="104"/>
+      <c r="AG36" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH36" s="60"/>
+      <c r="AI36" s="60"/>
+      <c r="AJ36" s="60"/>
+      <c r="AK36" s="63"/>
+      <c r="AL36" s="64"/>
+      <c r="AM36" s="83">
         <v>0</v>
       </c>
-      <c r="AN36" s="47"/>
-      <c r="AO36" s="85"/>
-      <c r="AP36" s="10"/>
+      <c r="AN36" s="84"/>
+      <c r="AO36" s="24"/>
+      <c r="AP36" s="3"/>
     </row>
     <row r="37" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="9"/>
-      <c r="C37" s="88"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="66"/>
-      <c r="P37" s="125"/>
-      <c r="AA37" s="126"/>
-      <c r="AD37" s="97"/>
-      <c r="AE37" s="85"/>
-      <c r="AF37" s="86"/>
-      <c r="AG37" s="59"/>
-      <c r="AH37" s="56"/>
-      <c r="AI37" s="56"/>
-      <c r="AJ37" s="56"/>
-      <c r="AK37" s="22"/>
-      <c r="AL37" s="23"/>
-      <c r="AM37" s="60"/>
-      <c r="AN37" s="61"/>
-      <c r="AO37" s="85"/>
-      <c r="AP37" s="10"/>
-      <c r="AS37" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW37" s="4">
+      <c r="B37" s="2"/>
+      <c r="C37" s="102"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="P37" s="46"/>
+      <c r="AA37" s="47"/>
+      <c r="AD37" s="28"/>
+      <c r="AE37" s="24"/>
+      <c r="AF37" s="104"/>
+      <c r="AG37" s="61"/>
+      <c r="AH37" s="62"/>
+      <c r="AI37" s="62"/>
+      <c r="AJ37" s="62"/>
+      <c r="AK37" s="65"/>
+      <c r="AL37" s="66"/>
+      <c r="AM37" s="85"/>
+      <c r="AN37" s="86"/>
+      <c r="AO37" s="24"/>
+      <c r="AP37" s="3"/>
+      <c r="AS37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW37" s="1">
         <v>31.875</v>
       </c>
-      <c r="AX37" s="4">
+      <c r="AX37" s="1">
         <v>31.875</v>
       </c>
-      <c r="AY37" s="4">
+      <c r="AY37" s="1">
         <v>35.75</v>
       </c>
-      <c r="AZ37" s="4">
+      <c r="AZ37" s="1">
         <v>36</v>
       </c>
-      <c r="BA37" s="4">
+      <c r="BA37" s="1">
         <v>137.6</v>
       </c>
-      <c r="BB37" s="4">
+      <c r="BB37" s="1">
         <v>137.6</v>
       </c>
     </row>
     <row r="38" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="9"/>
-      <c r="C38" s="88"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="66"/>
-      <c r="P38" s="125"/>
-      <c r="AA38" s="126"/>
-      <c r="AD38" s="97"/>
-      <c r="AE38" s="85"/>
-      <c r="AF38" s="86"/>
-      <c r="AG38" s="59"/>
-      <c r="AH38" s="56"/>
-      <c r="AI38" s="56"/>
-      <c r="AJ38" s="56"/>
-      <c r="AK38" s="30"/>
-      <c r="AL38" s="31"/>
-      <c r="AM38" s="60"/>
-      <c r="AN38" s="61"/>
-      <c r="AO38" s="85"/>
-      <c r="AP38" s="10"/>
-      <c r="AS38" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW38" s="4">
+      <c r="B38" s="2"/>
+      <c r="C38" s="102"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="P38" s="46"/>
+      <c r="AA38" s="47"/>
+      <c r="AD38" s="28"/>
+      <c r="AE38" s="24"/>
+      <c r="AF38" s="104"/>
+      <c r="AG38" s="61"/>
+      <c r="AH38" s="62"/>
+      <c r="AI38" s="62"/>
+      <c r="AJ38" s="62"/>
+      <c r="AK38" s="67"/>
+      <c r="AL38" s="68"/>
+      <c r="AM38" s="85"/>
+      <c r="AN38" s="86"/>
+      <c r="AO38" s="24"/>
+      <c r="AP38" s="3"/>
+      <c r="AS38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW38" s="1">
         <v>3.1468531468531472E-2</v>
       </c>
-      <c r="AX38" s="4">
+      <c r="AX38" s="1">
         <v>2.972027972027972E-2</v>
       </c>
-      <c r="AY38" s="4">
+      <c r="AY38" s="1">
         <v>1.232394366197183E-2</v>
       </c>
-      <c r="AZ38" s="4">
+      <c r="AZ38" s="1">
         <v>1.7605633802816902E-2</v>
       </c>
-      <c r="BA38" s="4">
+      <c r="BA38" s="1">
         <v>1.4388489208633094E-2</v>
       </c>
-      <c r="BB38" s="4">
+      <c r="BB38" s="1">
         <v>1.048951048951049E-2</v>
       </c>
     </row>
     <row r="39" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B39" s="9"/>
-      <c r="C39" s="88"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
-      <c r="P39" s="125"/>
-      <c r="AA39" s="126"/>
-      <c r="AD39" s="97"/>
-      <c r="AE39" s="85"/>
-      <c r="AF39" s="86"/>
-      <c r="AG39" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH39" s="25"/>
-      <c r="AI39" s="25"/>
-      <c r="AJ39" s="25"/>
-      <c r="AK39" s="25"/>
-      <c r="AL39" s="25"/>
-      <c r="AM39" s="25"/>
-      <c r="AN39" s="26"/>
-      <c r="AO39" s="85"/>
-      <c r="AP39" s="10"/>
-      <c r="AS39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AW39" s="4">
+      <c r="B39" s="2"/>
+      <c r="C39" s="102"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="P39" s="46"/>
+      <c r="AA39" s="47"/>
+      <c r="AD39" s="28"/>
+      <c r="AE39" s="24"/>
+      <c r="AF39" s="104"/>
+      <c r="AG39" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH39" s="72"/>
+      <c r="AI39" s="72"/>
+      <c r="AJ39" s="72"/>
+      <c r="AK39" s="72"/>
+      <c r="AL39" s="72"/>
+      <c r="AM39" s="72"/>
+      <c r="AN39" s="73"/>
+      <c r="AO39" s="24"/>
+      <c r="AP39" s="3"/>
+      <c r="AS39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW39" s="1">
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="AX39" s="4">
+      <c r="AX39" s="1">
         <v>0.2</v>
       </c>
-      <c r="AY39" s="4">
+      <c r="AY39" s="1">
         <v>0.1111111111111111</v>
       </c>
-      <c r="AZ39" s="4">
+      <c r="AZ39" s="1">
         <v>0</v>
       </c>
-      <c r="BA39" s="4">
+      <c r="BA39" s="1">
         <v>0</v>
       </c>
-      <c r="BB39" s="4">
+      <c r="BB39" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B40" s="9"/>
-      <c r="C40" s="88"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="P40" s="127"/>
-      <c r="Q40" s="128"/>
-      <c r="R40" s="128"/>
-      <c r="S40" s="128"/>
-      <c r="T40" s="128"/>
-      <c r="U40" s="128"/>
-      <c r="V40" s="128"/>
-      <c r="W40" s="128"/>
-      <c r="X40" s="128"/>
-      <c r="Y40" s="128"/>
-      <c r="Z40" s="128"/>
-      <c r="AA40" s="129"/>
-      <c r="AD40" s="97"/>
-      <c r="AE40" s="85"/>
-      <c r="AF40" s="86"/>
-      <c r="AG40" s="69"/>
-      <c r="AH40" s="33"/>
-      <c r="AI40" s="33"/>
-      <c r="AJ40" s="33"/>
-      <c r="AK40" s="33"/>
-      <c r="AL40" s="33"/>
-      <c r="AM40" s="33"/>
-      <c r="AN40" s="34"/>
-      <c r="AO40" s="85"/>
-      <c r="AP40" s="10"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="102"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="49"/>
+      <c r="S40" s="49"/>
+      <c r="T40" s="49"/>
+      <c r="U40" s="49"/>
+      <c r="V40" s="49"/>
+      <c r="W40" s="49"/>
+      <c r="X40" s="49"/>
+      <c r="Y40" s="49"/>
+      <c r="Z40" s="49"/>
+      <c r="AA40" s="50"/>
+      <c r="AD40" s="28"/>
+      <c r="AE40" s="24"/>
+      <c r="AF40" s="104"/>
+      <c r="AG40" s="74"/>
+      <c r="AH40" s="75"/>
+      <c r="AI40" s="75"/>
+      <c r="AJ40" s="75"/>
+      <c r="AK40" s="75"/>
+      <c r="AL40" s="75"/>
+      <c r="AM40" s="75"/>
+      <c r="AN40" s="76"/>
+      <c r="AO40" s="24"/>
+      <c r="AP40" s="3"/>
     </row>
     <row r="41" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B41" s="9"/>
-      <c r="C41" s="130"/>
-      <c r="D41" s="131"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="131"/>
-      <c r="G41" s="131"/>
-      <c r="H41" s="131"/>
-      <c r="I41" s="131"/>
-      <c r="J41" s="131"/>
-      <c r="K41" s="131"/>
-      <c r="L41" s="131"/>
-      <c r="M41" s="131"/>
-      <c r="N41" s="131"/>
-      <c r="O41" s="131"/>
-      <c r="P41" s="131"/>
-      <c r="Q41" s="131"/>
-      <c r="R41" s="131"/>
-      <c r="S41" s="131"/>
-      <c r="T41" s="131"/>
-      <c r="U41" s="131"/>
-      <c r="V41" s="131"/>
-      <c r="W41" s="131"/>
-      <c r="X41" s="131"/>
-      <c r="Y41" s="131"/>
-      <c r="Z41" s="131"/>
-      <c r="AA41" s="131"/>
-      <c r="AB41" s="131"/>
-      <c r="AC41" s="131"/>
-      <c r="AD41" s="132"/>
-      <c r="AE41" s="85"/>
-      <c r="AF41" s="133"/>
-      <c r="AG41" s="80"/>
-      <c r="AH41" s="80"/>
-      <c r="AI41" s="80"/>
-      <c r="AJ41" s="80"/>
-      <c r="AK41" s="80"/>
-      <c r="AL41" s="80"/>
-      <c r="AM41" s="80"/>
-      <c r="AN41" s="80"/>
-      <c r="AO41" s="134"/>
-      <c r="AP41" s="10"/>
-      <c r="AS41" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AW41" s="108">
+      <c r="B41" s="2"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="51"/>
+      <c r="S41" s="51"/>
+      <c r="T41" s="51"/>
+      <c r="U41" s="51"/>
+      <c r="V41" s="51"/>
+      <c r="W41" s="51"/>
+      <c r="X41" s="51"/>
+      <c r="Y41" s="51"/>
+      <c r="Z41" s="51"/>
+      <c r="AA41" s="51"/>
+      <c r="AB41" s="51"/>
+      <c r="AC41" s="51"/>
+      <c r="AD41" s="52"/>
+      <c r="AE41" s="24"/>
+      <c r="AF41" s="105"/>
+      <c r="AG41" s="20"/>
+      <c r="AH41" s="20"/>
+      <c r="AI41" s="20"/>
+      <c r="AJ41" s="20"/>
+      <c r="AK41" s="20"/>
+      <c r="AL41" s="20"/>
+      <c r="AM41" s="20"/>
+      <c r="AN41" s="20"/>
+      <c r="AO41" s="53"/>
+      <c r="AP41" s="3"/>
+      <c r="AS41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW41" s="31">
         <v>0.96</v>
       </c>
-      <c r="AX41" s="108">
+      <c r="AX41" s="31">
         <v>0.95238095238095233</v>
       </c>
-      <c r="AY41" s="108">
+      <c r="AY41" s="31">
         <v>0.9765625</v>
       </c>
-      <c r="AZ41" s="108">
+      <c r="AZ41" s="31">
         <v>0.95726495726495731</v>
       </c>
-      <c r="BA41" s="108">
+      <c r="BA41" s="31">
         <v>0.98666666666666669</v>
       </c>
-      <c r="BB41" s="108">
+      <c r="BB41" s="31">
         <v>0.98666666666666669</v>
       </c>
-      <c r="BD41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="BE41" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="BF41" s="4" t="s">
-        <v>78</v>
+      <c r="BD41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF41" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B42" s="9"/>
-      <c r="D42" s="135"/>
-      <c r="AF42" s="136"/>
-      <c r="AP42" s="10"/>
-      <c r="AS42" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW42" s="108">
+      <c r="B42" s="2"/>
+      <c r="D42" s="54"/>
+      <c r="AF42" s="55"/>
+      <c r="AP42" s="3"/>
+      <c r="AS42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW42" s="31">
         <v>0.9296875</v>
       </c>
-      <c r="AX42" s="108">
+      <c r="AX42" s="31">
         <v>0.94615384615384612</v>
       </c>
-      <c r="AY42" s="108">
+      <c r="AY42" s="31">
         <v>0.95522388059701491</v>
       </c>
-      <c r="AZ42" s="108">
+      <c r="AZ42" s="31">
         <v>0.96923076923076923</v>
       </c>
-      <c r="BA42" s="108">
+      <c r="BA42" s="31">
         <v>0.9939393939393939</v>
       </c>
-      <c r="BB42" s="108">
+      <c r="BB42" s="31">
         <v>0.9939393939393939</v>
       </c>
-      <c r="BD42" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="BE42" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="BF42" s="4" t="s">
-        <v>78</v>
+      <c r="BD42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF42" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="9"/>
-      <c r="D43" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="15">
+      <c r="B43" s="2"/>
+      <c r="D43" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="69">
         <f>BB41</f>
         <v>0.98666666666666669</v>
       </c>
-      <c r="K43" s="14"/>
-      <c r="N43" s="137" t="s">
-        <v>79</v>
-      </c>
-      <c r="O43" s="138"/>
-      <c r="P43" s="138"/>
-      <c r="Q43" s="139"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="15">
+      <c r="K43" s="64"/>
+      <c r="N43" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="O43" s="78"/>
+      <c r="P43" s="78"/>
+      <c r="Q43" s="79"/>
+      <c r="R43" s="63"/>
+      <c r="S43" s="64"/>
+      <c r="T43" s="69">
         <f>BB42</f>
         <v>0.9939393939393939</v>
       </c>
-      <c r="U43" s="14"/>
-      <c r="W43" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="X43" s="43"/>
-      <c r="Y43" s="43"/>
-      <c r="Z43" s="43"/>
-      <c r="AA43" s="13"/>
-      <c r="AB43" s="14"/>
-      <c r="AC43" s="13">
+      <c r="U43" s="64"/>
+      <c r="W43" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="X43" s="60"/>
+      <c r="Y43" s="60"/>
+      <c r="Z43" s="60"/>
+      <c r="AA43" s="63"/>
+      <c r="AB43" s="64"/>
+      <c r="AC43" s="63">
         <f>BB43</f>
         <v>1</v>
       </c>
-      <c r="AD43" s="14"/>
-      <c r="AG43" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH43" s="43"/>
-      <c r="AI43" s="43"/>
-      <c r="AJ43" s="43"/>
-      <c r="AK43" s="13"/>
-      <c r="AL43" s="14"/>
-      <c r="AM43" s="15">
+      <c r="AD43" s="64"/>
+      <c r="AG43" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH43" s="60"/>
+      <c r="AI43" s="60"/>
+      <c r="AJ43" s="60"/>
+      <c r="AK43" s="63"/>
+      <c r="AL43" s="64"/>
+      <c r="AM43" s="69">
         <f>BB44</f>
         <v>0.5</v>
       </c>
-      <c r="AN43" s="14"/>
-      <c r="AP43" s="10"/>
-      <c r="AS43" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW43" s="108">
+      <c r="AN43" s="64"/>
+      <c r="AP43" s="3"/>
+      <c r="AS43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW43" s="31">
         <v>0.66666666666666663</v>
       </c>
-      <c r="AX43" s="108">
+      <c r="AX43" s="31">
         <v>1</v>
       </c>
-      <c r="AY43" s="108">
+      <c r="AY43" s="31">
         <v>1</v>
       </c>
-      <c r="AZ43" s="108">
+      <c r="AZ43" s="31">
         <v>1</v>
       </c>
-      <c r="BA43" s="108">
+      <c r="BA43" s="31">
         <v>1</v>
       </c>
-      <c r="BB43" s="108">
+      <c r="BB43" s="31">
         <v>1</v>
       </c>
-      <c r="BD43" s="4" t="s">
+      <c r="BD43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BE43" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="BF43" s="4" t="s">
-        <v>82</v>
+      <c r="BF43" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="9"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="23"/>
-      <c r="N44" s="140"/>
-      <c r="O44" s="141"/>
-      <c r="P44" s="141"/>
-      <c r="Q44" s="142"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="23"/>
-      <c r="T44" s="24"/>
-      <c r="U44" s="23"/>
-      <c r="W44" s="59"/>
-      <c r="X44" s="56"/>
-      <c r="Y44" s="56"/>
-      <c r="Z44" s="56"/>
-      <c r="AA44" s="22"/>
-      <c r="AB44" s="23"/>
-      <c r="AC44" s="22"/>
-      <c r="AD44" s="23"/>
-      <c r="AG44" s="59"/>
-      <c r="AH44" s="56"/>
-      <c r="AI44" s="56"/>
-      <c r="AJ44" s="56"/>
-      <c r="AK44" s="22"/>
-      <c r="AL44" s="23"/>
-      <c r="AM44" s="24"/>
-      <c r="AN44" s="23"/>
-      <c r="AP44" s="10"/>
-      <c r="AS44" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW44" s="108">
+      <c r="B44" s="2"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="66"/>
+      <c r="N44" s="80"/>
+      <c r="O44" s="81"/>
+      <c r="P44" s="81"/>
+      <c r="Q44" s="82"/>
+      <c r="R44" s="65"/>
+      <c r="S44" s="66"/>
+      <c r="T44" s="70"/>
+      <c r="U44" s="66"/>
+      <c r="W44" s="61"/>
+      <c r="X44" s="62"/>
+      <c r="Y44" s="62"/>
+      <c r="Z44" s="62"/>
+      <c r="AA44" s="65"/>
+      <c r="AB44" s="66"/>
+      <c r="AC44" s="65"/>
+      <c r="AD44" s="66"/>
+      <c r="AG44" s="61"/>
+      <c r="AH44" s="62"/>
+      <c r="AI44" s="62"/>
+      <c r="AJ44" s="62"/>
+      <c r="AK44" s="65"/>
+      <c r="AL44" s="66"/>
+      <c r="AM44" s="70"/>
+      <c r="AN44" s="66"/>
+      <c r="AP44" s="3"/>
+      <c r="AS44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW44" s="31">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AX44" s="108">
+      <c r="AX44" s="31">
         <v>0.2673611111111111</v>
       </c>
-      <c r="AY44" s="108">
+      <c r="AY44" s="31">
         <v>0.125</v>
       </c>
-      <c r="AZ44" s="108">
+      <c r="AZ44" s="31">
         <v>0.36458333333333331</v>
       </c>
-      <c r="BA44" s="108">
+      <c r="BA44" s="31">
         <v>0.5</v>
       </c>
-      <c r="BB44" s="108">
+      <c r="BB44" s="31">
         <v>0.5</v>
       </c>
-      <c r="BD44" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE44" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="BF44" s="4" t="s">
-        <v>82</v>
+      <c r="BD44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF44" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="9"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="23"/>
-      <c r="N45" s="140"/>
-      <c r="O45" s="141"/>
-      <c r="P45" s="141"/>
-      <c r="Q45" s="142"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="31"/>
-      <c r="T45" s="24"/>
-      <c r="U45" s="23"/>
-      <c r="W45" s="59"/>
-      <c r="X45" s="56"/>
-      <c r="Y45" s="56"/>
-      <c r="Z45" s="56"/>
-      <c r="AA45" s="30"/>
-      <c r="AB45" s="31"/>
-      <c r="AC45" s="22"/>
-      <c r="AD45" s="23"/>
-      <c r="AG45" s="59"/>
-      <c r="AH45" s="56"/>
-      <c r="AI45" s="56"/>
-      <c r="AJ45" s="56"/>
-      <c r="AK45" s="30"/>
-      <c r="AL45" s="31"/>
-      <c r="AM45" s="24"/>
-      <c r="AN45" s="23"/>
-      <c r="AP45" s="10"/>
+      <c r="B45" s="2"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="70"/>
+      <c r="K45" s="66"/>
+      <c r="N45" s="80"/>
+      <c r="O45" s="81"/>
+      <c r="P45" s="81"/>
+      <c r="Q45" s="82"/>
+      <c r="R45" s="67"/>
+      <c r="S45" s="68"/>
+      <c r="T45" s="70"/>
+      <c r="U45" s="66"/>
+      <c r="W45" s="61"/>
+      <c r="X45" s="62"/>
+      <c r="Y45" s="62"/>
+      <c r="Z45" s="62"/>
+      <c r="AA45" s="67"/>
+      <c r="AB45" s="68"/>
+      <c r="AC45" s="65"/>
+      <c r="AD45" s="66"/>
+      <c r="AG45" s="61"/>
+      <c r="AH45" s="62"/>
+      <c r="AI45" s="62"/>
+      <c r="AJ45" s="62"/>
+      <c r="AK45" s="67"/>
+      <c r="AL45" s="68"/>
+      <c r="AM45" s="70"/>
+      <c r="AN45" s="66"/>
+      <c r="AP45" s="3"/>
     </row>
     <row r="46" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="9"/>
-      <c r="D46" s="68" t="s">
+      <c r="B46" s="2"/>
+      <c r="D46" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="73"/>
+      <c r="N46" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="O46" s="72"/>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="72"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="72"/>
+      <c r="U46" s="73"/>
+      <c r="W46" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="X46" s="72"/>
+      <c r="Y46" s="72"/>
+      <c r="Z46" s="72"/>
+      <c r="AA46" s="72"/>
+      <c r="AB46" s="72"/>
+      <c r="AC46" s="72"/>
+      <c r="AD46" s="73"/>
+      <c r="AG46" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="26"/>
-      <c r="N46" s="68" t="s">
-        <v>85</v>
-      </c>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
-      <c r="U46" s="26"/>
-      <c r="W46" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="25"/>
-      <c r="Z46" s="25"/>
-      <c r="AA46" s="25"/>
-      <c r="AB46" s="25"/>
-      <c r="AC46" s="25"/>
-      <c r="AD46" s="26"/>
-      <c r="AG46" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH46" s="25"/>
-      <c r="AI46" s="25"/>
-      <c r="AJ46" s="25"/>
-      <c r="AK46" s="25"/>
-      <c r="AL46" s="25"/>
-      <c r="AM46" s="25"/>
-      <c r="AN46" s="26"/>
-      <c r="AP46" s="10"/>
+      <c r="AH46" s="72"/>
+      <c r="AI46" s="72"/>
+      <c r="AJ46" s="72"/>
+      <c r="AK46" s="72"/>
+      <c r="AL46" s="72"/>
+      <c r="AM46" s="72"/>
+      <c r="AN46" s="73"/>
+      <c r="AP46" s="3"/>
     </row>
     <row r="47" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B47" s="9"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="34"/>
-      <c r="N47" s="69"/>
-      <c r="O47" s="33"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="33"/>
-      <c r="S47" s="33"/>
-      <c r="T47" s="33"/>
-      <c r="U47" s="34"/>
-      <c r="W47" s="69"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="33"/>
-      <c r="Z47" s="33"/>
-      <c r="AA47" s="33"/>
-      <c r="AB47" s="33"/>
-      <c r="AC47" s="33"/>
-      <c r="AD47" s="34"/>
-      <c r="AG47" s="69"/>
-      <c r="AH47" s="33"/>
-      <c r="AI47" s="33"/>
-      <c r="AJ47" s="33"/>
-      <c r="AK47" s="33"/>
-      <c r="AL47" s="33"/>
-      <c r="AM47" s="33"/>
-      <c r="AN47" s="34"/>
-      <c r="AP47" s="10"/>
+      <c r="B47" s="2"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="75"/>
+      <c r="K47" s="76"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="75"/>
+      <c r="P47" s="75"/>
+      <c r="Q47" s="75"/>
+      <c r="R47" s="75"/>
+      <c r="S47" s="75"/>
+      <c r="T47" s="75"/>
+      <c r="U47" s="76"/>
+      <c r="W47" s="74"/>
+      <c r="X47" s="75"/>
+      <c r="Y47" s="75"/>
+      <c r="Z47" s="75"/>
+      <c r="AA47" s="75"/>
+      <c r="AB47" s="75"/>
+      <c r="AC47" s="75"/>
+      <c r="AD47" s="76"/>
+      <c r="AG47" s="74"/>
+      <c r="AH47" s="75"/>
+      <c r="AI47" s="75"/>
+      <c r="AJ47" s="75"/>
+      <c r="AK47" s="75"/>
+      <c r="AL47" s="75"/>
+      <c r="AM47" s="75"/>
+      <c r="AN47" s="76"/>
+      <c r="AP47" s="3"/>
     </row>
     <row r="48" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B48" s="143"/>
-      <c r="C48" s="144"/>
-      <c r="D48" s="144"/>
-      <c r="E48" s="144"/>
-      <c r="F48" s="144"/>
-      <c r="G48" s="144"/>
-      <c r="H48" s="144"/>
-      <c r="I48" s="144"/>
-      <c r="J48" s="144"/>
-      <c r="K48" s="144"/>
-      <c r="L48" s="144"/>
-      <c r="M48" s="144"/>
-      <c r="N48" s="144"/>
-      <c r="O48" s="144"/>
-      <c r="P48" s="144"/>
-      <c r="Q48" s="144"/>
-      <c r="R48" s="144"/>
-      <c r="S48" s="144"/>
-      <c r="T48" s="144"/>
-      <c r="U48" s="144"/>
-      <c r="V48" s="144"/>
-      <c r="W48" s="144"/>
-      <c r="X48" s="144"/>
-      <c r="Y48" s="144"/>
-      <c r="Z48" s="144"/>
-      <c r="AA48" s="144"/>
-      <c r="AB48" s="144"/>
-      <c r="AC48" s="144"/>
-      <c r="AD48" s="144"/>
-      <c r="AE48" s="144"/>
-      <c r="AF48" s="144"/>
-      <c r="AG48" s="144"/>
-      <c r="AH48" s="144"/>
-      <c r="AI48" s="144"/>
-      <c r="AJ48" s="144"/>
-      <c r="AK48" s="144"/>
-      <c r="AL48" s="144"/>
-      <c r="AM48" s="144"/>
-      <c r="AN48" s="144"/>
-      <c r="AO48" s="144"/>
-      <c r="AP48" s="145"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="57"/>
+      <c r="N48" s="57"/>
+      <c r="O48" s="57"/>
+      <c r="P48" s="57"/>
+      <c r="Q48" s="57"/>
+      <c r="R48" s="57"/>
+      <c r="S48" s="57"/>
+      <c r="T48" s="57"/>
+      <c r="U48" s="57"/>
+      <c r="V48" s="57"/>
+      <c r="W48" s="57"/>
+      <c r="X48" s="57"/>
+      <c r="Y48" s="57"/>
+      <c r="Z48" s="57"/>
+      <c r="AA48" s="57"/>
+      <c r="AB48" s="57"/>
+      <c r="AC48" s="57"/>
+      <c r="AD48" s="57"/>
+      <c r="AE48" s="57"/>
+      <c r="AF48" s="57"/>
+      <c r="AG48" s="57"/>
+      <c r="AH48" s="57"/>
+      <c r="AI48" s="57"/>
+      <c r="AJ48" s="57"/>
+      <c r="AK48" s="57"/>
+      <c r="AL48" s="57"/>
+      <c r="AM48" s="57"/>
+      <c r="AN48" s="57"/>
+      <c r="AO48" s="57"/>
+      <c r="AP48" s="58"/>
     </row>
     <row r="52" spans="38:38" x14ac:dyDescent="0.2">
-      <c r="AL52" s="108"/>
+      <c r="AL52" s="31"/>
     </row>
     <row r="53" spans="38:38" x14ac:dyDescent="0.2">
-      <c r="AL53" s="108"/>
+      <c r="AL53" s="31"/>
     </row>
     <row r="54" spans="38:38" x14ac:dyDescent="0.2">
-      <c r="AL54" s="108"/>
+      <c r="AL54" s="31"/>
     </row>
     <row r="55" spans="38:38" x14ac:dyDescent="0.2">
-      <c r="AL55" s="108"/>
+      <c r="AL55" s="31"/>
     </row>
     <row r="56" spans="38:38" x14ac:dyDescent="0.2">
-      <c r="AL56" s="108"/>
+      <c r="AL56" s="31"/>
     </row>
     <row r="57" spans="38:38" x14ac:dyDescent="0.2">
-      <c r="AL57" s="108"/>
+      <c r="AL57" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="AG43:AJ45"/>
-    <mergeCell ref="AK43:AL45"/>
-    <mergeCell ref="AM43:AN45"/>
-    <mergeCell ref="D46:K47"/>
-    <mergeCell ref="N46:U47"/>
-    <mergeCell ref="W46:AD47"/>
-    <mergeCell ref="AG46:AN47"/>
-    <mergeCell ref="AG39:AN40"/>
-    <mergeCell ref="D43:G45"/>
-    <mergeCell ref="H43:I45"/>
-    <mergeCell ref="J43:K45"/>
-    <mergeCell ref="N43:Q45"/>
-    <mergeCell ref="R43:S45"/>
-    <mergeCell ref="T43:U45"/>
-    <mergeCell ref="W43:Z45"/>
-    <mergeCell ref="AA43:AB45"/>
-    <mergeCell ref="AC43:AD45"/>
-    <mergeCell ref="AG30:AJ32"/>
-    <mergeCell ref="AK30:AL32"/>
-    <mergeCell ref="AM30:AN32"/>
-    <mergeCell ref="AG33:AN34"/>
-    <mergeCell ref="AG36:AJ38"/>
-    <mergeCell ref="AK36:AL38"/>
-    <mergeCell ref="AM36:AN38"/>
-    <mergeCell ref="AB24:AC26"/>
-    <mergeCell ref="AG24:AJ26"/>
-    <mergeCell ref="AK24:AL26"/>
-    <mergeCell ref="AM24:AN26"/>
-    <mergeCell ref="O27:R28"/>
-    <mergeCell ref="V27:AC28"/>
-    <mergeCell ref="AG27:AN28"/>
-    <mergeCell ref="BF16:BF18"/>
-    <mergeCell ref="D19:K20"/>
-    <mergeCell ref="M19:T20"/>
-    <mergeCell ref="X19:AE20"/>
-    <mergeCell ref="AG19:AN20"/>
-    <mergeCell ref="C23:C41"/>
-    <mergeCell ref="AF23:AF41"/>
-    <mergeCell ref="O24:R26"/>
-    <mergeCell ref="V24:Y26"/>
-    <mergeCell ref="Z24:AA26"/>
-    <mergeCell ref="AZ16:AZ18"/>
-    <mergeCell ref="BA16:BA18"/>
-    <mergeCell ref="BB16:BB18"/>
-    <mergeCell ref="BC16:BC18"/>
-    <mergeCell ref="BD16:BD18"/>
-    <mergeCell ref="BE16:BE18"/>
-    <mergeCell ref="AT16:AT18"/>
-    <mergeCell ref="AU16:AU18"/>
-    <mergeCell ref="AV16:AV18"/>
-    <mergeCell ref="AW16:AW18"/>
-    <mergeCell ref="AX16:AX18"/>
-    <mergeCell ref="AY16:AY18"/>
-    <mergeCell ref="X16:AA18"/>
-    <mergeCell ref="AB16:AC18"/>
-    <mergeCell ref="AD16:AE18"/>
-    <mergeCell ref="AG16:AJ18"/>
-    <mergeCell ref="AK16:AL18"/>
-    <mergeCell ref="AM16:AN18"/>
-    <mergeCell ref="D13:K14"/>
-    <mergeCell ref="M13:T14"/>
-    <mergeCell ref="X13:AE14"/>
-    <mergeCell ref="AG13:AN14"/>
-    <mergeCell ref="D16:G18"/>
-    <mergeCell ref="H16:I18"/>
-    <mergeCell ref="J16:K18"/>
-    <mergeCell ref="M16:P18"/>
-    <mergeCell ref="Q16:R18"/>
-    <mergeCell ref="S16:T18"/>
-    <mergeCell ref="X10:AA12"/>
-    <mergeCell ref="AB10:AC12"/>
-    <mergeCell ref="AD10:AE12"/>
-    <mergeCell ref="AG10:AJ12"/>
-    <mergeCell ref="AK10:AL12"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="AB5:AC7"/>
+    <mergeCell ref="B2:AP3"/>
+    <mergeCell ref="AT2:AT4"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="AV2:AV4"/>
     <mergeCell ref="AM10:AN12"/>
     <mergeCell ref="AD5:AE7"/>
     <mergeCell ref="AF5:AN7"/>
@@ -10859,13 +10481,80 @@
     <mergeCell ref="J5:K7"/>
     <mergeCell ref="L5:T7"/>
     <mergeCell ref="X5:AA7"/>
-    <mergeCell ref="AB5:AC7"/>
-    <mergeCell ref="B2:AP3"/>
-    <mergeCell ref="AT2:AT4"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="AV2:AV4"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="X10:AA12"/>
+    <mergeCell ref="AB10:AC12"/>
+    <mergeCell ref="AD10:AE12"/>
+    <mergeCell ref="AG10:AJ12"/>
+    <mergeCell ref="AK10:AL12"/>
+    <mergeCell ref="D13:K14"/>
+    <mergeCell ref="M13:T14"/>
+    <mergeCell ref="X13:AE14"/>
+    <mergeCell ref="AG13:AN14"/>
+    <mergeCell ref="D16:G18"/>
+    <mergeCell ref="H16:I18"/>
+    <mergeCell ref="J16:K18"/>
+    <mergeCell ref="M16:P18"/>
+    <mergeCell ref="Q16:R18"/>
+    <mergeCell ref="S16:T18"/>
+    <mergeCell ref="AY16:AY18"/>
+    <mergeCell ref="X16:AA18"/>
+    <mergeCell ref="AB16:AC18"/>
+    <mergeCell ref="AD16:AE18"/>
+    <mergeCell ref="AG16:AJ18"/>
+    <mergeCell ref="AK16:AL18"/>
+    <mergeCell ref="AM16:AN18"/>
+    <mergeCell ref="C23:C41"/>
+    <mergeCell ref="AF23:AF41"/>
+    <mergeCell ref="O24:R26"/>
+    <mergeCell ref="V24:Y26"/>
+    <mergeCell ref="Z24:AA26"/>
+    <mergeCell ref="BF16:BF18"/>
+    <mergeCell ref="D19:K20"/>
+    <mergeCell ref="M19:T20"/>
+    <mergeCell ref="X19:AE20"/>
+    <mergeCell ref="AG19:AN20"/>
+    <mergeCell ref="AZ16:AZ18"/>
+    <mergeCell ref="BA16:BA18"/>
+    <mergeCell ref="BB16:BB18"/>
+    <mergeCell ref="BC16:BC18"/>
+    <mergeCell ref="BD16:BD18"/>
+    <mergeCell ref="BE16:BE18"/>
+    <mergeCell ref="AT16:AT18"/>
+    <mergeCell ref="AU16:AU18"/>
+    <mergeCell ref="AV16:AV18"/>
+    <mergeCell ref="AW16:AW18"/>
+    <mergeCell ref="AX16:AX18"/>
+    <mergeCell ref="AB24:AC26"/>
+    <mergeCell ref="AG24:AJ26"/>
+    <mergeCell ref="AK24:AL26"/>
+    <mergeCell ref="AM24:AN26"/>
+    <mergeCell ref="O27:R28"/>
+    <mergeCell ref="V27:AC28"/>
+    <mergeCell ref="AG27:AN28"/>
+    <mergeCell ref="AG30:AJ32"/>
+    <mergeCell ref="AK30:AL32"/>
+    <mergeCell ref="AM30:AN32"/>
+    <mergeCell ref="AG33:AN34"/>
+    <mergeCell ref="AG36:AJ38"/>
+    <mergeCell ref="AK36:AL38"/>
+    <mergeCell ref="AM36:AN38"/>
+    <mergeCell ref="AG39:AN40"/>
+    <mergeCell ref="D43:G45"/>
+    <mergeCell ref="H43:I45"/>
+    <mergeCell ref="J43:K45"/>
+    <mergeCell ref="N43:Q45"/>
+    <mergeCell ref="R43:S45"/>
+    <mergeCell ref="T43:U45"/>
+    <mergeCell ref="W43:Z45"/>
+    <mergeCell ref="AA43:AB45"/>
+    <mergeCell ref="AC43:AD45"/>
+    <mergeCell ref="AG43:AJ45"/>
+    <mergeCell ref="AK43:AL45"/>
+    <mergeCell ref="AM43:AN45"/>
+    <mergeCell ref="D46:K47"/>
+    <mergeCell ref="N46:U47"/>
+    <mergeCell ref="W46:AD47"/>
+    <mergeCell ref="AG46:AN47"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
@@ -10873,7 +10562,39 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{F4C40EA9-3578-924E-BF1B-802D85E6C5CE}">
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{C52E2EB6-BD76-1645-838C-EA4ABC745F92}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FF00B050"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW39:BB39</xm:f>
+              <xm:sqref>AK36</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="5.000000000000001E-2" manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{08A56B59-F19C-3B49-AA94-3E18910DA689}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FF00B050"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW38:BB38</xm:f>
+              <xm:sqref>AK30</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{8BFC584E-FEA0-0940-8468-03FA4D01BC3B}">
           <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -10884,8 +10605,216 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Team Metrics'!AW22:BB22</xm:f>
-              <xm:sqref>H5</xm:sqref>
+              <xm:f>'Team Metrics'!AW44:BB44</xm:f>
+              <xm:sqref>AK43</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{FDC6A585-3294-E845-ABD7-0A9EE6AD54B0}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast theme="0" tint="-0.249977111117893"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW43:BB43</xm:f>
+              <xm:sqref>AA43</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{F5614C77-8286-F742-B929-C7A81BA1A682}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast theme="0" tint="-0.249977111117893"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW42:BB42</xm:f>
+              <xm:sqref>R43</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{CDEEB34E-FEB0-BC4F-8728-12F214E1D215}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast theme="0" tint="-0.34998626667073579"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW41:BB41</xm:f>
+              <xm:sqref>H43</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{FB7F1646-3097-0544-B21B-D763618232EC}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FF339966"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW37:BB37</xm:f>
+              <xm:sqref>AK24</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{2DFB55D3-4B11-F440-BFAC-22DA08EF9038}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW35:BB35</xm:f>
+              <xm:sqref>Z24</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{A5168FF9-78DB-8248-9AAF-8FE3FB223891}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFCC3399"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW33:BB33</xm:f>
+              <xm:sqref>AK16</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{93FA3AA0-7E52-E149-A6D5-ECD37C015879}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFCC3399"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW32:BB32</xm:f>
+              <xm:sqref>AB16</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{F1505BFD-1AD4-FB47-AE32-37CCBD8D61C0}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFCC3399"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW31:BB31</xm:f>
+              <xm:sqref>AK10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{A0F97C6B-D297-B74F-A0BD-1A05372E32AD}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFCC3399"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW30:BB30</xm:f>
+              <xm:sqref>AB10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{5D70A36A-8281-9E4B-ACB6-1E8652E5AEAE}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FF4472C4"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW28:BB28</xm:f>
+              <xm:sqref>Q16</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{E2C88339-FCB1-2041-BF1A-EF6E8F9A95A0}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FF4472C4"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW27:BB27</xm:f>
+              <xm:sqref>H16</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{7A4F7879-1C4B-3C4A-A294-1973EC8C5D8E}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FF4472C4"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW26:BB26</xm:f>
+              <xm:sqref>Q10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{38E95271-B073-1E48-BFC5-66D15BDE9BB0}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FF4472C4"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW25:BB25</xm:f>
+              <xm:sqref>H10</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10905,183 +10834,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{38E95271-B073-1E48-BFC5-66D15BDE9BB0}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF4472C4"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW25:BB25</xm:f>
-              <xm:sqref>H10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{7A4F7879-1C4B-3C4A-A294-1973EC8C5D8E}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF4472C4"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW26:BB26</xm:f>
-              <xm:sqref>Q10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{E2C88339-FCB1-2041-BF1A-EF6E8F9A95A0}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF4472C4"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW27:BB27</xm:f>
-              <xm:sqref>H16</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{5D70A36A-8281-9E4B-ACB6-1E8652E5AEAE}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF4472C4"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW28:BB28</xm:f>
-              <xm:sqref>Q16</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{A0F97C6B-D297-B74F-A0BD-1A05372E32AD}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFCC3399"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW30:BB30</xm:f>
-              <xm:sqref>AB10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{F1505BFD-1AD4-FB47-AE32-37CCBD8D61C0}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFCC3399"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW31:BB31</xm:f>
-              <xm:sqref>AK10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{93FA3AA0-7E52-E149-A6D5-ECD37C015879}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFCC3399"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW32:BB32</xm:f>
-              <xm:sqref>AB16</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{A5168FF9-78DB-8248-9AAF-8FE3FB223891}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFCC3399"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW33:BB33</xm:f>
-              <xm:sqref>AK16</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{2DFB55D3-4B11-F440-BFAC-22DA08EF9038}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW35:BB35</xm:f>
-              <xm:sqref>Z24</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{FB7F1646-3097-0544-B21B-D763618232EC}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF339966"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW37:BB37</xm:f>
-              <xm:sqref>AK24</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{CDEEB34E-FEB0-BC4F-8728-12F214E1D215}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast theme="0" tint="-0.34998626667073579"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW41:BB41</xm:f>
-              <xm:sqref>H43</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{F5614C77-8286-F742-B929-C7A81BA1A682}">
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{F4C40EA9-3578-924E-BF1B-802D85E6C5CE}">
           <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11092,72 +10845,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Team Metrics'!AW42:BB42</xm:f>
-              <xm:sqref>R43</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{FDC6A585-3294-E845-ABD7-0A9EE6AD54B0}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast theme="0" tint="-0.249977111117893"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW43:BB43</xm:f>
-              <xm:sqref>AA43</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{8BFC584E-FEA0-0940-8468-03FA4D01BC3B}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast theme="0" tint="-0.249977111117893"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW44:BB44</xm:f>
-              <xm:sqref>AK43</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="5.000000000000001E-2" manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{08A56B59-F19C-3B49-AA94-3E18910DA689}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF00B050"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW38:BB38</xm:f>
-              <xm:sqref>AK30</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{C52E2EB6-BD76-1645-838C-EA4ABC745F92}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF00B050"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW39:BB39</xm:f>
-              <xm:sqref>AK36</xm:sqref>
+              <xm:f>'Team Metrics'!AW22:BB22</xm:f>
+              <xm:sqref>H5</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/ScrumTeamStats_Template.xlsx
+++ b/ScrumTeamStats_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Git/vba-jira/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0384A1-562A-6D4E-BB62-80E0F1C3154D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17F215C-99FC-3544-B9B6-7CFB22510F1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="460" windowWidth="36740" windowHeight="27140" xr2:uid="{29FB89B4-D308-7843-B61E-411B20763035}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27060" xr2:uid="{29FB89B4-D308-7843-B61E-411B20763035}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Metrics" sheetId="1" r:id="rId1"/>
@@ -128,9 +128,6 @@
     <t>Completed Story Points / Committed Story Points for the most recent sprint</t>
   </si>
   <si>
-    <t>Average Lead Time (created - released) for Features released in the last 3 months</t>
-  </si>
-  <si>
     <t>TiP
 Variability</t>
   </si>
@@ -152,9 +149,6 @@
   </si>
   <si>
     <t>Coefficient of Variability for the team's velocity over the last 7 sprints</t>
-  </si>
-  <si>
-    <t>Average Time in Process (start of 1st sprint - released) for PBIs released in the last 3 months</t>
   </si>
   <si>
     <t>Maximum number of PBIs "In Progress" at the same time over the last 3 months</t>
@@ -337,6 +331,12 @@
   <si>
     <t>Bugs (prod issues) with an Affects Version from the last 3 months of releases / Number of PBIs released over the same period</t>
   </si>
+  <si>
+    <t>Median Time in Process (start of 1st sprint - released) for PBIs released in the last 3 months</t>
+  </si>
+  <si>
+    <t>Median Lead Time (created - released) for Features released in the last 3 months</t>
+  </si>
 </sst>
 </file>
 
@@ -349,7 +349,7 @@
     <numFmt numFmtId="167" formatCode="mmm\ yy"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,6 +465,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -981,12 +995,11 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
@@ -994,7 +1007,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
@@ -1003,11 +1015,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1063,17 +1071,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="17" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="9" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1093,13 +1105,49 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1108,32 +1156,56 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1147,20 +1219,29 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1175,18 +1256,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1228,103 +1303,48 @@
     <xf numFmtId="10" fontId="9" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -5077,7 +5097,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Right Triangle 8">
+        <xdr:cNvPr id="9" name="RAG_TeamStability">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69108EB9-AB51-4449-89FA-9FE19D61E3C3}"/>
@@ -5095,7 +5115,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00B050"/>
+          <a:schemeClr val="bg2"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -5143,7 +5163,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Right Triangle 9">
+        <xdr:cNvPr id="10" name="RAG_UnplannedWork">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C60CF511-BE40-6445-A7CA-018263E1C353}"/>
@@ -5161,7 +5181,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="C00000"/>
+          <a:schemeClr val="bg2"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -5227,7 +5247,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00B050"/>
+          <a:schemeClr val="bg2"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -5275,7 +5295,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Right Triangle 11">
+        <xdr:cNvPr id="12" name="RAG_Responsiveness_WiP">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D74C46BF-6491-9645-9953-0833DF604D8E}"/>
@@ -5293,7 +5313,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="C00000"/>
+          <a:schemeClr val="bg2"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -5341,7 +5361,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Right Triangle 12">
+        <xdr:cNvPr id="13" name="RAG_Responsiveness_TiP">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87DF0C2B-F3BB-4E44-BFFD-1BED3F5D8326}"/>
@@ -5359,7 +5379,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="C00000"/>
+          <a:schemeClr val="bg2"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -5407,7 +5427,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Right Triangle 13">
+        <xdr:cNvPr id="14" name="RAG_Responsiveness_LeadTime">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADDEE42E-FBC5-C945-AE20-38E88A13DC1F}"/>
@@ -5425,7 +5445,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="C00000"/>
+          <a:schemeClr val="bg2"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -5473,7 +5493,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Right Triangle 14">
+        <xdr:cNvPr id="15" name="RAG_Redictability_SprintVelocity">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A9710B-7EE9-B34C-9006-037EBED0FA76}"/>
@@ -5491,7 +5511,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="C00000"/>
+          <a:schemeClr val="bg2"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -5557,7 +5577,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="C00000"/>
+          <a:schemeClr val="bg2"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -5623,7 +5643,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="C00000"/>
+          <a:schemeClr val="bg2"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -5689,7 +5709,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="C00000"/>
+          <a:schemeClr val="bg2"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -5737,7 +5757,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Right Triangle 18">
+        <xdr:cNvPr id="19" name="RAG_Quality_MTTR">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ECA662E-7B4C-E04D-B371-3C8219D739C3}"/>
@@ -5755,7 +5775,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="C00000"/>
+          <a:schemeClr val="bg2"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -5803,7 +5823,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Right Triangle 19">
+        <xdr:cNvPr id="20" name="RAG_Quality_DefectDensity">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E469592A-74CB-6344-ABEA-508EB755C054}"/>
@@ -5821,7 +5841,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00B050"/>
+          <a:schemeClr val="bg2"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -5869,7 +5889,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Right Triangle 20">
+        <xdr:cNvPr id="21" name="RAG_Quality_FailRate">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C150FBB2-89FA-D14D-B3D6-4C46A6737958}"/>
@@ -5887,7 +5907,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00B050"/>
+          <a:schemeClr val="bg2"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -5935,7 +5955,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Right Triangle 21">
+        <xdr:cNvPr id="22" name="RAG_Admin_ActiveTime">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08AB04F8-5637-6447-BD31-2C8EF450B066}"/>
@@ -5953,7 +5973,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="C00000"/>
+          <a:schemeClr val="bg2"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -6001,7 +6021,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Right Triangle 22">
+        <xdr:cNvPr id="23" name="RAG_Admin_DoneInSprint">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62718E29-A222-3142-AFD4-9340E7DFF298}"/>
@@ -6019,7 +6039,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00B050"/>
+          <a:schemeClr val="bg2"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -6067,7 +6087,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Right Triangle 23">
+        <xdr:cNvPr id="24" name="RAG_Admin_CorrectProjectEpicLink">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22758376-F335-7646-A01D-0C5F6C05BAA0}"/>
@@ -6085,7 +6105,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00B050"/>
+          <a:schemeClr val="bg2"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -6133,7 +6153,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Right Triangle 24">
+        <xdr:cNvPr id="25" name="RAG_Admin_CorrectStatus">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFDE3B51-3536-9548-8BC4-7E26310E6E5D}"/>
@@ -6151,7 +6171,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00B050"/>
+          <a:schemeClr val="bg2"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -6199,7 +6219,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Right Triangle 25">
+        <xdr:cNvPr id="26" name="RAG_Productivity_Efficiency">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFFAACAF-B13C-4F47-BE63-21C10EADC75F}"/>
@@ -6217,7 +6237,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="C00000"/>
+          <a:schemeClr val="bg2"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -7474,6 +7494,126 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>26458</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>13230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>224896</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171979</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Txt_Copyright">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A4190E8-A232-494F-9A24-546AA89D44A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="224896" y="198438"/>
+          <a:ext cx="3016250" cy="343958"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Scrum Team Stats - Template</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" i="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Author: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" i="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ben Doughton, 2020</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7883,8 +8023,8 @@
   </sheetPr>
   <dimension ref="B2:BH57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB58" sqref="AB58"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="AC53" sqref="AC53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7893,8 +8033,9 @@
     <col min="3" max="41" width="5.6640625" style="1" customWidth="1"/>
     <col min="42" max="42" width="2.6640625" style="1" customWidth="1"/>
     <col min="43" max="44" width="6" style="1" customWidth="1"/>
-    <col min="45" max="45" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="64" width="6" style="1" customWidth="1"/>
+    <col min="45" max="45" width="10.5" style="55" bestFit="1" customWidth="1"/>
+    <col min="46" max="60" width="6" style="55" customWidth="1"/>
+    <col min="61" max="64" width="6" style="1" customWidth="1"/>
     <col min="65" max="65" width="4" style="1" customWidth="1"/>
     <col min="66" max="66" width="3.6640625" style="1" customWidth="1"/>
     <col min="67" max="67" width="4" style="1" customWidth="1"/>
@@ -7928,287 +8069,287 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="140" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="141"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="141"/>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="141"/>
-      <c r="AA2" s="141"/>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="141"/>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="141"/>
-      <c r="AF2" s="141"/>
-      <c r="AG2" s="141"/>
-      <c r="AH2" s="141"/>
-      <c r="AI2" s="141"/>
-      <c r="AJ2" s="141"/>
-      <c r="AK2" s="141"/>
-      <c r="AL2" s="141"/>
-      <c r="AM2" s="141"/>
-      <c r="AN2" s="141"/>
-      <c r="AO2" s="141"/>
-      <c r="AP2" s="142"/>
-      <c r="AT2" s="100" t="s">
+      <c r="B2" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="73"/>
+      <c r="AT2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="AU2" s="100" t="s">
+      <c r="AU2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="AV2" s="100" t="s">
+      <c r="AV2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="AW2" s="100" t="s">
+      <c r="AW2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="AX2" s="100" t="s">
+      <c r="AX2" s="64" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="143"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="144"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="144"/>
-      <c r="T3" s="144"/>
-      <c r="U3" s="144"/>
-      <c r="V3" s="144"/>
-      <c r="W3" s="144"/>
-      <c r="X3" s="144"/>
-      <c r="Y3" s="144"/>
-      <c r="Z3" s="144"/>
-      <c r="AA3" s="144"/>
-      <c r="AB3" s="144"/>
-      <c r="AC3" s="144"/>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="144"/>
-      <c r="AF3" s="144"/>
-      <c r="AG3" s="144"/>
-      <c r="AH3" s="144"/>
-      <c r="AI3" s="144"/>
-      <c r="AJ3" s="144"/>
-      <c r="AK3" s="144"/>
-      <c r="AL3" s="144"/>
-      <c r="AM3" s="144"/>
-      <c r="AN3" s="144"/>
-      <c r="AO3" s="144"/>
-      <c r="AP3" s="145"/>
-      <c r="AS3" s="146"/>
-      <c r="AT3" s="100"/>
-      <c r="AU3" s="100"/>
-      <c r="AV3" s="100"/>
-      <c r="AW3" s="100"/>
-      <c r="AX3" s="100"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="75"/>
+      <c r="AF3" s="75"/>
+      <c r="AG3" s="75"/>
+      <c r="AH3" s="75"/>
+      <c r="AI3" s="75"/>
+      <c r="AJ3" s="75"/>
+      <c r="AK3" s="75"/>
+      <c r="AL3" s="75"/>
+      <c r="AM3" s="75"/>
+      <c r="AN3" s="75"/>
+      <c r="AO3" s="75"/>
+      <c r="AP3" s="76"/>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="64"/>
+      <c r="AU3" s="64"/>
+      <c r="AV3" s="64"/>
+      <c r="AW3" s="64"/>
+      <c r="AX3" s="64"/>
     </row>
     <row r="4" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
       <c r="AP4" s="3"/>
-      <c r="AS4" s="146">
+      <c r="AS4" s="57">
         <v>43992</v>
       </c>
-      <c r="AT4" s="100"/>
-      <c r="AU4" s="100"/>
-      <c r="AV4" s="100"/>
-      <c r="AW4" s="100"/>
-      <c r="AX4" s="100"/>
+      <c r="AT4" s="64"/>
+      <c r="AU4" s="64"/>
+      <c r="AV4" s="64"/>
+      <c r="AW4" s="64"/>
+      <c r="AX4" s="64"/>
     </row>
     <row r="5" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="D5" s="91" t="s">
+      <c r="D5" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="69">
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="113">
         <f>BB22</f>
         <v>0.88</v>
       </c>
-      <c r="K5" s="69"/>
-      <c r="L5" s="123" t="s">
+      <c r="K5" s="113"/>
+      <c r="L5" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="123"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="123"/>
-      <c r="R5" s="123"/>
-      <c r="S5" s="123"/>
-      <c r="T5" s="124"/>
-      <c r="X5" s="91" t="s">
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="85"/>
+      <c r="X5" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="Y5" s="119"/>
-      <c r="Z5" s="119"/>
-      <c r="AA5" s="119"/>
-      <c r="AB5" s="63"/>
-      <c r="AC5" s="64"/>
-      <c r="AD5" s="120" t="s">
+      <c r="Y5" s="96"/>
+      <c r="Z5" s="96"/>
+      <c r="AA5" s="96"/>
+      <c r="AB5" s="65"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AE5" s="120"/>
-      <c r="AF5" s="123" t="s">
+      <c r="AE5" s="81"/>
+      <c r="AF5" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="AG5" s="123"/>
-      <c r="AH5" s="123"/>
-      <c r="AI5" s="123"/>
-      <c r="AJ5" s="123"/>
-      <c r="AK5" s="123"/>
-      <c r="AL5" s="123"/>
-      <c r="AM5" s="123"/>
-      <c r="AN5" s="124"/>
+      <c r="AG5" s="84"/>
+      <c r="AH5" s="84"/>
+      <c r="AI5" s="84"/>
+      <c r="AJ5" s="84"/>
+      <c r="AK5" s="84"/>
+      <c r="AL5" s="84"/>
+      <c r="AM5" s="84"/>
+      <c r="AN5" s="85"/>
       <c r="AP5" s="3"/>
-      <c r="AS5" s="1" t="s">
+      <c r="AS5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="AT5" s="4">
+      <c r="AT5" s="58">
         <v>5</v>
       </c>
-      <c r="AU5" s="4">
+      <c r="AU5" s="58">
         <v>3</v>
       </c>
-      <c r="AV5" s="4">
+      <c r="AV5" s="58">
         <v>6</v>
       </c>
-      <c r="AW5" s="4">
+      <c r="AW5" s="58">
         <v>2</v>
       </c>
-      <c r="AX5" s="4">
+      <c r="AX5" s="58">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="73"/>
-      <c r="X6" s="135"/>
-      <c r="Y6" s="136"/>
-      <c r="Z6" s="136"/>
-      <c r="AA6" s="136"/>
-      <c r="AB6" s="65"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="121"/>
-      <c r="AE6" s="121"/>
-      <c r="AF6" s="72"/>
-      <c r="AG6" s="72"/>
-      <c r="AH6" s="72"/>
-      <c r="AI6" s="72"/>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="72"/>
-      <c r="AM6" s="72"/>
-      <c r="AN6" s="73"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="87"/>
+      <c r="X6" s="109"/>
+      <c r="Y6" s="110"/>
+      <c r="Z6" s="110"/>
+      <c r="AA6" s="110"/>
+      <c r="AB6" s="67"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="82"/>
+      <c r="AE6" s="82"/>
+      <c r="AF6" s="86"/>
+      <c r="AG6" s="86"/>
+      <c r="AH6" s="86"/>
+      <c r="AI6" s="86"/>
+      <c r="AJ6" s="86"/>
+      <c r="AK6" s="86"/>
+      <c r="AL6" s="86"/>
+      <c r="AM6" s="86"/>
+      <c r="AN6" s="87"/>
       <c r="AP6" s="3"/>
-      <c r="AS6" s="1" t="s">
+      <c r="AS6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="AT6" s="4">
+      <c r="AT6" s="58">
         <v>7</v>
       </c>
-      <c r="AU6" s="4">
+      <c r="AU6" s="58">
         <v>1</v>
       </c>
-      <c r="AV6" s="4">
+      <c r="AV6" s="58">
         <v>1.6666666666666667</v>
       </c>
-      <c r="AW6" s="4">
+      <c r="AW6" s="58">
         <v>1.3333333333333333</v>
       </c>
-      <c r="AX6" s="4">
+      <c r="AX6" s="58">
         <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="75"/>
-      <c r="T7" s="76"/>
-      <c r="X7" s="137"/>
-      <c r="Y7" s="138"/>
-      <c r="Z7" s="138"/>
-      <c r="AA7" s="138"/>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="68"/>
-      <c r="AD7" s="122"/>
-      <c r="AE7" s="122"/>
-      <c r="AF7" s="75"/>
-      <c r="AG7" s="75"/>
-      <c r="AH7" s="75"/>
-      <c r="AI7" s="75"/>
-      <c r="AJ7" s="75"/>
-      <c r="AK7" s="75"/>
-      <c r="AL7" s="75"/>
-      <c r="AM7" s="75"/>
-      <c r="AN7" s="76"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="89"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="112"/>
+      <c r="Z7" s="112"/>
+      <c r="AA7" s="112"/>
+      <c r="AB7" s="69"/>
+      <c r="AC7" s="70"/>
+      <c r="AD7" s="83"/>
+      <c r="AE7" s="83"/>
+      <c r="AF7" s="88"/>
+      <c r="AG7" s="88"/>
+      <c r="AH7" s="88"/>
+      <c r="AI7" s="88"/>
+      <c r="AJ7" s="88"/>
+      <c r="AK7" s="88"/>
+      <c r="AL7" s="88"/>
+      <c r="AM7" s="88"/>
+      <c r="AN7" s="89"/>
       <c r="AP7" s="3"/>
     </row>
     <row r="8" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8217,2254 +8358,2320 @@
     </row>
     <row r="9" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="6"/>
-      <c r="W9" s="128" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="5"/>
+      <c r="W9" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="7"/>
-      <c r="AO9" s="8"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="7"/>
       <c r="AP9" s="3"/>
     </row>
     <row r="10" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="119" t="s">
+      <c r="C10" s="91"/>
+      <c r="D10" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="131" t="s">
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="132"/>
-      <c r="M10" s="91" t="s">
+      <c r="K10" s="100"/>
+      <c r="M10" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="83">
+      <c r="N10" s="97"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="105">
         <v>0.46666666666666667</v>
       </c>
-      <c r="T10" s="84"/>
-      <c r="U10" s="9"/>
-      <c r="W10" s="129"/>
-      <c r="X10" s="59" t="s">
+      <c r="T10" s="106"/>
+      <c r="U10" s="8"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="63"/>
-      <c r="AC10" s="64"/>
-      <c r="AD10" s="92">
+      <c r="Y10" s="97"/>
+      <c r="Z10" s="97"/>
+      <c r="AA10" s="97"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="66"/>
+      <c r="AD10" s="117">
         <v>156</v>
       </c>
-      <c r="AE10" s="93"/>
-      <c r="AG10" s="91" t="s">
+      <c r="AE10" s="118"/>
+      <c r="AG10" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="AH10" s="60"/>
-      <c r="AI10" s="60"/>
-      <c r="AJ10" s="60"/>
-      <c r="AK10" s="63"/>
-      <c r="AL10" s="64"/>
-      <c r="AM10" s="115">
+      <c r="AH10" s="97"/>
+      <c r="AI10" s="97"/>
+      <c r="AJ10" s="97"/>
+      <c r="AK10" s="65"/>
+      <c r="AL10" s="66"/>
+      <c r="AM10" s="77">
         <v>3</v>
       </c>
-      <c r="AN10" s="116"/>
-      <c r="AO10" s="10"/>
+      <c r="AN10" s="78"/>
+      <c r="AO10" s="9"/>
       <c r="AP10" s="3"/>
     </row>
     <row r="11" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="133"/>
-      <c r="K11" s="134"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="85"/>
-      <c r="T11" s="86"/>
-      <c r="U11" s="9"/>
-      <c r="W11" s="129"/>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="94"/>
-      <c r="AE11" s="95"/>
-      <c r="AG11" s="61"/>
-      <c r="AH11" s="62"/>
-      <c r="AI11" s="62"/>
-      <c r="AJ11" s="62"/>
-      <c r="AK11" s="65"/>
-      <c r="AL11" s="66"/>
-      <c r="AM11" s="117"/>
-      <c r="AN11" s="118"/>
-      <c r="AO11" s="10"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="102"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="108"/>
+      <c r="U11" s="8"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="104"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="98"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="68"/>
+      <c r="AD11" s="119"/>
+      <c r="AE11" s="120"/>
+      <c r="AG11" s="104"/>
+      <c r="AH11" s="98"/>
+      <c r="AI11" s="98"/>
+      <c r="AJ11" s="98"/>
+      <c r="AK11" s="67"/>
+      <c r="AL11" s="68"/>
+      <c r="AM11" s="79"/>
+      <c r="AN11" s="80"/>
+      <c r="AO11" s="9"/>
       <c r="AP11" s="3"/>
-      <c r="AS11" s="11" t="s">
+      <c r="AS11" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="AT11" s="12">
+      <c r="AT11" s="59">
         <v>0</v>
       </c>
-      <c r="AU11" s="12">
+      <c r="AU11" s="59">
         <v>3</v>
       </c>
-      <c r="AV11" s="12">
+      <c r="AV11" s="59">
         <v>9</v>
       </c>
-      <c r="AW11" s="12">
+      <c r="AW11" s="59">
         <v>2</v>
       </c>
-      <c r="AX11" s="12">
+      <c r="AX11" s="59">
         <v>6</v>
       </c>
-      <c r="AY11" s="12">
+      <c r="AY11" s="59">
         <v>4</v>
       </c>
-      <c r="AZ11" s="12">
+      <c r="AZ11" s="59">
         <v>5</v>
       </c>
-      <c r="BA11" s="12">
+      <c r="BA11" s="59">
         <v>2</v>
       </c>
-      <c r="BB11" s="12">
+      <c r="BB11" s="59">
         <v>13</v>
       </c>
-      <c r="BC11" s="12">
+      <c r="BC11" s="59">
         <v>9</v>
       </c>
-      <c r="BD11" s="12">
+      <c r="BD11" s="59">
         <v>0</v>
       </c>
-      <c r="BE11" s="12">
+      <c r="BE11" s="59">
         <v>5</v>
       </c>
-      <c r="BF11" s="12">
+      <c r="BF11" s="59">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="133"/>
-      <c r="K12" s="134"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="85"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="9"/>
-      <c r="W12" s="129"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="67"/>
-      <c r="AC12" s="68"/>
-      <c r="AD12" s="94"/>
-      <c r="AE12" s="95"/>
-      <c r="AG12" s="61"/>
-      <c r="AH12" s="62"/>
-      <c r="AI12" s="62"/>
-      <c r="AJ12" s="62"/>
-      <c r="AK12" s="67"/>
-      <c r="AL12" s="68"/>
-      <c r="AM12" s="117"/>
-      <c r="AN12" s="118"/>
-      <c r="AO12" s="10"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="102"/>
+      <c r="M12" s="104"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="108"/>
+      <c r="U12" s="8"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="104"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="69"/>
+      <c r="AC12" s="70"/>
+      <c r="AD12" s="119"/>
+      <c r="AE12" s="120"/>
+      <c r="AG12" s="104"/>
+      <c r="AH12" s="98"/>
+      <c r="AI12" s="98"/>
+      <c r="AJ12" s="98"/>
+      <c r="AK12" s="69"/>
+      <c r="AL12" s="70"/>
+      <c r="AM12" s="79"/>
+      <c r="AN12" s="80"/>
+      <c r="AO12" s="9"/>
       <c r="AP12" s="3"/>
-      <c r="AS12" s="11" t="s">
+      <c r="AS12" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="AT12" s="12">
+      <c r="AT12" s="59">
         <v>1</v>
       </c>
-      <c r="AU12" s="12">
+      <c r="AU12" s="59">
         <v>1</v>
       </c>
-      <c r="AV12" s="12">
+      <c r="AV12" s="59">
         <v>3</v>
       </c>
-      <c r="AW12" s="12">
+      <c r="AW12" s="59">
         <v>1</v>
       </c>
-      <c r="AX12" s="12">
+      <c r="AX12" s="59">
         <v>1</v>
       </c>
-      <c r="AY12" s="12">
+      <c r="AY12" s="59">
         <v>2</v>
       </c>
-      <c r="AZ12" s="12">
+      <c r="AZ12" s="59">
         <v>3</v>
       </c>
-      <c r="BA12" s="12">
+      <c r="BA12" s="59">
         <v>1</v>
       </c>
-      <c r="BB12" s="12">
+      <c r="BB12" s="59">
         <v>2</v>
       </c>
-      <c r="BC12" s="12">
+      <c r="BC12" s="59">
         <v>0</v>
       </c>
-      <c r="BD12" s="12">
+      <c r="BD12" s="59">
         <v>0</v>
       </c>
-      <c r="BE12" s="12">
+      <c r="BE12" s="59">
         <v>3</v>
       </c>
-      <c r="BF12" s="12">
+      <c r="BF12" s="59">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="72" t="s">
+      <c r="C13" s="91"/>
+      <c r="D13" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="73"/>
-      <c r="M13" s="71" t="s">
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="87"/>
+      <c r="M13" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="9"/>
-      <c r="W13" s="129"/>
-      <c r="X13" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y13" s="72"/>
-      <c r="Z13" s="72"/>
-      <c r="AA13" s="72"/>
-      <c r="AB13" s="72"/>
-      <c r="AC13" s="72"/>
-      <c r="AD13" s="72"/>
-      <c r="AE13" s="73"/>
-      <c r="AG13" s="71" t="str">
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="8"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y13" s="86"/>
+      <c r="Z13" s="86"/>
+      <c r="AA13" s="86"/>
+      <c r="AB13" s="86"/>
+      <c r="AC13" s="86"/>
+      <c r="AD13" s="86"/>
+      <c r="AE13" s="87"/>
+      <c r="AG13" s="121" t="str">
         <f>"Number of code deployments in the previous calendar month ("&amp;TEXT(BE16,"mmm")&amp;")"</f>
         <v>Number of code deployments in the previous calendar month (May)</v>
       </c>
-      <c r="AH13" s="72"/>
-      <c r="AI13" s="72"/>
-      <c r="AJ13" s="72"/>
-      <c r="AK13" s="72"/>
-      <c r="AL13" s="72"/>
-      <c r="AM13" s="72"/>
-      <c r="AN13" s="73"/>
-      <c r="AO13" s="10"/>
+      <c r="AH13" s="86"/>
+      <c r="AI13" s="86"/>
+      <c r="AJ13" s="86"/>
+      <c r="AK13" s="86"/>
+      <c r="AL13" s="86"/>
+      <c r="AM13" s="86"/>
+      <c r="AN13" s="87"/>
+      <c r="AO13" s="9"/>
       <c r="AP13" s="3"/>
-      <c r="AS13" s="11" t="s">
+      <c r="AS13" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="AT13" s="12">
+      <c r="AT13" s="59">
         <v>0</v>
       </c>
-      <c r="AU13" s="12">
+      <c r="AU13" s="59">
         <v>0</v>
       </c>
-      <c r="AV13" s="12">
+      <c r="AV13" s="59">
         <v>2</v>
       </c>
-      <c r="AW13" s="12">
+      <c r="AW13" s="59">
         <v>1</v>
       </c>
-      <c r="AX13" s="12">
+      <c r="AX13" s="59">
         <v>0</v>
       </c>
-      <c r="AY13" s="12">
+      <c r="AY13" s="59">
         <v>0</v>
       </c>
-      <c r="AZ13" s="12">
+      <c r="AZ13" s="59">
         <v>3</v>
       </c>
-      <c r="BA13" s="12">
+      <c r="BA13" s="59">
         <v>0</v>
       </c>
-      <c r="BB13" s="12">
+      <c r="BB13" s="59">
         <v>2</v>
       </c>
-      <c r="BC13" s="12">
+      <c r="BC13" s="59">
         <v>5</v>
       </c>
-      <c r="BD13" s="12">
+      <c r="BD13" s="59">
         <v>0</v>
       </c>
-      <c r="BE13" s="12">
+      <c r="BE13" s="59">
         <v>6</v>
       </c>
-      <c r="BF13" s="12">
+      <c r="BF13" s="59">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="76"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="75"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="9"/>
-      <c r="W14" s="129"/>
-      <c r="X14" s="74"/>
-      <c r="Y14" s="75"/>
-      <c r="Z14" s="75"/>
-      <c r="AA14" s="75"/>
-      <c r="AB14" s="75"/>
-      <c r="AC14" s="75"/>
-      <c r="AD14" s="75"/>
-      <c r="AE14" s="76"/>
-      <c r="AG14" s="74"/>
-      <c r="AH14" s="75"/>
-      <c r="AI14" s="75"/>
-      <c r="AJ14" s="75"/>
-      <c r="AK14" s="75"/>
-      <c r="AL14" s="75"/>
-      <c r="AM14" s="75"/>
-      <c r="AN14" s="76"/>
-      <c r="AO14" s="10"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="89"/>
+      <c r="M14" s="122"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="88"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="8"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="122"/>
+      <c r="Y14" s="88"/>
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="88"/>
+      <c r="AB14" s="88"/>
+      <c r="AC14" s="88"/>
+      <c r="AD14" s="88"/>
+      <c r="AE14" s="89"/>
+      <c r="AG14" s="122"/>
+      <c r="AH14" s="88"/>
+      <c r="AI14" s="88"/>
+      <c r="AJ14" s="88"/>
+      <c r="AK14" s="88"/>
+      <c r="AL14" s="88"/>
+      <c r="AM14" s="88"/>
+      <c r="AN14" s="89"/>
+      <c r="AO14" s="9"/>
       <c r="AP14" s="3"/>
-      <c r="AS14" s="11" t="s">
+      <c r="AS14" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="AT14" s="12">
+      <c r="AT14" s="59">
         <v>0</v>
       </c>
-      <c r="AU14" s="12">
+      <c r="AU14" s="59">
         <v>0</v>
       </c>
-      <c r="AV14" s="12">
+      <c r="AV14" s="59">
         <v>0</v>
       </c>
-      <c r="AW14" s="12">
+      <c r="AW14" s="59">
         <v>1</v>
       </c>
-      <c r="AX14" s="12">
+      <c r="AX14" s="59">
         <v>1</v>
       </c>
-      <c r="AY14" s="12">
+      <c r="AY14" s="59">
         <v>0</v>
       </c>
-      <c r="AZ14" s="12">
+      <c r="AZ14" s="59">
         <v>2</v>
       </c>
-      <c r="BA14" s="12">
+      <c r="BA14" s="59">
         <v>1</v>
       </c>
-      <c r="BB14" s="12">
+      <c r="BB14" s="59">
         <v>1</v>
       </c>
-      <c r="BC14" s="12">
+      <c r="BC14" s="59">
         <v>1</v>
       </c>
-      <c r="BD14" s="12">
+      <c r="BD14" s="59">
         <v>0</v>
       </c>
-      <c r="BE14" s="12">
+      <c r="BE14" s="59">
         <v>2</v>
       </c>
-      <c r="BF14" s="12">
+      <c r="BF14" s="59">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
-      <c r="C15" s="126"/>
-      <c r="U15" s="9"/>
-      <c r="W15" s="129"/>
-      <c r="AO15" s="10"/>
+      <c r="C15" s="91"/>
+      <c r="U15" s="8"/>
+      <c r="W15" s="94"/>
+      <c r="AO15" s="9"/>
       <c r="AP15" s="3"/>
-      <c r="AS15" s="11" t="s">
+      <c r="AS15" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="AT15" s="12">
+      <c r="AT15" s="59">
         <v>0</v>
       </c>
-      <c r="AU15" s="12">
+      <c r="AU15" s="59">
         <v>0</v>
       </c>
-      <c r="AV15" s="12">
+      <c r="AV15" s="59">
         <v>2</v>
       </c>
-      <c r="AW15" s="12">
+      <c r="AW15" s="59">
         <v>1</v>
       </c>
-      <c r="AX15" s="12">
+      <c r="AX15" s="59">
         <v>0</v>
       </c>
-      <c r="AY15" s="12">
+      <c r="AY15" s="59">
         <v>0</v>
       </c>
-      <c r="AZ15" s="12">
+      <c r="AZ15" s="59">
         <v>2</v>
       </c>
-      <c r="BA15" s="12">
+      <c r="BA15" s="59">
         <v>1</v>
       </c>
-      <c r="BB15" s="12">
+      <c r="BB15" s="59">
         <v>1</v>
       </c>
-      <c r="BC15" s="12">
+      <c r="BC15" s="59">
         <v>0</v>
       </c>
-      <c r="BD15" s="12">
+      <c r="BD15" s="59">
         <v>0</v>
       </c>
-      <c r="BE15" s="12">
+      <c r="BE15" s="59">
         <v>5</v>
       </c>
-      <c r="BF15" s="12">
+      <c r="BF15" s="59">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="119" t="s">
+      <c r="C16" s="91"/>
+      <c r="D16" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="105">
+        <v>0.60897012673056483</v>
+      </c>
+      <c r="K16" s="106"/>
+      <c r="M16" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="83">
-        <v>0.60897012673056483</v>
-      </c>
-      <c r="K16" s="84"/>
-      <c r="M16" s="91" t="s">
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="105">
+        <v>0.51899473632415571</v>
+      </c>
+      <c r="T16" s="106"/>
+      <c r="U16" s="8"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="83">
-        <v>0.51899473632415571</v>
-      </c>
-      <c r="T16" s="84"/>
-      <c r="U16" s="9"/>
-      <c r="W16" s="129"/>
-      <c r="X16" s="59" t="s">
+      <c r="Y16" s="97"/>
+      <c r="Z16" s="97"/>
+      <c r="AA16" s="97"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="66"/>
+      <c r="AD16" s="117">
+        <v>73</v>
+      </c>
+      <c r="AE16" s="118"/>
+      <c r="AG16" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="Y16" s="60"/>
-      <c r="Z16" s="60"/>
-      <c r="AA16" s="60"/>
-      <c r="AB16" s="63"/>
-      <c r="AC16" s="64"/>
-      <c r="AD16" s="92">
-        <v>73</v>
-      </c>
-      <c r="AE16" s="93"/>
-      <c r="AG16" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH16" s="60"/>
-      <c r="AI16" s="60"/>
-      <c r="AJ16" s="60"/>
-      <c r="AK16" s="63"/>
-      <c r="AL16" s="64"/>
-      <c r="AM16" s="115">
+      <c r="AH16" s="97"/>
+      <c r="AI16" s="97"/>
+      <c r="AJ16" s="97"/>
+      <c r="AK16" s="65"/>
+      <c r="AL16" s="66"/>
+      <c r="AM16" s="77">
         <f>BB33</f>
         <v>7</v>
       </c>
-      <c r="AN16" s="116"/>
-      <c r="AO16" s="10"/>
+      <c r="AN16" s="78"/>
+      <c r="AO16" s="9"/>
       <c r="AP16" s="3"/>
-      <c r="AS16" s="11"/>
-      <c r="AT16" s="114">
+      <c r="AT16" s="123">
         <v>43646</v>
       </c>
-      <c r="AU16" s="114">
+      <c r="AU16" s="123">
         <v>43677</v>
       </c>
-      <c r="AV16" s="114">
+      <c r="AV16" s="123">
         <v>43708</v>
       </c>
-      <c r="AW16" s="114">
+      <c r="AW16" s="123">
         <v>43738</v>
       </c>
-      <c r="AX16" s="114">
+      <c r="AX16" s="123">
         <v>43769</v>
       </c>
-      <c r="AY16" s="114">
+      <c r="AY16" s="123">
         <v>43799</v>
       </c>
-      <c r="AZ16" s="114">
+      <c r="AZ16" s="123">
         <v>43830</v>
       </c>
-      <c r="BA16" s="114">
+      <c r="BA16" s="123">
         <v>43861</v>
       </c>
-      <c r="BB16" s="114">
+      <c r="BB16" s="123">
         <v>43890</v>
       </c>
-      <c r="BC16" s="114">
+      <c r="BC16" s="123">
         <v>43921</v>
       </c>
-      <c r="BD16" s="114">
+      <c r="BD16" s="123">
         <v>43951</v>
       </c>
-      <c r="BE16" s="114">
+      <c r="BE16" s="123">
         <v>43982</v>
       </c>
-      <c r="BF16" s="100" t="s">
-        <v>27</v>
+      <c r="BF16" s="64" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="86"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="9"/>
-      <c r="W17" s="129"/>
-      <c r="X17" s="61"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="62"/>
-      <c r="AB17" s="65"/>
-      <c r="AC17" s="66"/>
-      <c r="AD17" s="94"/>
-      <c r="AE17" s="95"/>
-      <c r="AG17" s="61"/>
-      <c r="AH17" s="62"/>
-      <c r="AI17" s="62"/>
-      <c r="AJ17" s="62"/>
-      <c r="AK17" s="65"/>
-      <c r="AL17" s="66"/>
-      <c r="AM17" s="117"/>
-      <c r="AN17" s="118"/>
-      <c r="AO17" s="10"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="108"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="107"/>
+      <c r="T17" s="108"/>
+      <c r="U17" s="8"/>
+      <c r="W17" s="94"/>
+      <c r="X17" s="104"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="98"/>
+      <c r="AB17" s="67"/>
+      <c r="AC17" s="68"/>
+      <c r="AD17" s="119"/>
+      <c r="AE17" s="120"/>
+      <c r="AG17" s="104"/>
+      <c r="AH17" s="98"/>
+      <c r="AI17" s="98"/>
+      <c r="AJ17" s="98"/>
+      <c r="AK17" s="67"/>
+      <c r="AL17" s="68"/>
+      <c r="AM17" s="79"/>
+      <c r="AN17" s="80"/>
+      <c r="AO17" s="9"/>
       <c r="AP17" s="3"/>
-      <c r="AS17" s="13"/>
-      <c r="AT17" s="114"/>
-      <c r="AU17" s="114"/>
-      <c r="AV17" s="114"/>
-      <c r="AW17" s="114"/>
-      <c r="AX17" s="114"/>
-      <c r="AY17" s="114"/>
-      <c r="AZ17" s="114"/>
-      <c r="BA17" s="114"/>
-      <c r="BB17" s="114"/>
-      <c r="BC17" s="114"/>
-      <c r="BD17" s="114"/>
-      <c r="BE17" s="114"/>
-      <c r="BF17" s="100"/>
+      <c r="AS17" s="60"/>
+      <c r="AT17" s="123"/>
+      <c r="AU17" s="123"/>
+      <c r="AV17" s="123"/>
+      <c r="AW17" s="123"/>
+      <c r="AX17" s="123"/>
+      <c r="AY17" s="123"/>
+      <c r="AZ17" s="123"/>
+      <c r="BA17" s="123"/>
+      <c r="BB17" s="123"/>
+      <c r="BC17" s="123"/>
+      <c r="BD17" s="123"/>
+      <c r="BE17" s="123"/>
+      <c r="BF17" s="64"/>
     </row>
     <row r="18" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="86"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="86"/>
-      <c r="U18" s="9"/>
-      <c r="W18" s="129"/>
-      <c r="X18" s="61"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="62"/>
-      <c r="AB18" s="67"/>
-      <c r="AC18" s="68"/>
-      <c r="AD18" s="94"/>
-      <c r="AE18" s="95"/>
-      <c r="AG18" s="61"/>
-      <c r="AH18" s="62"/>
-      <c r="AI18" s="62"/>
-      <c r="AJ18" s="62"/>
-      <c r="AK18" s="67"/>
-      <c r="AL18" s="68"/>
-      <c r="AM18" s="117"/>
-      <c r="AN18" s="118"/>
-      <c r="AO18" s="10"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="108"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="108"/>
+      <c r="U18" s="8"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="104"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="98"/>
+      <c r="AB18" s="69"/>
+      <c r="AC18" s="70"/>
+      <c r="AD18" s="119"/>
+      <c r="AE18" s="120"/>
+      <c r="AG18" s="104"/>
+      <c r="AH18" s="98"/>
+      <c r="AI18" s="98"/>
+      <c r="AJ18" s="98"/>
+      <c r="AK18" s="69"/>
+      <c r="AL18" s="70"/>
+      <c r="AM18" s="79"/>
+      <c r="AN18" s="80"/>
+      <c r="AO18" s="9"/>
       <c r="AP18" s="3"/>
-      <c r="AS18" s="13"/>
-      <c r="AT18" s="114"/>
-      <c r="AU18" s="114"/>
-      <c r="AV18" s="114"/>
-      <c r="AW18" s="114"/>
-      <c r="AX18" s="114"/>
-      <c r="AY18" s="114"/>
-      <c r="AZ18" s="114"/>
-      <c r="BA18" s="114"/>
-      <c r="BB18" s="114"/>
-      <c r="BC18" s="114"/>
-      <c r="BD18" s="114"/>
-      <c r="BE18" s="114"/>
-      <c r="BF18" s="100"/>
+      <c r="AS18" s="60"/>
+      <c r="AT18" s="123"/>
+      <c r="AU18" s="123"/>
+      <c r="AV18" s="123"/>
+      <c r="AW18" s="123"/>
+      <c r="AX18" s="123"/>
+      <c r="AY18" s="123"/>
+      <c r="AZ18" s="123"/>
+      <c r="BA18" s="123"/>
+      <c r="BB18" s="123"/>
+      <c r="BC18" s="123"/>
+      <c r="BD18" s="123"/>
+      <c r="BE18" s="123"/>
+      <c r="BF18" s="64"/>
     </row>
     <row r="19" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="72" t="s">
+      <c r="C19" s="91"/>
+      <c r="D19" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="87"/>
+      <c r="M19" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="73"/>
-      <c r="M19" s="71" t="s">
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="8"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="121" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y19" s="86"/>
+      <c r="Z19" s="86"/>
+      <c r="AA19" s="86"/>
+      <c r="AB19" s="86"/>
+      <c r="AC19" s="86"/>
+      <c r="AD19" s="86"/>
+      <c r="AE19" s="87"/>
+      <c r="AG19" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="72"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="73"/>
-      <c r="U19" s="9"/>
-      <c r="W19" s="129"/>
-      <c r="X19" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y19" s="72"/>
-      <c r="Z19" s="72"/>
-      <c r="AA19" s="72"/>
-      <c r="AB19" s="72"/>
-      <c r="AC19" s="72"/>
-      <c r="AD19" s="72"/>
-      <c r="AE19" s="73"/>
-      <c r="AG19" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH19" s="72"/>
-      <c r="AI19" s="72"/>
-      <c r="AJ19" s="72"/>
-      <c r="AK19" s="72"/>
-      <c r="AL19" s="72"/>
-      <c r="AM19" s="72"/>
-      <c r="AN19" s="73"/>
-      <c r="AO19" s="10"/>
+      <c r="AH19" s="86"/>
+      <c r="AI19" s="86"/>
+      <c r="AJ19" s="86"/>
+      <c r="AK19" s="86"/>
+      <c r="AL19" s="86"/>
+      <c r="AM19" s="86"/>
+      <c r="AN19" s="87"/>
+      <c r="AO19" s="9"/>
       <c r="AP19" s="3"/>
     </row>
     <row r="20" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
-      <c r="C20" s="126"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="76"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="75"/>
-      <c r="S20" s="75"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="9"/>
-      <c r="W20" s="129"/>
-      <c r="X20" s="74"/>
-      <c r="Y20" s="75"/>
-      <c r="Z20" s="75"/>
-      <c r="AA20" s="75"/>
-      <c r="AB20" s="75"/>
-      <c r="AC20" s="75"/>
-      <c r="AD20" s="75"/>
-      <c r="AE20" s="76"/>
-      <c r="AG20" s="74"/>
-      <c r="AH20" s="75"/>
-      <c r="AI20" s="75"/>
-      <c r="AJ20" s="75"/>
-      <c r="AK20" s="75"/>
-      <c r="AL20" s="75"/>
-      <c r="AM20" s="75"/>
-      <c r="AN20" s="76"/>
-      <c r="AO20" s="10"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="89"/>
+      <c r="M20" s="122"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="88"/>
+      <c r="S20" s="88"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="8"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="122"/>
+      <c r="Y20" s="88"/>
+      <c r="Z20" s="88"/>
+      <c r="AA20" s="88"/>
+      <c r="AB20" s="88"/>
+      <c r="AC20" s="88"/>
+      <c r="AD20" s="88"/>
+      <c r="AE20" s="89"/>
+      <c r="AG20" s="122"/>
+      <c r="AH20" s="88"/>
+      <c r="AI20" s="88"/>
+      <c r="AJ20" s="88"/>
+      <c r="AK20" s="88"/>
+      <c r="AL20" s="88"/>
+      <c r="AM20" s="88"/>
+      <c r="AN20" s="89"/>
+      <c r="AO20" s="9"/>
       <c r="AP20" s="3"/>
     </row>
     <row r="21" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="16"/>
-      <c r="W21" s="130"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="17"/>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="17"/>
-      <c r="AF21" s="17"/>
-      <c r="AG21" s="17"/>
-      <c r="AH21" s="17"/>
-      <c r="AI21" s="17"/>
-      <c r="AJ21" s="17"/>
-      <c r="AK21" s="17"/>
-      <c r="AL21" s="17"/>
-      <c r="AM21" s="17"/>
-      <c r="AN21" s="17"/>
-      <c r="AO21" s="18"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="14"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="15"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="15"/>
+      <c r="AK21" s="15"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="15"/>
+      <c r="AN21" s="15"/>
+      <c r="AO21" s="16"/>
       <c r="AP21" s="3"/>
-      <c r="AW21" s="19" t="s">
+      <c r="AW21" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX21" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY21" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="AX21" s="19" t="s">
+      <c r="AZ21" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="AY21" s="19" t="s">
+      <c r="BA21" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="AZ21" s="19" t="s">
+      <c r="BB21" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="BA21" s="19" t="s">
+      <c r="BD21" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="BB21" s="19" t="s">
+      <c r="BE21" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="BD21" s="1" t="s">
+      <c r="BF21" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="BE21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BF21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BG21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BH21" s="1" t="s">
-        <v>38</v>
+      <c r="BG21" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="BH21" s="55" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22"/>
-      <c r="AF22" s="20"/>
-      <c r="AG22" s="20"/>
-      <c r="AH22" s="20"/>
-      <c r="AI22" s="20"/>
-      <c r="AJ22" s="20"/>
-      <c r="AK22" s="20"/>
-      <c r="AL22" s="20"/>
-      <c r="AM22" s="20"/>
-      <c r="AN22" s="20"/>
-      <c r="AO22" s="20"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="17"/>
+      <c r="AL22" s="17"/>
+      <c r="AM22" s="17"/>
+      <c r="AN22" s="17"/>
+      <c r="AO22" s="17"/>
       <c r="AP22" s="3"/>
-      <c r="AS22" s="1" t="s">
+      <c r="AS22" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AW22" s="21">
+      <c r="AW22" s="62">
         <v>0.2</v>
       </c>
-      <c r="AX22" s="21">
+      <c r="AX22" s="62">
         <v>0.92500000000000004</v>
       </c>
-      <c r="AY22" s="21">
+      <c r="AY22" s="62">
         <v>0.75</v>
       </c>
-      <c r="AZ22" s="21">
+      <c r="AZ22" s="62">
         <v>1</v>
       </c>
-      <c r="BA22" s="21">
+      <c r="BA22" s="62">
         <v>0.88</v>
       </c>
-      <c r="BB22" s="21">
+      <c r="BB22" s="62">
         <v>0.88</v>
       </c>
-      <c r="BD22" s="1" t="s">
+      <c r="BD22" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE22" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF22" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="BE22" s="1" t="s">
+      <c r="BG22" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="BF22" s="1" t="s">
+      <c r="BH22" s="55" t="s">
         <v>43</v>
-      </c>
-      <c r="BG22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BH22" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
-      <c r="C23" s="101" t="s">
+      <c r="C23" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="127" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO23" s="21"/>
+      <c r="AP23" s="3"/>
+      <c r="AS23" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW23" s="55">
+        <v>302400</v>
+      </c>
+      <c r="AX23" s="55">
+        <v>504000</v>
+      </c>
+      <c r="AY23" s="55">
+        <v>376200</v>
+      </c>
+      <c r="AZ23" s="55">
+        <v>347400</v>
+      </c>
+      <c r="BA23" s="55">
+        <v>601200</v>
+      </c>
+      <c r="BB23" s="55">
+        <v>601200</v>
+      </c>
+      <c r="BD23" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="22"/>
-      <c r="AD23" s="23"/>
-      <c r="AE23" s="24"/>
-      <c r="AF23" s="104" t="s">
+      <c r="BE23" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="AO23" s="25"/>
-      <c r="AP23" s="3"/>
-      <c r="AS23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AW23" s="1">
-        <v>302400</v>
-      </c>
-      <c r="AX23" s="1">
-        <v>504000</v>
-      </c>
-      <c r="AY23" s="1">
-        <v>376200</v>
-      </c>
-      <c r="AZ23" s="1">
-        <v>347400</v>
-      </c>
-      <c r="BA23" s="1">
-        <v>601200</v>
-      </c>
-      <c r="BB23" s="1">
-        <v>601200</v>
-      </c>
-      <c r="BD23" s="1" t="s">
+      <c r="BF23" s="55" t="s">
         <v>48</v>
-      </c>
-      <c r="BE23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BF23" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
-      <c r="C24" s="102"/>
-      <c r="O24" s="106" t="str">
+      <c r="C24" s="125"/>
+      <c r="O24" s="129" t="str">
         <f>"Release Velocity "&amp;CHAR(10)&amp;TEXT(AS4,"dd-mmm")</f>
         <v>Release Velocity 
 10-Jun</v>
       </c>
-      <c r="P24" s="107"/>
-      <c r="Q24" s="107"/>
-      <c r="R24" s="107"/>
-      <c r="S24" s="26" t="s">
+      <c r="P24" s="130"/>
+      <c r="Q24" s="130"/>
+      <c r="R24" s="130"/>
+      <c r="S24" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="T24" s="27"/>
-      <c r="V24" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="W24" s="60"/>
-      <c r="X24" s="60"/>
-      <c r="Y24" s="60"/>
-      <c r="Z24" s="110"/>
-      <c r="AA24" s="111"/>
-      <c r="AB24" s="87">
+      <c r="T24" s="23"/>
+      <c r="V24" s="116" t="s">
+        <v>49</v>
+      </c>
+      <c r="W24" s="97"/>
+      <c r="X24" s="97"/>
+      <c r="Y24" s="97"/>
+      <c r="Z24" s="133"/>
+      <c r="AA24" s="134"/>
+      <c r="AB24" s="137">
         <f>BB35</f>
         <v>1.3620751316435028E-2</v>
       </c>
-      <c r="AC24" s="88"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="24"/>
-      <c r="AF24" s="104"/>
-      <c r="AG24" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH24" s="60"/>
-      <c r="AI24" s="60"/>
-      <c r="AJ24" s="60"/>
-      <c r="AK24" s="63"/>
-      <c r="AL24" s="64"/>
-      <c r="AM24" s="92">
+      <c r="AC24" s="138"/>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="127"/>
+      <c r="AG24" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH24" s="97"/>
+      <c r="AI24" s="97"/>
+      <c r="AJ24" s="97"/>
+      <c r="AK24" s="65"/>
+      <c r="AL24" s="66"/>
+      <c r="AM24" s="117">
         <f>BB37</f>
         <v>137.6</v>
       </c>
-      <c r="AN24" s="93"/>
-      <c r="AO24" s="24"/>
+      <c r="AN24" s="118"/>
+      <c r="AO24" s="20"/>
       <c r="AP24" s="3"/>
     </row>
     <row r="25" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
-      <c r="C25" s="102"/>
-      <c r="O25" s="108"/>
-      <c r="P25" s="109"/>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="109"/>
-      <c r="S25" s="29" t="s">
+      <c r="C25" s="125"/>
+      <c r="O25" s="131"/>
+      <c r="P25" s="132"/>
+      <c r="Q25" s="132"/>
+      <c r="R25" s="132"/>
+      <c r="S25" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="T25" s="30"/>
-      <c r="V25" s="61"/>
-      <c r="W25" s="62"/>
-      <c r="X25" s="62"/>
-      <c r="Y25" s="62"/>
-      <c r="Z25" s="112"/>
-      <c r="AA25" s="113"/>
-      <c r="AB25" s="89"/>
-      <c r="AC25" s="90"/>
-      <c r="AD25" s="28"/>
-      <c r="AE25" s="24"/>
-      <c r="AF25" s="104"/>
-      <c r="AG25" s="61"/>
-      <c r="AH25" s="62"/>
-      <c r="AI25" s="62"/>
-      <c r="AJ25" s="62"/>
-      <c r="AK25" s="65"/>
-      <c r="AL25" s="66"/>
-      <c r="AM25" s="94"/>
-      <c r="AN25" s="95"/>
-      <c r="AO25" s="24"/>
+      <c r="T25" s="26"/>
+      <c r="V25" s="104"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="135"/>
+      <c r="AA25" s="136"/>
+      <c r="AB25" s="139"/>
+      <c r="AC25" s="140"/>
+      <c r="AD25" s="24"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="127"/>
+      <c r="AG25" s="104"/>
+      <c r="AH25" s="98"/>
+      <c r="AI25" s="98"/>
+      <c r="AJ25" s="98"/>
+      <c r="AK25" s="67"/>
+      <c r="AL25" s="68"/>
+      <c r="AM25" s="119"/>
+      <c r="AN25" s="120"/>
+      <c r="AO25" s="20"/>
       <c r="AP25" s="3"/>
-      <c r="AS25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AW25" s="12">
+      <c r="AS25" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW25" s="59">
         <v>32.46987951807229</v>
       </c>
-      <c r="AX25" s="12">
+      <c r="AX25" s="59">
         <v>39.769230769230766</v>
       </c>
-      <c r="AY25" s="12">
+      <c r="AY25" s="59">
         <v>27.166666666666668</v>
       </c>
-      <c r="AZ25" s="12">
+      <c r="AZ25" s="59">
         <v>14</v>
       </c>
-      <c r="BA25" s="12">
+      <c r="BA25" s="59">
         <v>17</v>
       </c>
-      <c r="BB25" s="12">
+      <c r="BB25" s="59">
         <v>20</v>
       </c>
-      <c r="BD25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BF25" s="1" t="s">
-        <v>54</v>
+      <c r="BD25" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE25" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="BF25" s="55" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
-      <c r="C26" s="102"/>
-      <c r="O26" s="108"/>
-      <c r="P26" s="109"/>
-      <c r="Q26" s="109"/>
-      <c r="R26" s="109"/>
-      <c r="S26" s="29" t="s">
+      <c r="C26" s="125"/>
+      <c r="O26" s="131"/>
+      <c r="P26" s="132"/>
+      <c r="Q26" s="132"/>
+      <c r="R26" s="132"/>
+      <c r="S26" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="T26" s="30"/>
-      <c r="V26" s="61"/>
-      <c r="W26" s="62"/>
-      <c r="X26" s="62"/>
-      <c r="Y26" s="62"/>
-      <c r="Z26" s="112"/>
-      <c r="AA26" s="113"/>
-      <c r="AB26" s="89"/>
-      <c r="AC26" s="90"/>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="24"/>
-      <c r="AF26" s="104"/>
-      <c r="AG26" s="61"/>
-      <c r="AH26" s="62"/>
-      <c r="AI26" s="62"/>
-      <c r="AJ26" s="62"/>
-      <c r="AK26" s="67"/>
-      <c r="AL26" s="68"/>
-      <c r="AM26" s="94"/>
-      <c r="AN26" s="95"/>
-      <c r="AO26" s="24"/>
+      <c r="T26" s="26"/>
+      <c r="V26" s="104"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="135"/>
+      <c r="AA26" s="136"/>
+      <c r="AB26" s="139"/>
+      <c r="AC26" s="140"/>
+      <c r="AD26" s="24"/>
+      <c r="AE26" s="20"/>
+      <c r="AF26" s="127"/>
+      <c r="AG26" s="104"/>
+      <c r="AH26" s="98"/>
+      <c r="AI26" s="98"/>
+      <c r="AJ26" s="98"/>
+      <c r="AK26" s="69"/>
+      <c r="AL26" s="70"/>
+      <c r="AM26" s="119"/>
+      <c r="AN26" s="120"/>
+      <c r="AO26" s="20"/>
       <c r="AP26" s="3"/>
-      <c r="AS26" s="1" t="s">
+      <c r="AS26" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW26" s="62">
+        <v>5.1724137931034482E-2</v>
+      </c>
+      <c r="AX26" s="62">
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="AY26" s="62">
+        <v>0.64150943396226412</v>
+      </c>
+      <c r="AZ26" s="62">
+        <v>1</v>
+      </c>
+      <c r="BA26" s="62">
+        <v>0.83783783783783783</v>
+      </c>
+      <c r="BB26" s="62">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="BD26" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE26" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF26" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG26" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH26" s="55" t="s">
         <v>55</v>
-      </c>
-      <c r="AW26" s="21">
-        <v>5.1724137931034482E-2</v>
-      </c>
-      <c r="AX26" s="21">
-        <v>0.26315789473684209</v>
-      </c>
-      <c r="AY26" s="21">
-        <v>0.64150943396226412</v>
-      </c>
-      <c r="AZ26" s="21">
-        <v>1</v>
-      </c>
-      <c r="BA26" s="21">
-        <v>0.83783783783783783</v>
-      </c>
-      <c r="BB26" s="21">
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="BD26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BG26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BH26" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="27" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
-      <c r="C27" s="102"/>
-      <c r="O27" s="96" t="s">
+      <c r="C27" s="125"/>
+      <c r="O27" s="141" t="s">
+        <v>56</v>
+      </c>
+      <c r="P27" s="142"/>
+      <c r="Q27" s="142"/>
+      <c r="R27" s="142"/>
+      <c r="S27" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="26"/>
+      <c r="V27" s="141" t="s">
+        <v>57</v>
+      </c>
+      <c r="W27" s="142"/>
+      <c r="X27" s="142"/>
+      <c r="Y27" s="142"/>
+      <c r="Z27" s="142"/>
+      <c r="AA27" s="142"/>
+      <c r="AB27" s="142"/>
+      <c r="AC27" s="142"/>
+      <c r="AD27" s="24"/>
+      <c r="AE27" s="20"/>
+      <c r="AF27" s="127"/>
+      <c r="AG27" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="P27" s="97"/>
-      <c r="Q27" s="97"/>
-      <c r="R27" s="97"/>
-      <c r="S27" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="T27" s="30"/>
-      <c r="V27" s="96" t="s">
+      <c r="AH27" s="86"/>
+      <c r="AI27" s="86"/>
+      <c r="AJ27" s="86"/>
+      <c r="AK27" s="86"/>
+      <c r="AL27" s="86"/>
+      <c r="AM27" s="86"/>
+      <c r="AN27" s="87"/>
+      <c r="AO27" s="20"/>
+      <c r="AP27" s="3"/>
+      <c r="AS27" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="W27" s="97"/>
-      <c r="X27" s="97"/>
-      <c r="Y27" s="97"/>
-      <c r="Z27" s="97"/>
-      <c r="AA27" s="97"/>
-      <c r="AB27" s="97"/>
-      <c r="AC27" s="97"/>
-      <c r="AD27" s="28"/>
-      <c r="AE27" s="24"/>
-      <c r="AF27" s="104"/>
-      <c r="AG27" s="71" t="s">
+      <c r="AW27" s="63">
+        <v>0.76029542340884804</v>
+      </c>
+      <c r="AX27" s="63">
+        <v>0.76029542340884804</v>
+      </c>
+      <c r="AY27" s="63">
+        <v>0.79120337968461985</v>
+      </c>
+      <c r="AZ27" s="63">
+        <v>0.84008886045782594</v>
+      </c>
+      <c r="BA27" s="63">
+        <v>1.3221664701611811</v>
+      </c>
+      <c r="BB27" s="63">
+        <v>0.60897012673056483</v>
+      </c>
+      <c r="BD27" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="AH27" s="72"/>
-      <c r="AI27" s="72"/>
-      <c r="AJ27" s="72"/>
-      <c r="AK27" s="72"/>
-      <c r="AL27" s="72"/>
-      <c r="AM27" s="72"/>
-      <c r="AN27" s="73"/>
-      <c r="AO27" s="24"/>
-      <c r="AP27" s="3"/>
-      <c r="AS27" s="1" t="s">
+      <c r="BE27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="AW27" s="31">
-        <v>0.76029542340884804</v>
-      </c>
-      <c r="AX27" s="31">
-        <v>0.76029542340884804</v>
-      </c>
-      <c r="AY27" s="31">
-        <v>0.79120337968461985</v>
-      </c>
-      <c r="AZ27" s="31">
-        <v>0.84008886045782594</v>
-      </c>
-      <c r="BA27" s="31">
-        <v>1.3221664701611811</v>
-      </c>
-      <c r="BB27" s="31">
-        <v>0.60897012673056483</v>
-      </c>
-      <c r="BD27" s="1" t="s">
+      <c r="BF27" s="55" t="s">
         <v>62</v>
-      </c>
-      <c r="BE27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BF27" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="28" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
-      <c r="C28" s="102"/>
-      <c r="O28" s="98"/>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="99"/>
-      <c r="R28" s="99"/>
-      <c r="S28" s="32" t="s">
+      <c r="C28" s="125"/>
+      <c r="O28" s="143"/>
+      <c r="P28" s="144"/>
+      <c r="Q28" s="144"/>
+      <c r="R28" s="144"/>
+      <c r="S28" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="T28" s="33"/>
-      <c r="V28" s="96"/>
-      <c r="W28" s="97"/>
-      <c r="X28" s="97"/>
-      <c r="Y28" s="97"/>
-      <c r="Z28" s="97"/>
-      <c r="AA28" s="97"/>
-      <c r="AB28" s="97"/>
-      <c r="AC28" s="97"/>
-      <c r="AD28" s="28"/>
-      <c r="AE28" s="24"/>
-      <c r="AF28" s="104"/>
-      <c r="AG28" s="74"/>
-      <c r="AH28" s="75"/>
-      <c r="AI28" s="75"/>
-      <c r="AJ28" s="75"/>
-      <c r="AK28" s="75"/>
-      <c r="AL28" s="75"/>
-      <c r="AM28" s="75"/>
-      <c r="AN28" s="76"/>
-      <c r="AO28" s="24"/>
+      <c r="T28" s="29"/>
+      <c r="V28" s="141"/>
+      <c r="W28" s="142"/>
+      <c r="X28" s="142"/>
+      <c r="Y28" s="142"/>
+      <c r="Z28" s="142"/>
+      <c r="AA28" s="142"/>
+      <c r="AB28" s="142"/>
+      <c r="AC28" s="142"/>
+      <c r="AD28" s="24"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="127"/>
+      <c r="AG28" s="122"/>
+      <c r="AH28" s="88"/>
+      <c r="AI28" s="88"/>
+      <c r="AJ28" s="88"/>
+      <c r="AK28" s="88"/>
+      <c r="AL28" s="88"/>
+      <c r="AM28" s="88"/>
+      <c r="AN28" s="89"/>
+      <c r="AO28" s="20"/>
       <c r="AP28" s="3"/>
-      <c r="AS28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW28" s="21">
+      <c r="AS28" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW28" s="62">
         <v>1.1791440964995212</v>
       </c>
-      <c r="AX28" s="21">
+      <c r="AX28" s="62">
         <v>1.0117651106127619</v>
       </c>
-      <c r="AY28" s="21">
+      <c r="AY28" s="62">
         <v>0.98287811183078511</v>
       </c>
-      <c r="AZ28" s="21">
+      <c r="AZ28" s="62">
         <v>0.72482845074783719</v>
       </c>
-      <c r="BA28" s="21">
+      <c r="BA28" s="62">
         <v>0.76394336665463713</v>
       </c>
-      <c r="BB28" s="21">
+      <c r="BB28" s="62">
         <v>0.51899473632415571</v>
       </c>
-      <c r="BD28" s="1" t="s">
+      <c r="BD28" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE28" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF28" s="55" t="s">
         <v>62</v>
-      </c>
-      <c r="BE28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BF28" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="29" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
-      <c r="C29" s="102"/>
-      <c r="AD29" s="28"/>
-      <c r="AE29" s="24"/>
-      <c r="AF29" s="104"/>
-      <c r="AO29" s="24"/>
+      <c r="C29" s="125"/>
+      <c r="AD29" s="24"/>
+      <c r="AE29" s="20"/>
+      <c r="AF29" s="127"/>
+      <c r="AO29" s="20"/>
       <c r="AP29" s="3"/>
     </row>
     <row r="30" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
-      <c r="C30" s="102"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="35"/>
-      <c r="AA30" s="36"/>
-      <c r="AB30" s="37"/>
-      <c r="AC30" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD30" s="28"/>
-      <c r="AE30" s="24"/>
-      <c r="AF30" s="104"/>
-      <c r="AG30" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH30" s="60"/>
-      <c r="AI30" s="60"/>
-      <c r="AJ30" s="60"/>
-      <c r="AK30" s="63"/>
-      <c r="AL30" s="64"/>
-      <c r="AM30" s="83">
+      <c r="C30" s="125"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="32"/>
+      <c r="AB30" s="33"/>
+      <c r="AC30" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD30" s="24"/>
+      <c r="AE30" s="20"/>
+      <c r="AF30" s="127"/>
+      <c r="AG30" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH30" s="97"/>
+      <c r="AI30" s="97"/>
+      <c r="AJ30" s="97"/>
+      <c r="AK30" s="65"/>
+      <c r="AL30" s="66"/>
+      <c r="AM30" s="105">
         <v>0.01</v>
       </c>
-      <c r="AN30" s="84"/>
-      <c r="AO30" s="24"/>
+      <c r="AN30" s="106"/>
+      <c r="AO30" s="20"/>
       <c r="AP30" s="3"/>
-      <c r="AS30" s="1" t="s">
+      <c r="AS30" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="AW30" s="1">
+      <c r="AW30" s="55">
         <v>108.76923076923077</v>
       </c>
-      <c r="AX30" s="1">
+      <c r="AX30" s="55">
         <v>108.76923076923077</v>
       </c>
-      <c r="AY30" s="1">
+      <c r="AY30" s="55">
         <v>131.11111111111111</v>
       </c>
-      <c r="AZ30" s="1">
+      <c r="AZ30" s="55">
         <v>133.5</v>
       </c>
-      <c r="BA30" s="1">
+      <c r="BA30" s="55">
         <v>110.45454545454545</v>
       </c>
-      <c r="BB30" s="1">
+      <c r="BB30" s="55">
         <v>155.77272727272728</v>
       </c>
     </row>
     <row r="31" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
-      <c r="C31" s="102"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="40"/>
-      <c r="T31" s="40"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="40"/>
-      <c r="W31" s="40"/>
-      <c r="X31" s="40"/>
-      <c r="Y31" s="40"/>
-      <c r="Z31" s="40"/>
-      <c r="AA31" s="41"/>
-      <c r="AB31" s="42"/>
-      <c r="AC31" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD31" s="28"/>
-      <c r="AE31" s="24"/>
-      <c r="AF31" s="104"/>
-      <c r="AG31" s="61"/>
-      <c r="AH31" s="62"/>
-      <c r="AI31" s="62"/>
-      <c r="AJ31" s="62"/>
-      <c r="AK31" s="65"/>
-      <c r="AL31" s="66"/>
-      <c r="AM31" s="85"/>
-      <c r="AN31" s="86"/>
-      <c r="AO31" s="24"/>
+      <c r="C31" s="125"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="37"/>
+      <c r="AB31" s="38"/>
+      <c r="AC31" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD31" s="24"/>
+      <c r="AE31" s="20"/>
+      <c r="AF31" s="127"/>
+      <c r="AG31" s="104"/>
+      <c r="AH31" s="98"/>
+      <c r="AI31" s="98"/>
+      <c r="AJ31" s="98"/>
+      <c r="AK31" s="67"/>
+      <c r="AL31" s="68"/>
+      <c r="AM31" s="107"/>
+      <c r="AN31" s="108"/>
+      <c r="AO31" s="20"/>
       <c r="AP31" s="3"/>
-      <c r="AS31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW31" s="1">
+      <c r="AS31" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW31" s="55">
         <v>1</v>
       </c>
-      <c r="AX31" s="1">
+      <c r="AX31" s="55">
         <v>1</v>
       </c>
-      <c r="AY31" s="1">
+      <c r="AY31" s="55">
         <v>1</v>
       </c>
-      <c r="AZ31" s="1">
+      <c r="AZ31" s="55">
         <v>1</v>
       </c>
-      <c r="BA31" s="1">
+      <c r="BA31" s="55">
         <v>0</v>
       </c>
-      <c r="BB31" s="1">
+      <c r="BB31" s="55">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
-      <c r="C32" s="102"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="45"/>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="11"/>
-      <c r="AD32" s="28"/>
-      <c r="AE32" s="24"/>
-      <c r="AF32" s="104"/>
-      <c r="AG32" s="61"/>
-      <c r="AH32" s="62"/>
-      <c r="AI32" s="62"/>
-      <c r="AJ32" s="62"/>
-      <c r="AK32" s="67"/>
-      <c r="AL32" s="68"/>
-      <c r="AM32" s="85"/>
-      <c r="AN32" s="86"/>
-      <c r="AO32" s="24"/>
+      <c r="C32" s="125"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="41"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="24"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" s="127"/>
+      <c r="AG32" s="104"/>
+      <c r="AH32" s="98"/>
+      <c r="AI32" s="98"/>
+      <c r="AJ32" s="98"/>
+      <c r="AK32" s="69"/>
+      <c r="AL32" s="70"/>
+      <c r="AM32" s="107"/>
+      <c r="AN32" s="108"/>
+      <c r="AO32" s="20"/>
       <c r="AP32" s="3"/>
-      <c r="AS32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AW32" s="1">
+      <c r="AS32" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW32" s="55">
         <v>70.115384615384613</v>
       </c>
-      <c r="AX32" s="1">
+      <c r="AX32" s="55">
         <v>70.115384615384613</v>
       </c>
-      <c r="AY32" s="1">
+      <c r="AY32" s="55">
         <v>70.043478260869563</v>
       </c>
-      <c r="AZ32" s="1">
+      <c r="AZ32" s="55">
         <v>58.086956521739133</v>
       </c>
-      <c r="BA32" s="1">
+      <c r="BA32" s="55">
         <v>101.07142857142857</v>
       </c>
-      <c r="BB32" s="1">
+      <c r="BB32" s="55">
         <v>72.954545454545453</v>
       </c>
     </row>
     <row r="33" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
-      <c r="C33" s="102"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="P33" s="46"/>
-      <c r="AA33" s="47"/>
-      <c r="AD33" s="28"/>
-      <c r="AE33" s="24"/>
-      <c r="AF33" s="104"/>
-      <c r="AG33" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH33" s="72"/>
-      <c r="AI33" s="72"/>
-      <c r="AJ33" s="72"/>
-      <c r="AK33" s="72"/>
-      <c r="AL33" s="72"/>
-      <c r="AM33" s="72"/>
-      <c r="AN33" s="73"/>
-      <c r="AO33" s="24"/>
+      <c r="C33" s="125"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="P33" s="42"/>
+      <c r="AA33" s="43"/>
+      <c r="AD33" s="24"/>
+      <c r="AE33" s="20"/>
+      <c r="AF33" s="127"/>
+      <c r="AG33" s="121" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH33" s="86"/>
+      <c r="AI33" s="86"/>
+      <c r="AJ33" s="86"/>
+      <c r="AK33" s="86"/>
+      <c r="AL33" s="86"/>
+      <c r="AM33" s="86"/>
+      <c r="AN33" s="87"/>
+      <c r="AO33" s="20"/>
       <c r="AP33" s="3"/>
-      <c r="AS33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AW33" s="1">
+      <c r="AS33" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW33" s="55">
         <v>5</v>
       </c>
-      <c r="AX33" s="1">
+      <c r="AX33" s="55">
         <v>5</v>
       </c>
-      <c r="AY33" s="1">
+      <c r="AY33" s="55">
         <v>3</v>
       </c>
-      <c r="AZ33" s="1">
+      <c r="AZ33" s="55">
         <v>7</v>
       </c>
-      <c r="BA33" s="1">
+      <c r="BA33" s="55">
         <v>7</v>
       </c>
-      <c r="BB33" s="1">
+      <c r="BB33" s="55">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
-      <c r="C34" s="102"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="P34" s="46"/>
-      <c r="AA34" s="47"/>
-      <c r="AD34" s="28"/>
-      <c r="AE34" s="24"/>
-      <c r="AF34" s="104"/>
-      <c r="AG34" s="74"/>
-      <c r="AH34" s="75"/>
-      <c r="AI34" s="75"/>
-      <c r="AJ34" s="75"/>
-      <c r="AK34" s="75"/>
-      <c r="AL34" s="75"/>
-      <c r="AM34" s="75"/>
-      <c r="AN34" s="76"/>
-      <c r="AO34" s="24"/>
+      <c r="C34" s="125"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="P34" s="42"/>
+      <c r="AA34" s="43"/>
+      <c r="AD34" s="24"/>
+      <c r="AE34" s="20"/>
+      <c r="AF34" s="127"/>
+      <c r="AG34" s="122"/>
+      <c r="AH34" s="88"/>
+      <c r="AI34" s="88"/>
+      <c r="AJ34" s="88"/>
+      <c r="AK34" s="88"/>
+      <c r="AL34" s="88"/>
+      <c r="AM34" s="88"/>
+      <c r="AN34" s="89"/>
+      <c r="AO34" s="20"/>
       <c r="AP34" s="3"/>
     </row>
     <row r="35" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
-      <c r="C35" s="102"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="P35" s="46"/>
-      <c r="AA35" s="47"/>
-      <c r="AD35" s="28"/>
-      <c r="AE35" s="24"/>
-      <c r="AF35" s="104"/>
-      <c r="AO35" s="24"/>
+      <c r="C35" s="125"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="P35" s="42"/>
+      <c r="AA35" s="43"/>
+      <c r="AD35" s="24"/>
+      <c r="AE35" s="20"/>
+      <c r="AF35" s="127"/>
+      <c r="AO35" s="20"/>
       <c r="AP35" s="3"/>
-      <c r="AS35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW35" s="31">
+      <c r="AS35" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW35" s="63">
         <v>1.1395737985651008E-2</v>
       </c>
-      <c r="AX35" s="31">
+      <c r="AX35" s="63">
         <v>1.4073484347259517E-2</v>
       </c>
-      <c r="AY35" s="31">
+      <c r="AY35" s="63">
         <v>1.6490914680101287E-2</v>
       </c>
-      <c r="AZ35" s="31">
+      <c r="AZ35" s="63">
         <v>1.6966455046575634E-2</v>
       </c>
-      <c r="BA35" s="31">
+      <c r="BA35" s="63">
         <v>1.3620751316435028E-2</v>
       </c>
-      <c r="BB35" s="31">
+      <c r="BB35" s="63">
         <v>1.3620751316435028E-2</v>
       </c>
     </row>
     <row r="36" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
-      <c r="C36" s="102"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="P36" s="46"/>
-      <c r="AA36" s="47"/>
-      <c r="AD36" s="28"/>
-      <c r="AE36" s="24"/>
-      <c r="AF36" s="104"/>
-      <c r="AG36" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH36" s="60"/>
-      <c r="AI36" s="60"/>
-      <c r="AJ36" s="60"/>
-      <c r="AK36" s="63"/>
-      <c r="AL36" s="64"/>
-      <c r="AM36" s="83">
+      <c r="C36" s="125"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="P36" s="42"/>
+      <c r="AA36" s="43"/>
+      <c r="AD36" s="24"/>
+      <c r="AE36" s="20"/>
+      <c r="AF36" s="127"/>
+      <c r="AG36" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH36" s="97"/>
+      <c r="AI36" s="97"/>
+      <c r="AJ36" s="97"/>
+      <c r="AK36" s="65"/>
+      <c r="AL36" s="66"/>
+      <c r="AM36" s="105">
         <v>0</v>
       </c>
-      <c r="AN36" s="84"/>
-      <c r="AO36" s="24"/>
+      <c r="AN36" s="106"/>
+      <c r="AO36" s="20"/>
       <c r="AP36" s="3"/>
     </row>
     <row r="37" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
-      <c r="C37" s="102"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="P37" s="46"/>
-      <c r="AA37" s="47"/>
-      <c r="AD37" s="28"/>
-      <c r="AE37" s="24"/>
-      <c r="AF37" s="104"/>
-      <c r="AG37" s="61"/>
-      <c r="AH37" s="62"/>
-      <c r="AI37" s="62"/>
-      <c r="AJ37" s="62"/>
-      <c r="AK37" s="65"/>
-      <c r="AL37" s="66"/>
-      <c r="AM37" s="85"/>
-      <c r="AN37" s="86"/>
-      <c r="AO37" s="24"/>
+      <c r="C37" s="125"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="P37" s="42"/>
+      <c r="AA37" s="43"/>
+      <c r="AD37" s="24"/>
+      <c r="AE37" s="20"/>
+      <c r="AF37" s="127"/>
+      <c r="AG37" s="104"/>
+      <c r="AH37" s="98"/>
+      <c r="AI37" s="98"/>
+      <c r="AJ37" s="98"/>
+      <c r="AK37" s="67"/>
+      <c r="AL37" s="68"/>
+      <c r="AM37" s="107"/>
+      <c r="AN37" s="108"/>
+      <c r="AO37" s="20"/>
       <c r="AP37" s="3"/>
-      <c r="AS37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW37" s="1">
+      <c r="AS37" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW37" s="55">
         <v>31.875</v>
       </c>
-      <c r="AX37" s="1">
+      <c r="AX37" s="55">
         <v>31.875</v>
       </c>
-      <c r="AY37" s="1">
+      <c r="AY37" s="55">
         <v>35.75</v>
       </c>
-      <c r="AZ37" s="1">
+      <c r="AZ37" s="55">
         <v>36</v>
       </c>
-      <c r="BA37" s="1">
+      <c r="BA37" s="55">
         <v>137.6</v>
       </c>
-      <c r="BB37" s="1">
+      <c r="BB37" s="55">
         <v>137.6</v>
       </c>
     </row>
     <row r="38" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
-      <c r="C38" s="102"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="P38" s="46"/>
-      <c r="AA38" s="47"/>
-      <c r="AD38" s="28"/>
-      <c r="AE38" s="24"/>
-      <c r="AF38" s="104"/>
-      <c r="AG38" s="61"/>
-      <c r="AH38" s="62"/>
-      <c r="AI38" s="62"/>
-      <c r="AJ38" s="62"/>
-      <c r="AK38" s="67"/>
-      <c r="AL38" s="68"/>
-      <c r="AM38" s="85"/>
-      <c r="AN38" s="86"/>
-      <c r="AO38" s="24"/>
+      <c r="C38" s="125"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="P38" s="42"/>
+      <c r="AA38" s="43"/>
+      <c r="AD38" s="24"/>
+      <c r="AE38" s="20"/>
+      <c r="AF38" s="127"/>
+      <c r="AG38" s="104"/>
+      <c r="AH38" s="98"/>
+      <c r="AI38" s="98"/>
+      <c r="AJ38" s="98"/>
+      <c r="AK38" s="69"/>
+      <c r="AL38" s="70"/>
+      <c r="AM38" s="107"/>
+      <c r="AN38" s="108"/>
+      <c r="AO38" s="20"/>
       <c r="AP38" s="3"/>
-      <c r="AS38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW38" s="1">
+      <c r="AS38" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW38" s="55">
         <v>3.1468531468531472E-2</v>
       </c>
-      <c r="AX38" s="1">
+      <c r="AX38" s="55">
         <v>2.972027972027972E-2</v>
       </c>
-      <c r="AY38" s="1">
+      <c r="AY38" s="55">
         <v>1.232394366197183E-2</v>
       </c>
-      <c r="AZ38" s="1">
+      <c r="AZ38" s="55">
         <v>1.7605633802816902E-2</v>
       </c>
-      <c r="BA38" s="1">
+      <c r="BA38" s="55">
         <v>1.4388489208633094E-2</v>
       </c>
-      <c r="BB38" s="1">
+      <c r="BB38" s="55">
         <v>1.048951048951049E-2</v>
       </c>
     </row>
     <row r="39" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
-      <c r="C39" s="102"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="P39" s="46"/>
-      <c r="AA39" s="47"/>
-      <c r="AD39" s="28"/>
-      <c r="AE39" s="24"/>
-      <c r="AF39" s="104"/>
-      <c r="AG39" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH39" s="72"/>
-      <c r="AI39" s="72"/>
-      <c r="AJ39" s="72"/>
-      <c r="AK39" s="72"/>
-      <c r="AL39" s="72"/>
-      <c r="AM39" s="72"/>
-      <c r="AN39" s="73"/>
-      <c r="AO39" s="24"/>
+      <c r="C39" s="125"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="P39" s="42"/>
+      <c r="AA39" s="43"/>
+      <c r="AD39" s="24"/>
+      <c r="AE39" s="20"/>
+      <c r="AF39" s="127"/>
+      <c r="AG39" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH39" s="86"/>
+      <c r="AI39" s="86"/>
+      <c r="AJ39" s="86"/>
+      <c r="AK39" s="86"/>
+      <c r="AL39" s="86"/>
+      <c r="AM39" s="86"/>
+      <c r="AN39" s="87"/>
+      <c r="AO39" s="20"/>
       <c r="AP39" s="3"/>
-      <c r="AS39" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW39" s="1">
+      <c r="AS39" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW39" s="55">
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="AX39" s="1">
+      <c r="AX39" s="55">
         <v>0.2</v>
       </c>
-      <c r="AY39" s="1">
+      <c r="AY39" s="55">
         <v>0.1111111111111111</v>
       </c>
-      <c r="AZ39" s="1">
+      <c r="AZ39" s="55">
         <v>0</v>
       </c>
-      <c r="BA39" s="1">
+      <c r="BA39" s="55">
         <v>0</v>
       </c>
-      <c r="BB39" s="1">
+      <c r="BB39" s="55">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
-      <c r="C40" s="102"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="P40" s="48"/>
-      <c r="Q40" s="49"/>
-      <c r="R40" s="49"/>
-      <c r="S40" s="49"/>
-      <c r="T40" s="49"/>
-      <c r="U40" s="49"/>
-      <c r="V40" s="49"/>
-      <c r="W40" s="49"/>
-      <c r="X40" s="49"/>
-      <c r="Y40" s="49"/>
-      <c r="Z40" s="49"/>
-      <c r="AA40" s="50"/>
-      <c r="AD40" s="28"/>
-      <c r="AE40" s="24"/>
-      <c r="AF40" s="104"/>
-      <c r="AG40" s="74"/>
-      <c r="AH40" s="75"/>
-      <c r="AI40" s="75"/>
-      <c r="AJ40" s="75"/>
-      <c r="AK40" s="75"/>
-      <c r="AL40" s="75"/>
-      <c r="AM40" s="75"/>
-      <c r="AN40" s="76"/>
-      <c r="AO40" s="24"/>
+      <c r="C40" s="125"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="45"/>
+      <c r="W40" s="45"/>
+      <c r="X40" s="45"/>
+      <c r="Y40" s="45"/>
+      <c r="Z40" s="45"/>
+      <c r="AA40" s="46"/>
+      <c r="AD40" s="24"/>
+      <c r="AE40" s="20"/>
+      <c r="AF40" s="127"/>
+      <c r="AG40" s="122"/>
+      <c r="AH40" s="88"/>
+      <c r="AI40" s="88"/>
+      <c r="AJ40" s="88"/>
+      <c r="AK40" s="88"/>
+      <c r="AL40" s="88"/>
+      <c r="AM40" s="88"/>
+      <c r="AN40" s="89"/>
+      <c r="AO40" s="20"/>
       <c r="AP40" s="3"/>
     </row>
     <row r="41" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="51"/>
-      <c r="P41" s="51"/>
-      <c r="Q41" s="51"/>
-      <c r="R41" s="51"/>
-      <c r="S41" s="51"/>
-      <c r="T41" s="51"/>
-      <c r="U41" s="51"/>
-      <c r="V41" s="51"/>
-      <c r="W41" s="51"/>
-      <c r="X41" s="51"/>
-      <c r="Y41" s="51"/>
-      <c r="Z41" s="51"/>
-      <c r="AA41" s="51"/>
-      <c r="AB41" s="51"/>
-      <c r="AC41" s="51"/>
-      <c r="AD41" s="52"/>
-      <c r="AE41" s="24"/>
-      <c r="AF41" s="105"/>
-      <c r="AG41" s="20"/>
-      <c r="AH41" s="20"/>
-      <c r="AI41" s="20"/>
-      <c r="AJ41" s="20"/>
-      <c r="AK41" s="20"/>
-      <c r="AL41" s="20"/>
-      <c r="AM41" s="20"/>
-      <c r="AN41" s="20"/>
-      <c r="AO41" s="53"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="47"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="47"/>
+      <c r="V41" s="47"/>
+      <c r="W41" s="47"/>
+      <c r="X41" s="47"/>
+      <c r="Y41" s="47"/>
+      <c r="Z41" s="47"/>
+      <c r="AA41" s="47"/>
+      <c r="AB41" s="47"/>
+      <c r="AC41" s="47"/>
+      <c r="AD41" s="48"/>
+      <c r="AE41" s="20"/>
+      <c r="AF41" s="128"/>
+      <c r="AG41" s="17"/>
+      <c r="AH41" s="17"/>
+      <c r="AI41" s="17"/>
+      <c r="AJ41" s="17"/>
+      <c r="AK41" s="17"/>
+      <c r="AL41" s="17"/>
+      <c r="AM41" s="17"/>
+      <c r="AN41" s="17"/>
+      <c r="AO41" s="49"/>
       <c r="AP41" s="3"/>
-      <c r="AS41" s="1" t="s">
+      <c r="AS41" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW41" s="63">
+        <v>0.96</v>
+      </c>
+      <c r="AX41" s="63">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="AY41" s="63">
+        <v>0.9765625</v>
+      </c>
+      <c r="AZ41" s="63">
+        <v>0.95726495726495731</v>
+      </c>
+      <c r="BA41" s="63">
+        <v>0.98666666666666669</v>
+      </c>
+      <c r="BB41" s="63">
+        <v>0.98666666666666669</v>
+      </c>
+      <c r="BD41" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="BE41" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF41" s="55" t="s">
         <v>73</v>
-      </c>
-      <c r="AW41" s="31">
-        <v>0.96</v>
-      </c>
-      <c r="AX41" s="31">
-        <v>0.95238095238095233</v>
-      </c>
-      <c r="AY41" s="31">
-        <v>0.9765625</v>
-      </c>
-      <c r="AZ41" s="31">
-        <v>0.95726495726495731</v>
-      </c>
-      <c r="BA41" s="31">
-        <v>0.98666666666666669</v>
-      </c>
-      <c r="BB41" s="31">
-        <v>0.98666666666666669</v>
-      </c>
-      <c r="BD41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE41" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BF41" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="42" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
-      <c r="D42" s="54"/>
-      <c r="AF42" s="55"/>
+      <c r="D42" s="50"/>
+      <c r="AF42" s="51"/>
       <c r="AP42" s="3"/>
-      <c r="AS42" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AW42" s="31">
+      <c r="AS42" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW42" s="63">
         <v>0.9296875</v>
       </c>
-      <c r="AX42" s="31">
+      <c r="AX42" s="63">
         <v>0.94615384615384612</v>
       </c>
-      <c r="AY42" s="31">
+      <c r="AY42" s="63">
         <v>0.95522388059701491</v>
       </c>
-      <c r="AZ42" s="31">
+      <c r="AZ42" s="63">
         <v>0.96923076923076923</v>
       </c>
-      <c r="BA42" s="31">
+      <c r="BA42" s="63">
         <v>0.9939393939393939</v>
       </c>
-      <c r="BB42" s="31">
+      <c r="BB42" s="63">
         <v>0.9939393939393939</v>
       </c>
-      <c r="BD42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE42" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BF42" s="1" t="s">
-        <v>75</v>
+      <c r="BD42" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="BE42" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF42" s="55" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
-      <c r="D43" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="69">
+      <c r="D43" s="116" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="97"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="113">
         <f>BB41</f>
         <v>0.98666666666666669</v>
       </c>
-      <c r="K43" s="64"/>
-      <c r="N43" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="O43" s="78"/>
-      <c r="P43" s="78"/>
-      <c r="Q43" s="79"/>
-      <c r="R43" s="63"/>
-      <c r="S43" s="64"/>
-      <c r="T43" s="69">
+      <c r="K43" s="66"/>
+      <c r="N43" s="145" t="s">
+        <v>74</v>
+      </c>
+      <c r="O43" s="146"/>
+      <c r="P43" s="146"/>
+      <c r="Q43" s="147"/>
+      <c r="R43" s="65"/>
+      <c r="S43" s="66"/>
+      <c r="T43" s="113">
         <f>BB42</f>
         <v>0.9939393939393939</v>
       </c>
-      <c r="U43" s="64"/>
-      <c r="W43" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="X43" s="60"/>
-      <c r="Y43" s="60"/>
-      <c r="Z43" s="60"/>
-      <c r="AA43" s="63"/>
-      <c r="AB43" s="64"/>
-      <c r="AC43" s="63">
+      <c r="U43" s="66"/>
+      <c r="W43" s="116" t="s">
+        <v>75</v>
+      </c>
+      <c r="X43" s="97"/>
+      <c r="Y43" s="97"/>
+      <c r="Z43" s="97"/>
+      <c r="AA43" s="65"/>
+      <c r="AB43" s="66"/>
+      <c r="AC43" s="65">
         <f>BB43</f>
         <v>1</v>
       </c>
-      <c r="AD43" s="64"/>
-      <c r="AG43" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH43" s="60"/>
-      <c r="AI43" s="60"/>
-      <c r="AJ43" s="60"/>
-      <c r="AK43" s="63"/>
-      <c r="AL43" s="64"/>
-      <c r="AM43" s="69">
+      <c r="AD43" s="66"/>
+      <c r="AG43" s="116" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH43" s="97"/>
+      <c r="AI43" s="97"/>
+      <c r="AJ43" s="97"/>
+      <c r="AK43" s="65"/>
+      <c r="AL43" s="66"/>
+      <c r="AM43" s="113">
         <f>BB44</f>
         <v>0.5</v>
       </c>
-      <c r="AN43" s="64"/>
+      <c r="AN43" s="66"/>
       <c r="AP43" s="3"/>
-      <c r="AS43" s="1" t="s">
+      <c r="AS43" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW43" s="63">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AX43" s="63">
+        <v>1</v>
+      </c>
+      <c r="AY43" s="63">
+        <v>1</v>
+      </c>
+      <c r="AZ43" s="63">
+        <v>1</v>
+      </c>
+      <c r="BA43" s="63">
+        <v>1</v>
+      </c>
+      <c r="BB43" s="63">
+        <v>1</v>
+      </c>
+      <c r="BD43" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE43" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF43" s="55" t="s">
         <v>77</v>
-      </c>
-      <c r="AW43" s="31">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AX43" s="31">
-        <v>1</v>
-      </c>
-      <c r="AY43" s="31">
-        <v>1</v>
-      </c>
-      <c r="AZ43" s="31">
-        <v>1</v>
-      </c>
-      <c r="BA43" s="31">
-        <v>1</v>
-      </c>
-      <c r="BB43" s="31">
-        <v>1</v>
-      </c>
-      <c r="BD43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BE43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF43" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="44" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="70"/>
-      <c r="K44" s="66"/>
-      <c r="N44" s="80"/>
-      <c r="O44" s="81"/>
-      <c r="P44" s="81"/>
-      <c r="Q44" s="82"/>
-      <c r="R44" s="65"/>
-      <c r="S44" s="66"/>
-      <c r="T44" s="70"/>
-      <c r="U44" s="66"/>
-      <c r="W44" s="61"/>
-      <c r="X44" s="62"/>
-      <c r="Y44" s="62"/>
-      <c r="Z44" s="62"/>
-      <c r="AA44" s="65"/>
-      <c r="AB44" s="66"/>
-      <c r="AC44" s="65"/>
-      <c r="AD44" s="66"/>
-      <c r="AG44" s="61"/>
-      <c r="AH44" s="62"/>
-      <c r="AI44" s="62"/>
-      <c r="AJ44" s="62"/>
-      <c r="AK44" s="65"/>
-      <c r="AL44" s="66"/>
-      <c r="AM44" s="70"/>
-      <c r="AN44" s="66"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="114"/>
+      <c r="K44" s="68"/>
+      <c r="N44" s="148"/>
+      <c r="O44" s="149"/>
+      <c r="P44" s="149"/>
+      <c r="Q44" s="150"/>
+      <c r="R44" s="67"/>
+      <c r="S44" s="68"/>
+      <c r="T44" s="114"/>
+      <c r="U44" s="68"/>
+      <c r="W44" s="104"/>
+      <c r="X44" s="98"/>
+      <c r="Y44" s="98"/>
+      <c r="Z44" s="98"/>
+      <c r="AA44" s="67"/>
+      <c r="AB44" s="68"/>
+      <c r="AC44" s="67"/>
+      <c r="AD44" s="68"/>
+      <c r="AG44" s="104"/>
+      <c r="AH44" s="98"/>
+      <c r="AI44" s="98"/>
+      <c r="AJ44" s="98"/>
+      <c r="AK44" s="67"/>
+      <c r="AL44" s="68"/>
+      <c r="AM44" s="114"/>
+      <c r="AN44" s="68"/>
       <c r="AP44" s="3"/>
-      <c r="AS44" s="1" t="s">
+      <c r="AS44" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW44" s="63">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="AX44" s="63">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="AY44" s="63">
+        <v>0.125</v>
+      </c>
+      <c r="AZ44" s="63">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="BA44" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="BB44" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="BD44" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="AW44" s="31">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="AX44" s="31">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="AY44" s="31">
-        <v>0.125</v>
-      </c>
-      <c r="AZ44" s="31">
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="BA44" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="BB44" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="BD44" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BE44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF44" s="1" t="s">
-        <v>79</v>
+      <c r="BE44" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF44" s="55" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="70"/>
-      <c r="K45" s="66"/>
-      <c r="N45" s="80"/>
-      <c r="O45" s="81"/>
-      <c r="P45" s="81"/>
-      <c r="Q45" s="82"/>
-      <c r="R45" s="67"/>
-      <c r="S45" s="68"/>
-      <c r="T45" s="70"/>
-      <c r="U45" s="66"/>
-      <c r="W45" s="61"/>
-      <c r="X45" s="62"/>
-      <c r="Y45" s="62"/>
-      <c r="Z45" s="62"/>
-      <c r="AA45" s="67"/>
-      <c r="AB45" s="68"/>
-      <c r="AC45" s="65"/>
-      <c r="AD45" s="66"/>
-      <c r="AG45" s="61"/>
-      <c r="AH45" s="62"/>
-      <c r="AI45" s="62"/>
-      <c r="AJ45" s="62"/>
-      <c r="AK45" s="67"/>
-      <c r="AL45" s="68"/>
-      <c r="AM45" s="70"/>
-      <c r="AN45" s="66"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="98"/>
+      <c r="G45" s="98"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="114"/>
+      <c r="K45" s="68"/>
+      <c r="N45" s="148"/>
+      <c r="O45" s="149"/>
+      <c r="P45" s="149"/>
+      <c r="Q45" s="150"/>
+      <c r="R45" s="69"/>
+      <c r="S45" s="70"/>
+      <c r="T45" s="114"/>
+      <c r="U45" s="68"/>
+      <c r="W45" s="104"/>
+      <c r="X45" s="98"/>
+      <c r="Y45" s="98"/>
+      <c r="Z45" s="98"/>
+      <c r="AA45" s="69"/>
+      <c r="AB45" s="70"/>
+      <c r="AC45" s="67"/>
+      <c r="AD45" s="68"/>
+      <c r="AG45" s="104"/>
+      <c r="AH45" s="98"/>
+      <c r="AI45" s="98"/>
+      <c r="AJ45" s="98"/>
+      <c r="AK45" s="69"/>
+      <c r="AL45" s="70"/>
+      <c r="AM45" s="114"/>
+      <c r="AN45" s="68"/>
       <c r="AP45" s="3"/>
     </row>
     <row r="46" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
-      <c r="D46" s="71" t="s">
+      <c r="D46" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="87"/>
+      <c r="N46" s="121" t="s">
+        <v>80</v>
+      </c>
+      <c r="O46" s="86"/>
+      <c r="P46" s="86"/>
+      <c r="Q46" s="86"/>
+      <c r="R46" s="86"/>
+      <c r="S46" s="86"/>
+      <c r="T46" s="86"/>
+      <c r="U46" s="87"/>
+      <c r="W46" s="121" t="s">
         <v>81</v>
       </c>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="73"/>
-      <c r="N46" s="71" t="s">
+      <c r="X46" s="86"/>
+      <c r="Y46" s="86"/>
+      <c r="Z46" s="86"/>
+      <c r="AA46" s="86"/>
+      <c r="AB46" s="86"/>
+      <c r="AC46" s="86"/>
+      <c r="AD46" s="87"/>
+      <c r="AG46" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="O46" s="72"/>
-      <c r="P46" s="72"/>
-      <c r="Q46" s="72"/>
-      <c r="R46" s="72"/>
-      <c r="S46" s="72"/>
-      <c r="T46" s="72"/>
-      <c r="U46" s="73"/>
-      <c r="W46" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="X46" s="72"/>
-      <c r="Y46" s="72"/>
-      <c r="Z46" s="72"/>
-      <c r="AA46" s="72"/>
-      <c r="AB46" s="72"/>
-      <c r="AC46" s="72"/>
-      <c r="AD46" s="73"/>
-      <c r="AG46" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH46" s="72"/>
-      <c r="AI46" s="72"/>
-      <c r="AJ46" s="72"/>
-      <c r="AK46" s="72"/>
-      <c r="AL46" s="72"/>
-      <c r="AM46" s="72"/>
-      <c r="AN46" s="73"/>
+      <c r="AH46" s="86"/>
+      <c r="AI46" s="86"/>
+      <c r="AJ46" s="86"/>
+      <c r="AK46" s="86"/>
+      <c r="AL46" s="86"/>
+      <c r="AM46" s="86"/>
+      <c r="AN46" s="87"/>
       <c r="AP46" s="3"/>
     </row>
     <row r="47" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="75"/>
-      <c r="J47" s="75"/>
-      <c r="K47" s="76"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="75"/>
-      <c r="P47" s="75"/>
-      <c r="Q47" s="75"/>
-      <c r="R47" s="75"/>
-      <c r="S47" s="75"/>
-      <c r="T47" s="75"/>
-      <c r="U47" s="76"/>
-      <c r="W47" s="74"/>
-      <c r="X47" s="75"/>
-      <c r="Y47" s="75"/>
-      <c r="Z47" s="75"/>
-      <c r="AA47" s="75"/>
-      <c r="AB47" s="75"/>
-      <c r="AC47" s="75"/>
-      <c r="AD47" s="76"/>
-      <c r="AG47" s="74"/>
-      <c r="AH47" s="75"/>
-      <c r="AI47" s="75"/>
-      <c r="AJ47" s="75"/>
-      <c r="AK47" s="75"/>
-      <c r="AL47" s="75"/>
-      <c r="AM47" s="75"/>
-      <c r="AN47" s="76"/>
+      <c r="D47" s="122"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="88"/>
+      <c r="J47" s="88"/>
+      <c r="K47" s="89"/>
+      <c r="N47" s="122"/>
+      <c r="O47" s="88"/>
+      <c r="P47" s="88"/>
+      <c r="Q47" s="88"/>
+      <c r="R47" s="88"/>
+      <c r="S47" s="88"/>
+      <c r="T47" s="88"/>
+      <c r="U47" s="89"/>
+      <c r="W47" s="122"/>
+      <c r="X47" s="88"/>
+      <c r="Y47" s="88"/>
+      <c r="Z47" s="88"/>
+      <c r="AA47" s="88"/>
+      <c r="AB47" s="88"/>
+      <c r="AC47" s="88"/>
+      <c r="AD47" s="89"/>
+      <c r="AG47" s="122"/>
+      <c r="AH47" s="88"/>
+      <c r="AI47" s="88"/>
+      <c r="AJ47" s="88"/>
+      <c r="AK47" s="88"/>
+      <c r="AL47" s="88"/>
+      <c r="AM47" s="88"/>
+      <c r="AN47" s="89"/>
       <c r="AP47" s="3"/>
     </row>
     <row r="48" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B48" s="56"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="57"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="57"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="57"/>
-      <c r="N48" s="57"/>
-      <c r="O48" s="57"/>
-      <c r="P48" s="57"/>
-      <c r="Q48" s="57"/>
-      <c r="R48" s="57"/>
-      <c r="S48" s="57"/>
-      <c r="T48" s="57"/>
-      <c r="U48" s="57"/>
-      <c r="V48" s="57"/>
-      <c r="W48" s="57"/>
-      <c r="X48" s="57"/>
-      <c r="Y48" s="57"/>
-      <c r="Z48" s="57"/>
-      <c r="AA48" s="57"/>
-      <c r="AB48" s="57"/>
-      <c r="AC48" s="57"/>
-      <c r="AD48" s="57"/>
-      <c r="AE48" s="57"/>
-      <c r="AF48" s="57"/>
-      <c r="AG48" s="57"/>
-      <c r="AH48" s="57"/>
-      <c r="AI48" s="57"/>
-      <c r="AJ48" s="57"/>
-      <c r="AK48" s="57"/>
-      <c r="AL48" s="57"/>
-      <c r="AM48" s="57"/>
-      <c r="AN48" s="57"/>
-      <c r="AO48" s="57"/>
-      <c r="AP48" s="58"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="53"/>
+      <c r="Q48" s="53"/>
+      <c r="R48" s="53"/>
+      <c r="S48" s="53"/>
+      <c r="T48" s="53"/>
+      <c r="U48" s="53"/>
+      <c r="V48" s="53"/>
+      <c r="W48" s="53"/>
+      <c r="X48" s="53"/>
+      <c r="Y48" s="53"/>
+      <c r="Z48" s="53"/>
+      <c r="AA48" s="53"/>
+      <c r="AB48" s="53"/>
+      <c r="AC48" s="53"/>
+      <c r="AD48" s="53"/>
+      <c r="AE48" s="53"/>
+      <c r="AF48" s="53"/>
+      <c r="AG48" s="53"/>
+      <c r="AH48" s="53"/>
+      <c r="AI48" s="53"/>
+      <c r="AJ48" s="53"/>
+      <c r="AK48" s="53"/>
+      <c r="AL48" s="53"/>
+      <c r="AM48" s="53"/>
+      <c r="AN48" s="53"/>
+      <c r="AO48" s="53"/>
+      <c r="AP48" s="54"/>
     </row>
     <row r="52" spans="38:38" x14ac:dyDescent="0.2">
-      <c r="AL52" s="31"/>
+      <c r="AL52" s="27"/>
     </row>
     <row r="53" spans="38:38" x14ac:dyDescent="0.2">
-      <c r="AL53" s="31"/>
+      <c r="AL53" s="27"/>
     </row>
     <row r="54" spans="38:38" x14ac:dyDescent="0.2">
-      <c r="AL54" s="31"/>
+      <c r="AL54" s="27"/>
     </row>
     <row r="55" spans="38:38" x14ac:dyDescent="0.2">
-      <c r="AL55" s="31"/>
+      <c r="AL55" s="27"/>
     </row>
     <row r="56" spans="38:38" x14ac:dyDescent="0.2">
-      <c r="AL56" s="31"/>
+      <c r="AL56" s="27"/>
     </row>
     <row r="57" spans="38:38" x14ac:dyDescent="0.2">
-      <c r="AL57" s="31"/>
+      <c r="AL57" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="AX2:AX4"/>
-    <mergeCell ref="AB5:AC7"/>
-    <mergeCell ref="B2:AP3"/>
-    <mergeCell ref="AT2:AT4"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="AV2:AV4"/>
+    <mergeCell ref="D46:K47"/>
+    <mergeCell ref="N46:U47"/>
+    <mergeCell ref="W46:AD47"/>
+    <mergeCell ref="AG46:AN47"/>
+    <mergeCell ref="AG39:AN40"/>
+    <mergeCell ref="D43:G45"/>
+    <mergeCell ref="H43:I45"/>
+    <mergeCell ref="J43:K45"/>
+    <mergeCell ref="N43:Q45"/>
+    <mergeCell ref="R43:S45"/>
+    <mergeCell ref="T43:U45"/>
+    <mergeCell ref="W43:Z45"/>
+    <mergeCell ref="AA43:AB45"/>
+    <mergeCell ref="AC43:AD45"/>
+    <mergeCell ref="AG43:AJ45"/>
+    <mergeCell ref="AK43:AL45"/>
+    <mergeCell ref="AM43:AN45"/>
+    <mergeCell ref="AG30:AJ32"/>
+    <mergeCell ref="AK30:AL32"/>
+    <mergeCell ref="AM30:AN32"/>
+    <mergeCell ref="AG33:AN34"/>
+    <mergeCell ref="AG36:AJ38"/>
+    <mergeCell ref="AK36:AL38"/>
+    <mergeCell ref="AM36:AN38"/>
+    <mergeCell ref="AG24:AJ26"/>
+    <mergeCell ref="AK24:AL26"/>
+    <mergeCell ref="AM24:AN26"/>
+    <mergeCell ref="O27:R28"/>
+    <mergeCell ref="V27:AC28"/>
+    <mergeCell ref="AG27:AN28"/>
+    <mergeCell ref="BF16:BF18"/>
+    <mergeCell ref="D19:K20"/>
+    <mergeCell ref="M19:T20"/>
+    <mergeCell ref="X19:AE20"/>
+    <mergeCell ref="AG19:AN20"/>
+    <mergeCell ref="AZ16:AZ18"/>
+    <mergeCell ref="BA16:BA18"/>
+    <mergeCell ref="BB16:BB18"/>
+    <mergeCell ref="BC16:BC18"/>
+    <mergeCell ref="BD16:BD18"/>
+    <mergeCell ref="BE16:BE18"/>
+    <mergeCell ref="AT16:AT18"/>
+    <mergeCell ref="AU16:AU18"/>
+    <mergeCell ref="AV16:AV18"/>
+    <mergeCell ref="AW16:AW18"/>
+    <mergeCell ref="AX16:AX18"/>
+    <mergeCell ref="C23:C41"/>
+    <mergeCell ref="AF23:AF41"/>
+    <mergeCell ref="O24:R26"/>
+    <mergeCell ref="V24:Y26"/>
+    <mergeCell ref="Z24:AA26"/>
+    <mergeCell ref="AB24:AC26"/>
+    <mergeCell ref="AY16:AY18"/>
+    <mergeCell ref="X16:AA18"/>
+    <mergeCell ref="AB16:AC18"/>
+    <mergeCell ref="AD16:AE18"/>
+    <mergeCell ref="AG16:AJ18"/>
+    <mergeCell ref="AK16:AL18"/>
+    <mergeCell ref="AM16:AN18"/>
+    <mergeCell ref="D13:K14"/>
+    <mergeCell ref="M13:T14"/>
+    <mergeCell ref="X13:AE14"/>
+    <mergeCell ref="AG13:AN14"/>
+    <mergeCell ref="D16:G18"/>
+    <mergeCell ref="H16:I18"/>
+    <mergeCell ref="J16:K18"/>
+    <mergeCell ref="M16:P18"/>
+    <mergeCell ref="Q16:R18"/>
+    <mergeCell ref="S16:T18"/>
+    <mergeCell ref="X10:AA12"/>
+    <mergeCell ref="AB10:AC12"/>
+    <mergeCell ref="AD10:AE12"/>
+    <mergeCell ref="AG10:AJ12"/>
+    <mergeCell ref="AK10:AL12"/>
     <mergeCell ref="AM10:AN12"/>
     <mergeCell ref="AD5:AE7"/>
     <mergeCell ref="AF5:AN7"/>
@@ -10481,80 +10688,13 @@
     <mergeCell ref="J5:K7"/>
     <mergeCell ref="L5:T7"/>
     <mergeCell ref="X5:AA7"/>
-    <mergeCell ref="X10:AA12"/>
-    <mergeCell ref="AB10:AC12"/>
-    <mergeCell ref="AD10:AE12"/>
-    <mergeCell ref="AG10:AJ12"/>
-    <mergeCell ref="AK10:AL12"/>
-    <mergeCell ref="D13:K14"/>
-    <mergeCell ref="M13:T14"/>
-    <mergeCell ref="X13:AE14"/>
-    <mergeCell ref="AG13:AN14"/>
-    <mergeCell ref="D16:G18"/>
-    <mergeCell ref="H16:I18"/>
-    <mergeCell ref="J16:K18"/>
-    <mergeCell ref="M16:P18"/>
-    <mergeCell ref="Q16:R18"/>
-    <mergeCell ref="S16:T18"/>
-    <mergeCell ref="AY16:AY18"/>
-    <mergeCell ref="X16:AA18"/>
-    <mergeCell ref="AB16:AC18"/>
-    <mergeCell ref="AD16:AE18"/>
-    <mergeCell ref="AG16:AJ18"/>
-    <mergeCell ref="AK16:AL18"/>
-    <mergeCell ref="AM16:AN18"/>
-    <mergeCell ref="C23:C41"/>
-    <mergeCell ref="AF23:AF41"/>
-    <mergeCell ref="O24:R26"/>
-    <mergeCell ref="V24:Y26"/>
-    <mergeCell ref="Z24:AA26"/>
-    <mergeCell ref="BF16:BF18"/>
-    <mergeCell ref="D19:K20"/>
-    <mergeCell ref="M19:T20"/>
-    <mergeCell ref="X19:AE20"/>
-    <mergeCell ref="AG19:AN20"/>
-    <mergeCell ref="AZ16:AZ18"/>
-    <mergeCell ref="BA16:BA18"/>
-    <mergeCell ref="BB16:BB18"/>
-    <mergeCell ref="BC16:BC18"/>
-    <mergeCell ref="BD16:BD18"/>
-    <mergeCell ref="BE16:BE18"/>
-    <mergeCell ref="AT16:AT18"/>
-    <mergeCell ref="AU16:AU18"/>
-    <mergeCell ref="AV16:AV18"/>
-    <mergeCell ref="AW16:AW18"/>
-    <mergeCell ref="AX16:AX18"/>
-    <mergeCell ref="AB24:AC26"/>
-    <mergeCell ref="AG24:AJ26"/>
-    <mergeCell ref="AK24:AL26"/>
-    <mergeCell ref="AM24:AN26"/>
-    <mergeCell ref="O27:R28"/>
-    <mergeCell ref="V27:AC28"/>
-    <mergeCell ref="AG27:AN28"/>
-    <mergeCell ref="AG30:AJ32"/>
-    <mergeCell ref="AK30:AL32"/>
-    <mergeCell ref="AM30:AN32"/>
-    <mergeCell ref="AG33:AN34"/>
-    <mergeCell ref="AG36:AJ38"/>
-    <mergeCell ref="AK36:AL38"/>
-    <mergeCell ref="AM36:AN38"/>
-    <mergeCell ref="AG39:AN40"/>
-    <mergeCell ref="D43:G45"/>
-    <mergeCell ref="H43:I45"/>
-    <mergeCell ref="J43:K45"/>
-    <mergeCell ref="N43:Q45"/>
-    <mergeCell ref="R43:S45"/>
-    <mergeCell ref="T43:U45"/>
-    <mergeCell ref="W43:Z45"/>
-    <mergeCell ref="AA43:AB45"/>
-    <mergeCell ref="AC43:AD45"/>
-    <mergeCell ref="AG43:AJ45"/>
-    <mergeCell ref="AK43:AL45"/>
-    <mergeCell ref="AM43:AN45"/>
-    <mergeCell ref="D46:K47"/>
-    <mergeCell ref="N46:U47"/>
-    <mergeCell ref="W46:AD47"/>
-    <mergeCell ref="AG46:AN47"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="AB5:AC7"/>
+    <mergeCell ref="B2:AP3"/>
+    <mergeCell ref="AT2:AT4"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="AV2:AV4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
@@ -10562,19 +10702,259 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{C52E2EB6-BD76-1645-838C-EA4ABC745F92}">
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{F4C40EA9-3578-924E-BF1B-802D85E6C5CE}">
           <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
           <x14:colorMarkers rgb="FFD00000"/>
           <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF00B050"/>
+          <x14:colorLast theme="0" tint="-0.249977111117893"/>
           <x14:colorHigh rgb="FFD00000"/>
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Team Metrics'!AW39:BB39</xm:f>
-              <xm:sqref>AK36</xm:sqref>
+              <xm:f>'Team Metrics'!AW22:BB22</xm:f>
+              <xm:sqref>H5</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{A6E02552-9132-FC40-B4EC-340D43F7A2E2}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast theme="0" tint="-0.249977111117893"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW23:BB23</xm:f>
+              <xm:sqref>AB5</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{38E95271-B073-1E48-BFC5-66D15BDE9BB0}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FF4472C4"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW25:BB25</xm:f>
+              <xm:sqref>H10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{7A4F7879-1C4B-3C4A-A294-1973EC8C5D8E}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FF4472C4"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW26:BB26</xm:f>
+              <xm:sqref>Q10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{E2C88339-FCB1-2041-BF1A-EF6E8F9A95A0}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FF4472C4"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW27:BB27</xm:f>
+              <xm:sqref>H16</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{5D70A36A-8281-9E4B-ACB6-1E8652E5AEAE}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FF4472C4"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW28:BB28</xm:f>
+              <xm:sqref>Q16</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{A0F97C6B-D297-B74F-A0BD-1A05372E32AD}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFCC3399"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW30:BB30</xm:f>
+              <xm:sqref>AB10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{F1505BFD-1AD4-FB47-AE32-37CCBD8D61C0}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFCC3399"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW31:BB31</xm:f>
+              <xm:sqref>AK10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{93FA3AA0-7E52-E149-A6D5-ECD37C015879}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFCC3399"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW32:BB32</xm:f>
+              <xm:sqref>AB16</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{A5168FF9-78DB-8248-9AAF-8FE3FB223891}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFCC3399"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW33:BB33</xm:f>
+              <xm:sqref>AK16</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{2DFB55D3-4B11-F440-BFAC-22DA08EF9038}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW35:BB35</xm:f>
+              <xm:sqref>Z24</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{FB7F1646-3097-0544-B21B-D763618232EC}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FF339966"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW37:BB37</xm:f>
+              <xm:sqref>AK24</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{CDEEB34E-FEB0-BC4F-8728-12F214E1D215}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast theme="0" tint="-0.34998626667073579"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW41:BB41</xm:f>
+              <xm:sqref>H43</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{F5614C77-8286-F742-B929-C7A81BA1A682}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast theme="0" tint="-0.249977111117893"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW42:BB42</xm:f>
+              <xm:sqref>R43</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{FDC6A585-3294-E845-ABD7-0A9EE6AD54B0}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast theme="0" tint="-0.249977111117893"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW43:BB43</xm:f>
+              <xm:sqref>AA43</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{8BFC584E-FEA0-0940-8468-03FA4D01BC3B}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast theme="0" tint="-0.249977111117893"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW44:BB44</xm:f>
+              <xm:sqref>AK43</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10594,259 +10974,19 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{8BFC584E-FEA0-0940-8468-03FA4D01BC3B}">
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{C52E2EB6-BD76-1645-838C-EA4ABC745F92}">
           <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
           <x14:colorMarkers rgb="FFD00000"/>
           <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast theme="0" tint="-0.249977111117893"/>
+          <x14:colorLast rgb="FF00B050"/>
           <x14:colorHigh rgb="FFD00000"/>
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Team Metrics'!AW44:BB44</xm:f>
-              <xm:sqref>AK43</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{FDC6A585-3294-E845-ABD7-0A9EE6AD54B0}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast theme="0" tint="-0.249977111117893"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW43:BB43</xm:f>
-              <xm:sqref>AA43</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{F5614C77-8286-F742-B929-C7A81BA1A682}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast theme="0" tint="-0.249977111117893"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW42:BB42</xm:f>
-              <xm:sqref>R43</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{CDEEB34E-FEB0-BC4F-8728-12F214E1D215}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast theme="0" tint="-0.34998626667073579"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW41:BB41</xm:f>
-              <xm:sqref>H43</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{FB7F1646-3097-0544-B21B-D763618232EC}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF339966"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW37:BB37</xm:f>
-              <xm:sqref>AK24</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{2DFB55D3-4B11-F440-BFAC-22DA08EF9038}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW35:BB35</xm:f>
-              <xm:sqref>Z24</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{A5168FF9-78DB-8248-9AAF-8FE3FB223891}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFCC3399"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW33:BB33</xm:f>
-              <xm:sqref>AK16</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{93FA3AA0-7E52-E149-A6D5-ECD37C015879}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFCC3399"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW32:BB32</xm:f>
-              <xm:sqref>AB16</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{F1505BFD-1AD4-FB47-AE32-37CCBD8D61C0}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFCC3399"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW31:BB31</xm:f>
-              <xm:sqref>AK10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{A0F97C6B-D297-B74F-A0BD-1A05372E32AD}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFCC3399"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW30:BB30</xm:f>
-              <xm:sqref>AB10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{5D70A36A-8281-9E4B-ACB6-1E8652E5AEAE}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF4472C4"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW28:BB28</xm:f>
-              <xm:sqref>Q16</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{E2C88339-FCB1-2041-BF1A-EF6E8F9A95A0}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF4472C4"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW27:BB27</xm:f>
-              <xm:sqref>H16</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{7A4F7879-1C4B-3C4A-A294-1973EC8C5D8E}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF4472C4"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW26:BB26</xm:f>
-              <xm:sqref>Q10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{38E95271-B073-1E48-BFC5-66D15BDE9BB0}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF4472C4"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW25:BB25</xm:f>
-              <xm:sqref>H10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{A6E02552-9132-FC40-B4EC-340D43F7A2E2}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast theme="0" tint="-0.249977111117893"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW23:BB23</xm:f>
-              <xm:sqref>AB5</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{F4C40EA9-3578-924E-BF1B-802D85E6C5CE}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast theme="0" tint="-0.249977111117893"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW22:BB22</xm:f>
-              <xm:sqref>H5</xm:sqref>
+              <xm:f>'Team Metrics'!AW39:BB39</xm:f>
+              <xm:sqref>AK36</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/ScrumTeamStats_Template.xlsx
+++ b/ScrumTeamStats_Template.xlsx
@@ -1,31 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Git/vba-jira/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17F215C-99FC-3544-B9B6-7CFB22510F1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B3B6CB-2275-CC4C-A33F-294B3C13DB69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27060" xr2:uid="{29FB89B4-D308-7843-B61E-411B20763035}"/>
+    <workbookView xWindow="980" yWindow="500" windowWidth="28060" windowHeight="27820" xr2:uid="{29FB89B4-D308-7843-B61E-411B20763035}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Metrics" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="filter">[1]Instructions!#REF!</definedName>
-    <definedName name="JQL">[1]Instructions!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Team Metrics'!$B$2:$AP$48</definedName>
-    <definedName name="RapidBoardId">[1]Instructions!#REF!</definedName>
-    <definedName name="ResourceNamesDestination">[2]!ResourceNames</definedName>
-    <definedName name="TeamId">[1]Instructions!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Team Metrics'!$B$2:$AP$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
   <si>
     <t>Feature</t>
   </si>
@@ -57,9 +48,6 @@
   </si>
   <si>
     <t>Debts</t>
-  </si>
-  <si>
-    <t>Enablers</t>
   </si>
   <si>
     <t>Team Stability</t>
@@ -290,21 +278,6 @@
     <t>Time to Resolve</t>
   </si>
   <si>
-    <t>Correct Status</t>
-  </si>
-  <si>
-    <t>&lt;90%</t>
-  </si>
-  <si>
-    <t>&gt;90%</t>
-  </si>
-  <si>
-    <t>Correct Project &amp; Epic Link</t>
-  </si>
-  <si>
-    <t>Done In Sprint</t>
-  </si>
-  <si>
     <t>Active Time %</t>
   </si>
   <si>
@@ -312,18 +285,6 @@
   </si>
   <si>
     <t>&lt;50%</t>
-  </si>
-  <si>
-    <t>Percentage of the Backlog that has the Status Category of "To Do"</t>
-  </si>
-  <si>
-    <t>Percentage of the Backlog and Active Sprint where the Epic and PBI are on the same project</t>
-  </si>
-  <si>
-    <t>For the most recent sprint the % of PBIs completed in the sprint verus those completed  in and outside of the sprint</t>
-  </si>
-  <si>
-    <t>Active Time logged in Jira per team member over the last two weeks as a % of total man hours</t>
   </si>
   <si>
     <t>Team Name - As Of: 10-Jun-20</t>
@@ -336,6 +297,9 @@
   </si>
   <si>
     <t>Median Lead Time (created - released) for Features released in the last 3 months</t>
+  </si>
+  <si>
+    <t>Work Type</t>
   </si>
 </sst>
 </file>
@@ -456,16 +420,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="8"/>
+      <color theme="1" tint="0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -995,7 +959,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1020,10 +984,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1062,30 +1022,39 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="17" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="17" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment textRotation="90"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="90"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1105,108 +1074,6 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1219,29 +1086,8 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1256,13 +1102,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="90"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90"/>
@@ -1280,16 +1135,16 @@
       <alignment horizontal="center" vertical="top" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1315,36 +1170,130 @@
     <xf numFmtId="168" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="17" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1394,23 +1343,23 @@
       <c:doughnutChart>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Team Metrics'!$AX$2</c:f>
+              <c:f>'Team Metrics'!$AW$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Enablers</c:v>
+                  <c:v>Debts</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="85000"/>
+              <a:schemeClr val="accent1">
+                <a:shade val="86000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="76200">
@@ -1429,92 +1378,6 @@
               <a:solidFill>
                 <a:schemeClr val="bg1">
                   <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="76200">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-2B12-FD47-8317-F530107279BC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Team Metrics'!$AS$5:$AS$6</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Velocity</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Baseline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Team Metrics'!$AX$5:$AX$6</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2B12-FD47-8317-F530107279BC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Team Metrics'!$AW$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Debts</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="76200">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="65000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="76200">
@@ -1593,7 +1456,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'Team Metrics'!$AV$2</c:f>
@@ -1608,7 +1471,7 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1">
-                <a:shade val="76000"/>
+                <a:shade val="58000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="76200">
@@ -1705,7 +1568,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'Team Metrics'!$AU$2</c:f>
@@ -1720,7 +1583,7 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1">
-                <a:tint val="77000"/>
+                <a:tint val="86000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="76200">
@@ -1818,7 +1681,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>'Team Metrics'!$AT$2</c:f>
@@ -1833,7 +1696,7 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1">
-                <a:tint val="54000"/>
+                <a:tint val="58000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="76200">
@@ -2878,7 +2741,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Team Metrics'!$AT$16:$BF$18</c:f>
+              <c:f>'Team Metrics'!$AT$15:$BF$17</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -3006,7 +2869,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Team Metrics'!$AT$16:$BF$18</c:f>
+              <c:f>'Team Metrics'!$AT$15:$BF$17</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -3134,7 +2997,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Team Metrics'!$AT$16:$BF$18</c:f>
+              <c:f>'Team Metrics'!$AT$15:$BF$17</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -3250,7 +3113,7 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="bg1">
-                <a:lumMod val="65000"/>
+                <a:lumMod val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -3261,7 +3124,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Team Metrics'!$AT$16:$BF$18</c:f>
+              <c:f>'Team Metrics'!$AT$15:$BF$17</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -3357,133 +3220,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-6508-2444-B893-9C0F6ED5AC29}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Team Metrics'!$AS$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Enablers</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Team Metrics'!$AT$16:$BF$18</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>Jun 19</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Jul 19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Aug 19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sep 19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Oct 19</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Nov 19</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Dec 19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Jan 20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Feb 20</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Mar 20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Apr 20</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>May 20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Backlog</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Team Metrics'!$AT$15:$BF$15</c:f>
-              <c:numCache>
-                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6508-2444-B893-9C0F6ED5AC29}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4708,14 +4444,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>43918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>148693</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4730,7 +4466,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7966074" y="4438649"/>
+          <a:off x="8037512" y="4488918"/>
           <a:ext cx="104775" cy="104775"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4774,14 +4510,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>43918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>148693</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4796,7 +4532,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7966074" y="4629149"/>
+          <a:off x="8037512" y="4674126"/>
           <a:ext cx="104775" cy="104775"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4843,14 +4579,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>43917</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>148692</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4865,7 +4601,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7966074" y="4819649"/>
+          <a:off x="8037512" y="4859334"/>
           <a:ext cx="104775" cy="104775"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4912,14 +4648,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>43918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>148693</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4934,75 +4670,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7966074" y="5010149"/>
-          <a:ext cx="104775" cy="104775"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Oval 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E66A94-D464-A241-94C8-9D1F933388C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7966074" y="5200649"/>
+          <a:off x="8037512" y="5044543"/>
           <a:ext cx="104775" cy="104775"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5942,270 +5610,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="RAG_Admin_ActiveTime">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08AB04F8-5637-6447-BD31-2C8EF450B066}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="16649700" y="8439150"/>
-          <a:ext cx="165100" cy="133350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rtTriangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="RAG_Admin_DoneInSprint">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62718E29-A222-3142-AFD4-9340E7DFF298}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="12331700" y="8439150"/>
-          <a:ext cx="165100" cy="133350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rtTriangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="RAG_Admin_CorrectProjectEpicLink">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22758376-F335-7646-A01D-0C5F6C05BAA0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8445500" y="8439150"/>
-          <a:ext cx="165100" cy="133350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rtTriangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="RAG_Admin_CorrectStatus">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFDE3B51-3536-9548-8BC4-7E26310E6E5D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4127500" y="8439150"/>
-          <a:ext cx="165100" cy="133350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rtTriangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>25</xdr:row>
@@ -6513,294 +5917,6 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="2371725" y="1114425"/>
-          <a:ext cx="104775" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="85000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Down Arrow 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E84B275-C3D8-E447-8594-33AB401C7E3E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2362200" y="8382000"/>
-          <a:ext cx="104775" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="85000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Down Arrow 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{703DC341-F353-2B4C-945D-2C15AEBBFDD6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6680200" y="8382000"/>
-          <a:ext cx="104775" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="85000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Down Arrow 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F5823C8-32FA-554D-B7B8-4C503FCF6CDA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10566400" y="8382000"/>
-          <a:ext cx="104775" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="85000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Down Arrow 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D0D364E-CE50-624E-9AD2-799C9BB8E6CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="14884400" y="8382000"/>
           <a:ext cx="104775" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -7617,109 +6733,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Instructions"/>
-      <sheetName val="Roadmap_1y"/>
-      <sheetName val="Roadmap_5y"/>
-      <sheetName val="Burn-Down"/>
-      <sheetName val="BurnUp_Data"/>
-      <sheetName val="Costs"/>
-      <sheetName val="Board"/>
-      <sheetName val="Costs_Data"/>
-      <sheetName val="Budget"/>
-      <sheetName val="Team Metrics"/>
-      <sheetName val="Release Notes"/>
-      <sheetName val="WiP_Data"/>
-      <sheetName val="LeadTime_Data"/>
-      <sheetName val="IncompleteIssues_Data"/>
-      <sheetName val="Issues_Data"/>
-      <sheetName val="JIRA"/>
-      <sheetName val="Time Booked"/>
-      <sheetName val="Sprints"/>
-      <sheetName val="Status_Data"/>
-      <sheetName val="Board_Data"/>
-      <sheetName val="Project_Data"/>
-      <sheetName val="FixVersions_Data"/>
-      <sheetName val="Teams_Data"/>
-      <sheetName val="SprintBurnDown_Data"/>
-      <sheetName val="Velocity_Data"/>
-      <sheetName val="Epics_Data"/>
-      <sheetName val="IssueTypes"/>
-      <sheetName val="New_FixVersions"/>
-      <sheetName val="StandardIssueTypes"/>
-      <sheetName val="All_Issues"/>
-      <sheetName val="Log"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9">
-        <row r="2">
-          <cell r="AT2" t="str">
-            <v>Feature</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Resource List Securities and SS"/>
-      <sheetName val="Shared Services Resources"/>
-      <sheetName val="Sheet5"/>
-      <sheetName val="ResourceListSmartcore"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="ResourceNames" refersTo="#REF!"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8021,10 +7034,10 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:BH57"/>
+  <dimension ref="B2:BN51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="AC53" sqref="AC53"/>
+      <selection activeCell="B2" sqref="B2:AP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8032,12 +7045,13 @@
     <col min="1" max="2" width="2.6640625" style="1" customWidth="1"/>
     <col min="3" max="41" width="5.6640625" style="1" customWidth="1"/>
     <col min="42" max="42" width="2.6640625" style="1" customWidth="1"/>
-    <col min="43" max="44" width="6" style="1" customWidth="1"/>
-    <col min="45" max="45" width="10.5" style="55" bestFit="1" customWidth="1"/>
-    <col min="46" max="60" width="6" style="55" customWidth="1"/>
-    <col min="61" max="64" width="6" style="1" customWidth="1"/>
-    <col min="65" max="65" width="4" style="1" customWidth="1"/>
-    <col min="66" max="66" width="3.6640625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="6" style="1" customWidth="1"/>
+    <col min="44" max="44" width="6" style="51" customWidth="1"/>
+    <col min="45" max="45" width="10.5" style="133" bestFit="1" customWidth="1"/>
+    <col min="46" max="60" width="6" style="133" customWidth="1"/>
+    <col min="61" max="64" width="6" style="51" customWidth="1"/>
+    <col min="65" max="65" width="4" style="51" customWidth="1"/>
+    <col min="66" max="66" width="3.6640625" style="51" customWidth="1"/>
     <col min="67" max="67" width="4" style="1" customWidth="1"/>
     <col min="68" max="68" width="3.6640625" style="1" customWidth="1"/>
     <col min="69" max="70" width="4" style="1" customWidth="1"/>
@@ -8069,287 +7083,281 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="73"/>
-      <c r="AT2" s="64" t="s">
+      <c r="B2" s="127" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="128"/>
+      <c r="AH2" s="128"/>
+      <c r="AI2" s="128"/>
+      <c r="AJ2" s="128"/>
+      <c r="AK2" s="128"/>
+      <c r="AL2" s="128"/>
+      <c r="AM2" s="128"/>
+      <c r="AN2" s="128"/>
+      <c r="AO2" s="128"/>
+      <c r="AP2" s="129"/>
+      <c r="AT2" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="AU2" s="64" t="s">
+      <c r="AU2" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="AV2" s="64" t="s">
+      <c r="AV2" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="AW2" s="64" t="s">
+      <c r="AW2" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="AX2" s="64" t="s">
-        <v>4</v>
-      </c>
+      <c r="AX2" s="134"/>
     </row>
     <row r="3" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="74"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="75"/>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="75"/>
-      <c r="AK3" s="75"/>
-      <c r="AL3" s="75"/>
-      <c r="AM3" s="75"/>
-      <c r="AN3" s="75"/>
-      <c r="AO3" s="75"/>
-      <c r="AP3" s="76"/>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="64"/>
-      <c r="AU3" s="64"/>
-      <c r="AV3" s="64"/>
-      <c r="AW3" s="64"/>
-      <c r="AX3" s="64"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="131"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="131"/>
+      <c r="U3" s="131"/>
+      <c r="V3" s="131"/>
+      <c r="W3" s="131"/>
+      <c r="X3" s="131"/>
+      <c r="Y3" s="131"/>
+      <c r="Z3" s="131"/>
+      <c r="AA3" s="131"/>
+      <c r="AB3" s="131"/>
+      <c r="AC3" s="131"/>
+      <c r="AD3" s="131"/>
+      <c r="AE3" s="131"/>
+      <c r="AF3" s="131"/>
+      <c r="AG3" s="131"/>
+      <c r="AH3" s="131"/>
+      <c r="AI3" s="131"/>
+      <c r="AJ3" s="131"/>
+      <c r="AK3" s="131"/>
+      <c r="AL3" s="131"/>
+      <c r="AM3" s="131"/>
+      <c r="AN3" s="131"/>
+      <c r="AO3" s="131"/>
+      <c r="AP3" s="132"/>
+      <c r="AS3" s="135"/>
+      <c r="AT3" s="134"/>
+      <c r="AU3" s="134"/>
+      <c r="AV3" s="134"/>
+      <c r="AW3" s="134"/>
+      <c r="AX3" s="134"/>
     </row>
     <row r="4" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
       <c r="AP4" s="3"/>
-      <c r="AS4" s="57">
+      <c r="AS4" s="136">
         <v>43992</v>
       </c>
-      <c r="AT4" s="64"/>
-      <c r="AU4" s="64"/>
-      <c r="AV4" s="64"/>
-      <c r="AW4" s="64"/>
-      <c r="AX4" s="64"/>
+      <c r="AT4" s="134"/>
+      <c r="AU4" s="134"/>
+      <c r="AV4" s="134"/>
+      <c r="AW4" s="134"/>
+      <c r="AX4" s="134"/>
     </row>
     <row r="5" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="D5" s="103" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="113">
+      <c r="D5" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="124">
         <f>BB22</f>
         <v>0.88</v>
       </c>
-      <c r="K5" s="113"/>
-      <c r="L5" s="84" t="s">
+      <c r="K5" s="124"/>
+      <c r="L5" s="108" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="109"/>
+      <c r="X5" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="85"/>
-      <c r="X5" s="103" t="s">
+      <c r="Y5" s="104"/>
+      <c r="Z5" s="104"/>
+      <c r="AA5" s="104"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="63"/>
+      <c r="AD5" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="Y5" s="96"/>
-      <c r="Z5" s="96"/>
-      <c r="AA5" s="96"/>
-      <c r="AB5" s="65"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="81" t="s">
+      <c r="AE5" s="105"/>
+      <c r="AF5" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="AE5" s="81"/>
-      <c r="AF5" s="84" t="s">
+      <c r="AG5" s="108"/>
+      <c r="AH5" s="108"/>
+      <c r="AI5" s="108"/>
+      <c r="AJ5" s="108"/>
+      <c r="AK5" s="108"/>
+      <c r="AL5" s="108"/>
+      <c r="AM5" s="108"/>
+      <c r="AN5" s="109"/>
+      <c r="AP5" s="3"/>
+      <c r="AS5" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="AG5" s="84"/>
-      <c r="AH5" s="84"/>
-      <c r="AI5" s="84"/>
-      <c r="AJ5" s="84"/>
-      <c r="AK5" s="84"/>
-      <c r="AL5" s="84"/>
-      <c r="AM5" s="84"/>
-      <c r="AN5" s="85"/>
-      <c r="AP5" s="3"/>
-      <c r="AS5" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="AT5" s="58">
+      <c r="AT5" s="137">
         <v>5</v>
       </c>
-      <c r="AU5" s="58">
+      <c r="AU5" s="137">
         <v>3</v>
       </c>
-      <c r="AV5" s="58">
+      <c r="AV5" s="137">
         <v>6</v>
       </c>
-      <c r="AW5" s="58">
+      <c r="AW5" s="137">
         <v>2</v>
       </c>
-      <c r="AX5" s="58">
-        <v>5</v>
-      </c>
+      <c r="AX5" s="137"/>
     </row>
     <row r="6" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="87"/>
-      <c r="X6" s="109"/>
-      <c r="Y6" s="110"/>
-      <c r="Z6" s="110"/>
-      <c r="AA6" s="110"/>
-      <c r="AB6" s="67"/>
-      <c r="AC6" s="68"/>
-      <c r="AD6" s="82"/>
-      <c r="AE6" s="82"/>
-      <c r="AF6" s="86"/>
-      <c r="AG6" s="86"/>
-      <c r="AH6" s="86"/>
-      <c r="AI6" s="86"/>
-      <c r="AJ6" s="86"/>
-      <c r="AK6" s="86"/>
-      <c r="AL6" s="86"/>
-      <c r="AM6" s="86"/>
-      <c r="AN6" s="87"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="54"/>
+      <c r="X6" s="120"/>
+      <c r="Y6" s="121"/>
+      <c r="Z6" s="121"/>
+      <c r="AA6" s="121"/>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="106"/>
+      <c r="AE6" s="106"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="53"/>
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="53"/>
+      <c r="AK6" s="53"/>
+      <c r="AL6" s="53"/>
+      <c r="AM6" s="53"/>
+      <c r="AN6" s="54"/>
       <c r="AP6" s="3"/>
-      <c r="AS6" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT6" s="58">
+      <c r="AS6" s="133" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT6" s="137">
         <v>7</v>
       </c>
-      <c r="AU6" s="58">
+      <c r="AU6" s="137">
         <v>1</v>
       </c>
-      <c r="AV6" s="58">
+      <c r="AV6" s="137">
         <v>1.6666666666666667</v>
       </c>
-      <c r="AW6" s="58">
+      <c r="AW6" s="137">
         <v>1.3333333333333333</v>
       </c>
-      <c r="AX6" s="58">
-        <v>0.3</v>
-      </c>
+      <c r="AX6" s="137"/>
     </row>
     <row r="7" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="88"/>
-      <c r="T7" s="89"/>
-      <c r="X7" s="111"/>
-      <c r="Y7" s="112"/>
-      <c r="Z7" s="112"/>
-      <c r="AA7" s="112"/>
-      <c r="AB7" s="69"/>
-      <c r="AC7" s="70"/>
-      <c r="AD7" s="83"/>
-      <c r="AE7" s="83"/>
-      <c r="AF7" s="88"/>
-      <c r="AG7" s="88"/>
-      <c r="AH7" s="88"/>
-      <c r="AI7" s="88"/>
-      <c r="AJ7" s="88"/>
-      <c r="AK7" s="88"/>
-      <c r="AL7" s="88"/>
-      <c r="AM7" s="88"/>
-      <c r="AN7" s="89"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="X7" s="122"/>
+      <c r="Y7" s="123"/>
+      <c r="Z7" s="123"/>
+      <c r="AA7" s="123"/>
+      <c r="AB7" s="66"/>
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="107"/>
+      <c r="AE7" s="107"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="56"/>
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="56"/>
+      <c r="AJ7" s="56"/>
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="56"/>
+      <c r="AN7" s="57"/>
       <c r="AP7" s="3"/>
     </row>
     <row r="8" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8358,8 +7366,8 @@
     </row>
     <row r="9" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
-      <c r="C9" s="90" t="s">
-        <v>12</v>
+      <c r="C9" s="110" t="s">
+        <v>11</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -8379,8 +7387,8 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="5"/>
-      <c r="W9" s="93" t="s">
-        <v>13</v>
+      <c r="W9" s="113" t="s">
+        <v>12</v>
       </c>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
@@ -8404,742 +7412,714 @@
     </row>
     <row r="10" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="96" t="s">
+      <c r="C10" s="111"/>
+      <c r="D10" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="99" t="s">
+      <c r="K10" s="117"/>
+      <c r="M10" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="100"/>
-      <c r="M10" s="103" t="s">
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="68">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="T10" s="69"/>
+      <c r="U10" s="8"/>
+      <c r="W10" s="114"/>
+      <c r="X10" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="97"/>
-      <c r="O10" s="97"/>
-      <c r="P10" s="97"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="105">
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="T10" s="106"/>
-      <c r="U10" s="8"/>
-      <c r="W10" s="94"/>
-      <c r="X10" s="116" t="s">
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="63"/>
+      <c r="AD10" s="73">
+        <v>156</v>
+      </c>
+      <c r="AE10" s="74"/>
+      <c r="AG10" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="Y10" s="97"/>
-      <c r="Z10" s="97"/>
-      <c r="AA10" s="97"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="117">
-        <v>156</v>
-      </c>
-      <c r="AE10" s="118"/>
-      <c r="AG10" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH10" s="97"/>
-      <c r="AI10" s="97"/>
-      <c r="AJ10" s="97"/>
-      <c r="AK10" s="65"/>
-      <c r="AL10" s="66"/>
-      <c r="AM10" s="77">
+      <c r="AH10" s="59"/>
+      <c r="AI10" s="59"/>
+      <c r="AJ10" s="59"/>
+      <c r="AK10" s="62"/>
+      <c r="AL10" s="63"/>
+      <c r="AM10" s="100">
         <v>3</v>
       </c>
-      <c r="AN10" s="78"/>
+      <c r="AN10" s="101"/>
       <c r="AO10" s="9"/>
       <c r="AP10" s="3"/>
     </row>
     <row r="11" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="102"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="107"/>
-      <c r="T11" s="108"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="119"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="71"/>
       <c r="U11" s="8"/>
-      <c r="W11" s="94"/>
-      <c r="X11" s="104"/>
-      <c r="Y11" s="98"/>
-      <c r="Z11" s="98"/>
-      <c r="AA11" s="98"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="68"/>
-      <c r="AD11" s="119"/>
-      <c r="AE11" s="120"/>
-      <c r="AG11" s="104"/>
-      <c r="AH11" s="98"/>
-      <c r="AI11" s="98"/>
-      <c r="AJ11" s="98"/>
-      <c r="AK11" s="67"/>
-      <c r="AL11" s="68"/>
-      <c r="AM11" s="79"/>
-      <c r="AN11" s="80"/>
+      <c r="W11" s="114"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="61"/>
+      <c r="AA11" s="61"/>
+      <c r="AB11" s="64"/>
+      <c r="AC11" s="65"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="76"/>
+      <c r="AG11" s="60"/>
+      <c r="AH11" s="61"/>
+      <c r="AI11" s="61"/>
+      <c r="AJ11" s="61"/>
+      <c r="AK11" s="64"/>
+      <c r="AL11" s="65"/>
+      <c r="AM11" s="102"/>
+      <c r="AN11" s="103"/>
       <c r="AO11" s="9"/>
       <c r="AP11" s="3"/>
-      <c r="AS11" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="AT11" s="59">
+      <c r="AS11" s="133" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT11" s="138">
         <v>0</v>
       </c>
-      <c r="AU11" s="59">
+      <c r="AU11" s="138">
         <v>3</v>
       </c>
-      <c r="AV11" s="59">
+      <c r="AV11" s="138">
         <v>9</v>
       </c>
-      <c r="AW11" s="59">
+      <c r="AW11" s="138">
         <v>2</v>
       </c>
-      <c r="AX11" s="59">
+      <c r="AX11" s="138">
         <v>6</v>
       </c>
-      <c r="AY11" s="59">
+      <c r="AY11" s="138">
         <v>4</v>
       </c>
-      <c r="AZ11" s="59">
+      <c r="AZ11" s="138">
         <v>5</v>
       </c>
-      <c r="BA11" s="59">
+      <c r="BA11" s="138">
         <v>2</v>
       </c>
-      <c r="BB11" s="59">
+      <c r="BB11" s="138">
         <v>13</v>
       </c>
-      <c r="BC11" s="59">
+      <c r="BC11" s="138">
         <v>9</v>
       </c>
-      <c r="BD11" s="59">
+      <c r="BD11" s="138">
         <v>0</v>
       </c>
-      <c r="BE11" s="59">
+      <c r="BE11" s="138">
         <v>5</v>
       </c>
-      <c r="BF11" s="59">
+      <c r="BF11" s="138">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="102"/>
-      <c r="M12" s="104"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="107"/>
-      <c r="T12" s="108"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="119"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="71"/>
       <c r="U12" s="8"/>
-      <c r="W12" s="94"/>
-      <c r="X12" s="104"/>
-      <c r="Y12" s="98"/>
-      <c r="Z12" s="98"/>
-      <c r="AA12" s="98"/>
-      <c r="AB12" s="69"/>
-      <c r="AC12" s="70"/>
-      <c r="AD12" s="119"/>
-      <c r="AE12" s="120"/>
-      <c r="AG12" s="104"/>
-      <c r="AH12" s="98"/>
-      <c r="AI12" s="98"/>
-      <c r="AJ12" s="98"/>
-      <c r="AK12" s="69"/>
-      <c r="AL12" s="70"/>
-      <c r="AM12" s="79"/>
-      <c r="AN12" s="80"/>
+      <c r="W12" s="114"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="67"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="76"/>
+      <c r="AG12" s="60"/>
+      <c r="AH12" s="61"/>
+      <c r="AI12" s="61"/>
+      <c r="AJ12" s="61"/>
+      <c r="AK12" s="66"/>
+      <c r="AL12" s="67"/>
+      <c r="AM12" s="102"/>
+      <c r="AN12" s="103"/>
       <c r="AO12" s="9"/>
       <c r="AP12" s="3"/>
-      <c r="AS12" s="55" t="s">
+      <c r="AS12" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="AT12" s="59">
+      <c r="AT12" s="138">
         <v>1</v>
       </c>
-      <c r="AU12" s="59">
+      <c r="AU12" s="138">
         <v>1</v>
       </c>
-      <c r="AV12" s="59">
+      <c r="AV12" s="138">
         <v>3</v>
       </c>
-      <c r="AW12" s="59">
+      <c r="AW12" s="138">
         <v>1</v>
       </c>
-      <c r="AX12" s="59">
+      <c r="AX12" s="138">
         <v>1</v>
       </c>
-      <c r="AY12" s="59">
+      <c r="AY12" s="138">
         <v>2</v>
       </c>
-      <c r="AZ12" s="59">
+      <c r="AZ12" s="138">
         <v>3</v>
       </c>
-      <c r="BA12" s="59">
+      <c r="BA12" s="138">
         <v>1</v>
       </c>
-      <c r="BB12" s="59">
+      <c r="BB12" s="138">
         <v>2</v>
       </c>
-      <c r="BC12" s="59">
+      <c r="BC12" s="138">
         <v>0</v>
       </c>
-      <c r="BD12" s="59">
+      <c r="BD12" s="138">
         <v>0</v>
       </c>
-      <c r="BE12" s="59">
+      <c r="BE12" s="138">
         <v>3</v>
       </c>
-      <c r="BF12" s="59">
+      <c r="BF12" s="138">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="86" t="s">
+      <c r="C13" s="111"/>
+      <c r="D13" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+      <c r="M13" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="87"/>
-      <c r="M13" s="121" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="86"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="87"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="54"/>
       <c r="U13" s="8"/>
-      <c r="W13" s="94"/>
-      <c r="X13" s="121" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y13" s="86"/>
-      <c r="Z13" s="86"/>
-      <c r="AA13" s="86"/>
-      <c r="AB13" s="86"/>
-      <c r="AC13" s="86"/>
-      <c r="AD13" s="86"/>
-      <c r="AE13" s="87"/>
-      <c r="AG13" s="121" t="str">
-        <f>"Number of code deployments in the previous calendar month ("&amp;TEXT(BE16,"mmm")&amp;")"</f>
+      <c r="W13" s="114"/>
+      <c r="X13" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="53"/>
+      <c r="AE13" s="54"/>
+      <c r="AG13" s="52" t="str">
+        <f>"Number of code deployments in the previous calendar month ("&amp;TEXT(BE15,"mmm")&amp;")"</f>
         <v>Number of code deployments in the previous calendar month (May)</v>
       </c>
-      <c r="AH13" s="86"/>
-      <c r="AI13" s="86"/>
-      <c r="AJ13" s="86"/>
-      <c r="AK13" s="86"/>
-      <c r="AL13" s="86"/>
-      <c r="AM13" s="86"/>
-      <c r="AN13" s="87"/>
+      <c r="AH13" s="53"/>
+      <c r="AI13" s="53"/>
+      <c r="AJ13" s="53"/>
+      <c r="AK13" s="53"/>
+      <c r="AL13" s="53"/>
+      <c r="AM13" s="53"/>
+      <c r="AN13" s="54"/>
       <c r="AO13" s="9"/>
       <c r="AP13" s="3"/>
-      <c r="AS13" s="55" t="s">
+      <c r="AS13" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="AT13" s="59">
+      <c r="AT13" s="138">
         <v>0</v>
       </c>
-      <c r="AU13" s="59">
+      <c r="AU13" s="138">
         <v>0</v>
       </c>
-      <c r="AV13" s="59">
+      <c r="AV13" s="138">
         <v>2</v>
       </c>
-      <c r="AW13" s="59">
+      <c r="AW13" s="138">
         <v>1</v>
       </c>
-      <c r="AX13" s="59">
+      <c r="AX13" s="138">
         <v>0</v>
       </c>
-      <c r="AY13" s="59">
+      <c r="AY13" s="138">
         <v>0</v>
       </c>
-      <c r="AZ13" s="59">
+      <c r="AZ13" s="138">
         <v>3</v>
       </c>
-      <c r="BA13" s="59">
+      <c r="BA13" s="138">
         <v>0</v>
       </c>
-      <c r="BB13" s="59">
+      <c r="BB13" s="138">
         <v>2</v>
       </c>
-      <c r="BC13" s="59">
+      <c r="BC13" s="138">
         <v>5</v>
       </c>
-      <c r="BD13" s="59">
+      <c r="BD13" s="138">
         <v>0</v>
       </c>
-      <c r="BE13" s="59">
+      <c r="BE13" s="138">
         <v>6</v>
       </c>
-      <c r="BF13" s="59">
+      <c r="BF13" s="138">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89"/>
-      <c r="M14" s="122"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="88"/>
-      <c r="S14" s="88"/>
-      <c r="T14" s="89"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="57"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="57"/>
       <c r="U14" s="8"/>
-      <c r="W14" s="94"/>
-      <c r="X14" s="122"/>
-      <c r="Y14" s="88"/>
-      <c r="Z14" s="88"/>
-      <c r="AA14" s="88"/>
-      <c r="AB14" s="88"/>
-      <c r="AC14" s="88"/>
-      <c r="AD14" s="88"/>
-      <c r="AE14" s="89"/>
-      <c r="AG14" s="122"/>
-      <c r="AH14" s="88"/>
-      <c r="AI14" s="88"/>
-      <c r="AJ14" s="88"/>
-      <c r="AK14" s="88"/>
-      <c r="AL14" s="88"/>
-      <c r="AM14" s="88"/>
-      <c r="AN14" s="89"/>
+      <c r="W14" s="114"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="57"/>
+      <c r="AG14" s="55"/>
+      <c r="AH14" s="56"/>
+      <c r="AI14" s="56"/>
+      <c r="AJ14" s="56"/>
+      <c r="AK14" s="56"/>
+      <c r="AL14" s="56"/>
+      <c r="AM14" s="56"/>
+      <c r="AN14" s="57"/>
       <c r="AO14" s="9"/>
       <c r="AP14" s="3"/>
-      <c r="AS14" s="55" t="s">
+      <c r="AS14" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="AT14" s="59">
+      <c r="AT14" s="138">
         <v>0</v>
       </c>
-      <c r="AU14" s="59">
+      <c r="AU14" s="138">
         <v>0</v>
       </c>
-      <c r="AV14" s="59">
+      <c r="AV14" s="138">
         <v>0</v>
       </c>
-      <c r="AW14" s="59">
+      <c r="AW14" s="138">
         <v>1</v>
       </c>
-      <c r="AX14" s="59">
+      <c r="AX14" s="138">
         <v>1</v>
       </c>
-      <c r="AY14" s="59">
+      <c r="AY14" s="138">
         <v>0</v>
       </c>
-      <c r="AZ14" s="59">
+      <c r="AZ14" s="138">
         <v>2</v>
       </c>
-      <c r="BA14" s="59">
+      <c r="BA14" s="138">
         <v>1</v>
       </c>
-      <c r="BB14" s="59">
+      <c r="BB14" s="138">
         <v>1</v>
       </c>
-      <c r="BC14" s="59">
+      <c r="BC14" s="138">
         <v>1</v>
       </c>
-      <c r="BD14" s="59">
+      <c r="BD14" s="138">
         <v>0</v>
       </c>
-      <c r="BE14" s="59">
+      <c r="BE14" s="138">
         <v>2</v>
       </c>
-      <c r="BF14" s="59">
+      <c r="BF14" s="138">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
-      <c r="C15" s="91"/>
+      <c r="C15" s="111"/>
       <c r="U15" s="8"/>
-      <c r="W15" s="94"/>
+      <c r="W15" s="114"/>
       <c r="AO15" s="9"/>
       <c r="AP15" s="3"/>
-      <c r="AS15" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="AT15" s="59">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="59">
-        <v>2</v>
-      </c>
-      <c r="AW15" s="59">
-        <v>1</v>
-      </c>
-      <c r="AX15" s="59">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="59">
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="59">
-        <v>2</v>
-      </c>
-      <c r="BA15" s="59">
-        <v>1</v>
-      </c>
-      <c r="BB15" s="59">
-        <v>1</v>
-      </c>
-      <c r="BC15" s="59">
-        <v>0</v>
-      </c>
-      <c r="BD15" s="59">
-        <v>0</v>
-      </c>
-      <c r="BE15" s="59">
-        <v>5</v>
-      </c>
-      <c r="BF15" s="59">
-        <v>24</v>
+      <c r="AT15" s="139">
+        <v>43646</v>
+      </c>
+      <c r="AU15" s="139">
+        <v>43677</v>
+      </c>
+      <c r="AV15" s="139">
+        <v>43708</v>
+      </c>
+      <c r="AW15" s="139">
+        <v>43738</v>
+      </c>
+      <c r="AX15" s="139">
+        <v>43769</v>
+      </c>
+      <c r="AY15" s="139">
+        <v>43799</v>
+      </c>
+      <c r="AZ15" s="139">
+        <v>43830</v>
+      </c>
+      <c r="BA15" s="139">
+        <v>43861</v>
+      </c>
+      <c r="BB15" s="139">
+        <v>43890</v>
+      </c>
+      <c r="BC15" s="139">
+        <v>43921</v>
+      </c>
+      <c r="BD15" s="139">
+        <v>43951</v>
+      </c>
+      <c r="BE15" s="139">
+        <v>43982</v>
+      </c>
+      <c r="BF15" s="134" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="96" t="s">
+      <c r="C16" s="111"/>
+      <c r="D16" s="104" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="68">
+        <v>0.60897012673056483</v>
+      </c>
+      <c r="K16" s="69"/>
+      <c r="M16" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="105">
-        <v>0.60897012673056483</v>
-      </c>
-      <c r="K16" s="106"/>
-      <c r="M16" s="103" t="s">
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="68">
+        <v>0.51899473632415571</v>
+      </c>
+      <c r="T16" s="69"/>
+      <c r="U16" s="8"/>
+      <c r="W16" s="114"/>
+      <c r="X16" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="105">
-        <v>0.51899473632415571</v>
-      </c>
-      <c r="T16" s="106"/>
-      <c r="U16" s="8"/>
-      <c r="W16" s="94"/>
-      <c r="X16" s="116" t="s">
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="63"/>
+      <c r="AD16" s="73">
+        <v>73</v>
+      </c>
+      <c r="AE16" s="74"/>
+      <c r="AG16" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="Y16" s="97"/>
-      <c r="Z16" s="97"/>
-      <c r="AA16" s="97"/>
-      <c r="AB16" s="65"/>
-      <c r="AC16" s="66"/>
-      <c r="AD16" s="117">
-        <v>73</v>
-      </c>
-      <c r="AE16" s="118"/>
-      <c r="AG16" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH16" s="97"/>
-      <c r="AI16" s="97"/>
-      <c r="AJ16" s="97"/>
-      <c r="AK16" s="65"/>
-      <c r="AL16" s="66"/>
-      <c r="AM16" s="77">
+      <c r="AH16" s="59"/>
+      <c r="AI16" s="59"/>
+      <c r="AJ16" s="59"/>
+      <c r="AK16" s="62"/>
+      <c r="AL16" s="63"/>
+      <c r="AM16" s="100">
         <f>BB33</f>
         <v>7</v>
       </c>
-      <c r="AN16" s="78"/>
+      <c r="AN16" s="101"/>
       <c r="AO16" s="9"/>
       <c r="AP16" s="3"/>
-      <c r="AT16" s="123">
-        <v>43646</v>
-      </c>
-      <c r="AU16" s="123">
-        <v>43677</v>
-      </c>
-      <c r="AV16" s="123">
-        <v>43708</v>
-      </c>
-      <c r="AW16" s="123">
-        <v>43738</v>
-      </c>
-      <c r="AX16" s="123">
-        <v>43769</v>
-      </c>
-      <c r="AY16" s="123">
-        <v>43799</v>
-      </c>
-      <c r="AZ16" s="123">
-        <v>43830</v>
-      </c>
-      <c r="BA16" s="123">
-        <v>43861</v>
-      </c>
-      <c r="BB16" s="123">
-        <v>43890</v>
-      </c>
-      <c r="BC16" s="123">
-        <v>43921</v>
-      </c>
-      <c r="BD16" s="123">
-        <v>43951</v>
-      </c>
-      <c r="BE16" s="123">
-        <v>43982</v>
-      </c>
-      <c r="BF16" s="64" t="s">
-        <v>26</v>
-      </c>
+      <c r="AS16" s="140"/>
+      <c r="AT16" s="139"/>
+      <c r="AU16" s="139"/>
+      <c r="AV16" s="139"/>
+      <c r="AW16" s="139"/>
+      <c r="AX16" s="139"/>
+      <c r="AY16" s="139"/>
+      <c r="AZ16" s="139"/>
+      <c r="BA16" s="139"/>
+      <c r="BB16" s="139"/>
+      <c r="BC16" s="139"/>
+      <c r="BD16" s="139"/>
+      <c r="BE16" s="139"/>
+      <c r="BF16" s="134"/>
     </row>
     <row r="17" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="108"/>
-      <c r="M17" s="104"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="107"/>
-      <c r="T17" s="108"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="71"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="71"/>
       <c r="U17" s="8"/>
-      <c r="W17" s="94"/>
-      <c r="X17" s="104"/>
-      <c r="Y17" s="98"/>
-      <c r="Z17" s="98"/>
-      <c r="AA17" s="98"/>
-      <c r="AB17" s="67"/>
-      <c r="AC17" s="68"/>
-      <c r="AD17" s="119"/>
-      <c r="AE17" s="120"/>
-      <c r="AG17" s="104"/>
-      <c r="AH17" s="98"/>
-      <c r="AI17" s="98"/>
-      <c r="AJ17" s="98"/>
-      <c r="AK17" s="67"/>
-      <c r="AL17" s="68"/>
-      <c r="AM17" s="79"/>
-      <c r="AN17" s="80"/>
+      <c r="W17" s="114"/>
+      <c r="X17" s="60"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="64"/>
+      <c r="AC17" s="65"/>
+      <c r="AD17" s="75"/>
+      <c r="AE17" s="76"/>
+      <c r="AG17" s="60"/>
+      <c r="AH17" s="61"/>
+      <c r="AI17" s="61"/>
+      <c r="AJ17" s="61"/>
+      <c r="AK17" s="64"/>
+      <c r="AL17" s="65"/>
+      <c r="AM17" s="102"/>
+      <c r="AN17" s="103"/>
       <c r="AO17" s="9"/>
       <c r="AP17" s="3"/>
-      <c r="AS17" s="60"/>
-      <c r="AT17" s="123"/>
-      <c r="AU17" s="123"/>
-      <c r="AV17" s="123"/>
-      <c r="AW17" s="123"/>
-      <c r="AX17" s="123"/>
-      <c r="AY17" s="123"/>
-      <c r="AZ17" s="123"/>
-      <c r="BA17" s="123"/>
-      <c r="BB17" s="123"/>
-      <c r="BC17" s="123"/>
-      <c r="BD17" s="123"/>
-      <c r="BE17" s="123"/>
-      <c r="BF17" s="64"/>
+      <c r="AS17" s="140"/>
+      <c r="AT17" s="139"/>
+      <c r="AU17" s="139"/>
+      <c r="AV17" s="139"/>
+      <c r="AW17" s="139"/>
+      <c r="AX17" s="139"/>
+      <c r="AY17" s="139"/>
+      <c r="AZ17" s="139"/>
+      <c r="BA17" s="139"/>
+      <c r="BB17" s="139"/>
+      <c r="BC17" s="139"/>
+      <c r="BD17" s="139"/>
+      <c r="BE17" s="139"/>
+      <c r="BF17" s="134"/>
     </row>
     <row r="18" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="108"/>
-      <c r="M18" s="104"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="107"/>
-      <c r="T18" s="108"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="71"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="71"/>
       <c r="U18" s="8"/>
-      <c r="W18" s="94"/>
-      <c r="X18" s="104"/>
-      <c r="Y18" s="98"/>
-      <c r="Z18" s="98"/>
-      <c r="AA18" s="98"/>
-      <c r="AB18" s="69"/>
-      <c r="AC18" s="70"/>
-      <c r="AD18" s="119"/>
-      <c r="AE18" s="120"/>
-      <c r="AG18" s="104"/>
-      <c r="AH18" s="98"/>
-      <c r="AI18" s="98"/>
-      <c r="AJ18" s="98"/>
-      <c r="AK18" s="69"/>
-      <c r="AL18" s="70"/>
-      <c r="AM18" s="79"/>
-      <c r="AN18" s="80"/>
+      <c r="W18" s="114"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="66"/>
+      <c r="AC18" s="67"/>
+      <c r="AD18" s="75"/>
+      <c r="AE18" s="76"/>
+      <c r="AG18" s="60"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="61"/>
+      <c r="AJ18" s="61"/>
+      <c r="AK18" s="66"/>
+      <c r="AL18" s="67"/>
+      <c r="AM18" s="102"/>
+      <c r="AN18" s="103"/>
       <c r="AO18" s="9"/>
       <c r="AP18" s="3"/>
-      <c r="AS18" s="60"/>
-      <c r="AT18" s="123"/>
-      <c r="AU18" s="123"/>
-      <c r="AV18" s="123"/>
-      <c r="AW18" s="123"/>
-      <c r="AX18" s="123"/>
-      <c r="AY18" s="123"/>
-      <c r="AZ18" s="123"/>
-      <c r="BA18" s="123"/>
-      <c r="BB18" s="123"/>
-      <c r="BC18" s="123"/>
-      <c r="BD18" s="123"/>
-      <c r="BE18" s="123"/>
-      <c r="BF18" s="64"/>
+      <c r="AS18" s="140"/>
+      <c r="AT18" s="141"/>
+      <c r="AU18" s="141"/>
+      <c r="AV18" s="141"/>
+      <c r="AW18" s="141"/>
+      <c r="AX18" s="141"/>
+      <c r="AY18" s="141"/>
+      <c r="AZ18" s="141"/>
+      <c r="BA18" s="141"/>
+      <c r="BB18" s="141"/>
+      <c r="BC18" s="141"/>
+      <c r="BD18" s="141"/>
+      <c r="BE18" s="141"/>
+      <c r="BF18" s="142"/>
     </row>
     <row r="19" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="86" t="s">
+      <c r="C19" s="111"/>
+      <c r="D19" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
+      <c r="M19" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="87"/>
-      <c r="M19" s="121" t="s">
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="8"/>
+      <c r="W19" s="114"/>
+      <c r="X19" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y19" s="53"/>
+      <c r="Z19" s="53"/>
+      <c r="AA19" s="53"/>
+      <c r="AB19" s="53"/>
+      <c r="AC19" s="53"/>
+      <c r="AD19" s="53"/>
+      <c r="AE19" s="54"/>
+      <c r="AG19" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="87"/>
-      <c r="U19" s="8"/>
-      <c r="W19" s="94"/>
-      <c r="X19" s="121" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y19" s="86"/>
-      <c r="Z19" s="86"/>
-      <c r="AA19" s="86"/>
-      <c r="AB19" s="86"/>
-      <c r="AC19" s="86"/>
-      <c r="AD19" s="86"/>
-      <c r="AE19" s="87"/>
-      <c r="AG19" s="121" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH19" s="86"/>
-      <c r="AI19" s="86"/>
-      <c r="AJ19" s="86"/>
-      <c r="AK19" s="86"/>
-      <c r="AL19" s="86"/>
-      <c r="AM19" s="86"/>
-      <c r="AN19" s="87"/>
+      <c r="AH19" s="53"/>
+      <c r="AI19" s="53"/>
+      <c r="AJ19" s="53"/>
+      <c r="AK19" s="53"/>
+      <c r="AL19" s="53"/>
+      <c r="AM19" s="53"/>
+      <c r="AN19" s="54"/>
       <c r="AO19" s="9"/>
       <c r="AP19" s="3"/>
     </row>
     <row r="20" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="89"/>
-      <c r="M20" s="122"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="88"/>
-      <c r="T20" s="89"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="57"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="57"/>
       <c r="U20" s="8"/>
-      <c r="W20" s="94"/>
-      <c r="X20" s="122"/>
-      <c r="Y20" s="88"/>
-      <c r="Z20" s="88"/>
-      <c r="AA20" s="88"/>
-      <c r="AB20" s="88"/>
-      <c r="AC20" s="88"/>
-      <c r="AD20" s="88"/>
-      <c r="AE20" s="89"/>
-      <c r="AG20" s="122"/>
-      <c r="AH20" s="88"/>
-      <c r="AI20" s="88"/>
-      <c r="AJ20" s="88"/>
-      <c r="AK20" s="88"/>
-      <c r="AL20" s="88"/>
-      <c r="AM20" s="88"/>
-      <c r="AN20" s="89"/>
+      <c r="W20" s="114"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="57"/>
+      <c r="AG20" s="55"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="56"/>
+      <c r="AK20" s="56"/>
+      <c r="AL20" s="56"/>
+      <c r="AM20" s="56"/>
+      <c r="AN20" s="57"/>
       <c r="AO20" s="9"/>
       <c r="AP20" s="3"/>
     </row>
     <row r="21" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
-      <c r="C21" s="92"/>
+      <c r="C21" s="112"/>
       <c r="D21" s="12"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -9158,7 +8138,7 @@
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
       <c r="U21" s="14"/>
-      <c r="W21" s="95"/>
+      <c r="W21" s="115"/>
       <c r="X21" s="15"/>
       <c r="Y21" s="15"/>
       <c r="Z21" s="15"/>
@@ -9178,38 +8158,38 @@
       <c r="AN21" s="15"/>
       <c r="AO21" s="16"/>
       <c r="AP21" s="3"/>
-      <c r="AW21" s="61" t="s">
+      <c r="AW21" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="AX21" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="AX21" s="61" t="s">
+      <c r="AY21" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="AY21" s="61" t="s">
+      <c r="AZ21" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="AZ21" s="61" t="s">
+      <c r="BA21" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="BA21" s="61" t="s">
+      <c r="BB21" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="BB21" s="61" t="s">
+      <c r="BD21" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="BD21" s="55" t="s">
+      <c r="BE21" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="BE21" s="55" t="s">
+      <c r="BF21" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="BF21" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="BG21" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="BH21" s="55" t="s">
+      <c r="BG21" s="133" t="s">
         <v>36</v>
+      </c>
+      <c r="BH21" s="133" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9226,47 +8206,47 @@
       <c r="AN22" s="17"/>
       <c r="AO22" s="17"/>
       <c r="AP22" s="3"/>
-      <c r="AS22" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="AW22" s="62">
+      <c r="AS22" s="133" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW22" s="144">
         <v>0.2</v>
       </c>
-      <c r="AX22" s="62">
+      <c r="AX22" s="144">
         <v>0.92500000000000004</v>
       </c>
-      <c r="AY22" s="62">
+      <c r="AY22" s="144">
         <v>0.75</v>
       </c>
-      <c r="AZ22" s="62">
+      <c r="AZ22" s="144">
         <v>1</v>
       </c>
-      <c r="BA22" s="62">
+      <c r="BA22" s="144">
         <v>0.88</v>
       </c>
-      <c r="BB22" s="62">
+      <c r="BB22" s="144">
         <v>0.88</v>
       </c>
-      <c r="BD22" s="55" t="s">
+      <c r="BD22" s="133" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE22" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="BE22" s="55" t="s">
+      <c r="BF22" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="BF22" s="55" t="s">
+      <c r="BG22" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="BG22" s="55" t="s">
+      <c r="BH22" s="133" t="s">
         <v>42</v>
-      </c>
-      <c r="BH22" s="55" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
-      <c r="C23" s="124" t="s">
-        <v>44</v>
+      <c r="C23" s="83" t="s">
+        <v>43</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -9296,477 +8276,477 @@
       <c r="AC23" s="18"/>
       <c r="AD23" s="19"/>
       <c r="AE23" s="20"/>
-      <c r="AF23" s="127" t="s">
-        <v>45</v>
+      <c r="AF23" s="86" t="s">
+        <v>44</v>
       </c>
       <c r="AO23" s="21"/>
       <c r="AP23" s="3"/>
-      <c r="AS23" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="AW23" s="55">
+      <c r="AS23" s="133" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW23" s="133">
         <v>302400</v>
       </c>
-      <c r="AX23" s="55">
+      <c r="AX23" s="133">
         <v>504000</v>
       </c>
-      <c r="AY23" s="55">
+      <c r="AY23" s="133">
         <v>376200</v>
       </c>
-      <c r="AZ23" s="55">
+      <c r="AZ23" s="133">
         <v>347400</v>
       </c>
-      <c r="BA23" s="55">
+      <c r="BA23" s="133">
         <v>601200</v>
       </c>
-      <c r="BB23" s="55">
+      <c r="BB23" s="133">
         <v>601200</v>
       </c>
-      <c r="BD23" s="55" t="s">
+      <c r="BD23" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE23" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="BE23" s="55" t="s">
+      <c r="BF23" s="133" t="s">
         <v>47</v>
-      </c>
-      <c r="BF23" s="55" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
-      <c r="C24" s="125"/>
-      <c r="O24" s="129" t="str">
+      <c r="C24" s="84"/>
+      <c r="O24" s="88" t="str">
         <f>"Release Velocity "&amp;CHAR(10)&amp;TEXT(AS4,"dd-mmm")</f>
         <v>Release Velocity 
 10-Jun</v>
       </c>
-      <c r="P24" s="130"/>
-      <c r="Q24" s="130"/>
-      <c r="R24" s="130"/>
-      <c r="S24" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="T24" s="23"/>
-      <c r="V24" s="116" t="s">
-        <v>49</v>
-      </c>
-      <c r="W24" s="97"/>
-      <c r="X24" s="97"/>
-      <c r="Y24" s="97"/>
-      <c r="Z24" s="133"/>
-      <c r="AA24" s="134"/>
-      <c r="AB24" s="137">
+      <c r="P24" s="89"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="89"/>
+      <c r="S24" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="T24" s="82"/>
+      <c r="V24" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="92"/>
+      <c r="AA24" s="93"/>
+      <c r="AB24" s="96">
         <f>BB35</f>
         <v>1.3620751316435028E-2</v>
       </c>
-      <c r="AC24" s="138"/>
-      <c r="AD24" s="24"/>
+      <c r="AC24" s="97"/>
+      <c r="AD24" s="22"/>
       <c r="AE24" s="20"/>
-      <c r="AF24" s="127"/>
-      <c r="AG24" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH24" s="97"/>
-      <c r="AI24" s="97"/>
-      <c r="AJ24" s="97"/>
-      <c r="AK24" s="65"/>
-      <c r="AL24" s="66"/>
-      <c r="AM24" s="117">
+      <c r="AF24" s="86"/>
+      <c r="AG24" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH24" s="59"/>
+      <c r="AI24" s="59"/>
+      <c r="AJ24" s="59"/>
+      <c r="AK24" s="62"/>
+      <c r="AL24" s="63"/>
+      <c r="AM24" s="73">
         <f>BB37</f>
         <v>137.6</v>
       </c>
-      <c r="AN24" s="118"/>
+      <c r="AN24" s="74"/>
       <c r="AO24" s="20"/>
       <c r="AP24" s="3"/>
     </row>
     <row r="25" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
-      <c r="C25" s="125"/>
-      <c r="O25" s="131"/>
-      <c r="P25" s="132"/>
-      <c r="Q25" s="132"/>
-      <c r="R25" s="132"/>
-      <c r="S25" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="T25" s="26"/>
-      <c r="V25" s="104"/>
-      <c r="W25" s="98"/>
-      <c r="X25" s="98"/>
-      <c r="Y25" s="98"/>
-      <c r="Z25" s="135"/>
-      <c r="AA25" s="136"/>
-      <c r="AB25" s="139"/>
-      <c r="AC25" s="140"/>
-      <c r="AD25" s="24"/>
+      <c r="C25" s="84"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="91"/>
+      <c r="S25" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="T25" s="24"/>
+      <c r="V25" s="60"/>
+      <c r="W25" s="61"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="61"/>
+      <c r="Z25" s="94"/>
+      <c r="AA25" s="95"/>
+      <c r="AB25" s="98"/>
+      <c r="AC25" s="99"/>
+      <c r="AD25" s="22"/>
       <c r="AE25" s="20"/>
-      <c r="AF25" s="127"/>
-      <c r="AG25" s="104"/>
-      <c r="AH25" s="98"/>
-      <c r="AI25" s="98"/>
-      <c r="AJ25" s="98"/>
-      <c r="AK25" s="67"/>
-      <c r="AL25" s="68"/>
-      <c r="AM25" s="119"/>
-      <c r="AN25" s="120"/>
+      <c r="AF25" s="86"/>
+      <c r="AG25" s="60"/>
+      <c r="AH25" s="61"/>
+      <c r="AI25" s="61"/>
+      <c r="AJ25" s="61"/>
+      <c r="AK25" s="64"/>
+      <c r="AL25" s="65"/>
+      <c r="AM25" s="75"/>
+      <c r="AN25" s="76"/>
       <c r="AO25" s="20"/>
       <c r="AP25" s="3"/>
-      <c r="AS25" s="55" t="s">
+      <c r="AS25" s="133" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW25" s="138">
+        <v>32.46987951807229</v>
+      </c>
+      <c r="AX25" s="138">
+        <v>39.769230769230766</v>
+      </c>
+      <c r="AY25" s="138">
+        <v>27.166666666666668</v>
+      </c>
+      <c r="AZ25" s="138">
+        <v>14</v>
+      </c>
+      <c r="BA25" s="138">
+        <v>17</v>
+      </c>
+      <c r="BB25" s="138">
+        <v>20</v>
+      </c>
+      <c r="BD25" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="AW25" s="59">
-        <v>32.46987951807229</v>
-      </c>
-      <c r="AX25" s="59">
-        <v>39.769230769230766</v>
-      </c>
-      <c r="AY25" s="59">
-        <v>27.166666666666668</v>
-      </c>
-      <c r="AZ25" s="59">
-        <v>14</v>
-      </c>
-      <c r="BA25" s="59">
-        <v>17</v>
-      </c>
-      <c r="BB25" s="59">
-        <v>20</v>
-      </c>
-      <c r="BD25" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="BE25" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="BF25" s="55" t="s">
-        <v>52</v>
+      <c r="BE25" s="133" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF25" s="133" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
-      <c r="C26" s="125"/>
-      <c r="O26" s="131"/>
-      <c r="P26" s="132"/>
-      <c r="Q26" s="132"/>
-      <c r="R26" s="132"/>
-      <c r="S26" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="T26" s="26"/>
-      <c r="V26" s="104"/>
-      <c r="W26" s="98"/>
-      <c r="X26" s="98"/>
-      <c r="Y26" s="98"/>
-      <c r="Z26" s="135"/>
-      <c r="AA26" s="136"/>
-      <c r="AB26" s="139"/>
-      <c r="AC26" s="140"/>
-      <c r="AD26" s="24"/>
+      <c r="C26" s="84"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="91"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="91"/>
+      <c r="S26" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="T26" s="24"/>
+      <c r="V26" s="60"/>
+      <c r="W26" s="61"/>
+      <c r="X26" s="61"/>
+      <c r="Y26" s="61"/>
+      <c r="Z26" s="94"/>
+      <c r="AA26" s="95"/>
+      <c r="AB26" s="98"/>
+      <c r="AC26" s="99"/>
+      <c r="AD26" s="22"/>
       <c r="AE26" s="20"/>
-      <c r="AF26" s="127"/>
-      <c r="AG26" s="104"/>
-      <c r="AH26" s="98"/>
-      <c r="AI26" s="98"/>
-      <c r="AJ26" s="98"/>
-      <c r="AK26" s="69"/>
-      <c r="AL26" s="70"/>
-      <c r="AM26" s="119"/>
-      <c r="AN26" s="120"/>
+      <c r="AF26" s="86"/>
+      <c r="AG26" s="60"/>
+      <c r="AH26" s="61"/>
+      <c r="AI26" s="61"/>
+      <c r="AJ26" s="61"/>
+      <c r="AK26" s="66"/>
+      <c r="AL26" s="67"/>
+      <c r="AM26" s="75"/>
+      <c r="AN26" s="76"/>
       <c r="AO26" s="20"/>
       <c r="AP26" s="3"/>
-      <c r="AS26" s="55" t="s">
+      <c r="AS26" s="133" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW26" s="144">
+        <v>5.1724137931034482E-2</v>
+      </c>
+      <c r="AX26" s="144">
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="AY26" s="144">
+        <v>0.64150943396226412</v>
+      </c>
+      <c r="AZ26" s="144">
+        <v>1</v>
+      </c>
+      <c r="BA26" s="144">
+        <v>0.83783783783783783</v>
+      </c>
+      <c r="BB26" s="144">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="BD26" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="AW26" s="62">
-        <v>5.1724137931034482E-2</v>
-      </c>
-      <c r="AX26" s="62">
-        <v>0.26315789473684209</v>
-      </c>
-      <c r="AY26" s="62">
-        <v>0.64150943396226412</v>
-      </c>
-      <c r="AZ26" s="62">
-        <v>1</v>
-      </c>
-      <c r="BA26" s="62">
-        <v>0.83783783783783783</v>
-      </c>
-      <c r="BB26" s="62">
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="BD26" s="55" t="s">
+      <c r="BE26" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="BF26" s="133" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG26" s="133" t="s">
+        <v>41</v>
+      </c>
+      <c r="BH26" s="133" t="s">
         <v>54</v>
-      </c>
-      <c r="BE26" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="BF26" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="BG26" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="BH26" s="55" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
-      <c r="C27" s="125"/>
-      <c r="O27" s="141" t="s">
+      <c r="C27" s="84"/>
+      <c r="O27" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="T27" s="24"/>
+      <c r="V27" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="P27" s="142"/>
-      <c r="Q27" s="142"/>
-      <c r="R27" s="142"/>
-      <c r="S27" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="T27" s="26"/>
-      <c r="V27" s="141" t="s">
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="78"/>
+      <c r="Z27" s="78"/>
+      <c r="AA27" s="78"/>
+      <c r="AB27" s="78"/>
+      <c r="AC27" s="78"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="20"/>
+      <c r="AF27" s="86"/>
+      <c r="AG27" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="W27" s="142"/>
-      <c r="X27" s="142"/>
-      <c r="Y27" s="142"/>
-      <c r="Z27" s="142"/>
-      <c r="AA27" s="142"/>
-      <c r="AB27" s="142"/>
-      <c r="AC27" s="142"/>
-      <c r="AD27" s="24"/>
-      <c r="AE27" s="20"/>
-      <c r="AF27" s="127"/>
-      <c r="AG27" s="121" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH27" s="86"/>
-      <c r="AI27" s="86"/>
-      <c r="AJ27" s="86"/>
-      <c r="AK27" s="86"/>
-      <c r="AL27" s="86"/>
-      <c r="AM27" s="86"/>
-      <c r="AN27" s="87"/>
+      <c r="AH27" s="53"/>
+      <c r="AI27" s="53"/>
+      <c r="AJ27" s="53"/>
+      <c r="AK27" s="53"/>
+      <c r="AL27" s="53"/>
+      <c r="AM27" s="53"/>
+      <c r="AN27" s="54"/>
       <c r="AO27" s="20"/>
       <c r="AP27" s="3"/>
-      <c r="AS27" s="55" t="s">
+      <c r="AS27" s="133" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW27" s="145">
+        <v>0.76029542340884804</v>
+      </c>
+      <c r="AX27" s="145">
+        <v>0.76029542340884804</v>
+      </c>
+      <c r="AY27" s="145">
+        <v>0.79120337968461985</v>
+      </c>
+      <c r="AZ27" s="145">
+        <v>0.84008886045782594</v>
+      </c>
+      <c r="BA27" s="145">
+        <v>1.3221664701611811</v>
+      </c>
+      <c r="BB27" s="145">
+        <v>0.60897012673056483</v>
+      </c>
+      <c r="BD27" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="AW27" s="63">
-        <v>0.76029542340884804</v>
-      </c>
-      <c r="AX27" s="63">
-        <v>0.76029542340884804</v>
-      </c>
-      <c r="AY27" s="63">
-        <v>0.79120337968461985</v>
-      </c>
-      <c r="AZ27" s="63">
-        <v>0.84008886045782594</v>
-      </c>
-      <c r="BA27" s="63">
-        <v>1.3221664701611811</v>
-      </c>
-      <c r="BB27" s="63">
-        <v>0.60897012673056483</v>
-      </c>
-      <c r="BD27" s="55" t="s">
+      <c r="BE27" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="BE27" s="55" t="s">
+      <c r="BF27" s="133" t="s">
         <v>61</v>
-      </c>
-      <c r="BF27" s="55" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="28" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
-      <c r="C28" s="125"/>
-      <c r="O28" s="143"/>
-      <c r="P28" s="144"/>
-      <c r="Q28" s="144"/>
-      <c r="R28" s="144"/>
-      <c r="S28" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="T28" s="29"/>
-      <c r="V28" s="141"/>
-      <c r="W28" s="142"/>
-      <c r="X28" s="142"/>
-      <c r="Y28" s="142"/>
-      <c r="Z28" s="142"/>
-      <c r="AA28" s="142"/>
-      <c r="AB28" s="142"/>
-      <c r="AC28" s="142"/>
-      <c r="AD28" s="24"/>
+      <c r="C28" s="84"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="80"/>
+      <c r="R28" s="80"/>
+      <c r="S28" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="T28" s="27"/>
+      <c r="V28" s="77"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="78"/>
+      <c r="Z28" s="78"/>
+      <c r="AA28" s="78"/>
+      <c r="AB28" s="78"/>
+      <c r="AC28" s="78"/>
+      <c r="AD28" s="22"/>
       <c r="AE28" s="20"/>
-      <c r="AF28" s="127"/>
-      <c r="AG28" s="122"/>
-      <c r="AH28" s="88"/>
-      <c r="AI28" s="88"/>
-      <c r="AJ28" s="88"/>
-      <c r="AK28" s="88"/>
-      <c r="AL28" s="88"/>
-      <c r="AM28" s="88"/>
-      <c r="AN28" s="89"/>
+      <c r="AF28" s="86"/>
+      <c r="AG28" s="55"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="56"/>
+      <c r="AL28" s="56"/>
+      <c r="AM28" s="56"/>
+      <c r="AN28" s="57"/>
       <c r="AO28" s="20"/>
       <c r="AP28" s="3"/>
-      <c r="AS28" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="AW28" s="62">
+      <c r="AS28" s="133" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW28" s="144">
         <v>1.1791440964995212</v>
       </c>
-      <c r="AX28" s="62">
+      <c r="AX28" s="144">
         <v>1.0117651106127619</v>
       </c>
-      <c r="AY28" s="62">
+      <c r="AY28" s="144">
         <v>0.98287811183078511</v>
       </c>
-      <c r="AZ28" s="62">
+      <c r="AZ28" s="144">
         <v>0.72482845074783719</v>
       </c>
-      <c r="BA28" s="62">
+      <c r="BA28" s="144">
         <v>0.76394336665463713</v>
       </c>
-      <c r="BB28" s="62">
+      <c r="BB28" s="144">
         <v>0.51899473632415571</v>
       </c>
-      <c r="BD28" s="55" t="s">
+      <c r="BD28" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE28" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="BE28" s="55" t="s">
+      <c r="BF28" s="133" t="s">
         <v>61</v>
-      </c>
-      <c r="BF28" s="55" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="29" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
-      <c r="C29" s="125"/>
-      <c r="AD29" s="24"/>
+      <c r="C29" s="84"/>
+      <c r="AD29" s="22"/>
       <c r="AE29" s="20"/>
-      <c r="AF29" s="127"/>
+      <c r="AF29" s="86"/>
       <c r="AO29" s="20"/>
       <c r="AP29" s="3"/>
     </row>
     <row r="30" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
-      <c r="C30" s="125"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="32"/>
-      <c r="AB30" s="33"/>
-      <c r="AC30" s="34" t="s">
+      <c r="C30" s="84"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="20"/>
+      <c r="AF30" s="86"/>
+      <c r="AG30" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="AD30" s="24"/>
-      <c r="AE30" s="20"/>
-      <c r="AF30" s="127"/>
-      <c r="AG30" s="116" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH30" s="97"/>
-      <c r="AI30" s="97"/>
-      <c r="AJ30" s="97"/>
-      <c r="AK30" s="65"/>
-      <c r="AL30" s="66"/>
-      <c r="AM30" s="105">
+      <c r="AH30" s="59"/>
+      <c r="AI30" s="59"/>
+      <c r="AJ30" s="59"/>
+      <c r="AK30" s="62"/>
+      <c r="AL30" s="63"/>
+      <c r="AM30" s="68">
         <v>0.01</v>
       </c>
-      <c r="AN30" s="106"/>
+      <c r="AN30" s="69"/>
       <c r="AO30" s="20"/>
       <c r="AP30" s="3"/>
-      <c r="AS30" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="AW30" s="55">
+      <c r="AS30" s="133" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW30" s="133">
         <v>108.76923076923077</v>
       </c>
-      <c r="AX30" s="55">
+      <c r="AX30" s="133">
         <v>108.76923076923077</v>
       </c>
-      <c r="AY30" s="55">
+      <c r="AY30" s="133">
         <v>131.11111111111111</v>
       </c>
-      <c r="AZ30" s="55">
+      <c r="AZ30" s="133">
         <v>133.5</v>
       </c>
-      <c r="BA30" s="55">
+      <c r="BA30" s="133">
         <v>110.45454545454545</v>
       </c>
-      <c r="BB30" s="55">
+      <c r="BB30" s="133">
         <v>155.77272727272728</v>
       </c>
     </row>
     <row r="31" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
-      <c r="C31" s="125"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="36"/>
-      <c r="AA31" s="37"/>
-      <c r="AB31" s="38"/>
-      <c r="AC31" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD31" s="24"/>
+      <c r="C31" s="84"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="36"/>
+      <c r="AC31" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD31" s="22"/>
       <c r="AE31" s="20"/>
-      <c r="AF31" s="127"/>
-      <c r="AG31" s="104"/>
-      <c r="AH31" s="98"/>
-      <c r="AI31" s="98"/>
-      <c r="AJ31" s="98"/>
-      <c r="AK31" s="67"/>
-      <c r="AL31" s="68"/>
-      <c r="AM31" s="107"/>
-      <c r="AN31" s="108"/>
+      <c r="AF31" s="86"/>
+      <c r="AG31" s="60"/>
+      <c r="AH31" s="61"/>
+      <c r="AI31" s="61"/>
+      <c r="AJ31" s="61"/>
+      <c r="AK31" s="64"/>
+      <c r="AL31" s="65"/>
+      <c r="AM31" s="70"/>
+      <c r="AN31" s="71"/>
       <c r="AO31" s="20"/>
       <c r="AP31" s="3"/>
-      <c r="AS31" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW31" s="55">
+      <c r="AS31" s="133" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW31" s="133">
         <v>1</v>
       </c>
-      <c r="AX31" s="55">
+      <c r="AX31" s="133">
         <v>1</v>
       </c>
-      <c r="AY31" s="55">
+      <c r="AY31" s="133">
         <v>1</v>
       </c>
-      <c r="AZ31" s="55">
+      <c r="AZ31" s="133">
         <v>1</v>
       </c>
-      <c r="BA31" s="55">
+      <c r="BA31" s="133">
         <v>0</v>
       </c>
-      <c r="BB31" s="55">
+      <c r="BB31" s="133">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
-      <c r="C32" s="125"/>
+      <c r="C32" s="84"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -9778,7 +8758,7 @@
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
-      <c r="P32" s="40"/>
+      <c r="P32" s="38"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
@@ -9789,47 +8769,47 @@
       <c r="X32" s="10"/>
       <c r="Y32" s="10"/>
       <c r="Z32" s="10"/>
-      <c r="AA32" s="41"/>
+      <c r="AA32" s="39"/>
       <c r="AB32" s="10"/>
       <c r="AC32" s="10"/>
-      <c r="AD32" s="24"/>
+      <c r="AD32" s="22"/>
       <c r="AE32" s="20"/>
-      <c r="AF32" s="127"/>
-      <c r="AG32" s="104"/>
-      <c r="AH32" s="98"/>
-      <c r="AI32" s="98"/>
-      <c r="AJ32" s="98"/>
-      <c r="AK32" s="69"/>
-      <c r="AL32" s="70"/>
-      <c r="AM32" s="107"/>
-      <c r="AN32" s="108"/>
+      <c r="AF32" s="86"/>
+      <c r="AG32" s="60"/>
+      <c r="AH32" s="61"/>
+      <c r="AI32" s="61"/>
+      <c r="AJ32" s="61"/>
+      <c r="AK32" s="66"/>
+      <c r="AL32" s="67"/>
+      <c r="AM32" s="70"/>
+      <c r="AN32" s="71"/>
       <c r="AO32" s="20"/>
       <c r="AP32" s="3"/>
-      <c r="AS32" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="AW32" s="55">
+      <c r="AS32" s="133" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW32" s="133">
         <v>70.115384615384613</v>
       </c>
-      <c r="AX32" s="55">
+      <c r="AX32" s="133">
         <v>70.115384615384613</v>
       </c>
-      <c r="AY32" s="55">
+      <c r="AY32" s="133">
         <v>70.043478260869563</v>
       </c>
-      <c r="AZ32" s="55">
+      <c r="AZ32" s="133">
         <v>58.086956521739133</v>
       </c>
-      <c r="BA32" s="55">
+      <c r="BA32" s="133">
         <v>101.07142857142857</v>
       </c>
-      <c r="BB32" s="55">
+      <c r="BB32" s="133">
         <v>72.954545454545453</v>
       </c>
     </row>
     <row r="33" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
-      <c r="C33" s="125"/>
+      <c r="C33" s="84"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -9838,48 +8818,48 @@
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
-      <c r="P33" s="42"/>
-      <c r="AA33" s="43"/>
-      <c r="AD33" s="24"/>
+      <c r="P33" s="40"/>
+      <c r="AA33" s="41"/>
+      <c r="AD33" s="22"/>
       <c r="AE33" s="20"/>
-      <c r="AF33" s="127"/>
-      <c r="AG33" s="121" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH33" s="86"/>
-      <c r="AI33" s="86"/>
-      <c r="AJ33" s="86"/>
-      <c r="AK33" s="86"/>
-      <c r="AL33" s="86"/>
-      <c r="AM33" s="86"/>
-      <c r="AN33" s="87"/>
+      <c r="AF33" s="86"/>
+      <c r="AG33" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH33" s="53"/>
+      <c r="AI33" s="53"/>
+      <c r="AJ33" s="53"/>
+      <c r="AK33" s="53"/>
+      <c r="AL33" s="53"/>
+      <c r="AM33" s="53"/>
+      <c r="AN33" s="54"/>
       <c r="AO33" s="20"/>
       <c r="AP33" s="3"/>
-      <c r="AS33" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="AW33" s="55">
+      <c r="AS33" s="133" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW33" s="133">
         <v>5</v>
       </c>
-      <c r="AX33" s="55">
+      <c r="AX33" s="133">
         <v>5</v>
       </c>
-      <c r="AY33" s="55">
+      <c r="AY33" s="133">
         <v>3</v>
       </c>
-      <c r="AZ33" s="55">
+      <c r="AZ33" s="133">
         <v>7</v>
       </c>
-      <c r="BA33" s="55">
+      <c r="BA33" s="133">
         <v>7</v>
       </c>
-      <c r="BB33" s="55">
+      <c r="BB33" s="133">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
-      <c r="C34" s="125"/>
+      <c r="C34" s="84"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -9888,25 +8868,25 @@
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
-      <c r="P34" s="42"/>
-      <c r="AA34" s="43"/>
-      <c r="AD34" s="24"/>
+      <c r="P34" s="40"/>
+      <c r="AA34" s="41"/>
+      <c r="AD34" s="22"/>
       <c r="AE34" s="20"/>
-      <c r="AF34" s="127"/>
-      <c r="AG34" s="122"/>
-      <c r="AH34" s="88"/>
-      <c r="AI34" s="88"/>
-      <c r="AJ34" s="88"/>
-      <c r="AK34" s="88"/>
-      <c r="AL34" s="88"/>
-      <c r="AM34" s="88"/>
-      <c r="AN34" s="89"/>
+      <c r="AF34" s="86"/>
+      <c r="AG34" s="55"/>
+      <c r="AH34" s="56"/>
+      <c r="AI34" s="56"/>
+      <c r="AJ34" s="56"/>
+      <c r="AK34" s="56"/>
+      <c r="AL34" s="56"/>
+      <c r="AM34" s="56"/>
+      <c r="AN34" s="57"/>
       <c r="AO34" s="20"/>
       <c r="AP34" s="3"/>
     </row>
     <row r="35" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
-      <c r="C35" s="125"/>
+      <c r="C35" s="84"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
@@ -9915,38 +8895,38 @@
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
-      <c r="P35" s="42"/>
-      <c r="AA35" s="43"/>
-      <c r="AD35" s="24"/>
+      <c r="P35" s="40"/>
+      <c r="AA35" s="41"/>
+      <c r="AD35" s="22"/>
       <c r="AE35" s="20"/>
-      <c r="AF35" s="127"/>
+      <c r="AF35" s="86"/>
       <c r="AO35" s="20"/>
       <c r="AP35" s="3"/>
-      <c r="AS35" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW35" s="63">
+      <c r="AS35" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW35" s="145">
         <v>1.1395737985651008E-2</v>
       </c>
-      <c r="AX35" s="63">
+      <c r="AX35" s="145">
         <v>1.4073484347259517E-2</v>
       </c>
-      <c r="AY35" s="63">
+      <c r="AY35" s="145">
         <v>1.6490914680101287E-2</v>
       </c>
-      <c r="AZ35" s="63">
+      <c r="AZ35" s="145">
         <v>1.6966455046575634E-2</v>
       </c>
-      <c r="BA35" s="63">
+      <c r="BA35" s="145">
         <v>1.3620751316435028E-2</v>
       </c>
-      <c r="BB35" s="63">
+      <c r="BB35" s="145">
         <v>1.3620751316435028E-2</v>
       </c>
     </row>
     <row r="36" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
-      <c r="C36" s="125"/>
+      <c r="C36" s="84"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -9955,29 +8935,29 @@
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
-      <c r="P36" s="42"/>
-      <c r="AA36" s="43"/>
-      <c r="AD36" s="24"/>
+      <c r="P36" s="40"/>
+      <c r="AA36" s="41"/>
+      <c r="AD36" s="22"/>
       <c r="AE36" s="20"/>
-      <c r="AF36" s="127"/>
-      <c r="AG36" s="116" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH36" s="97"/>
-      <c r="AI36" s="97"/>
-      <c r="AJ36" s="97"/>
-      <c r="AK36" s="65"/>
-      <c r="AL36" s="66"/>
-      <c r="AM36" s="105">
+      <c r="AF36" s="86"/>
+      <c r="AG36" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH36" s="59"/>
+      <c r="AI36" s="59"/>
+      <c r="AJ36" s="59"/>
+      <c r="AK36" s="62"/>
+      <c r="AL36" s="63"/>
+      <c r="AM36" s="68">
         <v>0</v>
       </c>
-      <c r="AN36" s="106"/>
+      <c r="AN36" s="69"/>
       <c r="AO36" s="20"/>
       <c r="AP36" s="3"/>
     </row>
     <row r="37" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
-      <c r="C37" s="125"/>
+      <c r="C37" s="84"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -9986,46 +8966,46 @@
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
-      <c r="P37" s="42"/>
-      <c r="AA37" s="43"/>
-      <c r="AD37" s="24"/>
+      <c r="P37" s="40"/>
+      <c r="AA37" s="41"/>
+      <c r="AD37" s="22"/>
       <c r="AE37" s="20"/>
-      <c r="AF37" s="127"/>
-      <c r="AG37" s="104"/>
-      <c r="AH37" s="98"/>
-      <c r="AI37" s="98"/>
-      <c r="AJ37" s="98"/>
-      <c r="AK37" s="67"/>
-      <c r="AL37" s="68"/>
-      <c r="AM37" s="107"/>
-      <c r="AN37" s="108"/>
+      <c r="AF37" s="86"/>
+      <c r="AG37" s="60"/>
+      <c r="AH37" s="61"/>
+      <c r="AI37" s="61"/>
+      <c r="AJ37" s="61"/>
+      <c r="AK37" s="64"/>
+      <c r="AL37" s="65"/>
+      <c r="AM37" s="70"/>
+      <c r="AN37" s="71"/>
       <c r="AO37" s="20"/>
       <c r="AP37" s="3"/>
-      <c r="AS37" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW37" s="55">
+      <c r="AS37" s="133" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW37" s="133">
         <v>31.875</v>
       </c>
-      <c r="AX37" s="55">
+      <c r="AX37" s="133">
         <v>31.875</v>
       </c>
-      <c r="AY37" s="55">
+      <c r="AY37" s="133">
         <v>35.75</v>
       </c>
-      <c r="AZ37" s="55">
+      <c r="AZ37" s="133">
         <v>36</v>
       </c>
-      <c r="BA37" s="55">
+      <c r="BA37" s="133">
         <v>137.6</v>
       </c>
-      <c r="BB37" s="55">
+      <c r="BB37" s="133">
         <v>137.6</v>
       </c>
     </row>
     <row r="38" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
-      <c r="C38" s="125"/>
+      <c r="C38" s="84"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -10034,46 +9014,46 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
-      <c r="P38" s="42"/>
-      <c r="AA38" s="43"/>
-      <c r="AD38" s="24"/>
+      <c r="P38" s="40"/>
+      <c r="AA38" s="41"/>
+      <c r="AD38" s="22"/>
       <c r="AE38" s="20"/>
-      <c r="AF38" s="127"/>
-      <c r="AG38" s="104"/>
-      <c r="AH38" s="98"/>
-      <c r="AI38" s="98"/>
-      <c r="AJ38" s="98"/>
-      <c r="AK38" s="69"/>
-      <c r="AL38" s="70"/>
-      <c r="AM38" s="107"/>
-      <c r="AN38" s="108"/>
+      <c r="AF38" s="86"/>
+      <c r="AG38" s="60"/>
+      <c r="AH38" s="61"/>
+      <c r="AI38" s="61"/>
+      <c r="AJ38" s="61"/>
+      <c r="AK38" s="66"/>
+      <c r="AL38" s="67"/>
+      <c r="AM38" s="70"/>
+      <c r="AN38" s="71"/>
       <c r="AO38" s="20"/>
       <c r="AP38" s="3"/>
-      <c r="AS38" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW38" s="55">
+      <c r="AS38" s="133" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW38" s="133">
         <v>3.1468531468531472E-2</v>
       </c>
-      <c r="AX38" s="55">
+      <c r="AX38" s="133">
         <v>2.972027972027972E-2</v>
       </c>
-      <c r="AY38" s="55">
+      <c r="AY38" s="133">
         <v>1.232394366197183E-2</v>
       </c>
-      <c r="AZ38" s="55">
+      <c r="AZ38" s="133">
         <v>1.7605633802816902E-2</v>
       </c>
-      <c r="BA38" s="55">
+      <c r="BA38" s="133">
         <v>1.4388489208633094E-2</v>
       </c>
-      <c r="BB38" s="55">
+      <c r="BB38" s="133">
         <v>1.048951048951049E-2</v>
       </c>
     </row>
     <row r="39" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
-      <c r="C39" s="125"/>
+      <c r="C39" s="84"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
@@ -10082,48 +9062,48 @@
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
-      <c r="P39" s="42"/>
-      <c r="AA39" s="43"/>
-      <c r="AD39" s="24"/>
+      <c r="P39" s="40"/>
+      <c r="AA39" s="41"/>
+      <c r="AD39" s="22"/>
       <c r="AE39" s="20"/>
-      <c r="AF39" s="127"/>
-      <c r="AG39" s="121" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH39" s="86"/>
-      <c r="AI39" s="86"/>
-      <c r="AJ39" s="86"/>
-      <c r="AK39" s="86"/>
-      <c r="AL39" s="86"/>
-      <c r="AM39" s="86"/>
-      <c r="AN39" s="87"/>
+      <c r="AF39" s="86"/>
+      <c r="AG39" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH39" s="53"/>
+      <c r="AI39" s="53"/>
+      <c r="AJ39" s="53"/>
+      <c r="AK39" s="53"/>
+      <c r="AL39" s="53"/>
+      <c r="AM39" s="53"/>
+      <c r="AN39" s="54"/>
       <c r="AO39" s="20"/>
       <c r="AP39" s="3"/>
-      <c r="AS39" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW39" s="55">
+      <c r="AS39" s="133" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW39" s="133">
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="AX39" s="55">
+      <c r="AX39" s="133">
         <v>0.2</v>
       </c>
-      <c r="AY39" s="55">
+      <c r="AY39" s="133">
         <v>0.1111111111111111</v>
       </c>
-      <c r="AZ39" s="55">
+      <c r="AZ39" s="133">
         <v>0</v>
       </c>
-      <c r="BA39" s="55">
+      <c r="BA39" s="133">
         <v>0</v>
       </c>
-      <c r="BB39" s="55">
+      <c r="BB39" s="133">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
-      <c r="C40" s="125"/>
+      <c r="C40" s="84"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
@@ -10132,64 +9112,64 @@
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
-      <c r="P40" s="44"/>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="45"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="45"/>
-      <c r="U40" s="45"/>
-      <c r="V40" s="45"/>
-      <c r="W40" s="45"/>
-      <c r="X40" s="45"/>
-      <c r="Y40" s="45"/>
-      <c r="Z40" s="45"/>
-      <c r="AA40" s="46"/>
-      <c r="AD40" s="24"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="43"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="43"/>
+      <c r="W40" s="43"/>
+      <c r="X40" s="43"/>
+      <c r="Y40" s="43"/>
+      <c r="Z40" s="43"/>
+      <c r="AA40" s="44"/>
+      <c r="AD40" s="22"/>
       <c r="AE40" s="20"/>
-      <c r="AF40" s="127"/>
-      <c r="AG40" s="122"/>
-      <c r="AH40" s="88"/>
-      <c r="AI40" s="88"/>
-      <c r="AJ40" s="88"/>
-      <c r="AK40" s="88"/>
-      <c r="AL40" s="88"/>
-      <c r="AM40" s="88"/>
-      <c r="AN40" s="89"/>
+      <c r="AF40" s="86"/>
+      <c r="AG40" s="55"/>
+      <c r="AH40" s="56"/>
+      <c r="AI40" s="56"/>
+      <c r="AJ40" s="56"/>
+      <c r="AK40" s="56"/>
+      <c r="AL40" s="56"/>
+      <c r="AM40" s="56"/>
+      <c r="AN40" s="57"/>
       <c r="AO40" s="20"/>
       <c r="AP40" s="3"/>
     </row>
     <row r="41" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
-      <c r="C41" s="126"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="47"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="47"/>
-      <c r="V41" s="47"/>
-      <c r="W41" s="47"/>
-      <c r="X41" s="47"/>
-      <c r="Y41" s="47"/>
-      <c r="Z41" s="47"/>
-      <c r="AA41" s="47"/>
-      <c r="AB41" s="47"/>
-      <c r="AC41" s="47"/>
-      <c r="AD41" s="48"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="45"/>
+      <c r="W41" s="45"/>
+      <c r="X41" s="45"/>
+      <c r="Y41" s="45"/>
+      <c r="Z41" s="45"/>
+      <c r="AA41" s="45"/>
+      <c r="AB41" s="45"/>
+      <c r="AC41" s="45"/>
+      <c r="AD41" s="46"/>
       <c r="AE41" s="20"/>
-      <c r="AF41" s="128"/>
+      <c r="AF41" s="87"/>
       <c r="AG41" s="17"/>
       <c r="AH41" s="17"/>
       <c r="AI41" s="17"/>
@@ -10198,480 +9178,113 @@
       <c r="AL41" s="17"/>
       <c r="AM41" s="17"/>
       <c r="AN41" s="17"/>
-      <c r="AO41" s="49"/>
+      <c r="AO41" s="47"/>
       <c r="AP41" s="3"/>
-      <c r="AS41" s="55" t="s">
+      <c r="AS41" s="133" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW41" s="145">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="AX41" s="145">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="AY41" s="145">
+        <v>0.125</v>
+      </c>
+      <c r="AZ41" s="145">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="BA41" s="145">
+        <v>0.5</v>
+      </c>
+      <c r="BB41" s="145">
+        <v>0.5</v>
+      </c>
+      <c r="BD41" s="133" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE41" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="BF41" s="133" t="s">
         <v>71</v>
-      </c>
-      <c r="AW41" s="63">
-        <v>0.96</v>
-      </c>
-      <c r="AX41" s="63">
-        <v>0.95238095238095233</v>
-      </c>
-      <c r="AY41" s="63">
-        <v>0.9765625</v>
-      </c>
-      <c r="AZ41" s="63">
-        <v>0.95726495726495731</v>
-      </c>
-      <c r="BA41" s="63">
-        <v>0.98666666666666669</v>
-      </c>
-      <c r="BB41" s="63">
-        <v>0.98666666666666669</v>
-      </c>
-      <c r="BD41" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="BE41" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="BF41" s="55" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="42" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B42" s="2"/>
-      <c r="D42" s="50"/>
-      <c r="AF42" s="51"/>
-      <c r="AP42" s="3"/>
-      <c r="AS42" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW42" s="63">
-        <v>0.9296875</v>
-      </c>
-      <c r="AX42" s="63">
-        <v>0.94615384615384612</v>
-      </c>
-      <c r="AY42" s="63">
-        <v>0.95522388059701491</v>
-      </c>
-      <c r="AZ42" s="63">
-        <v>0.96923076923076923</v>
-      </c>
-      <c r="BA42" s="63">
-        <v>0.9939393939393939</v>
-      </c>
-      <c r="BB42" s="63">
-        <v>0.9939393939393939</v>
-      </c>
-      <c r="BD42" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="BE42" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="BF42" s="55" t="s">
-        <v>73</v>
-      </c>
+      <c r="B42" s="48"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="49"/>
+      <c r="S42" s="49"/>
+      <c r="T42" s="49"/>
+      <c r="U42" s="49"/>
+      <c r="V42" s="49"/>
+      <c r="W42" s="49"/>
+      <c r="X42" s="49"/>
+      <c r="Y42" s="49"/>
+      <c r="Z42" s="49"/>
+      <c r="AA42" s="49"/>
+      <c r="AB42" s="49"/>
+      <c r="AC42" s="49"/>
+      <c r="AD42" s="49"/>
+      <c r="AE42" s="49"/>
+      <c r="AF42" s="49"/>
+      <c r="AG42" s="49"/>
+      <c r="AH42" s="49"/>
+      <c r="AI42" s="49"/>
+      <c r="AJ42" s="49"/>
+      <c r="AK42" s="49"/>
+      <c r="AL42" s="49"/>
+      <c r="AM42" s="49"/>
+      <c r="AN42" s="49"/>
+      <c r="AO42" s="49"/>
+      <c r="AP42" s="50"/>
     </row>
-    <row r="43" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="2"/>
-      <c r="D43" s="116" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="113">
-        <f>BB41</f>
-        <v>0.98666666666666669</v>
-      </c>
-      <c r="K43" s="66"/>
-      <c r="N43" s="145" t="s">
-        <v>74</v>
-      </c>
-      <c r="O43" s="146"/>
-      <c r="P43" s="146"/>
-      <c r="Q43" s="147"/>
-      <c r="R43" s="65"/>
-      <c r="S43" s="66"/>
-      <c r="T43" s="113">
-        <f>BB42</f>
-        <v>0.9939393939393939</v>
-      </c>
-      <c r="U43" s="66"/>
-      <c r="W43" s="116" t="s">
-        <v>75</v>
-      </c>
-      <c r="X43" s="97"/>
-      <c r="Y43" s="97"/>
-      <c r="Z43" s="97"/>
-      <c r="AA43" s="65"/>
-      <c r="AB43" s="66"/>
-      <c r="AC43" s="65">
-        <f>BB43</f>
-        <v>1</v>
-      </c>
-      <c r="AD43" s="66"/>
-      <c r="AG43" s="116" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH43" s="97"/>
-      <c r="AI43" s="97"/>
-      <c r="AJ43" s="97"/>
-      <c r="AK43" s="65"/>
-      <c r="AL43" s="66"/>
-      <c r="AM43" s="113">
-        <f>BB44</f>
-        <v>0.5</v>
-      </c>
-      <c r="AN43" s="66"/>
-      <c r="AP43" s="3"/>
-      <c r="AS43" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="AW43" s="63">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AX43" s="63">
-        <v>1</v>
-      </c>
-      <c r="AY43" s="63">
-        <v>1</v>
-      </c>
-      <c r="AZ43" s="63">
-        <v>1</v>
-      </c>
-      <c r="BA43" s="63">
-        <v>1</v>
-      </c>
-      <c r="BB43" s="63">
-        <v>1</v>
-      </c>
-      <c r="BD43" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="BE43" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="BF43" s="55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="2"/>
-      <c r="D44" s="104"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="98"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="114"/>
-      <c r="K44" s="68"/>
-      <c r="N44" s="148"/>
-      <c r="O44" s="149"/>
-      <c r="P44" s="149"/>
-      <c r="Q44" s="150"/>
-      <c r="R44" s="67"/>
-      <c r="S44" s="68"/>
-      <c r="T44" s="114"/>
-      <c r="U44" s="68"/>
-      <c r="W44" s="104"/>
-      <c r="X44" s="98"/>
-      <c r="Y44" s="98"/>
-      <c r="Z44" s="98"/>
-      <c r="AA44" s="67"/>
-      <c r="AB44" s="68"/>
-      <c r="AC44" s="67"/>
-      <c r="AD44" s="68"/>
-      <c r="AG44" s="104"/>
-      <c r="AH44" s="98"/>
-      <c r="AI44" s="98"/>
-      <c r="AJ44" s="98"/>
-      <c r="AK44" s="67"/>
-      <c r="AL44" s="68"/>
-      <c r="AM44" s="114"/>
-      <c r="AN44" s="68"/>
-      <c r="AP44" s="3"/>
-      <c r="AS44" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="AW44" s="63">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="AX44" s="63">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="AY44" s="63">
-        <v>0.125</v>
-      </c>
-      <c r="AZ44" s="63">
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="BA44" s="63">
-        <v>0.5</v>
-      </c>
-      <c r="BB44" s="63">
-        <v>0.5</v>
-      </c>
-      <c r="BD44" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE44" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="BF44" s="55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="2"/>
-      <c r="D45" s="104"/>
-      <c r="E45" s="98"/>
-      <c r="F45" s="98"/>
-      <c r="G45" s="98"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="70"/>
-      <c r="J45" s="114"/>
-      <c r="K45" s="68"/>
-      <c r="N45" s="148"/>
-      <c r="O45" s="149"/>
-      <c r="P45" s="149"/>
-      <c r="Q45" s="150"/>
-      <c r="R45" s="69"/>
-      <c r="S45" s="70"/>
-      <c r="T45" s="114"/>
-      <c r="U45" s="68"/>
-      <c r="W45" s="104"/>
-      <c r="X45" s="98"/>
-      <c r="Y45" s="98"/>
-      <c r="Z45" s="98"/>
-      <c r="AA45" s="69"/>
-      <c r="AB45" s="70"/>
-      <c r="AC45" s="67"/>
-      <c r="AD45" s="68"/>
-      <c r="AG45" s="104"/>
-      <c r="AH45" s="98"/>
-      <c r="AI45" s="98"/>
-      <c r="AJ45" s="98"/>
-      <c r="AK45" s="69"/>
-      <c r="AL45" s="70"/>
-      <c r="AM45" s="114"/>
-      <c r="AN45" s="68"/>
-      <c r="AP45" s="3"/>
-    </row>
+    <row r="43" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="2"/>
-      <c r="D46" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" s="86"/>
-      <c r="F46" s="86"/>
-      <c r="G46" s="86"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="86"/>
-      <c r="J46" s="86"/>
-      <c r="K46" s="87"/>
-      <c r="N46" s="121" t="s">
-        <v>80</v>
-      </c>
-      <c r="O46" s="86"/>
-      <c r="P46" s="86"/>
-      <c r="Q46" s="86"/>
-      <c r="R46" s="86"/>
-      <c r="S46" s="86"/>
-      <c r="T46" s="86"/>
-      <c r="U46" s="87"/>
-      <c r="W46" s="121" t="s">
-        <v>81</v>
-      </c>
-      <c r="X46" s="86"/>
-      <c r="Y46" s="86"/>
-      <c r="Z46" s="86"/>
-      <c r="AA46" s="86"/>
-      <c r="AB46" s="86"/>
-      <c r="AC46" s="86"/>
-      <c r="AD46" s="87"/>
-      <c r="AG46" s="121" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH46" s="86"/>
-      <c r="AI46" s="86"/>
-      <c r="AJ46" s="86"/>
-      <c r="AK46" s="86"/>
-      <c r="AL46" s="86"/>
-      <c r="AM46" s="86"/>
-      <c r="AN46" s="87"/>
-      <c r="AP46" s="3"/>
+      <c r="AL46" s="25"/>
     </row>
     <row r="47" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B47" s="2"/>
-      <c r="D47" s="122"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="89"/>
-      <c r="N47" s="122"/>
-      <c r="O47" s="88"/>
-      <c r="P47" s="88"/>
-      <c r="Q47" s="88"/>
-      <c r="R47" s="88"/>
-      <c r="S47" s="88"/>
-      <c r="T47" s="88"/>
-      <c r="U47" s="89"/>
-      <c r="W47" s="122"/>
-      <c r="X47" s="88"/>
-      <c r="Y47" s="88"/>
-      <c r="Z47" s="88"/>
-      <c r="AA47" s="88"/>
-      <c r="AB47" s="88"/>
-      <c r="AC47" s="88"/>
-      <c r="AD47" s="89"/>
-      <c r="AG47" s="122"/>
-      <c r="AH47" s="88"/>
-      <c r="AI47" s="88"/>
-      <c r="AJ47" s="88"/>
-      <c r="AK47" s="88"/>
-      <c r="AL47" s="88"/>
-      <c r="AM47" s="88"/>
-      <c r="AN47" s="89"/>
-      <c r="AP47" s="3"/>
+      <c r="AL47" s="25"/>
     </row>
     <row r="48" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B48" s="52"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="53"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="53"/>
-      <c r="Q48" s="53"/>
-      <c r="R48" s="53"/>
-      <c r="S48" s="53"/>
-      <c r="T48" s="53"/>
-      <c r="U48" s="53"/>
-      <c r="V48" s="53"/>
-      <c r="W48" s="53"/>
-      <c r="X48" s="53"/>
-      <c r="Y48" s="53"/>
-      <c r="Z48" s="53"/>
-      <c r="AA48" s="53"/>
-      <c r="AB48" s="53"/>
-      <c r="AC48" s="53"/>
-      <c r="AD48" s="53"/>
-      <c r="AE48" s="53"/>
-      <c r="AF48" s="53"/>
-      <c r="AG48" s="53"/>
-      <c r="AH48" s="53"/>
-      <c r="AI48" s="53"/>
-      <c r="AJ48" s="53"/>
-      <c r="AK48" s="53"/>
-      <c r="AL48" s="53"/>
-      <c r="AM48" s="53"/>
-      <c r="AN48" s="53"/>
-      <c r="AO48" s="53"/>
-      <c r="AP48" s="54"/>
+      <c r="AL48" s="25"/>
     </row>
-    <row r="52" spans="38:38" x14ac:dyDescent="0.2">
-      <c r="AL52" s="27"/>
+    <row r="49" spans="38:38" x14ac:dyDescent="0.2">
+      <c r="AL49" s="25"/>
     </row>
-    <row r="53" spans="38:38" x14ac:dyDescent="0.2">
-      <c r="AL53" s="27"/>
+    <row r="50" spans="38:38" x14ac:dyDescent="0.2">
+      <c r="AL50" s="25"/>
     </row>
-    <row r="54" spans="38:38" x14ac:dyDescent="0.2">
-      <c r="AL54" s="27"/>
-    </row>
-    <row r="55" spans="38:38" x14ac:dyDescent="0.2">
-      <c r="AL55" s="27"/>
-    </row>
-    <row r="56" spans="38:38" x14ac:dyDescent="0.2">
-      <c r="AL56" s="27"/>
-    </row>
-    <row r="57" spans="38:38" x14ac:dyDescent="0.2">
-      <c r="AL57" s="27"/>
+    <row r="51" spans="38:38" x14ac:dyDescent="0.2">
+      <c r="AL51" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
-    <mergeCell ref="D46:K47"/>
-    <mergeCell ref="N46:U47"/>
-    <mergeCell ref="W46:AD47"/>
-    <mergeCell ref="AG46:AN47"/>
-    <mergeCell ref="AG39:AN40"/>
-    <mergeCell ref="D43:G45"/>
-    <mergeCell ref="H43:I45"/>
-    <mergeCell ref="J43:K45"/>
-    <mergeCell ref="N43:Q45"/>
-    <mergeCell ref="R43:S45"/>
-    <mergeCell ref="T43:U45"/>
-    <mergeCell ref="W43:Z45"/>
-    <mergeCell ref="AA43:AB45"/>
-    <mergeCell ref="AC43:AD45"/>
-    <mergeCell ref="AG43:AJ45"/>
-    <mergeCell ref="AK43:AL45"/>
-    <mergeCell ref="AM43:AN45"/>
-    <mergeCell ref="AG30:AJ32"/>
-    <mergeCell ref="AK30:AL32"/>
-    <mergeCell ref="AM30:AN32"/>
-    <mergeCell ref="AG33:AN34"/>
-    <mergeCell ref="AG36:AJ38"/>
-    <mergeCell ref="AK36:AL38"/>
-    <mergeCell ref="AM36:AN38"/>
-    <mergeCell ref="AG24:AJ26"/>
-    <mergeCell ref="AK24:AL26"/>
-    <mergeCell ref="AM24:AN26"/>
-    <mergeCell ref="O27:R28"/>
-    <mergeCell ref="V27:AC28"/>
-    <mergeCell ref="AG27:AN28"/>
-    <mergeCell ref="BF16:BF18"/>
-    <mergeCell ref="D19:K20"/>
-    <mergeCell ref="M19:T20"/>
-    <mergeCell ref="X19:AE20"/>
-    <mergeCell ref="AG19:AN20"/>
-    <mergeCell ref="AZ16:AZ18"/>
-    <mergeCell ref="BA16:BA18"/>
-    <mergeCell ref="BB16:BB18"/>
-    <mergeCell ref="BC16:BC18"/>
-    <mergeCell ref="BD16:BD18"/>
-    <mergeCell ref="BE16:BE18"/>
-    <mergeCell ref="AT16:AT18"/>
-    <mergeCell ref="AU16:AU18"/>
-    <mergeCell ref="AV16:AV18"/>
-    <mergeCell ref="AW16:AW18"/>
-    <mergeCell ref="AX16:AX18"/>
-    <mergeCell ref="C23:C41"/>
-    <mergeCell ref="AF23:AF41"/>
-    <mergeCell ref="O24:R26"/>
-    <mergeCell ref="V24:Y26"/>
-    <mergeCell ref="Z24:AA26"/>
-    <mergeCell ref="AB24:AC26"/>
-    <mergeCell ref="AY16:AY18"/>
-    <mergeCell ref="X16:AA18"/>
-    <mergeCell ref="AB16:AC18"/>
-    <mergeCell ref="AD16:AE18"/>
-    <mergeCell ref="AG16:AJ18"/>
-    <mergeCell ref="AK16:AL18"/>
-    <mergeCell ref="AM16:AN18"/>
-    <mergeCell ref="D13:K14"/>
-    <mergeCell ref="M13:T14"/>
-    <mergeCell ref="X13:AE14"/>
-    <mergeCell ref="AG13:AN14"/>
-    <mergeCell ref="D16:G18"/>
-    <mergeCell ref="H16:I18"/>
-    <mergeCell ref="J16:K18"/>
-    <mergeCell ref="M16:P18"/>
-    <mergeCell ref="Q16:R18"/>
-    <mergeCell ref="S16:T18"/>
-    <mergeCell ref="X10:AA12"/>
-    <mergeCell ref="AB10:AC12"/>
-    <mergeCell ref="AD10:AE12"/>
-    <mergeCell ref="AG10:AJ12"/>
-    <mergeCell ref="AK10:AL12"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bXQh6tU4nedlhxBst94K9MgUn3qnveXR74xRaXHwrBJ8pcIpDaQmEaGspuD5SSECPHLAGRTGrGzz+SPN6OrW0A==" saltValue="U/q/cbk59CPrJONuTtYQqw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="82">
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="AB5:AC7"/>
+    <mergeCell ref="B2:AP3"/>
+    <mergeCell ref="AT2:AT4"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="AV2:AV4"/>
     <mergeCell ref="AM10:AN12"/>
     <mergeCell ref="AD5:AE7"/>
     <mergeCell ref="AF5:AN7"/>
@@ -10688,33 +9301,261 @@
     <mergeCell ref="J5:K7"/>
     <mergeCell ref="L5:T7"/>
     <mergeCell ref="X5:AA7"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="AX2:AX4"/>
-    <mergeCell ref="AB5:AC7"/>
-    <mergeCell ref="B2:AP3"/>
-    <mergeCell ref="AT2:AT4"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="AV2:AV4"/>
+    <mergeCell ref="X10:AA12"/>
+    <mergeCell ref="AB10:AC12"/>
+    <mergeCell ref="AD10:AE12"/>
+    <mergeCell ref="AG10:AJ12"/>
+    <mergeCell ref="AK10:AL12"/>
+    <mergeCell ref="D13:K14"/>
+    <mergeCell ref="M13:T14"/>
+    <mergeCell ref="X13:AE14"/>
+    <mergeCell ref="AG13:AN14"/>
+    <mergeCell ref="D16:G18"/>
+    <mergeCell ref="H16:I18"/>
+    <mergeCell ref="J16:K18"/>
+    <mergeCell ref="M16:P18"/>
+    <mergeCell ref="Q16:R18"/>
+    <mergeCell ref="S16:T18"/>
+    <mergeCell ref="AY15:AY17"/>
+    <mergeCell ref="X16:AA18"/>
+    <mergeCell ref="AB16:AC18"/>
+    <mergeCell ref="AD16:AE18"/>
+    <mergeCell ref="AG16:AJ18"/>
+    <mergeCell ref="AK16:AL18"/>
+    <mergeCell ref="AM16:AN18"/>
+    <mergeCell ref="C23:C41"/>
+    <mergeCell ref="AF23:AF41"/>
+    <mergeCell ref="O24:R26"/>
+    <mergeCell ref="V24:Y26"/>
+    <mergeCell ref="Z24:AA26"/>
+    <mergeCell ref="AB24:AC26"/>
+    <mergeCell ref="BF15:BF17"/>
+    <mergeCell ref="D19:K20"/>
+    <mergeCell ref="M19:T20"/>
+    <mergeCell ref="X19:AE20"/>
+    <mergeCell ref="AG19:AN20"/>
+    <mergeCell ref="AZ15:AZ17"/>
+    <mergeCell ref="BA15:BA17"/>
+    <mergeCell ref="BB15:BB17"/>
+    <mergeCell ref="BC15:BC17"/>
+    <mergeCell ref="BD15:BD17"/>
+    <mergeCell ref="BE15:BE17"/>
+    <mergeCell ref="AT15:AT17"/>
+    <mergeCell ref="AU15:AU17"/>
+    <mergeCell ref="AV15:AV17"/>
+    <mergeCell ref="AW15:AW17"/>
+    <mergeCell ref="AX15:AX17"/>
+    <mergeCell ref="AG24:AJ26"/>
+    <mergeCell ref="AK24:AL26"/>
+    <mergeCell ref="AM24:AN26"/>
+    <mergeCell ref="O27:R28"/>
+    <mergeCell ref="V27:AC28"/>
+    <mergeCell ref="AG27:AN28"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="AG39:AN40"/>
+    <mergeCell ref="AG30:AJ32"/>
+    <mergeCell ref="AK30:AL32"/>
+    <mergeCell ref="AM30:AN32"/>
+    <mergeCell ref="AG33:AN34"/>
+    <mergeCell ref="AG36:AJ38"/>
+    <mergeCell ref="AK36:AL38"/>
+    <mergeCell ref="AM36:AN38"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{F4C40EA9-3578-924E-BF1B-802D85E6C5CE}">
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{C52E2EB6-BD76-1645-838C-EA4ABC745F92}">
           <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
           <x14:colorMarkers rgb="FFD00000"/>
           <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast theme="0" tint="-0.249977111117893"/>
+          <x14:colorLast rgb="FF00B050"/>
           <x14:colorHigh rgb="FFD00000"/>
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Team Metrics'!AW22:BB22</xm:f>
-              <xm:sqref>H5</xm:sqref>
+              <xm:f>'Team Metrics'!AW39:BB39</xm:f>
+              <xm:sqref>AK36</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="5.000000000000001E-2" manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{08A56B59-F19C-3B49-AA94-3E18910DA689}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FF00B050"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW38:BB38</xm:f>
+              <xm:sqref>AK30</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{FB7F1646-3097-0544-B21B-D763618232EC}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FF339966"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW37:BB37</xm:f>
+              <xm:sqref>AK24</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{2DFB55D3-4B11-F440-BFAC-22DA08EF9038}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW35:BB35</xm:f>
+              <xm:sqref>Z24</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{A5168FF9-78DB-8248-9AAF-8FE3FB223891}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFCC3399"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW33:BB33</xm:f>
+              <xm:sqref>AK16</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{93FA3AA0-7E52-E149-A6D5-ECD37C015879}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFCC3399"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW32:BB32</xm:f>
+              <xm:sqref>AB16</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{F1505BFD-1AD4-FB47-AE32-37CCBD8D61C0}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFCC3399"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW31:BB31</xm:f>
+              <xm:sqref>AK10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{A0F97C6B-D297-B74F-A0BD-1A05372E32AD}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFCC3399"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW30:BB30</xm:f>
+              <xm:sqref>AB10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{5D70A36A-8281-9E4B-ACB6-1E8652E5AEAE}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FF4472C4"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW28:BB28</xm:f>
+              <xm:sqref>Q16</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{E2C88339-FCB1-2041-BF1A-EF6E8F9A95A0}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FF4472C4"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW27:BB27</xm:f>
+              <xm:sqref>H16</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{7A4F7879-1C4B-3C4A-A294-1973EC8C5D8E}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FF4472C4"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW26:BB26</xm:f>
+              <xm:sqref>Q10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{38E95271-B073-1E48-BFC5-66D15BDE9BB0}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FF4472C4"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW25:BB25</xm:f>
+              <xm:sqref>H10</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -10734,183 +9575,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{38E95271-B073-1E48-BFC5-66D15BDE9BB0}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF4472C4"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW25:BB25</xm:f>
-              <xm:sqref>H10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{7A4F7879-1C4B-3C4A-A294-1973EC8C5D8E}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF4472C4"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW26:BB26</xm:f>
-              <xm:sqref>Q10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{E2C88339-FCB1-2041-BF1A-EF6E8F9A95A0}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF4472C4"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW27:BB27</xm:f>
-              <xm:sqref>H16</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{5D70A36A-8281-9E4B-ACB6-1E8652E5AEAE}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF4472C4"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW28:BB28</xm:f>
-              <xm:sqref>Q16</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{A0F97C6B-D297-B74F-A0BD-1A05372E32AD}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFCC3399"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW30:BB30</xm:f>
-              <xm:sqref>AB10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{F1505BFD-1AD4-FB47-AE32-37CCBD8D61C0}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFCC3399"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW31:BB31</xm:f>
-              <xm:sqref>AK10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{93FA3AA0-7E52-E149-A6D5-ECD37C015879}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFCC3399"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW32:BB32</xm:f>
-              <xm:sqref>AB16</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{A5168FF9-78DB-8248-9AAF-8FE3FB223891}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFCC3399"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW33:BB33</xm:f>
-              <xm:sqref>AK16</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{2DFB55D3-4B11-F440-BFAC-22DA08EF9038}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW35:BB35</xm:f>
-              <xm:sqref>Z24</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{FB7F1646-3097-0544-B21B-D763618232EC}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF339966"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW37:BB37</xm:f>
-              <xm:sqref>AK24</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{CDEEB34E-FEB0-BC4F-8728-12F214E1D215}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast theme="0" tint="-0.34998626667073579"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW41:BB41</xm:f>
-              <xm:sqref>H43</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{F5614C77-8286-F742-B929-C7A81BA1A682}">
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{F4C40EA9-3578-924E-BF1B-802D85E6C5CE}">
           <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -10921,72 +9586,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Team Metrics'!AW42:BB42</xm:f>
-              <xm:sqref>R43</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{FDC6A585-3294-E845-ABD7-0A9EE6AD54B0}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast theme="0" tint="-0.249977111117893"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW43:BB43</xm:f>
-              <xm:sqref>AA43</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{8BFC584E-FEA0-0940-8468-03FA4D01BC3B}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast theme="0" tint="-0.249977111117893"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW44:BB44</xm:f>
-              <xm:sqref>AK43</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="5.000000000000001E-2" manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{08A56B59-F19C-3B49-AA94-3E18910DA689}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF00B050"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW38:BB38</xm:f>
-              <xm:sqref>AK30</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{C52E2EB6-BD76-1645-838C-EA4ABC745F92}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF00B050"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW39:BB39</xm:f>
-              <xm:sqref>AK36</xm:sqref>
+              <xm:f>'Team Metrics'!AW22:BB22</xm:f>
+              <xm:sqref>H5</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/ScrumTeamStats_Template.xlsx
+++ b/ScrumTeamStats_Template.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Git/vba-jira/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B3B6CB-2275-CC4C-A33F-294B3C13DB69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3E7104-809C-6349-9667-39518350D10F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="500" windowWidth="28060" windowHeight="27820" xr2:uid="{29FB89B4-D308-7843-B61E-411B20763035}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Metrics" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Team Metrics'!$B$2:$AP$42</definedName>
   </definedNames>
@@ -33,6 +36,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -60,9 +85,6 @@
   </si>
   <si>
     <t>4w 7h</t>
-  </si>
-  <si>
-    <t>Amount of time remaining from the burndown at the end of the most recent sprint</t>
   </si>
   <si>
     <t>Velocity</t>
@@ -111,9 +133,6 @@
   </si>
   <si>
     <t>Number of sprints worth of work on the backlog estimated in time/storypoints/t-shirt sizes. Good is 1/3/20</t>
-  </si>
-  <si>
-    <t>Completed Story Points / Committed Story Points for the most recent sprint</t>
   </si>
   <si>
     <t>TiP
@@ -233,12 +252,6 @@
     <t>&gt;150%</t>
   </si>
   <si>
-    <t>Current versus 3 month avg.</t>
-  </si>
-  <si>
-    <t>Average of Active Time / Lead Team for the issues released in the last 3 months</t>
-  </si>
-  <si>
     <t>Average Lead Time for Bugs and Risks fixed in the last 3 months</t>
   </si>
   <si>
@@ -261,9 +274,6 @@
   </si>
   <si>
     <t>Defect Density</t>
-  </si>
-  <si>
-    <t>% allocation of PBIs (Features, Defects, Risks, Debts, Enablers) completed each month</t>
   </si>
   <si>
     <t>Deployment Frequency</t>
@@ -299,7 +309,22 @@
     <t>Median Lead Time (created - released) for Features released in the last 3 months</t>
   </si>
   <si>
-    <t>Work Type</t>
+    <t>% allocation of work items (Features, Defects, Risks, Debts) completed each month</t>
+  </si>
+  <si>
+    <t>Work Item</t>
+  </si>
+  <si>
+    <t>CMS 20.01</t>
+  </si>
+  <si>
+    <t>Active Time - days (avg per story over 3 months)</t>
+  </si>
+  <si>
+    <t>Active Time - days (Total last sprint)</t>
+  </si>
+  <si>
+    <t>Number of work items delivered. Latest versus 3 month avg.</t>
   </si>
 </sst>
 </file>
@@ -313,7 +338,7 @@
     <numFmt numFmtId="167" formatCode="mmm\ yy"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,13 +386,6 @@
       <b/>
       <sz val="16"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -430,6 +448,27 @@
       <b/>
       <sz val="8"/>
       <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -959,7 +998,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -970,10 +1009,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
@@ -985,17 +1021,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
@@ -1003,8 +1039,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
@@ -1012,8 +1048,8 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1025,37 +1061,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1074,124 +1080,43 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1200,34 +1125,73 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1251,49 +1215,135 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="17" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="17" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="19" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="19" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="90"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="19" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1419,6 +1469,65 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-2B12-FD47-8317-F530107279BC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="40000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Team Metrics'!$AS$5:$AS$6</c:f>
@@ -1531,6 +1640,65 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-2B12-FD47-8317-F530107279BC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="40000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Team Metrics'!$AS$5:$AS$6</c:f>
@@ -1644,6 +1812,65 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-2B12-FD47-8317-F530107279BC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="40000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Team Metrics'!$AS$5:$AS$6</c:f>
@@ -1754,6 +1981,65 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-2B12-FD47-8317-F530107279BC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="40000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Team Metrics'!$AS$5:$AS$6</c:f>
@@ -1818,17 +2104,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="bg1">
-          <a:lumMod val="95000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4405,15 +4683,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>80434</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>383646</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>30691</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6730,7 +7008,88 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>39686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>25716</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A61D04B2-115A-4541-937C-0B34F1038F2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3254376" y="6336769"/>
+          <a:ext cx="0" cy="1097280"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="jiratime"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7037,7 +7396,7 @@
   <dimension ref="B2:BN51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AP3"/>
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7046,12 +7405,12 @@
     <col min="3" max="41" width="5.6640625" style="1" customWidth="1"/>
     <col min="42" max="42" width="2.6640625" style="1" customWidth="1"/>
     <col min="43" max="43" width="6" style="1" customWidth="1"/>
-    <col min="44" max="44" width="6" style="51" customWidth="1"/>
+    <col min="44" max="44" width="6" style="50" customWidth="1"/>
     <col min="45" max="45" width="10.5" style="133" bestFit="1" customWidth="1"/>
-    <col min="46" max="60" width="6" style="133" customWidth="1"/>
-    <col min="61" max="64" width="6" style="51" customWidth="1"/>
-    <col min="65" max="65" width="4" style="51" customWidth="1"/>
-    <col min="66" max="66" width="3.6640625" style="51" customWidth="1"/>
+    <col min="46" max="61" width="6" style="133" customWidth="1"/>
+    <col min="62" max="64" width="6" style="50" customWidth="1"/>
+    <col min="65" max="65" width="4" style="50" customWidth="1"/>
+    <col min="66" max="66" width="3.6640625" style="50" customWidth="1"/>
     <col min="67" max="67" width="4" style="1" customWidth="1"/>
     <col min="68" max="68" width="3.6640625" style="1" customWidth="1"/>
     <col min="69" max="70" width="4" style="1" customWidth="1"/>
@@ -7083,49 +7442,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="127" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="128"/>
-      <c r="AG2" s="128"/>
-      <c r="AH2" s="128"/>
-      <c r="AI2" s="128"/>
-      <c r="AJ2" s="128"/>
-      <c r="AK2" s="128"/>
-      <c r="AL2" s="128"/>
-      <c r="AM2" s="128"/>
-      <c r="AN2" s="128"/>
-      <c r="AO2" s="128"/>
-      <c r="AP2" s="129"/>
+      <c r="B2" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="58"/>
+      <c r="AP2" s="59"/>
       <c r="AT2" s="134" t="s">
         <v>0</v>
       </c>
@@ -7141,48 +7500,50 @@
       <c r="AX2" s="134"/>
     </row>
     <row r="3" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="130"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="131"/>
-      <c r="R3" s="131"/>
-      <c r="S3" s="131"/>
-      <c r="T3" s="131"/>
-      <c r="U3" s="131"/>
-      <c r="V3" s="131"/>
-      <c r="W3" s="131"/>
-      <c r="X3" s="131"/>
-      <c r="Y3" s="131"/>
-      <c r="Z3" s="131"/>
-      <c r="AA3" s="131"/>
-      <c r="AB3" s="131"/>
-      <c r="AC3" s="131"/>
-      <c r="AD3" s="131"/>
-      <c r="AE3" s="131"/>
-      <c r="AF3" s="131"/>
-      <c r="AG3" s="131"/>
-      <c r="AH3" s="131"/>
-      <c r="AI3" s="131"/>
-      <c r="AJ3" s="131"/>
-      <c r="AK3" s="131"/>
-      <c r="AL3" s="131"/>
-      <c r="AM3" s="131"/>
-      <c r="AN3" s="131"/>
-      <c r="AO3" s="131"/>
-      <c r="AP3" s="132"/>
-      <c r="AS3" s="135"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="61"/>
+      <c r="AN3" s="61"/>
+      <c r="AO3" s="61"/>
+      <c r="AP3" s="62"/>
+      <c r="AS3" s="135" t="s">
+        <v>74</v>
+      </c>
       <c r="AT3" s="134"/>
       <c r="AU3" s="134"/>
       <c r="AV3" s="134"/>
@@ -7192,7 +7553,7 @@
     <row r="4" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
       <c r="AP4" s="3"/>
-      <c r="AS4" s="136">
+      <c r="AS4" s="135">
         <v>43992</v>
       </c>
       <c r="AT4" s="134"/>
@@ -7203,161 +7564,162 @@
     </row>
     <row r="5" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="124">
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="99">
         <f>BB22</f>
         <v>0.88</v>
       </c>
-      <c r="K5" s="124"/>
-      <c r="L5" s="108" t="s">
+      <c r="K5" s="99"/>
+      <c r="L5" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="109"/>
-      <c r="X5" s="72" t="s">
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="71"/>
+      <c r="X5" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="Y5" s="104"/>
-      <c r="Z5" s="104"/>
-      <c r="AA5" s="104"/>
-      <c r="AB5" s="62"/>
-      <c r="AC5" s="63"/>
-      <c r="AD5" s="105" t="s">
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="AE5" s="105"/>
-      <c r="AF5" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG5" s="108"/>
-      <c r="AH5" s="108"/>
-      <c r="AI5" s="108"/>
-      <c r="AJ5" s="108"/>
-      <c r="AK5" s="108"/>
-      <c r="AL5" s="108"/>
-      <c r="AM5" s="108"/>
-      <c r="AN5" s="109"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="70" t="str" cm="1">
+        <f t="array" ref="AF5" xml:space="preserve"> "Amount of time remaining from the burndown at the end of the most recent sprint (" &amp; AS3 &amp; "). The total Active Time for the same period was: " &amp; [1]!jiratime(BB42)</f>
+        <v>Amount of time remaining from the burndown at the end of the most recent sprint (CMS 20.01). The total Active Time for the same period was: 5w 4d 5h</v>
+      </c>
+      <c r="AG5" s="70"/>
+      <c r="AH5" s="70"/>
+      <c r="AI5" s="70"/>
+      <c r="AJ5" s="70"/>
+      <c r="AK5" s="70"/>
+      <c r="AL5" s="70"/>
+      <c r="AM5" s="70"/>
+      <c r="AN5" s="71"/>
       <c r="AP5" s="3"/>
       <c r="AS5" s="133" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT5" s="137">
+        <v>8</v>
+      </c>
+      <c r="AT5" s="136">
         <v>5</v>
       </c>
-      <c r="AU5" s="137">
+      <c r="AU5" s="136">
         <v>3</v>
       </c>
-      <c r="AV5" s="137">
+      <c r="AV5" s="136">
         <v>6</v>
       </c>
-      <c r="AW5" s="137">
+      <c r="AW5" s="136">
         <v>2</v>
       </c>
-      <c r="AX5" s="137"/>
+      <c r="AX5" s="136"/>
     </row>
     <row r="6" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="54"/>
-      <c r="X6" s="120"/>
-      <c r="Y6" s="121"/>
-      <c r="Z6" s="121"/>
-      <c r="AA6" s="121"/>
-      <c r="AB6" s="64"/>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="106"/>
-      <c r="AE6" s="106"/>
-      <c r="AF6" s="53"/>
-      <c r="AG6" s="53"/>
-      <c r="AH6" s="53"/>
-      <c r="AI6" s="53"/>
-      <c r="AJ6" s="53"/>
-      <c r="AK6" s="53"/>
-      <c r="AL6" s="53"/>
-      <c r="AM6" s="53"/>
-      <c r="AN6" s="54"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="73"/>
+      <c r="X6" s="95"/>
+      <c r="Y6" s="96"/>
+      <c r="Z6" s="96"/>
+      <c r="AA6" s="96"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="72"/>
+      <c r="AG6" s="72"/>
+      <c r="AH6" s="72"/>
+      <c r="AI6" s="72"/>
+      <c r="AJ6" s="72"/>
+      <c r="AK6" s="72"/>
+      <c r="AL6" s="72"/>
+      <c r="AM6" s="72"/>
+      <c r="AN6" s="73"/>
       <c r="AP6" s="3"/>
       <c r="AS6" s="133" t="s">
-        <v>10</v>
-      </c>
-      <c r="AT6" s="137">
+        <v>9</v>
+      </c>
+      <c r="AT6" s="136">
         <v>7</v>
       </c>
-      <c r="AU6" s="137">
+      <c r="AU6" s="136">
         <v>1</v>
       </c>
-      <c r="AV6" s="137">
+      <c r="AV6" s="136">
         <v>1.6666666666666667</v>
       </c>
-      <c r="AW6" s="137">
+      <c r="AW6" s="136">
         <v>1.3333333333333333</v>
       </c>
-      <c r="AX6" s="137"/>
+      <c r="AX6" s="136"/>
     </row>
     <row r="7" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="123"/>
-      <c r="Z7" s="123"/>
-      <c r="AA7" s="123"/>
-      <c r="AB7" s="66"/>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="107"/>
-      <c r="AE7" s="107"/>
-      <c r="AF7" s="56"/>
-      <c r="AG7" s="56"/>
-      <c r="AH7" s="56"/>
-      <c r="AI7" s="56"/>
-      <c r="AJ7" s="56"/>
-      <c r="AK7" s="56"/>
-      <c r="AL7" s="56"/>
-      <c r="AM7" s="56"/>
-      <c r="AN7" s="57"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="75"/>
+      <c r="X7" s="97"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="98"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="69"/>
+      <c r="AE7" s="69"/>
+      <c r="AF7" s="74"/>
+      <c r="AG7" s="74"/>
+      <c r="AH7" s="74"/>
+      <c r="AI7" s="74"/>
+      <c r="AJ7" s="74"/>
+      <c r="AK7" s="74"/>
+      <c r="AL7" s="74"/>
+      <c r="AM7" s="74"/>
+      <c r="AN7" s="75"/>
       <c r="AP7" s="3"/>
     </row>
     <row r="8" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7366,8 +7728,8 @@
     </row>
     <row r="9" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
-      <c r="C9" s="110" t="s">
-        <v>11</v>
+      <c r="C9" s="76" t="s">
+        <v>10</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -7387,8 +7749,8 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="5"/>
-      <c r="W9" s="113" t="s">
-        <v>12</v>
+      <c r="W9" s="79" t="s">
+        <v>11</v>
       </c>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
@@ -7412,874 +7774,875 @@
     </row>
     <row r="10" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="104" t="s">
+      <c r="C10" s="77"/>
+      <c r="D10" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="116" t="s">
+      <c r="K10" s="86"/>
+      <c r="M10" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="117"/>
-      <c r="M10" s="72" t="s">
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="91">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="T10" s="92"/>
+      <c r="U10" s="8"/>
+      <c r="W10" s="80"/>
+      <c r="X10" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="68">
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="T10" s="69"/>
-      <c r="U10" s="8"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="58" t="s">
+      <c r="Y10" s="83"/>
+      <c r="Z10" s="83"/>
+      <c r="AA10" s="83"/>
+      <c r="AB10" s="51"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="103">
+        <v>156</v>
+      </c>
+      <c r="AE10" s="104"/>
+      <c r="AG10" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="63"/>
-      <c r="AD10" s="73">
-        <v>156</v>
-      </c>
-      <c r="AE10" s="74"/>
-      <c r="AG10" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH10" s="59"/>
-      <c r="AI10" s="59"/>
-      <c r="AJ10" s="59"/>
-      <c r="AK10" s="62"/>
-      <c r="AL10" s="63"/>
-      <c r="AM10" s="100">
+      <c r="AH10" s="83"/>
+      <c r="AI10" s="83"/>
+      <c r="AJ10" s="83"/>
+      <c r="AK10" s="51"/>
+      <c r="AL10" s="52"/>
+      <c r="AM10" s="63">
         <v>3</v>
       </c>
-      <c r="AN10" s="101"/>
+      <c r="AN10" s="64"/>
       <c r="AO10" s="9"/>
       <c r="AP10" s="3"/>
     </row>
     <row r="11" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="119"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="71"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="88"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="94"/>
       <c r="U11" s="8"/>
-      <c r="W11" s="114"/>
-      <c r="X11" s="60"/>
-      <c r="Y11" s="61"/>
-      <c r="Z11" s="61"/>
-      <c r="AA11" s="61"/>
-      <c r="AB11" s="64"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="75"/>
-      <c r="AE11" s="76"/>
-      <c r="AG11" s="60"/>
-      <c r="AH11" s="61"/>
-      <c r="AI11" s="61"/>
-      <c r="AJ11" s="61"/>
-      <c r="AK11" s="64"/>
-      <c r="AL11" s="65"/>
-      <c r="AM11" s="102"/>
-      <c r="AN11" s="103"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="84"/>
+      <c r="Z11" s="84"/>
+      <c r="AA11" s="84"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="54"/>
+      <c r="AD11" s="105"/>
+      <c r="AE11" s="106"/>
+      <c r="AG11" s="90"/>
+      <c r="AH11" s="84"/>
+      <c r="AI11" s="84"/>
+      <c r="AJ11" s="84"/>
+      <c r="AK11" s="53"/>
+      <c r="AL11" s="54"/>
+      <c r="AM11" s="65"/>
+      <c r="AN11" s="66"/>
       <c r="AO11" s="9"/>
       <c r="AP11" s="3"/>
       <c r="AS11" s="133" t="s">
-        <v>18</v>
-      </c>
-      <c r="AT11" s="138">
+        <v>17</v>
+      </c>
+      <c r="AT11" s="137">
         <v>0</v>
       </c>
-      <c r="AU11" s="138">
+      <c r="AU11" s="137">
         <v>3</v>
       </c>
-      <c r="AV11" s="138">
+      <c r="AV11" s="137">
         <v>9</v>
       </c>
-      <c r="AW11" s="138">
+      <c r="AW11" s="137">
         <v>2</v>
       </c>
-      <c r="AX11" s="138">
+      <c r="AX11" s="137">
         <v>6</v>
       </c>
-      <c r="AY11" s="138">
+      <c r="AY11" s="137">
         <v>4</v>
       </c>
-      <c r="AZ11" s="138">
+      <c r="AZ11" s="137">
         <v>5</v>
       </c>
-      <c r="BA11" s="138">
+      <c r="BA11" s="137">
         <v>2</v>
       </c>
-      <c r="BB11" s="138">
+      <c r="BB11" s="137">
         <v>13</v>
       </c>
-      <c r="BC11" s="138">
+      <c r="BC11" s="137">
         <v>9</v>
       </c>
-      <c r="BD11" s="138">
+      <c r="BD11" s="137">
         <v>0</v>
       </c>
-      <c r="BE11" s="138">
+      <c r="BE11" s="137">
         <v>5</v>
       </c>
-      <c r="BF11" s="138">
+      <c r="BF11" s="137">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="119"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="71"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="88"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="94"/>
       <c r="U12" s="8"/>
-      <c r="W12" s="114"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="61"/>
-      <c r="Z12" s="61"/>
-      <c r="AA12" s="61"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="67"/>
-      <c r="AD12" s="75"/>
-      <c r="AE12" s="76"/>
-      <c r="AG12" s="60"/>
-      <c r="AH12" s="61"/>
-      <c r="AI12" s="61"/>
-      <c r="AJ12" s="61"/>
-      <c r="AK12" s="66"/>
-      <c r="AL12" s="67"/>
-      <c r="AM12" s="102"/>
-      <c r="AN12" s="103"/>
+      <c r="W12" s="80"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="84"/>
+      <c r="Z12" s="84"/>
+      <c r="AA12" s="84"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="105"/>
+      <c r="AE12" s="106"/>
+      <c r="AG12" s="90"/>
+      <c r="AH12" s="84"/>
+      <c r="AI12" s="84"/>
+      <c r="AJ12" s="84"/>
+      <c r="AK12" s="55"/>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="65"/>
+      <c r="AN12" s="66"/>
       <c r="AO12" s="9"/>
       <c r="AP12" s="3"/>
       <c r="AS12" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="AT12" s="138">
+      <c r="AT12" s="137">
         <v>1</v>
       </c>
-      <c r="AU12" s="138">
+      <c r="AU12" s="137">
         <v>1</v>
       </c>
-      <c r="AV12" s="138">
+      <c r="AV12" s="137">
         <v>3</v>
       </c>
-      <c r="AW12" s="138">
+      <c r="AW12" s="137">
         <v>1</v>
       </c>
-      <c r="AX12" s="138">
+      <c r="AX12" s="137">
         <v>1</v>
       </c>
-      <c r="AY12" s="138">
+      <c r="AY12" s="137">
         <v>2</v>
       </c>
-      <c r="AZ12" s="138">
+      <c r="AZ12" s="137">
         <v>3</v>
       </c>
-      <c r="BA12" s="138">
+      <c r="BA12" s="137">
         <v>1</v>
       </c>
-      <c r="BB12" s="138">
+      <c r="BB12" s="137">
         <v>2</v>
       </c>
-      <c r="BC12" s="138">
+      <c r="BC12" s="137">
         <v>0</v>
       </c>
-      <c r="BD12" s="138">
+      <c r="BD12" s="137">
         <v>0</v>
       </c>
-      <c r="BE12" s="138">
+      <c r="BE12" s="137">
         <v>3</v>
       </c>
-      <c r="BF12" s="138">
+      <c r="BF12" s="137">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
-      <c r="M13" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="54"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="73"/>
+      <c r="M13" s="107" t="str">
+        <f xml:space="preserve"> "Completed Story Points / Committed Story Points for the most recent sprint (" &amp; AS3 &amp; ")"</f>
+        <v>Completed Story Points / Committed Story Points for the most recent sprint (CMS 20.01)</v>
+      </c>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="73"/>
       <c r="U13" s="8"/>
-      <c r="W13" s="114"/>
-      <c r="X13" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="53"/>
-      <c r="AD13" s="53"/>
-      <c r="AE13" s="54"/>
-      <c r="AG13" s="52" t="str">
+      <c r="W13" s="80"/>
+      <c r="X13" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="72"/>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="73"/>
+      <c r="AG13" s="107" t="str">
         <f>"Number of code deployments in the previous calendar month ("&amp;TEXT(BE15,"mmm")&amp;")"</f>
         <v>Number of code deployments in the previous calendar month (May)</v>
       </c>
-      <c r="AH13" s="53"/>
-      <c r="AI13" s="53"/>
-      <c r="AJ13" s="53"/>
-      <c r="AK13" s="53"/>
-      <c r="AL13" s="53"/>
-      <c r="AM13" s="53"/>
-      <c r="AN13" s="54"/>
+      <c r="AH13" s="72"/>
+      <c r="AI13" s="72"/>
+      <c r="AJ13" s="72"/>
+      <c r="AK13" s="72"/>
+      <c r="AL13" s="72"/>
+      <c r="AM13" s="72"/>
+      <c r="AN13" s="73"/>
       <c r="AO13" s="9"/>
       <c r="AP13" s="3"/>
       <c r="AS13" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="AT13" s="138">
+      <c r="AT13" s="137">
         <v>0</v>
       </c>
-      <c r="AU13" s="138">
+      <c r="AU13" s="137">
         <v>0</v>
       </c>
-      <c r="AV13" s="138">
+      <c r="AV13" s="137">
         <v>2</v>
       </c>
-      <c r="AW13" s="138">
+      <c r="AW13" s="137">
         <v>1</v>
       </c>
-      <c r="AX13" s="138">
+      <c r="AX13" s="137">
         <v>0</v>
       </c>
-      <c r="AY13" s="138">
+      <c r="AY13" s="137">
         <v>0</v>
       </c>
-      <c r="AZ13" s="138">
+      <c r="AZ13" s="137">
         <v>3</v>
       </c>
-      <c r="BA13" s="138">
+      <c r="BA13" s="137">
         <v>0</v>
       </c>
-      <c r="BB13" s="138">
+      <c r="BB13" s="137">
         <v>2</v>
       </c>
-      <c r="BC13" s="138">
+      <c r="BC13" s="137">
         <v>5</v>
       </c>
-      <c r="BD13" s="138">
+      <c r="BD13" s="137">
         <v>0</v>
       </c>
-      <c r="BE13" s="138">
+      <c r="BE13" s="137">
         <v>6</v>
       </c>
-      <c r="BF13" s="138">
+      <c r="BF13" s="137">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="57"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="57"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="75"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="75"/>
       <c r="U14" s="8"/>
-      <c r="W14" s="114"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="57"/>
-      <c r="AG14" s="55"/>
-      <c r="AH14" s="56"/>
-      <c r="AI14" s="56"/>
-      <c r="AJ14" s="56"/>
-      <c r="AK14" s="56"/>
-      <c r="AL14" s="56"/>
-      <c r="AM14" s="56"/>
-      <c r="AN14" s="57"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="108"/>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="74"/>
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="75"/>
+      <c r="AG14" s="108"/>
+      <c r="AH14" s="74"/>
+      <c r="AI14" s="74"/>
+      <c r="AJ14" s="74"/>
+      <c r="AK14" s="74"/>
+      <c r="AL14" s="74"/>
+      <c r="AM14" s="74"/>
+      <c r="AN14" s="75"/>
       <c r="AO14" s="9"/>
       <c r="AP14" s="3"/>
       <c r="AS14" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="AT14" s="138">
+      <c r="AT14" s="137">
         <v>0</v>
       </c>
-      <c r="AU14" s="138">
+      <c r="AU14" s="137">
         <v>0</v>
       </c>
-      <c r="AV14" s="138">
+      <c r="AV14" s="137">
         <v>0</v>
       </c>
-      <c r="AW14" s="138">
+      <c r="AW14" s="137">
         <v>1</v>
       </c>
-      <c r="AX14" s="138">
+      <c r="AX14" s="137">
         <v>1</v>
       </c>
-      <c r="AY14" s="138">
+      <c r="AY14" s="137">
         <v>0</v>
       </c>
-      <c r="AZ14" s="138">
+      <c r="AZ14" s="137">
         <v>2</v>
       </c>
-      <c r="BA14" s="138">
+      <c r="BA14" s="137">
         <v>1</v>
       </c>
-      <c r="BB14" s="138">
+      <c r="BB14" s="137">
         <v>1</v>
       </c>
-      <c r="BC14" s="138">
+      <c r="BC14" s="137">
         <v>1</v>
       </c>
-      <c r="BD14" s="138">
+      <c r="BD14" s="137">
         <v>0</v>
       </c>
-      <c r="BE14" s="138">
+      <c r="BE14" s="137">
         <v>2</v>
       </c>
-      <c r="BF14" s="138">
+      <c r="BF14" s="137">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
-      <c r="C15" s="111"/>
+      <c r="C15" s="77"/>
       <c r="U15" s="8"/>
-      <c r="W15" s="114"/>
+      <c r="W15" s="80"/>
       <c r="AO15" s="9"/>
       <c r="AP15" s="3"/>
-      <c r="AT15" s="139">
+      <c r="AT15" s="138">
         <v>43646</v>
       </c>
-      <c r="AU15" s="139">
+      <c r="AU15" s="138">
         <v>43677</v>
       </c>
-      <c r="AV15" s="139">
+      <c r="AV15" s="138">
         <v>43708</v>
       </c>
-      <c r="AW15" s="139">
+      <c r="AW15" s="138">
         <v>43738</v>
       </c>
-      <c r="AX15" s="139">
+      <c r="AX15" s="138">
         <v>43769</v>
       </c>
-      <c r="AY15" s="139">
+      <c r="AY15" s="138">
         <v>43799</v>
       </c>
-      <c r="AZ15" s="139">
+      <c r="AZ15" s="138">
         <v>43830</v>
       </c>
-      <c r="BA15" s="139">
+      <c r="BA15" s="138">
         <v>43861</v>
       </c>
-      <c r="BB15" s="139">
+      <c r="BB15" s="138">
         <v>43890</v>
       </c>
-      <c r="BC15" s="139">
+      <c r="BC15" s="138">
         <v>43921</v>
       </c>
-      <c r="BD15" s="139">
+      <c r="BD15" s="138">
         <v>43951</v>
       </c>
-      <c r="BE15" s="139">
+      <c r="BE15" s="138">
         <v>43982</v>
       </c>
       <c r="BF15" s="134" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="104" t="s">
+      <c r="C16" s="77"/>
+      <c r="D16" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="91">
+        <v>0.60897012673056483</v>
+      </c>
+      <c r="K16" s="92"/>
+      <c r="M16" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="91">
+        <v>0.51899473632415571</v>
+      </c>
+      <c r="T16" s="92"/>
+      <c r="U16" s="8"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="68">
-        <v>0.60897012673056483</v>
-      </c>
-      <c r="K16" s="69"/>
-      <c r="M16" s="72" t="s">
+      <c r="Y16" s="83"/>
+      <c r="Z16" s="83"/>
+      <c r="AA16" s="83"/>
+      <c r="AB16" s="51"/>
+      <c r="AC16" s="52"/>
+      <c r="AD16" s="103">
+        <v>73</v>
+      </c>
+      <c r="AE16" s="104"/>
+      <c r="AG16" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="68">
-        <v>0.51899473632415571</v>
-      </c>
-      <c r="T16" s="69"/>
-      <c r="U16" s="8"/>
-      <c r="W16" s="114"/>
-      <c r="X16" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="63"/>
-      <c r="AD16" s="73">
-        <v>73</v>
-      </c>
-      <c r="AE16" s="74"/>
-      <c r="AG16" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH16" s="59"/>
-      <c r="AI16" s="59"/>
-      <c r="AJ16" s="59"/>
-      <c r="AK16" s="62"/>
-      <c r="AL16" s="63"/>
-      <c r="AM16" s="100">
+      <c r="AH16" s="83"/>
+      <c r="AI16" s="83"/>
+      <c r="AJ16" s="83"/>
+      <c r="AK16" s="51"/>
+      <c r="AL16" s="52"/>
+      <c r="AM16" s="63">
         <f>BB33</f>
         <v>7</v>
       </c>
-      <c r="AN16" s="101"/>
+      <c r="AN16" s="64"/>
       <c r="AO16" s="9"/>
       <c r="AP16" s="3"/>
-      <c r="AS16" s="140"/>
-      <c r="AT16" s="139"/>
-      <c r="AU16" s="139"/>
-      <c r="AV16" s="139"/>
-      <c r="AW16" s="139"/>
-      <c r="AX16" s="139"/>
-      <c r="AY16" s="139"/>
-      <c r="AZ16" s="139"/>
-      <c r="BA16" s="139"/>
-      <c r="BB16" s="139"/>
-      <c r="BC16" s="139"/>
-      <c r="BD16" s="139"/>
-      <c r="BE16" s="139"/>
+      <c r="AS16" s="139"/>
+      <c r="AT16" s="138"/>
+      <c r="AU16" s="138"/>
+      <c r="AV16" s="138"/>
+      <c r="AW16" s="138"/>
+      <c r="AX16" s="138"/>
+      <c r="AY16" s="138"/>
+      <c r="AZ16" s="138"/>
+      <c r="BA16" s="138"/>
+      <c r="BB16" s="138"/>
+      <c r="BC16" s="138"/>
+      <c r="BD16" s="138"/>
+      <c r="BE16" s="138"/>
       <c r="BF16" s="134"/>
     </row>
     <row r="17" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="71"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="71"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="94"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="94"/>
       <c r="U17" s="8"/>
-      <c r="W17" s="114"/>
-      <c r="X17" s="60"/>
-      <c r="Y17" s="61"/>
-      <c r="Z17" s="61"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="64"/>
-      <c r="AC17" s="65"/>
-      <c r="AD17" s="75"/>
-      <c r="AE17" s="76"/>
-      <c r="AG17" s="60"/>
-      <c r="AH17" s="61"/>
-      <c r="AI17" s="61"/>
-      <c r="AJ17" s="61"/>
-      <c r="AK17" s="64"/>
-      <c r="AL17" s="65"/>
-      <c r="AM17" s="102"/>
-      <c r="AN17" s="103"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="84"/>
+      <c r="Z17" s="84"/>
+      <c r="AA17" s="84"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="105"/>
+      <c r="AE17" s="106"/>
+      <c r="AG17" s="90"/>
+      <c r="AH17" s="84"/>
+      <c r="AI17" s="84"/>
+      <c r="AJ17" s="84"/>
+      <c r="AK17" s="53"/>
+      <c r="AL17" s="54"/>
+      <c r="AM17" s="65"/>
+      <c r="AN17" s="66"/>
       <c r="AO17" s="9"/>
       <c r="AP17" s="3"/>
-      <c r="AS17" s="140"/>
-      <c r="AT17" s="139"/>
-      <c r="AU17" s="139"/>
-      <c r="AV17" s="139"/>
-      <c r="AW17" s="139"/>
-      <c r="AX17" s="139"/>
-      <c r="AY17" s="139"/>
-      <c r="AZ17" s="139"/>
-      <c r="BA17" s="139"/>
-      <c r="BB17" s="139"/>
-      <c r="BC17" s="139"/>
-      <c r="BD17" s="139"/>
-      <c r="BE17" s="139"/>
+      <c r="AS17" s="139"/>
+      <c r="AT17" s="138"/>
+      <c r="AU17" s="138"/>
+      <c r="AV17" s="138"/>
+      <c r="AW17" s="138"/>
+      <c r="AX17" s="138"/>
+      <c r="AY17" s="138"/>
+      <c r="AZ17" s="138"/>
+      <c r="BA17" s="138"/>
+      <c r="BB17" s="138"/>
+      <c r="BC17" s="138"/>
+      <c r="BD17" s="138"/>
+      <c r="BE17" s="138"/>
       <c r="BF17" s="134"/>
     </row>
     <row r="18" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="71"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="71"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="94"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="94"/>
       <c r="U18" s="8"/>
-      <c r="W18" s="114"/>
-      <c r="X18" s="60"/>
-      <c r="Y18" s="61"/>
-      <c r="Z18" s="61"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="66"/>
-      <c r="AC18" s="67"/>
-      <c r="AD18" s="75"/>
-      <c r="AE18" s="76"/>
-      <c r="AG18" s="60"/>
-      <c r="AH18" s="61"/>
-      <c r="AI18" s="61"/>
-      <c r="AJ18" s="61"/>
-      <c r="AK18" s="66"/>
-      <c r="AL18" s="67"/>
-      <c r="AM18" s="102"/>
-      <c r="AN18" s="103"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="90"/>
+      <c r="Y18" s="84"/>
+      <c r="Z18" s="84"/>
+      <c r="AA18" s="84"/>
+      <c r="AB18" s="55"/>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="105"/>
+      <c r="AE18" s="106"/>
+      <c r="AG18" s="90"/>
+      <c r="AH18" s="84"/>
+      <c r="AI18" s="84"/>
+      <c r="AJ18" s="84"/>
+      <c r="AK18" s="55"/>
+      <c r="AL18" s="56"/>
+      <c r="AM18" s="65"/>
+      <c r="AN18" s="66"/>
       <c r="AO18" s="9"/>
       <c r="AP18" s="3"/>
-      <c r="AS18" s="140"/>
-      <c r="AT18" s="141"/>
-      <c r="AU18" s="141"/>
-      <c r="AV18" s="141"/>
-      <c r="AW18" s="141"/>
-      <c r="AX18" s="141"/>
-      <c r="AY18" s="141"/>
-      <c r="AZ18" s="141"/>
-      <c r="BA18" s="141"/>
-      <c r="BB18" s="141"/>
-      <c r="BC18" s="141"/>
-      <c r="BD18" s="141"/>
-      <c r="BE18" s="141"/>
-      <c r="BF18" s="142"/>
+      <c r="AS18" s="139"/>
+      <c r="AT18" s="140"/>
+      <c r="AU18" s="140"/>
+      <c r="AV18" s="140"/>
+      <c r="AW18" s="140"/>
+      <c r="AX18" s="140"/>
+      <c r="AY18" s="140"/>
+      <c r="AZ18" s="140"/>
+      <c r="BA18" s="140"/>
+      <c r="BB18" s="140"/>
+      <c r="BC18" s="140"/>
+      <c r="BD18" s="140"/>
+      <c r="BE18" s="140"/>
+      <c r="BF18" s="141"/>
     </row>
     <row r="19" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="53" t="s">
+      <c r="C19" s="77"/>
+      <c r="D19" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="73"/>
+      <c r="M19" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="72"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="8"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y19" s="72"/>
+      <c r="Z19" s="72"/>
+      <c r="AA19" s="72"/>
+      <c r="AB19" s="72"/>
+      <c r="AC19" s="72"/>
+      <c r="AD19" s="72"/>
+      <c r="AE19" s="73"/>
+      <c r="AG19" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
-      <c r="M19" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="8"/>
-      <c r="W19" s="114"/>
-      <c r="X19" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y19" s="53"/>
-      <c r="Z19" s="53"/>
-      <c r="AA19" s="53"/>
-      <c r="AB19" s="53"/>
-      <c r="AC19" s="53"/>
-      <c r="AD19" s="53"/>
-      <c r="AE19" s="54"/>
-      <c r="AG19" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH19" s="53"/>
-      <c r="AI19" s="53"/>
-      <c r="AJ19" s="53"/>
-      <c r="AK19" s="53"/>
-      <c r="AL19" s="53"/>
-      <c r="AM19" s="53"/>
-      <c r="AN19" s="54"/>
+      <c r="AH19" s="72"/>
+      <c r="AI19" s="72"/>
+      <c r="AJ19" s="72"/>
+      <c r="AK19" s="72"/>
+      <c r="AL19" s="72"/>
+      <c r="AM19" s="72"/>
+      <c r="AN19" s="73"/>
       <c r="AO19" s="9"/>
       <c r="AP19" s="3"/>
     </row>
     <row r="20" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="57"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="57"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="75"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="74"/>
+      <c r="T20" s="75"/>
       <c r="U20" s="8"/>
-      <c r="W20" s="114"/>
-      <c r="X20" s="55"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="57"/>
-      <c r="AG20" s="55"/>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="56"/>
-      <c r="AJ20" s="56"/>
-      <c r="AK20" s="56"/>
-      <c r="AL20" s="56"/>
-      <c r="AM20" s="56"/>
-      <c r="AN20" s="57"/>
+      <c r="W20" s="80"/>
+      <c r="X20" s="108"/>
+      <c r="Y20" s="74"/>
+      <c r="Z20" s="74"/>
+      <c r="AA20" s="74"/>
+      <c r="AB20" s="74"/>
+      <c r="AC20" s="74"/>
+      <c r="AD20" s="74"/>
+      <c r="AE20" s="75"/>
+      <c r="AG20" s="108"/>
+      <c r="AH20" s="74"/>
+      <c r="AI20" s="74"/>
+      <c r="AJ20" s="74"/>
+      <c r="AK20" s="74"/>
+      <c r="AL20" s="74"/>
+      <c r="AM20" s="74"/>
+      <c r="AN20" s="75"/>
       <c r="AO20" s="9"/>
       <c r="AP20" s="3"/>
     </row>
     <row r="21" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="14"/>
-      <c r="W21" s="115"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="15"/>
-      <c r="AF21" s="15"/>
-      <c r="AG21" s="15"/>
-      <c r="AH21" s="15"/>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="15"/>
-      <c r="AK21" s="15"/>
-      <c r="AL21" s="15"/>
-      <c r="AM21" s="15"/>
-      <c r="AN21" s="15"/>
-      <c r="AO21" s="16"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="13"/>
+      <c r="W21" s="81"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="14"/>
+      <c r="AK21" s="14"/>
+      <c r="AL21" s="14"/>
+      <c r="AM21" s="14"/>
+      <c r="AN21" s="14"/>
+      <c r="AO21" s="15"/>
       <c r="AP21" s="3"/>
-      <c r="AW21" s="143" t="s">
+      <c r="AW21" s="142" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX21" s="142" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY21" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="AX21" s="143" t="s">
+      <c r="AZ21" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="AY21" s="143" t="s">
+      <c r="BA21" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="AZ21" s="143" t="s">
+      <c r="BB21" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="BA21" s="143" t="s">
+      <c r="BD21" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="BB21" s="143" t="s">
+      <c r="BE21" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="BD21" s="133" t="s">
+      <c r="BF21" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="BE21" s="133" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF21" s="133" t="s">
-        <v>37</v>
-      </c>
       <c r="BG21" s="133" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BH21" s="133" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22"/>
-      <c r="AF22" s="17"/>
-      <c r="AG22" s="17"/>
-      <c r="AH22" s="17"/>
-      <c r="AI22" s="17"/>
-      <c r="AJ22" s="17"/>
-      <c r="AK22" s="17"/>
-      <c r="AL22" s="17"/>
-      <c r="AM22" s="17"/>
-      <c r="AN22" s="17"/>
-      <c r="AO22" s="17"/>
+      <c r="AF22" s="16"/>
+      <c r="AG22" s="16"/>
+      <c r="AH22" s="16"/>
+      <c r="AI22" s="16"/>
+      <c r="AJ22" s="16"/>
+      <c r="AK22" s="16"/>
+      <c r="AL22" s="16"/>
+      <c r="AM22" s="16"/>
+      <c r="AN22" s="16"/>
+      <c r="AO22" s="16"/>
       <c r="AP22" s="3"/>
       <c r="AS22" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="AW22" s="144">
+      <c r="AW22" s="143">
         <v>0.2</v>
       </c>
-      <c r="AX22" s="144">
+      <c r="AX22" s="143">
         <v>0.92500000000000004</v>
       </c>
-      <c r="AY22" s="144">
+      <c r="AY22" s="143">
         <v>0.75</v>
       </c>
-      <c r="AZ22" s="144">
+      <c r="AZ22" s="143">
         <v>1</v>
       </c>
-      <c r="BA22" s="144">
+      <c r="BA22" s="143">
         <v>0.88</v>
       </c>
-      <c r="BB22" s="144">
+      <c r="BB22" s="143">
         <v>0.88</v>
       </c>
       <c r="BD22" s="133" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE22" s="133" t="s">
+        <v>37</v>
+      </c>
+      <c r="BF22" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="BE22" s="133" t="s">
+      <c r="BG22" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="BF22" s="133" t="s">
+      <c r="BH22" s="133" t="s">
         <v>40</v>
-      </c>
-      <c r="BG22" s="133" t="s">
-        <v>41</v>
-      </c>
-      <c r="BH22" s="133" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
-      <c r="C23" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="19"/>
-      <c r="AE23" s="20"/>
-      <c r="AF23" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO23" s="21"/>
+      <c r="C23" s="109" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="112" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO23" s="20"/>
       <c r="AP23" s="3"/>
       <c r="AS23" s="133" t="s">
         <v>6</v>
@@ -8303,373 +8666,454 @@
         <v>601200</v>
       </c>
       <c r="BD23" s="133" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE23" s="133" t="s">
+        <v>44</v>
+      </c>
+      <c r="BF23" s="133" t="s">
         <v>45</v>
-      </c>
-      <c r="BE23" s="133" t="s">
-        <v>46</v>
-      </c>
-      <c r="BF23" s="133" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
-      <c r="C24" s="84"/>
-      <c r="O24" s="88" t="str">
+      <c r="C24" s="110"/>
+      <c r="D24" s="132">
+        <f>SUM(AT5:AW5)</f>
+        <v>16</v>
+      </c>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="132"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="114" t="str">
         <f>"Release Velocity "&amp;CHAR(10)&amp;TEXT(AS4,"dd-mmm")</f>
         <v>Release Velocity 
 10-Jun</v>
       </c>
-      <c r="P24" s="89"/>
-      <c r="Q24" s="89"/>
-      <c r="R24" s="89"/>
-      <c r="S24" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="T24" s="82"/>
-      <c r="V24" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="92"/>
-      <c r="AA24" s="93"/>
-      <c r="AB24" s="96">
+      <c r="P24" s="115"/>
+      <c r="Q24" s="115"/>
+      <c r="R24" s="115"/>
+      <c r="S24" s="130" t="s">
+        <v>73</v>
+      </c>
+      <c r="T24" s="131"/>
+      <c r="V24" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="W24" s="83"/>
+      <c r="X24" s="83"/>
+      <c r="Y24" s="83"/>
+      <c r="Z24" s="118"/>
+      <c r="AA24" s="119"/>
+      <c r="AB24" s="122">
         <f>BB35</f>
         <v>1.3620751316435028E-2</v>
       </c>
-      <c r="AC24" s="97"/>
-      <c r="AD24" s="22"/>
-      <c r="AE24" s="20"/>
-      <c r="AF24" s="86"/>
-      <c r="AG24" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH24" s="59"/>
-      <c r="AI24" s="59"/>
-      <c r="AJ24" s="59"/>
-      <c r="AK24" s="62"/>
-      <c r="AL24" s="63"/>
-      <c r="AM24" s="73">
+      <c r="AC24" s="123"/>
+      <c r="AD24" s="21"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="112"/>
+      <c r="AG24" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH24" s="83"/>
+      <c r="AI24" s="83"/>
+      <c r="AJ24" s="83"/>
+      <c r="AK24" s="51"/>
+      <c r="AL24" s="52"/>
+      <c r="AM24" s="103">
         <f>BB37</f>
         <v>137.6</v>
       </c>
-      <c r="AN24" s="74"/>
-      <c r="AO24" s="20"/>
+      <c r="AN24" s="104"/>
+      <c r="AO24" s="19"/>
       <c r="AP24" s="3"/>
     </row>
     <row r="25" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
-      <c r="C25" s="84"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="91"/>
-      <c r="S25" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="T25" s="24"/>
-      <c r="V25" s="60"/>
-      <c r="W25" s="61"/>
-      <c r="X25" s="61"/>
-      <c r="Y25" s="61"/>
-      <c r="Z25" s="94"/>
-      <c r="AA25" s="95"/>
-      <c r="AB25" s="98"/>
-      <c r="AC25" s="99"/>
-      <c r="AD25" s="22"/>
-      <c r="AE25" s="20"/>
-      <c r="AF25" s="86"/>
-      <c r="AG25" s="60"/>
-      <c r="AH25" s="61"/>
-      <c r="AI25" s="61"/>
-      <c r="AJ25" s="61"/>
-      <c r="AK25" s="64"/>
-      <c r="AL25" s="65"/>
-      <c r="AM25" s="75"/>
-      <c r="AN25" s="76"/>
-      <c r="AO25" s="20"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="132"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="132"/>
+      <c r="O25" s="116"/>
+      <c r="P25" s="117"/>
+      <c r="Q25" s="117"/>
+      <c r="R25" s="117"/>
+      <c r="S25" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="T25" s="23"/>
+      <c r="V25" s="90"/>
+      <c r="W25" s="84"/>
+      <c r="X25" s="84"/>
+      <c r="Y25" s="84"/>
+      <c r="Z25" s="120"/>
+      <c r="AA25" s="121"/>
+      <c r="AB25" s="124"/>
+      <c r="AC25" s="125"/>
+      <c r="AD25" s="21"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="112"/>
+      <c r="AG25" s="90"/>
+      <c r="AH25" s="84"/>
+      <c r="AI25" s="84"/>
+      <c r="AJ25" s="84"/>
+      <c r="AK25" s="53"/>
+      <c r="AL25" s="54"/>
+      <c r="AM25" s="105"/>
+      <c r="AN25" s="106"/>
+      <c r="AO25" s="19"/>
       <c r="AP25" s="3"/>
       <c r="AS25" s="133" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW25" s="138">
+        <v>48</v>
+      </c>
+      <c r="AW25" s="137">
         <v>32.46987951807229</v>
       </c>
-      <c r="AX25" s="138">
+      <c r="AX25" s="137">
         <v>39.769230769230766</v>
       </c>
-      <c r="AY25" s="138">
+      <c r="AY25" s="137">
         <v>27.166666666666668</v>
       </c>
-      <c r="AZ25" s="138">
+      <c r="AZ25" s="137">
         <v>14</v>
       </c>
-      <c r="BA25" s="138">
+      <c r="BA25" s="137">
         <v>17</v>
       </c>
-      <c r="BB25" s="138">
+      <c r="BB25" s="137">
         <v>20</v>
       </c>
       <c r="BD25" s="133" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BE25" s="133" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BF25" s="133" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
-      <c r="C26" s="84"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="91"/>
-      <c r="Q26" s="91"/>
-      <c r="R26" s="91"/>
-      <c r="S26" s="23" t="s">
+      <c r="C26" s="110"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="132"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="132"/>
+      <c r="O26" s="116"/>
+      <c r="P26" s="117"/>
+      <c r="Q26" s="117"/>
+      <c r="R26" s="117"/>
+      <c r="S26" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="T26" s="24"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="61"/>
-      <c r="X26" s="61"/>
-      <c r="Y26" s="61"/>
-      <c r="Z26" s="94"/>
-      <c r="AA26" s="95"/>
-      <c r="AB26" s="98"/>
-      <c r="AC26" s="99"/>
-      <c r="AD26" s="22"/>
-      <c r="AE26" s="20"/>
-      <c r="AF26" s="86"/>
-      <c r="AG26" s="60"/>
-      <c r="AH26" s="61"/>
-      <c r="AI26" s="61"/>
-      <c r="AJ26" s="61"/>
-      <c r="AK26" s="66"/>
-      <c r="AL26" s="67"/>
-      <c r="AM26" s="75"/>
-      <c r="AN26" s="76"/>
-      <c r="AO26" s="20"/>
+      <c r="T26" s="23"/>
+      <c r="V26" s="90"/>
+      <c r="W26" s="84"/>
+      <c r="X26" s="84"/>
+      <c r="Y26" s="84"/>
+      <c r="Z26" s="120"/>
+      <c r="AA26" s="121"/>
+      <c r="AB26" s="124"/>
+      <c r="AC26" s="125"/>
+      <c r="AD26" s="21"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="112"/>
+      <c r="AG26" s="90"/>
+      <c r="AH26" s="84"/>
+      <c r="AI26" s="84"/>
+      <c r="AJ26" s="84"/>
+      <c r="AK26" s="55"/>
+      <c r="AL26" s="56"/>
+      <c r="AM26" s="105"/>
+      <c r="AN26" s="106"/>
+      <c r="AO26" s="19"/>
       <c r="AP26" s="3"/>
       <c r="AS26" s="133" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW26" s="143">
+        <v>5.1724137931034482E-2</v>
+      </c>
+      <c r="AX26" s="143">
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="AY26" s="143">
+        <v>0.64150943396226412</v>
+      </c>
+      <c r="AZ26" s="143">
+        <v>1</v>
+      </c>
+      <c r="BA26" s="143">
+        <v>0.83783783783783783</v>
+      </c>
+      <c r="BB26" s="143">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="BD26" s="133" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE26" s="133" t="s">
+        <v>37</v>
+      </c>
+      <c r="BF26" s="133" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG26" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH26" s="133" t="s">
         <v>52</v>
-      </c>
-      <c r="AW26" s="144">
-        <v>5.1724137931034482E-2</v>
-      </c>
-      <c r="AX26" s="144">
-        <v>0.26315789473684209</v>
-      </c>
-      <c r="AY26" s="144">
-        <v>0.64150943396226412</v>
-      </c>
-      <c r="AZ26" s="144">
-        <v>1</v>
-      </c>
-      <c r="BA26" s="144">
-        <v>0.83783783783783783</v>
-      </c>
-      <c r="BB26" s="144">
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="BD26" s="133" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE26" s="133" t="s">
-        <v>39</v>
-      </c>
-      <c r="BF26" s="133" t="s">
-        <v>40</v>
-      </c>
-      <c r="BG26" s="133" t="s">
-        <v>41</v>
-      </c>
-      <c r="BH26" s="133" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="27" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
-      <c r="C27" s="84"/>
-      <c r="O27" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="23" t="s">
+      <c r="C27" s="110"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="132"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="126" t="s">
+        <v>77</v>
+      </c>
+      <c r="P27" s="127"/>
+      <c r="Q27" s="127"/>
+      <c r="R27" s="127"/>
+      <c r="S27" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="T27" s="24"/>
-      <c r="V27" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="W27" s="78"/>
-      <c r="X27" s="78"/>
-      <c r="Y27" s="78"/>
-      <c r="Z27" s="78"/>
-      <c r="AA27" s="78"/>
-      <c r="AB27" s="78"/>
-      <c r="AC27" s="78"/>
-      <c r="AD27" s="22"/>
-      <c r="AE27" s="20"/>
-      <c r="AF27" s="86"/>
-      <c r="AG27" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH27" s="53"/>
-      <c r="AI27" s="53"/>
-      <c r="AJ27" s="53"/>
-      <c r="AK27" s="53"/>
-      <c r="AL27" s="53"/>
-      <c r="AM27" s="53"/>
-      <c r="AN27" s="54"/>
-      <c r="AO27" s="20"/>
+      <c r="T27" s="23"/>
+      <c r="V27" s="126" t="str">
+        <f xml:space="preserve"> "Average of Active Time ("&amp;BB43&amp;" days) / Lead Team for the issues released in the last 3 months"</f>
+        <v>Average of Active Time (2.1 days) / Lead Team for the issues released in the last 3 months</v>
+      </c>
+      <c r="W27" s="127"/>
+      <c r="X27" s="127"/>
+      <c r="Y27" s="127"/>
+      <c r="Z27" s="127"/>
+      <c r="AA27" s="127"/>
+      <c r="AB27" s="127"/>
+      <c r="AC27" s="127"/>
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="112"/>
+      <c r="AG27" s="107" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH27" s="72"/>
+      <c r="AI27" s="72"/>
+      <c r="AJ27" s="72"/>
+      <c r="AK27" s="72"/>
+      <c r="AL27" s="72"/>
+      <c r="AM27" s="72"/>
+      <c r="AN27" s="73"/>
+      <c r="AO27" s="19"/>
       <c r="AP27" s="3"/>
       <c r="AS27" s="133" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW27" s="145">
+        <v>54</v>
+      </c>
+      <c r="AW27" s="144">
         <v>0.76029542340884804</v>
       </c>
-      <c r="AX27" s="145">
+      <c r="AX27" s="144">
         <v>0.76029542340884804</v>
       </c>
-      <c r="AY27" s="145">
+      <c r="AY27" s="144">
         <v>0.79120337968461985</v>
       </c>
-      <c r="AZ27" s="145">
+      <c r="AZ27" s="144">
         <v>0.84008886045782594</v>
       </c>
-      <c r="BA27" s="145">
+      <c r="BA27" s="144">
         <v>1.3221664701611811</v>
       </c>
-      <c r="BB27" s="145">
+      <c r="BB27" s="144">
         <v>0.60897012673056483</v>
       </c>
       <c r="BD27" s="133" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BE27" s="133" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="BF27" s="133" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
-      <c r="C28" s="84"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="80"/>
-      <c r="R28" s="80"/>
-      <c r="S28" s="26" t="s">
+      <c r="C28" s="110"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="128"/>
+      <c r="P28" s="129"/>
+      <c r="Q28" s="129"/>
+      <c r="R28" s="129"/>
+      <c r="S28" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="T28" s="27"/>
-      <c r="V28" s="77"/>
-      <c r="W28" s="78"/>
-      <c r="X28" s="78"/>
-      <c r="Y28" s="78"/>
-      <c r="Z28" s="78"/>
-      <c r="AA28" s="78"/>
-      <c r="AB28" s="78"/>
-      <c r="AC28" s="78"/>
-      <c r="AD28" s="22"/>
-      <c r="AE28" s="20"/>
-      <c r="AF28" s="86"/>
-      <c r="AG28" s="55"/>
-      <c r="AH28" s="56"/>
-      <c r="AI28" s="56"/>
-      <c r="AJ28" s="56"/>
-      <c r="AK28" s="56"/>
-      <c r="AL28" s="56"/>
-      <c r="AM28" s="56"/>
-      <c r="AN28" s="57"/>
-      <c r="AO28" s="20"/>
+      <c r="T28" s="26"/>
+      <c r="V28" s="126"/>
+      <c r="W28" s="127"/>
+      <c r="X28" s="127"/>
+      <c r="Y28" s="127"/>
+      <c r="Z28" s="127"/>
+      <c r="AA28" s="127"/>
+      <c r="AB28" s="127"/>
+      <c r="AC28" s="127"/>
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="112"/>
+      <c r="AG28" s="108"/>
+      <c r="AH28" s="74"/>
+      <c r="AI28" s="74"/>
+      <c r="AJ28" s="74"/>
+      <c r="AK28" s="74"/>
+      <c r="AL28" s="74"/>
+      <c r="AM28" s="74"/>
+      <c r="AN28" s="75"/>
+      <c r="AO28" s="19"/>
       <c r="AP28" s="3"/>
       <c r="AS28" s="133" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW28" s="144">
+        <v>58</v>
+      </c>
+      <c r="AW28" s="143">
         <v>1.1791440964995212</v>
       </c>
-      <c r="AX28" s="144">
+      <c r="AX28" s="143">
         <v>1.0117651106127619</v>
       </c>
-      <c r="AY28" s="144">
+      <c r="AY28" s="143">
         <v>0.98287811183078511</v>
       </c>
-      <c r="AZ28" s="144">
+      <c r="AZ28" s="143">
         <v>0.72482845074783719</v>
       </c>
-      <c r="BA28" s="144">
+      <c r="BA28" s="143">
         <v>0.76394336665463713</v>
       </c>
-      <c r="BB28" s="144">
+      <c r="BB28" s="143">
         <v>0.51899473632415571</v>
       </c>
       <c r="BD28" s="133" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BE28" s="133" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="BF28" s="133" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
-      <c r="C29" s="84"/>
-      <c r="AD29" s="22"/>
-      <c r="AE29" s="20"/>
-      <c r="AF29" s="86"/>
-      <c r="AO29" s="20"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="132"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="132"/>
+      <c r="K29" s="132"/>
+      <c r="L29" s="132"/>
+      <c r="M29" s="132"/>
+      <c r="N29" s="132"/>
+      <c r="AD29" s="21"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="112"/>
+      <c r="AO29" s="19"/>
       <c r="AP29" s="3"/>
     </row>
     <row r="30" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
-      <c r="C30" s="84"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="30"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD30" s="22"/>
-      <c r="AE30" s="20"/>
-      <c r="AF30" s="86"/>
-      <c r="AG30" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH30" s="59"/>
-      <c r="AI30" s="59"/>
-      <c r="AJ30" s="59"/>
-      <c r="AK30" s="62"/>
-      <c r="AL30" s="63"/>
-      <c r="AM30" s="68">
+      <c r="C30" s="110"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="132"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="132"/>
+      <c r="N30" s="132"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD30" s="21"/>
+      <c r="AE30" s="19"/>
+      <c r="AF30" s="112"/>
+      <c r="AG30" s="102" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH30" s="83"/>
+      <c r="AI30" s="83"/>
+      <c r="AJ30" s="83"/>
+      <c r="AK30" s="51"/>
+      <c r="AL30" s="52"/>
+      <c r="AM30" s="145">
         <v>0.01</v>
       </c>
-      <c r="AN30" s="69"/>
-      <c r="AO30" s="20"/>
+      <c r="AN30" s="146"/>
+      <c r="AO30" s="19"/>
       <c r="AP30" s="3"/>
       <c r="AS30" s="133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW30" s="133">
         <v>108.76923076923077</v>
@@ -8692,38 +9136,49 @@
     </row>
     <row r="31" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
-      <c r="C31" s="84"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="35"/>
-      <c r="AB31" s="36"/>
-      <c r="AC31" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD31" s="22"/>
-      <c r="AE31" s="20"/>
-      <c r="AF31" s="86"/>
-      <c r="AG31" s="60"/>
-      <c r="AH31" s="61"/>
-      <c r="AI31" s="61"/>
-      <c r="AJ31" s="61"/>
-      <c r="AK31" s="64"/>
-      <c r="AL31" s="65"/>
-      <c r="AM31" s="70"/>
-      <c r="AN31" s="71"/>
-      <c r="AO31" s="20"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="132"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="132"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
+      <c r="N31" s="132"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="19"/>
+      <c r="AF31" s="112"/>
+      <c r="AG31" s="90"/>
+      <c r="AH31" s="84"/>
+      <c r="AI31" s="84"/>
+      <c r="AJ31" s="84"/>
+      <c r="AK31" s="53"/>
+      <c r="AL31" s="54"/>
+      <c r="AM31" s="147"/>
+      <c r="AN31" s="148"/>
+      <c r="AO31" s="19"/>
       <c r="AP31" s="3"/>
       <c r="AS31" s="133" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AW31" s="133">
         <v>1</v>
@@ -8746,19 +9201,20 @@
     </row>
     <row r="32" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
-      <c r="C32" s="84"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="132"/>
+      <c r="H32" s="132"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="132"/>
+      <c r="K32" s="132"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="132"/>
+      <c r="N32" s="132"/>
       <c r="O32" s="10"/>
-      <c r="P32" s="38"/>
+      <c r="P32" s="37"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
@@ -8769,24 +9225,24 @@
       <c r="X32" s="10"/>
       <c r="Y32" s="10"/>
       <c r="Z32" s="10"/>
-      <c r="AA32" s="39"/>
+      <c r="AA32" s="38"/>
       <c r="AB32" s="10"/>
       <c r="AC32" s="10"/>
-      <c r="AD32" s="22"/>
-      <c r="AE32" s="20"/>
-      <c r="AF32" s="86"/>
-      <c r="AG32" s="60"/>
-      <c r="AH32" s="61"/>
-      <c r="AI32" s="61"/>
-      <c r="AJ32" s="61"/>
-      <c r="AK32" s="66"/>
-      <c r="AL32" s="67"/>
-      <c r="AM32" s="70"/>
-      <c r="AN32" s="71"/>
-      <c r="AO32" s="20"/>
+      <c r="AD32" s="21"/>
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="112"/>
+      <c r="AG32" s="90"/>
+      <c r="AH32" s="84"/>
+      <c r="AI32" s="84"/>
+      <c r="AJ32" s="84"/>
+      <c r="AK32" s="55"/>
+      <c r="AL32" s="56"/>
+      <c r="AM32" s="147"/>
+      <c r="AN32" s="148"/>
+      <c r="AO32" s="19"/>
       <c r="AP32" s="3"/>
       <c r="AS32" s="133" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW32" s="133">
         <v>70.115384615384613</v>
@@ -8807,36 +9263,39 @@
         <v>72.954545454545453</v>
       </c>
     </row>
-    <row r="33" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
-      <c r="C33" s="84"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="P33" s="40"/>
-      <c r="AA33" s="41"/>
-      <c r="AD33" s="22"/>
-      <c r="AE33" s="20"/>
-      <c r="AF33" s="86"/>
-      <c r="AG33" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH33" s="53"/>
-      <c r="AI33" s="53"/>
-      <c r="AJ33" s="53"/>
-      <c r="AK33" s="53"/>
-      <c r="AL33" s="53"/>
-      <c r="AM33" s="53"/>
-      <c r="AN33" s="54"/>
-      <c r="AO33" s="20"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="132"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="132"/>
+      <c r="N33" s="132"/>
+      <c r="P33" s="39"/>
+      <c r="AA33" s="40"/>
+      <c r="AD33" s="21"/>
+      <c r="AE33" s="19"/>
+      <c r="AF33" s="112"/>
+      <c r="AG33" s="107" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH33" s="72"/>
+      <c r="AI33" s="72"/>
+      <c r="AJ33" s="72"/>
+      <c r="AK33" s="72"/>
+      <c r="AL33" s="72"/>
+      <c r="AM33" s="72"/>
+      <c r="AN33" s="73"/>
+      <c r="AO33" s="19"/>
       <c r="AP33" s="3"/>
       <c r="AS33" s="133" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AW33" s="133">
         <v>5</v>
@@ -8857,132 +9316,144 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
-      <c r="C34" s="84"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="P34" s="40"/>
-      <c r="AA34" s="41"/>
-      <c r="AD34" s="22"/>
-      <c r="AE34" s="20"/>
-      <c r="AF34" s="86"/>
-      <c r="AG34" s="55"/>
-      <c r="AH34" s="56"/>
-      <c r="AI34" s="56"/>
-      <c r="AJ34" s="56"/>
-      <c r="AK34" s="56"/>
-      <c r="AL34" s="56"/>
-      <c r="AM34" s="56"/>
-      <c r="AN34" s="57"/>
-      <c r="AO34" s="20"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="132"/>
+      <c r="G34" s="132"/>
+      <c r="H34" s="132"/>
+      <c r="I34" s="132"/>
+      <c r="J34" s="132"/>
+      <c r="K34" s="132"/>
+      <c r="L34" s="132"/>
+      <c r="M34" s="132"/>
+      <c r="N34" s="132"/>
+      <c r="P34" s="39"/>
+      <c r="AA34" s="40"/>
+      <c r="AD34" s="21"/>
+      <c r="AE34" s="19"/>
+      <c r="AF34" s="112"/>
+      <c r="AG34" s="108"/>
+      <c r="AH34" s="74"/>
+      <c r="AI34" s="74"/>
+      <c r="AJ34" s="74"/>
+      <c r="AK34" s="74"/>
+      <c r="AL34" s="74"/>
+      <c r="AM34" s="74"/>
+      <c r="AN34" s="75"/>
+      <c r="AO34" s="19"/>
       <c r="AP34" s="3"/>
     </row>
-    <row r="35" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
-      <c r="C35" s="84"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="P35" s="40"/>
-      <c r="AA35" s="41"/>
-      <c r="AD35" s="22"/>
-      <c r="AE35" s="20"/>
-      <c r="AF35" s="86"/>
-      <c r="AO35" s="20"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="132"/>
+      <c r="G35" s="132"/>
+      <c r="H35" s="132"/>
+      <c r="I35" s="132"/>
+      <c r="J35" s="132"/>
+      <c r="K35" s="132"/>
+      <c r="L35" s="132"/>
+      <c r="M35" s="132"/>
+      <c r="N35" s="132"/>
+      <c r="P35" s="39"/>
+      <c r="AA35" s="40"/>
+      <c r="AD35" s="21"/>
+      <c r="AE35" s="19"/>
+      <c r="AF35" s="112"/>
+      <c r="AO35" s="19"/>
       <c r="AP35" s="3"/>
       <c r="AS35" s="133" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW35" s="145">
+        <v>46</v>
+      </c>
+      <c r="AW35" s="144">
         <v>1.1395737985651008E-2</v>
       </c>
-      <c r="AX35" s="145">
+      <c r="AX35" s="144">
         <v>1.4073484347259517E-2</v>
       </c>
-      <c r="AY35" s="145">
+      <c r="AY35" s="144">
         <v>1.6490914680101287E-2</v>
       </c>
-      <c r="AZ35" s="145">
+      <c r="AZ35" s="144">
         <v>1.6966455046575634E-2</v>
       </c>
-      <c r="BA35" s="145">
+      <c r="BA35" s="144">
         <v>1.3620751316435028E-2</v>
       </c>
-      <c r="BB35" s="145">
+      <c r="BB35" s="144">
         <v>1.3620751316435028E-2</v>
       </c>
     </row>
     <row r="36" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
-      <c r="C36" s="84"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="P36" s="40"/>
-      <c r="AA36" s="41"/>
-      <c r="AD36" s="22"/>
-      <c r="AE36" s="20"/>
-      <c r="AF36" s="86"/>
-      <c r="AG36" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH36" s="59"/>
-      <c r="AI36" s="59"/>
-      <c r="AJ36" s="59"/>
-      <c r="AK36" s="62"/>
-      <c r="AL36" s="63"/>
-      <c r="AM36" s="68">
+      <c r="C36" s="110"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="132"/>
+      <c r="G36" s="132"/>
+      <c r="H36" s="132"/>
+      <c r="I36" s="132"/>
+      <c r="J36" s="132"/>
+      <c r="K36" s="132"/>
+      <c r="L36" s="132"/>
+      <c r="M36" s="132"/>
+      <c r="N36" s="132"/>
+      <c r="P36" s="39"/>
+      <c r="AA36" s="40"/>
+      <c r="AD36" s="21"/>
+      <c r="AE36" s="19"/>
+      <c r="AF36" s="112"/>
+      <c r="AG36" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH36" s="83"/>
+      <c r="AI36" s="83"/>
+      <c r="AJ36" s="83"/>
+      <c r="AK36" s="51"/>
+      <c r="AL36" s="52"/>
+      <c r="AM36" s="145">
         <v>0</v>
       </c>
-      <c r="AN36" s="69"/>
-      <c r="AO36" s="20"/>
+      <c r="AN36" s="146"/>
+      <c r="AO36" s="19"/>
       <c r="AP36" s="3"/>
     </row>
     <row r="37" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
-      <c r="C37" s="84"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="P37" s="40"/>
-      <c r="AA37" s="41"/>
-      <c r="AD37" s="22"/>
-      <c r="AE37" s="20"/>
-      <c r="AF37" s="86"/>
-      <c r="AG37" s="60"/>
-      <c r="AH37" s="61"/>
-      <c r="AI37" s="61"/>
-      <c r="AJ37" s="61"/>
-      <c r="AK37" s="64"/>
-      <c r="AL37" s="65"/>
-      <c r="AM37" s="70"/>
-      <c r="AN37" s="71"/>
-      <c r="AO37" s="20"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="132"/>
+      <c r="F37" s="132"/>
+      <c r="G37" s="132"/>
+      <c r="H37" s="132"/>
+      <c r="I37" s="132"/>
+      <c r="J37" s="132"/>
+      <c r="K37" s="132"/>
+      <c r="L37" s="132"/>
+      <c r="M37" s="132"/>
+      <c r="N37" s="132"/>
+      <c r="P37" s="39"/>
+      <c r="AA37" s="40"/>
+      <c r="AD37" s="21"/>
+      <c r="AE37" s="19"/>
+      <c r="AF37" s="112"/>
+      <c r="AG37" s="90"/>
+      <c r="AH37" s="84"/>
+      <c r="AI37" s="84"/>
+      <c r="AJ37" s="84"/>
+      <c r="AK37" s="53"/>
+      <c r="AL37" s="54"/>
+      <c r="AM37" s="147"/>
+      <c r="AN37" s="148"/>
+      <c r="AO37" s="19"/>
       <c r="AP37" s="3"/>
       <c r="AS37" s="133" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AW37" s="133">
         <v>31.875</v>
@@ -9005,32 +9476,35 @@
     </row>
     <row r="38" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
-      <c r="C38" s="84"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="P38" s="40"/>
-      <c r="AA38" s="41"/>
-      <c r="AD38" s="22"/>
-      <c r="AE38" s="20"/>
-      <c r="AF38" s="86"/>
-      <c r="AG38" s="60"/>
-      <c r="AH38" s="61"/>
-      <c r="AI38" s="61"/>
-      <c r="AJ38" s="61"/>
-      <c r="AK38" s="66"/>
-      <c r="AL38" s="67"/>
-      <c r="AM38" s="70"/>
-      <c r="AN38" s="71"/>
-      <c r="AO38" s="20"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="132"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="132"/>
+      <c r="G38" s="132"/>
+      <c r="H38" s="132"/>
+      <c r="I38" s="132"/>
+      <c r="J38" s="132"/>
+      <c r="K38" s="132"/>
+      <c r="L38" s="132"/>
+      <c r="M38" s="132"/>
+      <c r="N38" s="132"/>
+      <c r="P38" s="39"/>
+      <c r="AA38" s="40"/>
+      <c r="AD38" s="21"/>
+      <c r="AE38" s="19"/>
+      <c r="AF38" s="112"/>
+      <c r="AG38" s="90"/>
+      <c r="AH38" s="84"/>
+      <c r="AI38" s="84"/>
+      <c r="AJ38" s="84"/>
+      <c r="AK38" s="55"/>
+      <c r="AL38" s="56"/>
+      <c r="AM38" s="147"/>
+      <c r="AN38" s="148"/>
+      <c r="AO38" s="19"/>
       <c r="AP38" s="3"/>
       <c r="AS38" s="133" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AW38" s="133">
         <v>3.1468531468531472E-2</v>
@@ -9051,36 +9525,39 @@
         <v>1.048951048951049E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
-      <c r="C39" s="84"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="P39" s="40"/>
-      <c r="AA39" s="41"/>
-      <c r="AD39" s="22"/>
-      <c r="AE39" s="20"/>
-      <c r="AF39" s="86"/>
-      <c r="AG39" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH39" s="53"/>
-      <c r="AI39" s="53"/>
-      <c r="AJ39" s="53"/>
-      <c r="AK39" s="53"/>
-      <c r="AL39" s="53"/>
-      <c r="AM39" s="53"/>
-      <c r="AN39" s="54"/>
-      <c r="AO39" s="20"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="132"/>
+      <c r="H39" s="132"/>
+      <c r="I39" s="132"/>
+      <c r="J39" s="132"/>
+      <c r="K39" s="132"/>
+      <c r="L39" s="132"/>
+      <c r="M39" s="132"/>
+      <c r="N39" s="132"/>
+      <c r="P39" s="39"/>
+      <c r="AA39" s="40"/>
+      <c r="AD39" s="21"/>
+      <c r="AE39" s="19"/>
+      <c r="AF39" s="112"/>
+      <c r="AG39" s="107" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH39" s="72"/>
+      <c r="AI39" s="72"/>
+      <c r="AJ39" s="72"/>
+      <c r="AK39" s="72"/>
+      <c r="AL39" s="72"/>
+      <c r="AM39" s="72"/>
+      <c r="AN39" s="73"/>
+      <c r="AO39" s="19"/>
       <c r="AP39" s="3"/>
       <c r="AS39" s="133" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AW39" s="133">
         <v>7.6923076923076927E-2</v>
@@ -9101,190 +9578,259 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
-      <c r="C40" s="84"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="43"/>
-      <c r="R40" s="43"/>
-      <c r="S40" s="43"/>
-      <c r="T40" s="43"/>
-      <c r="U40" s="43"/>
-      <c r="V40" s="43"/>
-      <c r="W40" s="43"/>
-      <c r="X40" s="43"/>
-      <c r="Y40" s="43"/>
-      <c r="Z40" s="43"/>
-      <c r="AA40" s="44"/>
-      <c r="AD40" s="22"/>
-      <c r="AE40" s="20"/>
-      <c r="AF40" s="86"/>
-      <c r="AG40" s="55"/>
-      <c r="AH40" s="56"/>
-      <c r="AI40" s="56"/>
-      <c r="AJ40" s="56"/>
-      <c r="AK40" s="56"/>
-      <c r="AL40" s="56"/>
-      <c r="AM40" s="56"/>
-      <c r="AN40" s="57"/>
-      <c r="AO40" s="20"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="132"/>
+      <c r="F40" s="132"/>
+      <c r="G40" s="132"/>
+      <c r="H40" s="132"/>
+      <c r="I40" s="132"/>
+      <c r="J40" s="132"/>
+      <c r="K40" s="132"/>
+      <c r="L40" s="132"/>
+      <c r="M40" s="132"/>
+      <c r="N40" s="132"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="42"/>
+      <c r="W40" s="42"/>
+      <c r="X40" s="42"/>
+      <c r="Y40" s="42"/>
+      <c r="Z40" s="42"/>
+      <c r="AA40" s="43"/>
+      <c r="AD40" s="21"/>
+      <c r="AE40" s="19"/>
+      <c r="AF40" s="112"/>
+      <c r="AG40" s="108"/>
+      <c r="AH40" s="74"/>
+      <c r="AI40" s="74"/>
+      <c r="AJ40" s="74"/>
+      <c r="AK40" s="74"/>
+      <c r="AL40" s="74"/>
+      <c r="AM40" s="74"/>
+      <c r="AN40" s="75"/>
+      <c r="AO40" s="19"/>
       <c r="AP40" s="3"/>
     </row>
     <row r="41" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="45"/>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="45"/>
-      <c r="S41" s="45"/>
-      <c r="T41" s="45"/>
-      <c r="U41" s="45"/>
-      <c r="V41" s="45"/>
-      <c r="W41" s="45"/>
-      <c r="X41" s="45"/>
-      <c r="Y41" s="45"/>
-      <c r="Z41" s="45"/>
-      <c r="AA41" s="45"/>
-      <c r="AB41" s="45"/>
-      <c r="AC41" s="45"/>
-      <c r="AD41" s="46"/>
-      <c r="AE41" s="20"/>
-      <c r="AF41" s="87"/>
-      <c r="AG41" s="17"/>
-      <c r="AH41" s="17"/>
-      <c r="AI41" s="17"/>
-      <c r="AJ41" s="17"/>
-      <c r="AK41" s="17"/>
-      <c r="AL41" s="17"/>
-      <c r="AM41" s="17"/>
-      <c r="AN41" s="17"/>
-      <c r="AO41" s="47"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="44"/>
+      <c r="U41" s="44"/>
+      <c r="V41" s="44"/>
+      <c r="W41" s="44"/>
+      <c r="X41" s="44"/>
+      <c r="Y41" s="44"/>
+      <c r="Z41" s="44"/>
+      <c r="AA41" s="44"/>
+      <c r="AB41" s="44"/>
+      <c r="AC41" s="44"/>
+      <c r="AD41" s="45"/>
+      <c r="AE41" s="19"/>
+      <c r="AF41" s="113"/>
+      <c r="AG41" s="16"/>
+      <c r="AH41" s="16"/>
+      <c r="AI41" s="16"/>
+      <c r="AJ41" s="16"/>
+      <c r="AK41" s="16"/>
+      <c r="AL41" s="16"/>
+      <c r="AM41" s="16"/>
+      <c r="AN41" s="16"/>
+      <c r="AO41" s="46"/>
       <c r="AP41" s="3"/>
       <c r="AS41" s="133" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW41" s="145">
+        <v>65</v>
+      </c>
+      <c r="AW41" s="144">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AX41" s="145">
+      <c r="AX41" s="144">
         <v>0.2673611111111111</v>
       </c>
-      <c r="AY41" s="145">
+      <c r="AY41" s="144">
         <v>0.125</v>
       </c>
-      <c r="AZ41" s="145">
+      <c r="AZ41" s="144">
         <v>0.36458333333333331</v>
       </c>
-      <c r="BA41" s="145">
+      <c r="BA41" s="144">
         <v>0.5</v>
       </c>
-      <c r="BB41" s="145">
+      <c r="BB41" s="144">
         <v>0.5</v>
       </c>
       <c r="BD41" s="133" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="BE41" s="133" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="BF41" s="133" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="B42" s="48"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="49"/>
-      <c r="P42" s="49"/>
-      <c r="Q42" s="49"/>
-      <c r="R42" s="49"/>
-      <c r="S42" s="49"/>
-      <c r="T42" s="49"/>
-      <c r="U42" s="49"/>
-      <c r="V42" s="49"/>
-      <c r="W42" s="49"/>
-      <c r="X42" s="49"/>
-      <c r="Y42" s="49"/>
-      <c r="Z42" s="49"/>
-      <c r="AA42" s="49"/>
-      <c r="AB42" s="49"/>
-      <c r="AC42" s="49"/>
-      <c r="AD42" s="49"/>
-      <c r="AE42" s="49"/>
-      <c r="AF42" s="49"/>
-      <c r="AG42" s="49"/>
-      <c r="AH42" s="49"/>
-      <c r="AI42" s="49"/>
-      <c r="AJ42" s="49"/>
-      <c r="AK42" s="49"/>
-      <c r="AL42" s="49"/>
-      <c r="AM42" s="49"/>
-      <c r="AN42" s="49"/>
-      <c r="AO42" s="49"/>
-      <c r="AP42" s="50"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="48"/>
+      <c r="U42" s="48"/>
+      <c r="V42" s="48"/>
+      <c r="W42" s="48"/>
+      <c r="X42" s="48"/>
+      <c r="Y42" s="48"/>
+      <c r="Z42" s="48"/>
+      <c r="AA42" s="48"/>
+      <c r="AB42" s="48"/>
+      <c r="AC42" s="48"/>
+      <c r="AD42" s="48"/>
+      <c r="AE42" s="48"/>
+      <c r="AF42" s="48"/>
+      <c r="AG42" s="48"/>
+      <c r="AH42" s="48"/>
+      <c r="AI42" s="48"/>
+      <c r="AJ42" s="48"/>
+      <c r="AK42" s="48"/>
+      <c r="AL42" s="48"/>
+      <c r="AM42" s="48"/>
+      <c r="AN42" s="48"/>
+      <c r="AO42" s="48"/>
+      <c r="AP42" s="49"/>
+      <c r="AS42" s="133" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB42" s="133">
+        <v>853200</v>
+      </c>
     </row>
-    <row r="43" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS43" s="133" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB43" s="133">
+        <v>2.1</v>
+      </c>
+    </row>
     <row r="44" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL46" s="25"/>
+      <c r="AL46" s="24"/>
     </row>
     <row r="47" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="AL47" s="25"/>
+      <c r="AL47" s="24"/>
     </row>
     <row r="48" spans="2:58" x14ac:dyDescent="0.2">
-      <c r="AL48" s="25"/>
+      <c r="AL48" s="24"/>
     </row>
     <row r="49" spans="38:38" x14ac:dyDescent="0.2">
-      <c r="AL49" s="25"/>
+      <c r="AL49" s="24"/>
     </row>
     <row r="50" spans="38:38" x14ac:dyDescent="0.2">
-      <c r="AL50" s="25"/>
+      <c r="AL50" s="24"/>
     </row>
     <row r="51" spans="38:38" x14ac:dyDescent="0.2">
-      <c r="AL51" s="25"/>
+      <c r="AL51" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bXQh6tU4nedlhxBst94K9MgUn3qnveXR74xRaXHwrBJ8pcIpDaQmEaGspuD5SSECPHLAGRTGrGzz+SPN6OrW0A==" saltValue="U/q/cbk59CPrJONuTtYQqw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="82">
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="AX2:AX4"/>
-    <mergeCell ref="AB5:AC7"/>
-    <mergeCell ref="B2:AP3"/>
-    <mergeCell ref="AT2:AT4"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="AV2:AV4"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="auPPL+J0ZZCyowdRDEV8btVzK5cz2iJhuVEEIsj7qJWE7id3ihEVtUqLstvZAcUoIkoxQr07hn/yQ3Dqk0Dtaw==" saltValue="dENWaYPdoxJgl6b/6X54DQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="83">
+    <mergeCell ref="AG39:AN40"/>
+    <mergeCell ref="AG30:AJ32"/>
+    <mergeCell ref="AK30:AL32"/>
+    <mergeCell ref="AM30:AN32"/>
+    <mergeCell ref="AG33:AN34"/>
+    <mergeCell ref="AG36:AJ38"/>
+    <mergeCell ref="AK36:AL38"/>
+    <mergeCell ref="AM36:AN38"/>
+    <mergeCell ref="AG24:AJ26"/>
+    <mergeCell ref="AK24:AL26"/>
+    <mergeCell ref="AM24:AN26"/>
+    <mergeCell ref="O27:R28"/>
+    <mergeCell ref="V27:AC28"/>
+    <mergeCell ref="AG27:AN28"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="BF15:BF17"/>
+    <mergeCell ref="D19:K20"/>
+    <mergeCell ref="M19:T20"/>
+    <mergeCell ref="X19:AE20"/>
+    <mergeCell ref="AG19:AN20"/>
+    <mergeCell ref="AZ15:AZ17"/>
+    <mergeCell ref="BA15:BA17"/>
+    <mergeCell ref="BB15:BB17"/>
+    <mergeCell ref="BC15:BC17"/>
+    <mergeCell ref="BD15:BD17"/>
+    <mergeCell ref="BE15:BE17"/>
+    <mergeCell ref="AT15:AT17"/>
+    <mergeCell ref="AU15:AU17"/>
+    <mergeCell ref="AV15:AV17"/>
+    <mergeCell ref="AW15:AW17"/>
+    <mergeCell ref="AX15:AX17"/>
+    <mergeCell ref="C23:C41"/>
+    <mergeCell ref="AF23:AF41"/>
+    <mergeCell ref="O24:R26"/>
+    <mergeCell ref="V24:Y26"/>
+    <mergeCell ref="Z24:AA26"/>
+    <mergeCell ref="AB24:AC26"/>
+    <mergeCell ref="D24:N40"/>
+    <mergeCell ref="AY15:AY17"/>
+    <mergeCell ref="X16:AA18"/>
+    <mergeCell ref="AB16:AC18"/>
+    <mergeCell ref="AD16:AE18"/>
+    <mergeCell ref="AG16:AJ18"/>
+    <mergeCell ref="AK16:AL18"/>
+    <mergeCell ref="AM16:AN18"/>
+    <mergeCell ref="D13:K14"/>
+    <mergeCell ref="M13:T14"/>
+    <mergeCell ref="X13:AE14"/>
+    <mergeCell ref="AG13:AN14"/>
+    <mergeCell ref="D16:G18"/>
+    <mergeCell ref="H16:I18"/>
+    <mergeCell ref="J16:K18"/>
+    <mergeCell ref="M16:P18"/>
+    <mergeCell ref="Q16:R18"/>
+    <mergeCell ref="S16:T18"/>
+    <mergeCell ref="X10:AA12"/>
+    <mergeCell ref="AB10:AC12"/>
+    <mergeCell ref="AD10:AE12"/>
+    <mergeCell ref="AG10:AJ12"/>
+    <mergeCell ref="AK10:AL12"/>
     <mergeCell ref="AM10:AN12"/>
     <mergeCell ref="AD5:AE7"/>
     <mergeCell ref="AF5:AN7"/>
@@ -9301,65 +9847,13 @@
     <mergeCell ref="J5:K7"/>
     <mergeCell ref="L5:T7"/>
     <mergeCell ref="X5:AA7"/>
-    <mergeCell ref="X10:AA12"/>
-    <mergeCell ref="AB10:AC12"/>
-    <mergeCell ref="AD10:AE12"/>
-    <mergeCell ref="AG10:AJ12"/>
-    <mergeCell ref="AK10:AL12"/>
-    <mergeCell ref="D13:K14"/>
-    <mergeCell ref="M13:T14"/>
-    <mergeCell ref="X13:AE14"/>
-    <mergeCell ref="AG13:AN14"/>
-    <mergeCell ref="D16:G18"/>
-    <mergeCell ref="H16:I18"/>
-    <mergeCell ref="J16:K18"/>
-    <mergeCell ref="M16:P18"/>
-    <mergeCell ref="Q16:R18"/>
-    <mergeCell ref="S16:T18"/>
-    <mergeCell ref="AY15:AY17"/>
-    <mergeCell ref="X16:AA18"/>
-    <mergeCell ref="AB16:AC18"/>
-    <mergeCell ref="AD16:AE18"/>
-    <mergeCell ref="AG16:AJ18"/>
-    <mergeCell ref="AK16:AL18"/>
-    <mergeCell ref="AM16:AN18"/>
-    <mergeCell ref="C23:C41"/>
-    <mergeCell ref="AF23:AF41"/>
-    <mergeCell ref="O24:R26"/>
-    <mergeCell ref="V24:Y26"/>
-    <mergeCell ref="Z24:AA26"/>
-    <mergeCell ref="AB24:AC26"/>
-    <mergeCell ref="BF15:BF17"/>
-    <mergeCell ref="D19:K20"/>
-    <mergeCell ref="M19:T20"/>
-    <mergeCell ref="X19:AE20"/>
-    <mergeCell ref="AG19:AN20"/>
-    <mergeCell ref="AZ15:AZ17"/>
-    <mergeCell ref="BA15:BA17"/>
-    <mergeCell ref="BB15:BB17"/>
-    <mergeCell ref="BC15:BC17"/>
-    <mergeCell ref="BD15:BD17"/>
-    <mergeCell ref="BE15:BE17"/>
-    <mergeCell ref="AT15:AT17"/>
-    <mergeCell ref="AU15:AU17"/>
-    <mergeCell ref="AV15:AV17"/>
-    <mergeCell ref="AW15:AW17"/>
-    <mergeCell ref="AX15:AX17"/>
-    <mergeCell ref="AG24:AJ26"/>
-    <mergeCell ref="AK24:AL26"/>
-    <mergeCell ref="AM24:AN26"/>
-    <mergeCell ref="O27:R28"/>
-    <mergeCell ref="V27:AC28"/>
-    <mergeCell ref="AG27:AN28"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="AG39:AN40"/>
-    <mergeCell ref="AG30:AJ32"/>
-    <mergeCell ref="AK30:AL32"/>
-    <mergeCell ref="AM30:AN32"/>
-    <mergeCell ref="AG33:AN34"/>
-    <mergeCell ref="AG36:AJ38"/>
-    <mergeCell ref="AK36:AL38"/>
-    <mergeCell ref="AM36:AN38"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="AB5:AC7"/>
+    <mergeCell ref="B2:AP3"/>
+    <mergeCell ref="AT2:AT4"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="AV2:AV4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="54" orientation="landscape" r:id="rId1"/>
@@ -9367,19 +9861,195 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{C52E2EB6-BD76-1645-838C-EA4ABC745F92}">
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{F4C40EA9-3578-924E-BF1B-802D85E6C5CE}">
           <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
           <x14:colorMarkers rgb="FFD00000"/>
           <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF00B050"/>
+          <x14:colorLast theme="0" tint="-0.249977111117893"/>
           <x14:colorHigh rgb="FFD00000"/>
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Team Metrics'!AW39:BB39</xm:f>
-              <xm:sqref>AK36</xm:sqref>
+              <xm:f>'Team Metrics'!AW22:BB22</xm:f>
+              <xm:sqref>H5</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{A6E02552-9132-FC40-B4EC-340D43F7A2E2}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast theme="0" tint="-0.249977111117893"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW23:BB23</xm:f>
+              <xm:sqref>AB5</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{38E95271-B073-1E48-BFC5-66D15BDE9BB0}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FF4472C4"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW25:BB25</xm:f>
+              <xm:sqref>H10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{7A4F7879-1C4B-3C4A-A294-1973EC8C5D8E}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FF4472C4"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW26:BB26</xm:f>
+              <xm:sqref>Q10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{E2C88339-FCB1-2041-BF1A-EF6E8F9A95A0}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FF4472C4"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW27:BB27</xm:f>
+              <xm:sqref>H16</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{5D70A36A-8281-9E4B-ACB6-1E8652E5AEAE}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FF4472C4"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW28:BB28</xm:f>
+              <xm:sqref>Q16</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{A0F97C6B-D297-B74F-A0BD-1A05372E32AD}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFCC3399"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW30:BB30</xm:f>
+              <xm:sqref>AB10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{F1505BFD-1AD4-FB47-AE32-37CCBD8D61C0}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFCC3399"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW31:BB31</xm:f>
+              <xm:sqref>AK10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{93FA3AA0-7E52-E149-A6D5-ECD37C015879}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFCC3399"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW32:BB32</xm:f>
+              <xm:sqref>AB16</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{A5168FF9-78DB-8248-9AAF-8FE3FB223891}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFCC3399"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW33:BB33</xm:f>
+              <xm:sqref>AK16</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{2DFB55D3-4B11-F440-BFAC-22DA08EF9038}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW35:BB35</xm:f>
+              <xm:sqref>Z24</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{FB7F1646-3097-0544-B21B-D763618232EC}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FF339966"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW37:BB37</xm:f>
+              <xm:sqref>AK24</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9399,195 +10069,19 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{FB7F1646-3097-0544-B21B-D763618232EC}">
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{C52E2EB6-BD76-1645-838C-EA4ABC745F92}">
           <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
           <x14:colorMarkers rgb="FFD00000"/>
           <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF339966"/>
+          <x14:colorLast rgb="FF00B050"/>
           <x14:colorHigh rgb="FFD00000"/>
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Team Metrics'!AW37:BB37</xm:f>
-              <xm:sqref>AK24</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{2DFB55D3-4B11-F440-BFAC-22DA08EF9038}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW35:BB35</xm:f>
-              <xm:sqref>Z24</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{A5168FF9-78DB-8248-9AAF-8FE3FB223891}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFCC3399"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW33:BB33</xm:f>
-              <xm:sqref>AK16</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{93FA3AA0-7E52-E149-A6D5-ECD37C015879}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFCC3399"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW32:BB32</xm:f>
-              <xm:sqref>AB16</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{F1505BFD-1AD4-FB47-AE32-37CCBD8D61C0}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFCC3399"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW31:BB31</xm:f>
-              <xm:sqref>AK10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{A0F97C6B-D297-B74F-A0BD-1A05372E32AD}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFCC3399"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW30:BB30</xm:f>
-              <xm:sqref>AB10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{5D70A36A-8281-9E4B-ACB6-1E8652E5AEAE}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF4472C4"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW28:BB28</xm:f>
-              <xm:sqref>Q16</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{E2C88339-FCB1-2041-BF1A-EF6E8F9A95A0}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF4472C4"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW27:BB27</xm:f>
-              <xm:sqref>H16</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{7A4F7879-1C4B-3C4A-A294-1973EC8C5D8E}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF4472C4"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW26:BB26</xm:f>
-              <xm:sqref>Q10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{38E95271-B073-1E48-BFC5-66D15BDE9BB0}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF4472C4"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW25:BB25</xm:f>
-              <xm:sqref>H10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{A6E02552-9132-FC40-B4EC-340D43F7A2E2}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast theme="0" tint="-0.249977111117893"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW23:BB23</xm:f>
-              <xm:sqref>AB5</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{F4C40EA9-3578-924E-BF1B-802D85E6C5CE}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast theme="0" tint="-0.249977111117893"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW22:BB22</xm:f>
-              <xm:sqref>H5</xm:sqref>
+              <xm:f>'Team Metrics'!AW39:BB39</xm:f>
+              <xm:sqref>AK36</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/ScrumTeamStats_Template.xlsx
+++ b/ScrumTeamStats_Template.xlsx
@@ -8,19 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Git/vba-jira/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3E7104-809C-6349-9667-39518350D10F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94B548B-1D4D-894B-84A3-DCF209BFAE57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="500" windowWidth="28060" windowHeight="27820" xr2:uid="{29FB89B4-D308-7843-B61E-411B20763035}"/>
+    <workbookView xWindow="1000" yWindow="500" windowWidth="28060" windowHeight="27820" xr2:uid="{29FB89B4-D308-7843-B61E-411B20763035}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Metrics" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Team Metrics'!$B$2:$AP$42</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,30 +32,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
   <si>
     <t>Feature</t>
   </si>
@@ -325,6 +297,9 @@
   </si>
   <si>
     <t>Number of work items delivered. Latest versus 3 month avg.</t>
+  </si>
+  <si>
+    <t>Amount of time remaining from the burndown at the end of the most recent sprint (CMS 20.01). The total Active Time for the same period was: 5w 4d 5h</t>
   </si>
 </sst>
 </file>
@@ -1062,6 +1037,54 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="19" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="19" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="19" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1080,143 +1103,20 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1231,10 +1131,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -1287,62 +1205,119 @@
     <xf numFmtId="168" fontId="9" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="19" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="19" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="19" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7076,22 +7051,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="jiratime"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7396,7 +7355,7 @@
   <dimension ref="B2:BN51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+      <selection activeCell="S49" sqref="S49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7406,8 +7365,8 @@
     <col min="42" max="42" width="2.6640625" style="1" customWidth="1"/>
     <col min="43" max="43" width="6" style="1" customWidth="1"/>
     <col min="44" max="44" width="6" style="50" customWidth="1"/>
-    <col min="45" max="45" width="10.5" style="133" bestFit="1" customWidth="1"/>
-    <col min="46" max="61" width="6" style="133" customWidth="1"/>
+    <col min="45" max="45" width="10.5" style="51" bestFit="1" customWidth="1"/>
+    <col min="46" max="61" width="6" style="51" customWidth="1"/>
     <col min="62" max="64" width="6" style="50" customWidth="1"/>
     <col min="65" max="65" width="4" style="50" customWidth="1"/>
     <col min="66" max="66" width="3.6640625" style="50" customWidth="1"/>
@@ -7442,284 +7401,283 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="143" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="59"/>
-      <c r="AT2" s="134" t="s">
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="144"/>
+      <c r="U2" s="144"/>
+      <c r="V2" s="144"/>
+      <c r="W2" s="144"/>
+      <c r="X2" s="144"/>
+      <c r="Y2" s="144"/>
+      <c r="Z2" s="144"/>
+      <c r="AA2" s="144"/>
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="144"/>
+      <c r="AD2" s="144"/>
+      <c r="AE2" s="144"/>
+      <c r="AF2" s="144"/>
+      <c r="AG2" s="144"/>
+      <c r="AH2" s="144"/>
+      <c r="AI2" s="144"/>
+      <c r="AJ2" s="144"/>
+      <c r="AK2" s="144"/>
+      <c r="AL2" s="144"/>
+      <c r="AM2" s="144"/>
+      <c r="AN2" s="144"/>
+      <c r="AO2" s="144"/>
+      <c r="AP2" s="145"/>
+      <c r="AT2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="AU2" s="134" t="s">
+      <c r="AU2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="AV2" s="134" t="s">
+      <c r="AV2" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="AW2" s="134" t="s">
+      <c r="AW2" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="AX2" s="134"/>
+      <c r="AX2" s="92"/>
     </row>
     <row r="3" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="61"/>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="61"/>
-      <c r="AO3" s="61"/>
-      <c r="AP3" s="62"/>
-      <c r="AS3" s="135" t="s">
+      <c r="B3" s="146"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="147"/>
+      <c r="N3" s="147"/>
+      <c r="O3" s="147"/>
+      <c r="P3" s="147"/>
+      <c r="Q3" s="147"/>
+      <c r="R3" s="147"/>
+      <c r="S3" s="147"/>
+      <c r="T3" s="147"/>
+      <c r="U3" s="147"/>
+      <c r="V3" s="147"/>
+      <c r="W3" s="147"/>
+      <c r="X3" s="147"/>
+      <c r="Y3" s="147"/>
+      <c r="Z3" s="147"/>
+      <c r="AA3" s="147"/>
+      <c r="AB3" s="147"/>
+      <c r="AC3" s="147"/>
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="147"/>
+      <c r="AG3" s="147"/>
+      <c r="AH3" s="147"/>
+      <c r="AI3" s="147"/>
+      <c r="AJ3" s="147"/>
+      <c r="AK3" s="147"/>
+      <c r="AL3" s="147"/>
+      <c r="AM3" s="147"/>
+      <c r="AN3" s="147"/>
+      <c r="AO3" s="147"/>
+      <c r="AP3" s="148"/>
+      <c r="AS3" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="AT3" s="134"/>
-      <c r="AU3" s="134"/>
-      <c r="AV3" s="134"/>
-      <c r="AW3" s="134"/>
-      <c r="AX3" s="134"/>
+      <c r="AT3" s="92"/>
+      <c r="AU3" s="92"/>
+      <c r="AV3" s="92"/>
+      <c r="AW3" s="92"/>
+      <c r="AX3" s="92"/>
     </row>
     <row r="4" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
       <c r="AP4" s="3"/>
-      <c r="AS4" s="135">
+      <c r="AS4" s="52">
         <v>43992</v>
       </c>
-      <c r="AT4" s="134"/>
-      <c r="AU4" s="134"/>
-      <c r="AV4" s="134"/>
-      <c r="AW4" s="134"/>
-      <c r="AX4" s="134"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="92"/>
     </row>
     <row r="5" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="99">
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="140">
         <f>BB22</f>
         <v>0.88</v>
       </c>
-      <c r="K5" s="99"/>
-      <c r="L5" s="70" t="s">
+      <c r="K5" s="140"/>
+      <c r="L5" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="71"/>
-      <c r="X5" s="89" t="s">
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="124"/>
+      <c r="R5" s="124"/>
+      <c r="S5" s="124"/>
+      <c r="T5" s="125"/>
+      <c r="X5" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="Y5" s="82"/>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="67" t="s">
+      <c r="Y5" s="116"/>
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="71"/>
+      <c r="AC5" s="72"/>
+      <c r="AD5" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="70" t="str" cm="1">
-        <f t="array" ref="AF5" xml:space="preserve"> "Amount of time remaining from the burndown at the end of the most recent sprint (" &amp; AS3 &amp; "). The total Active Time for the same period was: " &amp; [1]!jiratime(BB42)</f>
-        <v>Amount of time remaining from the burndown at the end of the most recent sprint (CMS 20.01). The total Active Time for the same period was: 5w 4d 5h</v>
-      </c>
-      <c r="AG5" s="70"/>
-      <c r="AH5" s="70"/>
-      <c r="AI5" s="70"/>
-      <c r="AJ5" s="70"/>
-      <c r="AK5" s="70"/>
-      <c r="AL5" s="70"/>
-      <c r="AM5" s="70"/>
-      <c r="AN5" s="71"/>
+      <c r="AE5" s="121"/>
+      <c r="AF5" s="124" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG5" s="124"/>
+      <c r="AH5" s="124"/>
+      <c r="AI5" s="124"/>
+      <c r="AJ5" s="124"/>
+      <c r="AK5" s="124"/>
+      <c r="AL5" s="124"/>
+      <c r="AM5" s="124"/>
+      <c r="AN5" s="125"/>
       <c r="AP5" s="3"/>
-      <c r="AS5" s="133" t="s">
+      <c r="AS5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AT5" s="136">
+      <c r="AT5" s="53">
         <v>5</v>
       </c>
-      <c r="AU5" s="136">
+      <c r="AU5" s="53">
         <v>3</v>
       </c>
-      <c r="AV5" s="136">
+      <c r="AV5" s="53">
         <v>6</v>
       </c>
-      <c r="AW5" s="136">
+      <c r="AW5" s="53">
         <v>2</v>
       </c>
-      <c r="AX5" s="136"/>
+      <c r="AX5" s="53"/>
     </row>
     <row r="6" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="73"/>
-      <c r="X6" s="95"/>
-      <c r="Y6" s="96"/>
-      <c r="Z6" s="96"/>
-      <c r="AA6" s="96"/>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="54"/>
-      <c r="AD6" s="68"/>
-      <c r="AE6" s="68"/>
-      <c r="AF6" s="72"/>
-      <c r="AG6" s="72"/>
-      <c r="AH6" s="72"/>
-      <c r="AI6" s="72"/>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="72"/>
-      <c r="AM6" s="72"/>
-      <c r="AN6" s="73"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="63"/>
+      <c r="X6" s="136"/>
+      <c r="Y6" s="137"/>
+      <c r="Z6" s="137"/>
+      <c r="AA6" s="137"/>
+      <c r="AB6" s="73"/>
+      <c r="AC6" s="74"/>
+      <c r="AD6" s="122"/>
+      <c r="AE6" s="122"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="62"/>
+      <c r="AI6" s="62"/>
+      <c r="AJ6" s="62"/>
+      <c r="AK6" s="62"/>
+      <c r="AL6" s="62"/>
+      <c r="AM6" s="62"/>
+      <c r="AN6" s="63"/>
       <c r="AP6" s="3"/>
-      <c r="AS6" s="133" t="s">
+      <c r="AS6" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="AT6" s="136">
+      <c r="AT6" s="53">
         <v>7</v>
       </c>
-      <c r="AU6" s="136">
+      <c r="AU6" s="53">
         <v>1</v>
       </c>
-      <c r="AV6" s="136">
+      <c r="AV6" s="53">
         <v>1.6666666666666667</v>
       </c>
-      <c r="AW6" s="136">
+      <c r="AW6" s="53">
         <v>1.3333333333333333</v>
       </c>
-      <c r="AX6" s="136"/>
+      <c r="AX6" s="53"/>
     </row>
     <row r="7" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="75"/>
-      <c r="X7" s="97"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="98"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="56"/>
-      <c r="AD7" s="69"/>
-      <c r="AE7" s="69"/>
-      <c r="AF7" s="74"/>
-      <c r="AG7" s="74"/>
-      <c r="AH7" s="74"/>
-      <c r="AI7" s="74"/>
-      <c r="AJ7" s="74"/>
-      <c r="AK7" s="74"/>
-      <c r="AL7" s="74"/>
-      <c r="AM7" s="74"/>
-      <c r="AN7" s="75"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="66"/>
+      <c r="X7" s="138"/>
+      <c r="Y7" s="139"/>
+      <c r="Z7" s="139"/>
+      <c r="AA7" s="139"/>
+      <c r="AB7" s="75"/>
+      <c r="AC7" s="76"/>
+      <c r="AD7" s="123"/>
+      <c r="AE7" s="123"/>
+      <c r="AF7" s="65"/>
+      <c r="AG7" s="65"/>
+      <c r="AH7" s="65"/>
+      <c r="AI7" s="65"/>
+      <c r="AJ7" s="65"/>
+      <c r="AK7" s="65"/>
+      <c r="AL7" s="65"/>
+      <c r="AM7" s="65"/>
+      <c r="AN7" s="66"/>
       <c r="AP7" s="3"/>
     </row>
     <row r="8" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7728,7 +7686,7 @@
     </row>
     <row r="9" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="126" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="4"/>
@@ -7749,7 +7707,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="5"/>
-      <c r="W9" s="79" t="s">
+      <c r="W9" s="129" t="s">
         <v>11</v>
       </c>
       <c r="X9" s="6"/>
@@ -7774,715 +7732,715 @@
     </row>
     <row r="10" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="82" t="s">
+      <c r="C10" s="127"/>
+      <c r="D10" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="85" t="s">
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="86"/>
-      <c r="M10" s="89" t="s">
+      <c r="K10" s="133"/>
+      <c r="M10" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="91">
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="117">
         <v>0.46666666666666667</v>
       </c>
-      <c r="T10" s="92"/>
+      <c r="T10" s="118"/>
       <c r="U10" s="8"/>
-      <c r="W10" s="80"/>
-      <c r="X10" s="102" t="s">
+      <c r="W10" s="130"/>
+      <c r="X10" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="Y10" s="83"/>
-      <c r="Z10" s="83"/>
-      <c r="AA10" s="83"/>
-      <c r="AB10" s="51"/>
-      <c r="AC10" s="52"/>
-      <c r="AD10" s="103">
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="82">
         <v>156</v>
       </c>
-      <c r="AE10" s="104"/>
-      <c r="AG10" s="89" t="s">
+      <c r="AE10" s="83"/>
+      <c r="AG10" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="AH10" s="83"/>
-      <c r="AI10" s="83"/>
-      <c r="AJ10" s="83"/>
-      <c r="AK10" s="51"/>
-      <c r="AL10" s="52"/>
-      <c r="AM10" s="63">
+      <c r="AH10" s="68"/>
+      <c r="AI10" s="68"/>
+      <c r="AJ10" s="68"/>
+      <c r="AK10" s="71"/>
+      <c r="AL10" s="72"/>
+      <c r="AM10" s="112">
         <v>3</v>
       </c>
-      <c r="AN10" s="64"/>
+      <c r="AN10" s="113"/>
       <c r="AO10" s="9"/>
       <c r="AP10" s="3"/>
     </row>
     <row r="11" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="88"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="93"/>
-      <c r="T11" s="94"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="134"/>
+      <c r="K11" s="135"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="119"/>
+      <c r="T11" s="120"/>
       <c r="U11" s="8"/>
-      <c r="W11" s="80"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="84"/>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="84"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="54"/>
-      <c r="AD11" s="105"/>
-      <c r="AE11" s="106"/>
-      <c r="AG11" s="90"/>
-      <c r="AH11" s="84"/>
-      <c r="AI11" s="84"/>
-      <c r="AJ11" s="84"/>
-      <c r="AK11" s="53"/>
-      <c r="AL11" s="54"/>
-      <c r="AM11" s="65"/>
-      <c r="AN11" s="66"/>
+      <c r="W11" s="130"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="73"/>
+      <c r="AC11" s="74"/>
+      <c r="AD11" s="84"/>
+      <c r="AE11" s="85"/>
+      <c r="AG11" s="69"/>
+      <c r="AH11" s="70"/>
+      <c r="AI11" s="70"/>
+      <c r="AJ11" s="70"/>
+      <c r="AK11" s="73"/>
+      <c r="AL11" s="74"/>
+      <c r="AM11" s="114"/>
+      <c r="AN11" s="115"/>
       <c r="AO11" s="9"/>
       <c r="AP11" s="3"/>
-      <c r="AS11" s="133" t="s">
+      <c r="AS11" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AT11" s="137">
+      <c r="AT11" s="54">
         <v>0</v>
       </c>
-      <c r="AU11" s="137">
+      <c r="AU11" s="54">
         <v>3</v>
       </c>
-      <c r="AV11" s="137">
+      <c r="AV11" s="54">
         <v>9</v>
       </c>
-      <c r="AW11" s="137">
+      <c r="AW11" s="54">
         <v>2</v>
       </c>
-      <c r="AX11" s="137">
+      <c r="AX11" s="54">
         <v>6</v>
       </c>
-      <c r="AY11" s="137">
+      <c r="AY11" s="54">
         <v>4</v>
       </c>
-      <c r="AZ11" s="137">
+      <c r="AZ11" s="54">
         <v>5</v>
       </c>
-      <c r="BA11" s="137">
+      <c r="BA11" s="54">
         <v>2</v>
       </c>
-      <c r="BB11" s="137">
+      <c r="BB11" s="54">
         <v>13</v>
       </c>
-      <c r="BC11" s="137">
+      <c r="BC11" s="54">
         <v>9</v>
       </c>
-      <c r="BD11" s="137">
+      <c r="BD11" s="54">
         <v>0</v>
       </c>
-      <c r="BE11" s="137">
+      <c r="BE11" s="54">
         <v>5</v>
       </c>
-      <c r="BF11" s="137">
+      <c r="BF11" s="54">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="88"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="93"/>
-      <c r="T12" s="94"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="135"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="119"/>
+      <c r="T12" s="120"/>
       <c r="U12" s="8"/>
-      <c r="W12" s="80"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="84"/>
-      <c r="Z12" s="84"/>
-      <c r="AA12" s="84"/>
-      <c r="AB12" s="55"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="105"/>
-      <c r="AE12" s="106"/>
-      <c r="AG12" s="90"/>
-      <c r="AH12" s="84"/>
-      <c r="AI12" s="84"/>
-      <c r="AJ12" s="84"/>
-      <c r="AK12" s="55"/>
-      <c r="AL12" s="56"/>
-      <c r="AM12" s="65"/>
-      <c r="AN12" s="66"/>
+      <c r="W12" s="130"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="84"/>
+      <c r="AE12" s="85"/>
+      <c r="AG12" s="69"/>
+      <c r="AH12" s="70"/>
+      <c r="AI12" s="70"/>
+      <c r="AJ12" s="70"/>
+      <c r="AK12" s="75"/>
+      <c r="AL12" s="76"/>
+      <c r="AM12" s="114"/>
+      <c r="AN12" s="115"/>
       <c r="AO12" s="9"/>
       <c r="AP12" s="3"/>
-      <c r="AS12" s="133" t="s">
+      <c r="AS12" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="AT12" s="137">
+      <c r="AT12" s="54">
         <v>1</v>
       </c>
-      <c r="AU12" s="137">
+      <c r="AU12" s="54">
         <v>1</v>
       </c>
-      <c r="AV12" s="137">
+      <c r="AV12" s="54">
         <v>3</v>
       </c>
-      <c r="AW12" s="137">
+      <c r="AW12" s="54">
         <v>1</v>
       </c>
-      <c r="AX12" s="137">
+      <c r="AX12" s="54">
         <v>1</v>
       </c>
-      <c r="AY12" s="137">
+      <c r="AY12" s="54">
         <v>2</v>
       </c>
-      <c r="AZ12" s="137">
+      <c r="AZ12" s="54">
         <v>3</v>
       </c>
-      <c r="BA12" s="137">
+      <c r="BA12" s="54">
         <v>1</v>
       </c>
-      <c r="BB12" s="137">
+      <c r="BB12" s="54">
         <v>2</v>
       </c>
-      <c r="BC12" s="137">
+      <c r="BC12" s="54">
         <v>0</v>
       </c>
-      <c r="BD12" s="137">
+      <c r="BD12" s="54">
         <v>0</v>
       </c>
-      <c r="BE12" s="137">
+      <c r="BE12" s="54">
         <v>3</v>
       </c>
-      <c r="BF12" s="137">
+      <c r="BF12" s="54">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="72" t="s">
+      <c r="C13" s="127"/>
+      <c r="D13" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="73"/>
-      <c r="M13" s="107" t="str">
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="63"/>
+      <c r="M13" s="61" t="str">
         <f xml:space="preserve"> "Completed Story Points / Committed Story Points for the most recent sprint (" &amp; AS3 &amp; ")"</f>
         <v>Completed Story Points / Committed Story Points for the most recent sprint (CMS 20.01)</v>
       </c>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="73"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="63"/>
       <c r="U13" s="8"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="107" t="s">
+      <c r="W13" s="130"/>
+      <c r="X13" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="Y13" s="72"/>
-      <c r="Z13" s="72"/>
-      <c r="AA13" s="72"/>
-      <c r="AB13" s="72"/>
-      <c r="AC13" s="72"/>
-      <c r="AD13" s="72"/>
-      <c r="AE13" s="73"/>
-      <c r="AG13" s="107" t="str">
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="62"/>
+      <c r="AD13" s="62"/>
+      <c r="AE13" s="63"/>
+      <c r="AG13" s="61" t="str">
         <f>"Number of code deployments in the previous calendar month ("&amp;TEXT(BE15,"mmm")&amp;")"</f>
         <v>Number of code deployments in the previous calendar month (May)</v>
       </c>
-      <c r="AH13" s="72"/>
-      <c r="AI13" s="72"/>
-      <c r="AJ13" s="72"/>
-      <c r="AK13" s="72"/>
-      <c r="AL13" s="72"/>
-      <c r="AM13" s="72"/>
-      <c r="AN13" s="73"/>
+      <c r="AH13" s="62"/>
+      <c r="AI13" s="62"/>
+      <c r="AJ13" s="62"/>
+      <c r="AK13" s="62"/>
+      <c r="AL13" s="62"/>
+      <c r="AM13" s="62"/>
+      <c r="AN13" s="63"/>
       <c r="AO13" s="9"/>
       <c r="AP13" s="3"/>
-      <c r="AS13" s="133" t="s">
+      <c r="AS13" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AT13" s="137">
+      <c r="AT13" s="54">
         <v>0</v>
       </c>
-      <c r="AU13" s="137">
+      <c r="AU13" s="54">
         <v>0</v>
       </c>
-      <c r="AV13" s="137">
+      <c r="AV13" s="54">
         <v>2</v>
       </c>
-      <c r="AW13" s="137">
+      <c r="AW13" s="54">
         <v>1</v>
       </c>
-      <c r="AX13" s="137">
+      <c r="AX13" s="54">
         <v>0</v>
       </c>
-      <c r="AY13" s="137">
+      <c r="AY13" s="54">
         <v>0</v>
       </c>
-      <c r="AZ13" s="137">
+      <c r="AZ13" s="54">
         <v>3</v>
       </c>
-      <c r="BA13" s="137">
+      <c r="BA13" s="54">
         <v>0</v>
       </c>
-      <c r="BB13" s="137">
+      <c r="BB13" s="54">
         <v>2</v>
       </c>
-      <c r="BC13" s="137">
+      <c r="BC13" s="54">
         <v>5</v>
       </c>
-      <c r="BD13" s="137">
+      <c r="BD13" s="54">
         <v>0</v>
       </c>
-      <c r="BE13" s="137">
+      <c r="BE13" s="54">
         <v>6</v>
       </c>
-      <c r="BF13" s="137">
+      <c r="BF13" s="54">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="75"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="75"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="66"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="66"/>
       <c r="U14" s="8"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="108"/>
-      <c r="Y14" s="74"/>
-      <c r="Z14" s="74"/>
-      <c r="AA14" s="74"/>
-      <c r="AB14" s="74"/>
-      <c r="AC14" s="74"/>
-      <c r="AD14" s="74"/>
-      <c r="AE14" s="75"/>
-      <c r="AG14" s="108"/>
-      <c r="AH14" s="74"/>
-      <c r="AI14" s="74"/>
-      <c r="AJ14" s="74"/>
-      <c r="AK14" s="74"/>
-      <c r="AL14" s="74"/>
-      <c r="AM14" s="74"/>
-      <c r="AN14" s="75"/>
+      <c r="W14" s="130"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="65"/>
+      <c r="AA14" s="65"/>
+      <c r="AB14" s="65"/>
+      <c r="AC14" s="65"/>
+      <c r="AD14" s="65"/>
+      <c r="AE14" s="66"/>
+      <c r="AG14" s="64"/>
+      <c r="AH14" s="65"/>
+      <c r="AI14" s="65"/>
+      <c r="AJ14" s="65"/>
+      <c r="AK14" s="65"/>
+      <c r="AL14" s="65"/>
+      <c r="AM14" s="65"/>
+      <c r="AN14" s="66"/>
       <c r="AO14" s="9"/>
       <c r="AP14" s="3"/>
-      <c r="AS14" s="133" t="s">
+      <c r="AS14" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AT14" s="137">
+      <c r="AT14" s="54">
         <v>0</v>
       </c>
-      <c r="AU14" s="137">
+      <c r="AU14" s="54">
         <v>0</v>
       </c>
-      <c r="AV14" s="137">
+      <c r="AV14" s="54">
         <v>0</v>
       </c>
-      <c r="AW14" s="137">
+      <c r="AW14" s="54">
         <v>1</v>
       </c>
-      <c r="AX14" s="137">
+      <c r="AX14" s="54">
         <v>1</v>
       </c>
-      <c r="AY14" s="137">
+      <c r="AY14" s="54">
         <v>0</v>
       </c>
-      <c r="AZ14" s="137">
+      <c r="AZ14" s="54">
         <v>2</v>
       </c>
-      <c r="BA14" s="137">
+      <c r="BA14" s="54">
         <v>1</v>
       </c>
-      <c r="BB14" s="137">
+      <c r="BB14" s="54">
         <v>1</v>
       </c>
-      <c r="BC14" s="137">
+      <c r="BC14" s="54">
         <v>1</v>
       </c>
-      <c r="BD14" s="137">
+      <c r="BD14" s="54">
         <v>0</v>
       </c>
-      <c r="BE14" s="137">
+      <c r="BE14" s="54">
         <v>2</v>
       </c>
-      <c r="BF14" s="137">
+      <c r="BF14" s="54">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
-      <c r="C15" s="77"/>
+      <c r="C15" s="127"/>
       <c r="U15" s="8"/>
-      <c r="W15" s="80"/>
+      <c r="W15" s="130"/>
       <c r="AO15" s="9"/>
       <c r="AP15" s="3"/>
-      <c r="AT15" s="138">
+      <c r="AT15" s="93">
         <v>43646</v>
       </c>
-      <c r="AU15" s="138">
+      <c r="AU15" s="93">
         <v>43677</v>
       </c>
-      <c r="AV15" s="138">
+      <c r="AV15" s="93">
         <v>43708</v>
       </c>
-      <c r="AW15" s="138">
+      <c r="AW15" s="93">
         <v>43738</v>
       </c>
-      <c r="AX15" s="138">
+      <c r="AX15" s="93">
         <v>43769</v>
       </c>
-      <c r="AY15" s="138">
+      <c r="AY15" s="93">
         <v>43799</v>
       </c>
-      <c r="AZ15" s="138">
+      <c r="AZ15" s="93">
         <v>43830</v>
       </c>
-      <c r="BA15" s="138">
+      <c r="BA15" s="93">
         <v>43861</v>
       </c>
-      <c r="BB15" s="138">
+      <c r="BB15" s="93">
         <v>43890</v>
       </c>
-      <c r="BC15" s="138">
+      <c r="BC15" s="93">
         <v>43921</v>
       </c>
-      <c r="BD15" s="138">
+      <c r="BD15" s="93">
         <v>43951</v>
       </c>
-      <c r="BE15" s="138">
+      <c r="BE15" s="93">
         <v>43982</v>
       </c>
-      <c r="BF15" s="134" t="s">
+      <c r="BF15" s="92" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="82" t="s">
+      <c r="C16" s="127"/>
+      <c r="D16" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="91">
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="117">
         <v>0.60897012673056483</v>
       </c>
-      <c r="K16" s="92"/>
-      <c r="M16" s="89" t="s">
+      <c r="K16" s="118"/>
+      <c r="M16" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="91">
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="117">
         <v>0.51899473632415571</v>
       </c>
-      <c r="T16" s="92"/>
+      <c r="T16" s="118"/>
       <c r="U16" s="8"/>
-      <c r="W16" s="80"/>
-      <c r="X16" s="102" t="s">
+      <c r="W16" s="130"/>
+      <c r="X16" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="Y16" s="83"/>
-      <c r="Z16" s="83"/>
-      <c r="AA16" s="83"/>
-      <c r="AB16" s="51"/>
-      <c r="AC16" s="52"/>
-      <c r="AD16" s="103">
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="68"/>
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="82">
         <v>73</v>
       </c>
-      <c r="AE16" s="104"/>
-      <c r="AG16" s="102" t="s">
+      <c r="AE16" s="83"/>
+      <c r="AG16" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AH16" s="83"/>
-      <c r="AI16" s="83"/>
-      <c r="AJ16" s="83"/>
-      <c r="AK16" s="51"/>
-      <c r="AL16" s="52"/>
-      <c r="AM16" s="63">
+      <c r="AH16" s="68"/>
+      <c r="AI16" s="68"/>
+      <c r="AJ16" s="68"/>
+      <c r="AK16" s="71"/>
+      <c r="AL16" s="72"/>
+      <c r="AM16" s="112">
         <f>BB33</f>
         <v>7</v>
       </c>
-      <c r="AN16" s="64"/>
+      <c r="AN16" s="113"/>
       <c r="AO16" s="9"/>
       <c r="AP16" s="3"/>
-      <c r="AS16" s="139"/>
-      <c r="AT16" s="138"/>
-      <c r="AU16" s="138"/>
-      <c r="AV16" s="138"/>
-      <c r="AW16" s="138"/>
-      <c r="AX16" s="138"/>
-      <c r="AY16" s="138"/>
-      <c r="AZ16" s="138"/>
-      <c r="BA16" s="138"/>
-      <c r="BB16" s="138"/>
-      <c r="BC16" s="138"/>
-      <c r="BD16" s="138"/>
-      <c r="BE16" s="138"/>
-      <c r="BF16" s="134"/>
+      <c r="AS16" s="55"/>
+      <c r="AT16" s="93"/>
+      <c r="AU16" s="93"/>
+      <c r="AV16" s="93"/>
+      <c r="AW16" s="93"/>
+      <c r="AX16" s="93"/>
+      <c r="AY16" s="93"/>
+      <c r="AZ16" s="93"/>
+      <c r="BA16" s="93"/>
+      <c r="BB16" s="93"/>
+      <c r="BC16" s="93"/>
+      <c r="BD16" s="93"/>
+      <c r="BE16" s="93"/>
+      <c r="BF16" s="92"/>
     </row>
     <row r="17" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="94"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="94"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="120"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="119"/>
+      <c r="T17" s="120"/>
       <c r="U17" s="8"/>
-      <c r="W17" s="80"/>
-      <c r="X17" s="90"/>
-      <c r="Y17" s="84"/>
-      <c r="Z17" s="84"/>
-      <c r="AA17" s="84"/>
-      <c r="AB17" s="53"/>
-      <c r="AC17" s="54"/>
-      <c r="AD17" s="105"/>
-      <c r="AE17" s="106"/>
-      <c r="AG17" s="90"/>
-      <c r="AH17" s="84"/>
-      <c r="AI17" s="84"/>
-      <c r="AJ17" s="84"/>
-      <c r="AK17" s="53"/>
-      <c r="AL17" s="54"/>
-      <c r="AM17" s="65"/>
-      <c r="AN17" s="66"/>
+      <c r="W17" s="130"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="73"/>
+      <c r="AC17" s="74"/>
+      <c r="AD17" s="84"/>
+      <c r="AE17" s="85"/>
+      <c r="AG17" s="69"/>
+      <c r="AH17" s="70"/>
+      <c r="AI17" s="70"/>
+      <c r="AJ17" s="70"/>
+      <c r="AK17" s="73"/>
+      <c r="AL17" s="74"/>
+      <c r="AM17" s="114"/>
+      <c r="AN17" s="115"/>
       <c r="AO17" s="9"/>
       <c r="AP17" s="3"/>
-      <c r="AS17" s="139"/>
-      <c r="AT17" s="138"/>
-      <c r="AU17" s="138"/>
-      <c r="AV17" s="138"/>
-      <c r="AW17" s="138"/>
-      <c r="AX17" s="138"/>
-      <c r="AY17" s="138"/>
-      <c r="AZ17" s="138"/>
-      <c r="BA17" s="138"/>
-      <c r="BB17" s="138"/>
-      <c r="BC17" s="138"/>
-      <c r="BD17" s="138"/>
-      <c r="BE17" s="138"/>
-      <c r="BF17" s="134"/>
+      <c r="AS17" s="55"/>
+      <c r="AT17" s="93"/>
+      <c r="AU17" s="93"/>
+      <c r="AV17" s="93"/>
+      <c r="AW17" s="93"/>
+      <c r="AX17" s="93"/>
+      <c r="AY17" s="93"/>
+      <c r="AZ17" s="93"/>
+      <c r="BA17" s="93"/>
+      <c r="BB17" s="93"/>
+      <c r="BC17" s="93"/>
+      <c r="BD17" s="93"/>
+      <c r="BE17" s="93"/>
+      <c r="BF17" s="92"/>
     </row>
     <row r="18" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="94"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="94"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="120"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="119"/>
+      <c r="T18" s="120"/>
       <c r="U18" s="8"/>
-      <c r="W18" s="80"/>
-      <c r="X18" s="90"/>
-      <c r="Y18" s="84"/>
-      <c r="Z18" s="84"/>
-      <c r="AA18" s="84"/>
-      <c r="AB18" s="55"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="105"/>
-      <c r="AE18" s="106"/>
-      <c r="AG18" s="90"/>
-      <c r="AH18" s="84"/>
-      <c r="AI18" s="84"/>
-      <c r="AJ18" s="84"/>
-      <c r="AK18" s="55"/>
-      <c r="AL18" s="56"/>
-      <c r="AM18" s="65"/>
-      <c r="AN18" s="66"/>
+      <c r="W18" s="130"/>
+      <c r="X18" s="69"/>
+      <c r="Y18" s="70"/>
+      <c r="Z18" s="70"/>
+      <c r="AA18" s="70"/>
+      <c r="AB18" s="75"/>
+      <c r="AC18" s="76"/>
+      <c r="AD18" s="84"/>
+      <c r="AE18" s="85"/>
+      <c r="AG18" s="69"/>
+      <c r="AH18" s="70"/>
+      <c r="AI18" s="70"/>
+      <c r="AJ18" s="70"/>
+      <c r="AK18" s="75"/>
+      <c r="AL18" s="76"/>
+      <c r="AM18" s="114"/>
+      <c r="AN18" s="115"/>
       <c r="AO18" s="9"/>
       <c r="AP18" s="3"/>
-      <c r="AS18" s="139"/>
-      <c r="AT18" s="140"/>
-      <c r="AU18" s="140"/>
-      <c r="AV18" s="140"/>
-      <c r="AW18" s="140"/>
-      <c r="AX18" s="140"/>
-      <c r="AY18" s="140"/>
-      <c r="AZ18" s="140"/>
-      <c r="BA18" s="140"/>
-      <c r="BB18" s="140"/>
-      <c r="BC18" s="140"/>
-      <c r="BD18" s="140"/>
-      <c r="BE18" s="140"/>
-      <c r="BF18" s="141"/>
+      <c r="AS18" s="55"/>
+      <c r="AT18" s="56"/>
+      <c r="AU18" s="56"/>
+      <c r="AV18" s="56"/>
+      <c r="AW18" s="56"/>
+      <c r="AX18" s="56"/>
+      <c r="AY18" s="56"/>
+      <c r="AZ18" s="56"/>
+      <c r="BA18" s="56"/>
+      <c r="BB18" s="56"/>
+      <c r="BC18" s="56"/>
+      <c r="BD18" s="56"/>
+      <c r="BE18" s="56"/>
+      <c r="BF18" s="57"/>
     </row>
     <row r="19" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="72" t="s">
+      <c r="C19" s="127"/>
+      <c r="D19" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="73"/>
-      <c r="M19" s="107" t="s">
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="63"/>
+      <c r="M19" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="72"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="73"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="63"/>
       <c r="U19" s="8"/>
-      <c r="W19" s="80"/>
-      <c r="X19" s="107" t="s">
+      <c r="W19" s="130"/>
+      <c r="X19" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="Y19" s="72"/>
-      <c r="Z19" s="72"/>
-      <c r="AA19" s="72"/>
-      <c r="AB19" s="72"/>
-      <c r="AC19" s="72"/>
-      <c r="AD19" s="72"/>
-      <c r="AE19" s="73"/>
-      <c r="AG19" s="107" t="s">
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="63"/>
+      <c r="AG19" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="AH19" s="72"/>
-      <c r="AI19" s="72"/>
-      <c r="AJ19" s="72"/>
-      <c r="AK19" s="72"/>
-      <c r="AL19" s="72"/>
-      <c r="AM19" s="72"/>
-      <c r="AN19" s="73"/>
+      <c r="AH19" s="62"/>
+      <c r="AI19" s="62"/>
+      <c r="AJ19" s="62"/>
+      <c r="AK19" s="62"/>
+      <c r="AL19" s="62"/>
+      <c r="AM19" s="62"/>
+      <c r="AN19" s="63"/>
       <c r="AO19" s="9"/>
       <c r="AP19" s="3"/>
     </row>
     <row r="20" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="75"/>
-      <c r="M20" s="108"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="74"/>
-      <c r="S20" s="74"/>
-      <c r="T20" s="75"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="66"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="66"/>
       <c r="U20" s="8"/>
-      <c r="W20" s="80"/>
-      <c r="X20" s="108"/>
-      <c r="Y20" s="74"/>
-      <c r="Z20" s="74"/>
-      <c r="AA20" s="74"/>
-      <c r="AB20" s="74"/>
-      <c r="AC20" s="74"/>
-      <c r="AD20" s="74"/>
-      <c r="AE20" s="75"/>
-      <c r="AG20" s="108"/>
-      <c r="AH20" s="74"/>
-      <c r="AI20" s="74"/>
-      <c r="AJ20" s="74"/>
-      <c r="AK20" s="74"/>
-      <c r="AL20" s="74"/>
-      <c r="AM20" s="74"/>
-      <c r="AN20" s="75"/>
+      <c r="W20" s="130"/>
+      <c r="X20" s="64"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="66"/>
+      <c r="AG20" s="64"/>
+      <c r="AH20" s="65"/>
+      <c r="AI20" s="65"/>
+      <c r="AJ20" s="65"/>
+      <c r="AK20" s="65"/>
+      <c r="AL20" s="65"/>
+      <c r="AM20" s="65"/>
+      <c r="AN20" s="66"/>
       <c r="AO20" s="9"/>
       <c r="AP20" s="3"/>
     </row>
     <row r="21" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
-      <c r="C21" s="78"/>
+      <c r="C21" s="128"/>
       <c r="D21" s="11"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -8501,7 +8459,7 @@
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
       <c r="U21" s="13"/>
-      <c r="W21" s="81"/>
+      <c r="W21" s="131"/>
       <c r="X21" s="14"/>
       <c r="Y21" s="14"/>
       <c r="Z21" s="14"/>
@@ -8521,37 +8479,37 @@
       <c r="AN21" s="14"/>
       <c r="AO21" s="15"/>
       <c r="AP21" s="3"/>
-      <c r="AW21" s="142" t="s">
+      <c r="AW21" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="AX21" s="142" t="s">
+      <c r="AX21" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="AY21" s="142" t="s">
+      <c r="AY21" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="AZ21" s="142" t="s">
+      <c r="AZ21" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="BA21" s="142" t="s">
+      <c r="BA21" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="BB21" s="142" t="s">
+      <c r="BB21" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="BD21" s="133" t="s">
+      <c r="BD21" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="BE21" s="133" t="s">
+      <c r="BE21" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="BF21" s="133" t="s">
+      <c r="BF21" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="BG21" s="133" t="s">
+      <c r="BG21" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="BH21" s="133" t="s">
+      <c r="BH21" s="51" t="s">
         <v>33</v>
       </c>
     </row>
@@ -8569,46 +8527,46 @@
       <c r="AN22" s="16"/>
       <c r="AO22" s="16"/>
       <c r="AP22" s="3"/>
-      <c r="AS22" s="133" t="s">
+      <c r="AS22" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AW22" s="143">
+      <c r="AW22" s="59">
         <v>0.2</v>
       </c>
-      <c r="AX22" s="143">
+      <c r="AX22" s="59">
         <v>0.92500000000000004</v>
       </c>
-      <c r="AY22" s="143">
+      <c r="AY22" s="59">
         <v>0.75</v>
       </c>
-      <c r="AZ22" s="143">
+      <c r="AZ22" s="59">
         <v>1</v>
       </c>
-      <c r="BA22" s="143">
+      <c r="BA22" s="59">
         <v>0.88</v>
       </c>
-      <c r="BB22" s="143">
+      <c r="BB22" s="59">
         <v>0.88</v>
       </c>
-      <c r="BD22" s="133" t="s">
+      <c r="BD22" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="BE22" s="133" t="s">
+      <c r="BE22" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="BF22" s="133" t="s">
+      <c r="BF22" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="BG22" s="133" t="s">
+      <c r="BG22" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="BH22" s="133" t="s">
+      <c r="BH22" s="51" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
-      <c r="C23" s="109" t="s">
+      <c r="C23" s="94" t="s">
         <v>41</v>
       </c>
       <c r="D23" s="17"/>
@@ -8639,446 +8597,446 @@
       <c r="AC23" s="17"/>
       <c r="AD23" s="18"/>
       <c r="AE23" s="19"/>
-      <c r="AF23" s="112" t="s">
+      <c r="AF23" s="97" t="s">
         <v>42</v>
       </c>
       <c r="AO23" s="20"/>
       <c r="AP23" s="3"/>
-      <c r="AS23" s="133" t="s">
+      <c r="AS23" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="AW23" s="133">
+      <c r="AW23" s="51">
         <v>302400</v>
       </c>
-      <c r="AX23" s="133">
+      <c r="AX23" s="51">
         <v>504000</v>
       </c>
-      <c r="AY23" s="133">
+      <c r="AY23" s="51">
         <v>376200</v>
       </c>
-      <c r="AZ23" s="133">
+      <c r="AZ23" s="51">
         <v>347400</v>
       </c>
-      <c r="BA23" s="133">
+      <c r="BA23" s="51">
         <v>601200</v>
       </c>
-      <c r="BB23" s="133">
+      <c r="BB23" s="51">
         <v>601200</v>
       </c>
-      <c r="BD23" s="133" t="s">
+      <c r="BD23" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="BE23" s="133" t="s">
+      <c r="BE23" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="BF23" s="133" t="s">
+      <c r="BF23" s="51" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="132">
+      <c r="C24" s="95"/>
+      <c r="D24" s="111">
         <f>SUM(AT5:AW5)</f>
         <v>16</v>
       </c>
-      <c r="E24" s="132"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="132"/>
-      <c r="K24" s="132"/>
-      <c r="L24" s="132"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="132"/>
-      <c r="O24" s="114" t="str">
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="99" t="str">
         <f>"Release Velocity "&amp;CHAR(10)&amp;TEXT(AS4,"dd-mmm")</f>
         <v>Release Velocity 
 10-Jun</v>
       </c>
-      <c r="P24" s="115"/>
-      <c r="Q24" s="115"/>
-      <c r="R24" s="115"/>
-      <c r="S24" s="130" t="s">
+      <c r="P24" s="100"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="100"/>
+      <c r="S24" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="T24" s="131"/>
-      <c r="V24" s="102" t="s">
+      <c r="T24" s="91"/>
+      <c r="V24" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="W24" s="83"/>
-      <c r="X24" s="83"/>
-      <c r="Y24" s="83"/>
-      <c r="Z24" s="118"/>
-      <c r="AA24" s="119"/>
-      <c r="AB24" s="122">
+      <c r="W24" s="68"/>
+      <c r="X24" s="68"/>
+      <c r="Y24" s="68"/>
+      <c r="Z24" s="103"/>
+      <c r="AA24" s="104"/>
+      <c r="AB24" s="107">
         <f>BB35</f>
         <v>1.3620751316435028E-2</v>
       </c>
-      <c r="AC24" s="123"/>
+      <c r="AC24" s="108"/>
       <c r="AD24" s="21"/>
       <c r="AE24" s="19"/>
-      <c r="AF24" s="112"/>
-      <c r="AG24" s="89" t="s">
+      <c r="AF24" s="97"/>
+      <c r="AG24" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="AH24" s="83"/>
-      <c r="AI24" s="83"/>
-      <c r="AJ24" s="83"/>
-      <c r="AK24" s="51"/>
-      <c r="AL24" s="52"/>
-      <c r="AM24" s="103">
+      <c r="AH24" s="68"/>
+      <c r="AI24" s="68"/>
+      <c r="AJ24" s="68"/>
+      <c r="AK24" s="71"/>
+      <c r="AL24" s="72"/>
+      <c r="AM24" s="82">
         <f>BB37</f>
         <v>137.6</v>
       </c>
-      <c r="AN24" s="104"/>
+      <c r="AN24" s="83"/>
       <c r="AO24" s="19"/>
       <c r="AP24" s="3"/>
     </row>
     <row r="25" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="132"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="132"/>
-      <c r="O25" s="116"/>
-      <c r="P25" s="117"/>
-      <c r="Q25" s="117"/>
-      <c r="R25" s="117"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="102"/>
       <c r="S25" s="22" t="s">
         <v>17</v>
       </c>
       <c r="T25" s="23"/>
-      <c r="V25" s="90"/>
-      <c r="W25" s="84"/>
-      <c r="X25" s="84"/>
-      <c r="Y25" s="84"/>
-      <c r="Z25" s="120"/>
-      <c r="AA25" s="121"/>
-      <c r="AB25" s="124"/>
-      <c r="AC25" s="125"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="70"/>
+      <c r="X25" s="70"/>
+      <c r="Y25" s="70"/>
+      <c r="Z25" s="105"/>
+      <c r="AA25" s="106"/>
+      <c r="AB25" s="109"/>
+      <c r="AC25" s="110"/>
       <c r="AD25" s="21"/>
       <c r="AE25" s="19"/>
-      <c r="AF25" s="112"/>
-      <c r="AG25" s="90"/>
-      <c r="AH25" s="84"/>
-      <c r="AI25" s="84"/>
-      <c r="AJ25" s="84"/>
-      <c r="AK25" s="53"/>
-      <c r="AL25" s="54"/>
-      <c r="AM25" s="105"/>
-      <c r="AN25" s="106"/>
+      <c r="AF25" s="97"/>
+      <c r="AG25" s="69"/>
+      <c r="AH25" s="70"/>
+      <c r="AI25" s="70"/>
+      <c r="AJ25" s="70"/>
+      <c r="AK25" s="73"/>
+      <c r="AL25" s="74"/>
+      <c r="AM25" s="84"/>
+      <c r="AN25" s="85"/>
       <c r="AO25" s="19"/>
       <c r="AP25" s="3"/>
-      <c r="AS25" s="133" t="s">
+      <c r="AS25" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="AW25" s="137">
+      <c r="AW25" s="54">
         <v>32.46987951807229</v>
       </c>
-      <c r="AX25" s="137">
+      <c r="AX25" s="54">
         <v>39.769230769230766</v>
       </c>
-      <c r="AY25" s="137">
+      <c r="AY25" s="54">
         <v>27.166666666666668</v>
       </c>
-      <c r="AZ25" s="137">
+      <c r="AZ25" s="54">
         <v>14</v>
       </c>
-      <c r="BA25" s="137">
+      <c r="BA25" s="54">
         <v>17</v>
       </c>
-      <c r="BB25" s="137">
+      <c r="BB25" s="54">
         <v>20</v>
       </c>
-      <c r="BD25" s="133" t="s">
+      <c r="BD25" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="BE25" s="133" t="s">
+      <c r="BE25" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="BF25" s="133" t="s">
+      <c r="BF25" s="51" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="132"/>
-      <c r="K26" s="132"/>
-      <c r="L26" s="132"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="132"/>
-      <c r="O26" s="116"/>
-      <c r="P26" s="117"/>
-      <c r="Q26" s="117"/>
-      <c r="R26" s="117"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="101"/>
+      <c r="P26" s="102"/>
+      <c r="Q26" s="102"/>
+      <c r="R26" s="102"/>
       <c r="S26" s="22" t="s">
         <v>1</v>
       </c>
       <c r="T26" s="23"/>
-      <c r="V26" s="90"/>
-      <c r="W26" s="84"/>
-      <c r="X26" s="84"/>
-      <c r="Y26" s="84"/>
-      <c r="Z26" s="120"/>
-      <c r="AA26" s="121"/>
-      <c r="AB26" s="124"/>
-      <c r="AC26" s="125"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="70"/>
+      <c r="X26" s="70"/>
+      <c r="Y26" s="70"/>
+      <c r="Z26" s="105"/>
+      <c r="AA26" s="106"/>
+      <c r="AB26" s="109"/>
+      <c r="AC26" s="110"/>
       <c r="AD26" s="21"/>
       <c r="AE26" s="19"/>
-      <c r="AF26" s="112"/>
-      <c r="AG26" s="90"/>
-      <c r="AH26" s="84"/>
-      <c r="AI26" s="84"/>
-      <c r="AJ26" s="84"/>
-      <c r="AK26" s="55"/>
-      <c r="AL26" s="56"/>
-      <c r="AM26" s="105"/>
-      <c r="AN26" s="106"/>
+      <c r="AF26" s="97"/>
+      <c r="AG26" s="69"/>
+      <c r="AH26" s="70"/>
+      <c r="AI26" s="70"/>
+      <c r="AJ26" s="70"/>
+      <c r="AK26" s="75"/>
+      <c r="AL26" s="76"/>
+      <c r="AM26" s="84"/>
+      <c r="AN26" s="85"/>
       <c r="AO26" s="19"/>
       <c r="AP26" s="3"/>
-      <c r="AS26" s="133" t="s">
+      <c r="AS26" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="AW26" s="143">
+      <c r="AW26" s="59">
         <v>5.1724137931034482E-2</v>
       </c>
-      <c r="AX26" s="143">
+      <c r="AX26" s="59">
         <v>0.26315789473684209</v>
       </c>
-      <c r="AY26" s="143">
+      <c r="AY26" s="59">
         <v>0.64150943396226412</v>
       </c>
-      <c r="AZ26" s="143">
+      <c r="AZ26" s="59">
         <v>1</v>
       </c>
-      <c r="BA26" s="143">
+      <c r="BA26" s="59">
         <v>0.83783783783783783</v>
       </c>
-      <c r="BB26" s="143">
+      <c r="BB26" s="59">
         <v>0.46666666666666667</v>
       </c>
-      <c r="BD26" s="133" t="s">
+      <c r="BD26" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="BE26" s="133" t="s">
+      <c r="BE26" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="BF26" s="133" t="s">
+      <c r="BF26" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="BG26" s="133" t="s">
+      <c r="BG26" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="BH26" s="133" t="s">
+      <c r="BH26" s="51" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="132"/>
-      <c r="K27" s="132"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="132"/>
-      <c r="O27" s="126" t="s">
+      <c r="C27" s="95"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="P27" s="127"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="127"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="87"/>
+      <c r="R27" s="87"/>
       <c r="S27" s="22" t="s">
         <v>2</v>
       </c>
       <c r="T27" s="23"/>
-      <c r="V27" s="126" t="str">
+      <c r="V27" s="86" t="str">
         <f xml:space="preserve"> "Average of Active Time ("&amp;BB43&amp;" days) / Lead Team for the issues released in the last 3 months"</f>
         <v>Average of Active Time (2.1 days) / Lead Team for the issues released in the last 3 months</v>
       </c>
-      <c r="W27" s="127"/>
-      <c r="X27" s="127"/>
-      <c r="Y27" s="127"/>
-      <c r="Z27" s="127"/>
-      <c r="AA27" s="127"/>
-      <c r="AB27" s="127"/>
-      <c r="AC27" s="127"/>
+      <c r="W27" s="87"/>
+      <c r="X27" s="87"/>
+      <c r="Y27" s="87"/>
+      <c r="Z27" s="87"/>
+      <c r="AA27" s="87"/>
+      <c r="AB27" s="87"/>
+      <c r="AC27" s="87"/>
       <c r="AD27" s="21"/>
       <c r="AE27" s="19"/>
-      <c r="AF27" s="112"/>
-      <c r="AG27" s="107" t="s">
+      <c r="AF27" s="97"/>
+      <c r="AG27" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AH27" s="72"/>
-      <c r="AI27" s="72"/>
-      <c r="AJ27" s="72"/>
-      <c r="AK27" s="72"/>
-      <c r="AL27" s="72"/>
-      <c r="AM27" s="72"/>
-      <c r="AN27" s="73"/>
+      <c r="AH27" s="62"/>
+      <c r="AI27" s="62"/>
+      <c r="AJ27" s="62"/>
+      <c r="AK27" s="62"/>
+      <c r="AL27" s="62"/>
+      <c r="AM27" s="62"/>
+      <c r="AN27" s="63"/>
       <c r="AO27" s="19"/>
       <c r="AP27" s="3"/>
-      <c r="AS27" s="133" t="s">
+      <c r="AS27" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="AW27" s="144">
+      <c r="AW27" s="60">
         <v>0.76029542340884804</v>
       </c>
-      <c r="AX27" s="144">
+      <c r="AX27" s="60">
         <v>0.76029542340884804</v>
       </c>
-      <c r="AY27" s="144">
+      <c r="AY27" s="60">
         <v>0.79120337968461985</v>
       </c>
-      <c r="AZ27" s="144">
+      <c r="AZ27" s="60">
         <v>0.84008886045782594</v>
       </c>
-      <c r="BA27" s="144">
+      <c r="BA27" s="60">
         <v>1.3221664701611811</v>
       </c>
-      <c r="BB27" s="144">
+      <c r="BB27" s="60">
         <v>0.60897012673056483</v>
       </c>
-      <c r="BD27" s="133" t="s">
+      <c r="BD27" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="BE27" s="133" t="s">
+      <c r="BE27" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="BF27" s="133" t="s">
+      <c r="BF27" s="51" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="132"/>
-      <c r="K28" s="132"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="128"/>
-      <c r="P28" s="129"/>
-      <c r="Q28" s="129"/>
-      <c r="R28" s="129"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="89"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="89"/>
       <c r="S28" s="25" t="s">
         <v>3</v>
       </c>
       <c r="T28" s="26"/>
-      <c r="V28" s="126"/>
-      <c r="W28" s="127"/>
-      <c r="X28" s="127"/>
-      <c r="Y28" s="127"/>
-      <c r="Z28" s="127"/>
-      <c r="AA28" s="127"/>
-      <c r="AB28" s="127"/>
-      <c r="AC28" s="127"/>
+      <c r="V28" s="86"/>
+      <c r="W28" s="87"/>
+      <c r="X28" s="87"/>
+      <c r="Y28" s="87"/>
+      <c r="Z28" s="87"/>
+      <c r="AA28" s="87"/>
+      <c r="AB28" s="87"/>
+      <c r="AC28" s="87"/>
       <c r="AD28" s="21"/>
       <c r="AE28" s="19"/>
-      <c r="AF28" s="112"/>
-      <c r="AG28" s="108"/>
-      <c r="AH28" s="74"/>
-      <c r="AI28" s="74"/>
-      <c r="AJ28" s="74"/>
-      <c r="AK28" s="74"/>
-      <c r="AL28" s="74"/>
-      <c r="AM28" s="74"/>
-      <c r="AN28" s="75"/>
+      <c r="AF28" s="97"/>
+      <c r="AG28" s="64"/>
+      <c r="AH28" s="65"/>
+      <c r="AI28" s="65"/>
+      <c r="AJ28" s="65"/>
+      <c r="AK28" s="65"/>
+      <c r="AL28" s="65"/>
+      <c r="AM28" s="65"/>
+      <c r="AN28" s="66"/>
       <c r="AO28" s="19"/>
       <c r="AP28" s="3"/>
-      <c r="AS28" s="133" t="s">
+      <c r="AS28" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="AW28" s="143">
+      <c r="AW28" s="59">
         <v>1.1791440964995212</v>
       </c>
-      <c r="AX28" s="143">
+      <c r="AX28" s="59">
         <v>1.0117651106127619</v>
       </c>
-      <c r="AY28" s="143">
+      <c r="AY28" s="59">
         <v>0.98287811183078511</v>
       </c>
-      <c r="AZ28" s="143">
+      <c r="AZ28" s="59">
         <v>0.72482845074783719</v>
       </c>
-      <c r="BA28" s="143">
+      <c r="BA28" s="59">
         <v>0.76394336665463713</v>
       </c>
-      <c r="BB28" s="143">
+      <c r="BB28" s="59">
         <v>0.51899473632415571</v>
       </c>
-      <c r="BD28" s="133" t="s">
+      <c r="BD28" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="BE28" s="133" t="s">
+      <c r="BE28" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="BF28" s="133" t="s">
+      <c r="BF28" s="51" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="29" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="132"/>
-      <c r="K29" s="132"/>
-      <c r="L29" s="132"/>
-      <c r="M29" s="132"/>
-      <c r="N29" s="132"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="111"/>
       <c r="AD29" s="21"/>
       <c r="AE29" s="19"/>
-      <c r="AF29" s="112"/>
+      <c r="AF29" s="97"/>
       <c r="AO29" s="19"/>
       <c r="AP29" s="3"/>
     </row>
     <row r="30" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="132"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="132"/>
-      <c r="K30" s="132"/>
-      <c r="L30" s="132"/>
-      <c r="M30" s="132"/>
-      <c r="N30" s="132"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="111"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="111"/>
       <c r="P30" s="27"/>
       <c r="Q30" s="28"/>
       <c r="R30" s="28"/>
@@ -9097,57 +9055,57 @@
       </c>
       <c r="AD30" s="21"/>
       <c r="AE30" s="19"/>
-      <c r="AF30" s="112"/>
-      <c r="AG30" s="102" t="s">
+      <c r="AF30" s="97"/>
+      <c r="AG30" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="AH30" s="83"/>
-      <c r="AI30" s="83"/>
-      <c r="AJ30" s="83"/>
-      <c r="AK30" s="51"/>
-      <c r="AL30" s="52"/>
-      <c r="AM30" s="145">
+      <c r="AH30" s="68"/>
+      <c r="AI30" s="68"/>
+      <c r="AJ30" s="68"/>
+      <c r="AK30" s="71"/>
+      <c r="AL30" s="72"/>
+      <c r="AM30" s="77">
         <v>0.01</v>
       </c>
-      <c r="AN30" s="146"/>
+      <c r="AN30" s="78"/>
       <c r="AO30" s="19"/>
       <c r="AP30" s="3"/>
-      <c r="AS30" s="133" t="s">
+      <c r="AS30" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="AW30" s="133">
+      <c r="AW30" s="51">
         <v>108.76923076923077</v>
       </c>
-      <c r="AX30" s="133">
+      <c r="AX30" s="51">
         <v>108.76923076923077</v>
       </c>
-      <c r="AY30" s="133">
+      <c r="AY30" s="51">
         <v>131.11111111111111</v>
       </c>
-      <c r="AZ30" s="133">
+      <c r="AZ30" s="51">
         <v>133.5</v>
       </c>
-      <c r="BA30" s="133">
+      <c r="BA30" s="51">
         <v>110.45454545454545</v>
       </c>
-      <c r="BB30" s="133">
+      <c r="BB30" s="51">
         <v>155.77272727272728</v>
       </c>
     </row>
     <row r="31" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="132"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="132"/>
-      <c r="K31" s="132"/>
-      <c r="L31" s="132"/>
-      <c r="M31" s="132"/>
-      <c r="N31" s="132"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="111"/>
       <c r="P31" s="32"/>
       <c r="Q31" s="33"/>
       <c r="R31" s="33"/>
@@ -9166,53 +9124,53 @@
       </c>
       <c r="AD31" s="21"/>
       <c r="AE31" s="19"/>
-      <c r="AF31" s="112"/>
-      <c r="AG31" s="90"/>
-      <c r="AH31" s="84"/>
-      <c r="AI31" s="84"/>
-      <c r="AJ31" s="84"/>
-      <c r="AK31" s="53"/>
-      <c r="AL31" s="54"/>
-      <c r="AM31" s="147"/>
-      <c r="AN31" s="148"/>
+      <c r="AF31" s="97"/>
+      <c r="AG31" s="69"/>
+      <c r="AH31" s="70"/>
+      <c r="AI31" s="70"/>
+      <c r="AJ31" s="70"/>
+      <c r="AK31" s="73"/>
+      <c r="AL31" s="74"/>
+      <c r="AM31" s="79"/>
+      <c r="AN31" s="80"/>
       <c r="AO31" s="19"/>
       <c r="AP31" s="3"/>
-      <c r="AS31" s="133" t="s">
+      <c r="AS31" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="AW31" s="133">
+      <c r="AW31" s="51">
         <v>1</v>
       </c>
-      <c r="AX31" s="133">
+      <c r="AX31" s="51">
         <v>1</v>
       </c>
-      <c r="AY31" s="133">
+      <c r="AY31" s="51">
         <v>1</v>
       </c>
-      <c r="AZ31" s="133">
+      <c r="AZ31" s="51">
         <v>1</v>
       </c>
-      <c r="BA31" s="133">
+      <c r="BA31" s="51">
         <v>0</v>
       </c>
-      <c r="BB31" s="133">
+      <c r="BB31" s="51">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="132"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="132"/>
-      <c r="G32" s="132"/>
-      <c r="H32" s="132"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="132"/>
-      <c r="K32" s="132"/>
-      <c r="L32" s="132"/>
-      <c r="M32" s="132"/>
-      <c r="N32" s="132"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="111"/>
       <c r="O32" s="10"/>
       <c r="P32" s="37"/>
       <c r="Q32" s="10"/>
@@ -9230,368 +9188,368 @@
       <c r="AC32" s="10"/>
       <c r="AD32" s="21"/>
       <c r="AE32" s="19"/>
-      <c r="AF32" s="112"/>
-      <c r="AG32" s="90"/>
-      <c r="AH32" s="84"/>
-      <c r="AI32" s="84"/>
-      <c r="AJ32" s="84"/>
-      <c r="AK32" s="55"/>
-      <c r="AL32" s="56"/>
-      <c r="AM32" s="147"/>
-      <c r="AN32" s="148"/>
+      <c r="AF32" s="97"/>
+      <c r="AG32" s="69"/>
+      <c r="AH32" s="70"/>
+      <c r="AI32" s="70"/>
+      <c r="AJ32" s="70"/>
+      <c r="AK32" s="75"/>
+      <c r="AL32" s="76"/>
+      <c r="AM32" s="79"/>
+      <c r="AN32" s="80"/>
       <c r="AO32" s="19"/>
       <c r="AP32" s="3"/>
-      <c r="AS32" s="133" t="s">
+      <c r="AS32" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AW32" s="133">
+      <c r="AW32" s="51">
         <v>70.115384615384613</v>
       </c>
-      <c r="AX32" s="133">
+      <c r="AX32" s="51">
         <v>70.115384615384613</v>
       </c>
-      <c r="AY32" s="133">
+      <c r="AY32" s="51">
         <v>70.043478260869563</v>
       </c>
-      <c r="AZ32" s="133">
+      <c r="AZ32" s="51">
         <v>58.086956521739133</v>
       </c>
-      <c r="BA32" s="133">
+      <c r="BA32" s="51">
         <v>101.07142857142857</v>
       </c>
-      <c r="BB32" s="133">
+      <c r="BB32" s="51">
         <v>72.954545454545453</v>
       </c>
     </row>
     <row r="33" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="132"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="132"/>
-      <c r="K33" s="132"/>
-      <c r="L33" s="132"/>
-      <c r="M33" s="132"/>
-      <c r="N33" s="132"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
       <c r="P33" s="39"/>
       <c r="AA33" s="40"/>
       <c r="AD33" s="21"/>
       <c r="AE33" s="19"/>
-      <c r="AF33" s="112"/>
-      <c r="AG33" s="107" t="s">
+      <c r="AF33" s="97"/>
+      <c r="AG33" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="AH33" s="72"/>
-      <c r="AI33" s="72"/>
-      <c r="AJ33" s="72"/>
-      <c r="AK33" s="72"/>
-      <c r="AL33" s="72"/>
-      <c r="AM33" s="72"/>
-      <c r="AN33" s="73"/>
+      <c r="AH33" s="62"/>
+      <c r="AI33" s="62"/>
+      <c r="AJ33" s="62"/>
+      <c r="AK33" s="62"/>
+      <c r="AL33" s="62"/>
+      <c r="AM33" s="62"/>
+      <c r="AN33" s="63"/>
       <c r="AO33" s="19"/>
       <c r="AP33" s="3"/>
-      <c r="AS33" s="133" t="s">
+      <c r="AS33" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="AW33" s="133">
+      <c r="AW33" s="51">
         <v>5</v>
       </c>
-      <c r="AX33" s="133">
+      <c r="AX33" s="51">
         <v>5</v>
       </c>
-      <c r="AY33" s="133">
+      <c r="AY33" s="51">
         <v>3</v>
       </c>
-      <c r="AZ33" s="133">
+      <c r="AZ33" s="51">
         <v>7</v>
       </c>
-      <c r="BA33" s="133">
+      <c r="BA33" s="51">
         <v>7</v>
       </c>
-      <c r="BB33" s="133">
+      <c r="BB33" s="51">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="132"/>
-      <c r="E34" s="132"/>
-      <c r="F34" s="132"/>
-      <c r="G34" s="132"/>
-      <c r="H34" s="132"/>
-      <c r="I34" s="132"/>
-      <c r="J34" s="132"/>
-      <c r="K34" s="132"/>
-      <c r="L34" s="132"/>
-      <c r="M34" s="132"/>
-      <c r="N34" s="132"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="111"/>
+      <c r="M34" s="111"/>
+      <c r="N34" s="111"/>
       <c r="P34" s="39"/>
       <c r="AA34" s="40"/>
       <c r="AD34" s="21"/>
       <c r="AE34" s="19"/>
-      <c r="AF34" s="112"/>
-      <c r="AG34" s="108"/>
-      <c r="AH34" s="74"/>
-      <c r="AI34" s="74"/>
-      <c r="AJ34" s="74"/>
-      <c r="AK34" s="74"/>
-      <c r="AL34" s="74"/>
-      <c r="AM34" s="74"/>
-      <c r="AN34" s="75"/>
+      <c r="AF34" s="97"/>
+      <c r="AG34" s="64"/>
+      <c r="AH34" s="65"/>
+      <c r="AI34" s="65"/>
+      <c r="AJ34" s="65"/>
+      <c r="AK34" s="65"/>
+      <c r="AL34" s="65"/>
+      <c r="AM34" s="65"/>
+      <c r="AN34" s="66"/>
       <c r="AO34" s="19"/>
       <c r="AP34" s="3"/>
     </row>
     <row r="35" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="132"/>
-      <c r="E35" s="132"/>
-      <c r="F35" s="132"/>
-      <c r="G35" s="132"/>
-      <c r="H35" s="132"/>
-      <c r="I35" s="132"/>
-      <c r="J35" s="132"/>
-      <c r="K35" s="132"/>
-      <c r="L35" s="132"/>
-      <c r="M35" s="132"/>
-      <c r="N35" s="132"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="111"/>
+      <c r="M35" s="111"/>
+      <c r="N35" s="111"/>
       <c r="P35" s="39"/>
       <c r="AA35" s="40"/>
       <c r="AD35" s="21"/>
       <c r="AE35" s="19"/>
-      <c r="AF35" s="112"/>
+      <c r="AF35" s="97"/>
       <c r="AO35" s="19"/>
       <c r="AP35" s="3"/>
-      <c r="AS35" s="133" t="s">
+      <c r="AS35" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="AW35" s="144">
+      <c r="AW35" s="60">
         <v>1.1395737985651008E-2</v>
       </c>
-      <c r="AX35" s="144">
+      <c r="AX35" s="60">
         <v>1.4073484347259517E-2</v>
       </c>
-      <c r="AY35" s="144">
+      <c r="AY35" s="60">
         <v>1.6490914680101287E-2</v>
       </c>
-      <c r="AZ35" s="144">
+      <c r="AZ35" s="60">
         <v>1.6966455046575634E-2</v>
       </c>
-      <c r="BA35" s="144">
+      <c r="BA35" s="60">
         <v>1.3620751316435028E-2</v>
       </c>
-      <c r="BB35" s="144">
+      <c r="BB35" s="60">
         <v>1.3620751316435028E-2</v>
       </c>
     </row>
     <row r="36" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="132"/>
-      <c r="E36" s="132"/>
-      <c r="F36" s="132"/>
-      <c r="G36" s="132"/>
-      <c r="H36" s="132"/>
-      <c r="I36" s="132"/>
-      <c r="J36" s="132"/>
-      <c r="K36" s="132"/>
-      <c r="L36" s="132"/>
-      <c r="M36" s="132"/>
-      <c r="N36" s="132"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="111"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="111"/>
+      <c r="M36" s="111"/>
+      <c r="N36" s="111"/>
       <c r="P36" s="39"/>
       <c r="AA36" s="40"/>
       <c r="AD36" s="21"/>
       <c r="AE36" s="19"/>
-      <c r="AF36" s="112"/>
-      <c r="AG36" s="102" t="s">
+      <c r="AF36" s="97"/>
+      <c r="AG36" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="AH36" s="83"/>
-      <c r="AI36" s="83"/>
-      <c r="AJ36" s="83"/>
-      <c r="AK36" s="51"/>
-      <c r="AL36" s="52"/>
-      <c r="AM36" s="145">
+      <c r="AH36" s="68"/>
+      <c r="AI36" s="68"/>
+      <c r="AJ36" s="68"/>
+      <c r="AK36" s="71"/>
+      <c r="AL36" s="72"/>
+      <c r="AM36" s="77">
         <v>0</v>
       </c>
-      <c r="AN36" s="146"/>
+      <c r="AN36" s="78"/>
       <c r="AO36" s="19"/>
       <c r="AP36" s="3"/>
     </row>
     <row r="37" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="132"/>
-      <c r="E37" s="132"/>
-      <c r="F37" s="132"/>
-      <c r="G37" s="132"/>
-      <c r="H37" s="132"/>
-      <c r="I37" s="132"/>
-      <c r="J37" s="132"/>
-      <c r="K37" s="132"/>
-      <c r="L37" s="132"/>
-      <c r="M37" s="132"/>
-      <c r="N37" s="132"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="111"/>
+      <c r="M37" s="111"/>
+      <c r="N37" s="111"/>
       <c r="P37" s="39"/>
       <c r="AA37" s="40"/>
       <c r="AD37" s="21"/>
       <c r="AE37" s="19"/>
-      <c r="AF37" s="112"/>
-      <c r="AG37" s="90"/>
-      <c r="AH37" s="84"/>
-      <c r="AI37" s="84"/>
-      <c r="AJ37" s="84"/>
-      <c r="AK37" s="53"/>
-      <c r="AL37" s="54"/>
-      <c r="AM37" s="147"/>
-      <c r="AN37" s="148"/>
+      <c r="AF37" s="97"/>
+      <c r="AG37" s="69"/>
+      <c r="AH37" s="70"/>
+      <c r="AI37" s="70"/>
+      <c r="AJ37" s="70"/>
+      <c r="AK37" s="73"/>
+      <c r="AL37" s="74"/>
+      <c r="AM37" s="79"/>
+      <c r="AN37" s="80"/>
       <c r="AO37" s="19"/>
       <c r="AP37" s="3"/>
-      <c r="AS37" s="133" t="s">
+      <c r="AS37" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="AW37" s="133">
+      <c r="AW37" s="51">
         <v>31.875</v>
       </c>
-      <c r="AX37" s="133">
+      <c r="AX37" s="51">
         <v>31.875</v>
       </c>
-      <c r="AY37" s="133">
+      <c r="AY37" s="51">
         <v>35.75</v>
       </c>
-      <c r="AZ37" s="133">
+      <c r="AZ37" s="51">
         <v>36</v>
       </c>
-      <c r="BA37" s="133">
+      <c r="BA37" s="51">
         <v>137.6</v>
       </c>
-      <c r="BB37" s="133">
+      <c r="BB37" s="51">
         <v>137.6</v>
       </c>
     </row>
     <row r="38" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="132"/>
-      <c r="E38" s="132"/>
-      <c r="F38" s="132"/>
-      <c r="G38" s="132"/>
-      <c r="H38" s="132"/>
-      <c r="I38" s="132"/>
-      <c r="J38" s="132"/>
-      <c r="K38" s="132"/>
-      <c r="L38" s="132"/>
-      <c r="M38" s="132"/>
-      <c r="N38" s="132"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="111"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="111"/>
+      <c r="J38" s="111"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="111"/>
+      <c r="M38" s="111"/>
+      <c r="N38" s="111"/>
       <c r="P38" s="39"/>
       <c r="AA38" s="40"/>
       <c r="AD38" s="21"/>
       <c r="AE38" s="19"/>
-      <c r="AF38" s="112"/>
-      <c r="AG38" s="90"/>
-      <c r="AH38" s="84"/>
-      <c r="AI38" s="84"/>
-      <c r="AJ38" s="84"/>
-      <c r="AK38" s="55"/>
-      <c r="AL38" s="56"/>
-      <c r="AM38" s="147"/>
-      <c r="AN38" s="148"/>
+      <c r="AF38" s="97"/>
+      <c r="AG38" s="69"/>
+      <c r="AH38" s="70"/>
+      <c r="AI38" s="70"/>
+      <c r="AJ38" s="70"/>
+      <c r="AK38" s="75"/>
+      <c r="AL38" s="76"/>
+      <c r="AM38" s="79"/>
+      <c r="AN38" s="80"/>
       <c r="AO38" s="19"/>
       <c r="AP38" s="3"/>
-      <c r="AS38" s="133" t="s">
+      <c r="AS38" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="AW38" s="133">
+      <c r="AW38" s="51">
         <v>3.1468531468531472E-2</v>
       </c>
-      <c r="AX38" s="133">
+      <c r="AX38" s="51">
         <v>2.972027972027972E-2</v>
       </c>
-      <c r="AY38" s="133">
+      <c r="AY38" s="51">
         <v>1.232394366197183E-2</v>
       </c>
-      <c r="AZ38" s="133">
+      <c r="AZ38" s="51">
         <v>1.7605633802816902E-2</v>
       </c>
-      <c r="BA38" s="133">
+      <c r="BA38" s="51">
         <v>1.4388489208633094E-2</v>
       </c>
-      <c r="BB38" s="133">
+      <c r="BB38" s="51">
         <v>1.048951048951049E-2</v>
       </c>
     </row>
     <row r="39" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="132"/>
-      <c r="E39" s="132"/>
-      <c r="F39" s="132"/>
-      <c r="G39" s="132"/>
-      <c r="H39" s="132"/>
-      <c r="I39" s="132"/>
-      <c r="J39" s="132"/>
-      <c r="K39" s="132"/>
-      <c r="L39" s="132"/>
-      <c r="M39" s="132"/>
-      <c r="N39" s="132"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="111"/>
+      <c r="K39" s="111"/>
+      <c r="L39" s="111"/>
+      <c r="M39" s="111"/>
+      <c r="N39" s="111"/>
       <c r="P39" s="39"/>
       <c r="AA39" s="40"/>
       <c r="AD39" s="21"/>
       <c r="AE39" s="19"/>
-      <c r="AF39" s="112"/>
-      <c r="AG39" s="107" t="s">
+      <c r="AF39" s="97"/>
+      <c r="AG39" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="AH39" s="72"/>
-      <c r="AI39" s="72"/>
-      <c r="AJ39" s="72"/>
-      <c r="AK39" s="72"/>
-      <c r="AL39" s="72"/>
-      <c r="AM39" s="72"/>
-      <c r="AN39" s="73"/>
+      <c r="AH39" s="62"/>
+      <c r="AI39" s="62"/>
+      <c r="AJ39" s="62"/>
+      <c r="AK39" s="62"/>
+      <c r="AL39" s="62"/>
+      <c r="AM39" s="62"/>
+      <c r="AN39" s="63"/>
       <c r="AO39" s="19"/>
       <c r="AP39" s="3"/>
-      <c r="AS39" s="133" t="s">
+      <c r="AS39" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="AW39" s="133">
+      <c r="AW39" s="51">
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="AX39" s="133">
+      <c r="AX39" s="51">
         <v>0.2</v>
       </c>
-      <c r="AY39" s="133">
+      <c r="AY39" s="51">
         <v>0.1111111111111111</v>
       </c>
-      <c r="AZ39" s="133">
+      <c r="AZ39" s="51">
         <v>0</v>
       </c>
-      <c r="BA39" s="133">
+      <c r="BA39" s="51">
         <v>0</v>
       </c>
-      <c r="BB39" s="133">
+      <c r="BB39" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="132"/>
-      <c r="E40" s="132"/>
-      <c r="F40" s="132"/>
-      <c r="G40" s="132"/>
-      <c r="H40" s="132"/>
-      <c r="I40" s="132"/>
-      <c r="J40" s="132"/>
-      <c r="K40" s="132"/>
-      <c r="L40" s="132"/>
-      <c r="M40" s="132"/>
-      <c r="N40" s="132"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="111"/>
       <c r="P40" s="41"/>
       <c r="Q40" s="42"/>
       <c r="R40" s="42"/>
@@ -9606,21 +9564,21 @@
       <c r="AA40" s="43"/>
       <c r="AD40" s="21"/>
       <c r="AE40" s="19"/>
-      <c r="AF40" s="112"/>
-      <c r="AG40" s="108"/>
-      <c r="AH40" s="74"/>
-      <c r="AI40" s="74"/>
-      <c r="AJ40" s="74"/>
-      <c r="AK40" s="74"/>
-      <c r="AL40" s="74"/>
-      <c r="AM40" s="74"/>
-      <c r="AN40" s="75"/>
+      <c r="AF40" s="97"/>
+      <c r="AG40" s="64"/>
+      <c r="AH40" s="65"/>
+      <c r="AI40" s="65"/>
+      <c r="AJ40" s="65"/>
+      <c r="AK40" s="65"/>
+      <c r="AL40" s="65"/>
+      <c r="AM40" s="65"/>
+      <c r="AN40" s="66"/>
       <c r="AO40" s="19"/>
       <c r="AP40" s="3"/>
     </row>
     <row r="41" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
-      <c r="C41" s="111"/>
+      <c r="C41" s="96"/>
       <c r="D41" s="44"/>
       <c r="E41" s="44"/>
       <c r="F41" s="44"/>
@@ -9649,7 +9607,7 @@
       <c r="AC41" s="44"/>
       <c r="AD41" s="45"/>
       <c r="AE41" s="19"/>
-      <c r="AF41" s="113"/>
+      <c r="AF41" s="98"/>
       <c r="AG41" s="16"/>
       <c r="AH41" s="16"/>
       <c r="AI41" s="16"/>
@@ -9660,34 +9618,34 @@
       <c r="AN41" s="16"/>
       <c r="AO41" s="46"/>
       <c r="AP41" s="3"/>
-      <c r="AS41" s="133" t="s">
+      <c r="AS41" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="AW41" s="144">
+      <c r="AW41" s="60">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AX41" s="144">
+      <c r="AX41" s="60">
         <v>0.2673611111111111</v>
       </c>
-      <c r="AY41" s="144">
+      <c r="AY41" s="60">
         <v>0.125</v>
       </c>
-      <c r="AZ41" s="144">
+      <c r="AZ41" s="60">
         <v>0.36458333333333331</v>
       </c>
-      <c r="BA41" s="144">
+      <c r="BA41" s="60">
         <v>0.5</v>
       </c>
-      <c r="BB41" s="144">
+      <c r="BB41" s="60">
         <v>0.5</v>
       </c>
-      <c r="BD41" s="133" t="s">
+      <c r="BD41" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="BE41" s="133" t="s">
+      <c r="BE41" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="BF41" s="133" t="s">
+      <c r="BF41" s="51" t="s">
         <v>66</v>
       </c>
     </row>
@@ -9733,18 +9691,18 @@
       <c r="AN42" s="48"/>
       <c r="AO42" s="48"/>
       <c r="AP42" s="49"/>
-      <c r="AS42" s="133" t="s">
+      <c r="AS42" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="BB42" s="133">
+      <c r="BB42" s="51">
         <v>853200</v>
       </c>
     </row>
     <row r="43" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AS43" s="133" t="s">
+      <c r="AS43" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="BB43" s="133">
+      <c r="BB43" s="51">
         <v>2.1</v>
       </c>
     </row>
@@ -9769,23 +9727,59 @@
       <c r="AL51" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="auPPL+J0ZZCyowdRDEV8btVzK5cz2iJhuVEEIsj7qJWE7id3ihEVtUqLstvZAcUoIkoxQr07hn/yQ3Dqk0Dtaw==" saltValue="dENWaYPdoxJgl6b/6X54DQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="83">
-    <mergeCell ref="AG39:AN40"/>
-    <mergeCell ref="AG30:AJ32"/>
-    <mergeCell ref="AK30:AL32"/>
-    <mergeCell ref="AM30:AN32"/>
-    <mergeCell ref="AG33:AN34"/>
-    <mergeCell ref="AG36:AJ38"/>
-    <mergeCell ref="AK36:AL38"/>
-    <mergeCell ref="AM36:AN38"/>
-    <mergeCell ref="AG24:AJ26"/>
-    <mergeCell ref="AK24:AL26"/>
-    <mergeCell ref="AM24:AN26"/>
-    <mergeCell ref="O27:R28"/>
-    <mergeCell ref="V27:AC28"/>
-    <mergeCell ref="AG27:AN28"/>
-    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="AB5:AC7"/>
+    <mergeCell ref="B2:AP3"/>
+    <mergeCell ref="AT2:AT4"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="AV2:AV4"/>
+    <mergeCell ref="AM10:AN12"/>
+    <mergeCell ref="AD5:AE7"/>
+    <mergeCell ref="AF5:AN7"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="W9:W21"/>
+    <mergeCell ref="D10:G12"/>
+    <mergeCell ref="H10:I12"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="M10:P12"/>
+    <mergeCell ref="Q10:R12"/>
+    <mergeCell ref="S10:T12"/>
+    <mergeCell ref="D5:G7"/>
+    <mergeCell ref="H5:I7"/>
+    <mergeCell ref="J5:K7"/>
+    <mergeCell ref="L5:T7"/>
+    <mergeCell ref="X5:AA7"/>
+    <mergeCell ref="X10:AA12"/>
+    <mergeCell ref="AB10:AC12"/>
+    <mergeCell ref="AD10:AE12"/>
+    <mergeCell ref="AG10:AJ12"/>
+    <mergeCell ref="AK10:AL12"/>
+    <mergeCell ref="D13:K14"/>
+    <mergeCell ref="M13:T14"/>
+    <mergeCell ref="X13:AE14"/>
+    <mergeCell ref="AG13:AN14"/>
+    <mergeCell ref="D16:G18"/>
+    <mergeCell ref="H16:I18"/>
+    <mergeCell ref="J16:K18"/>
+    <mergeCell ref="M16:P18"/>
+    <mergeCell ref="Q16:R18"/>
+    <mergeCell ref="S16:T18"/>
+    <mergeCell ref="AY15:AY17"/>
+    <mergeCell ref="X16:AA18"/>
+    <mergeCell ref="AB16:AC18"/>
+    <mergeCell ref="AD16:AE18"/>
+    <mergeCell ref="AG16:AJ18"/>
+    <mergeCell ref="AK16:AL18"/>
+    <mergeCell ref="AM16:AN18"/>
+    <mergeCell ref="C23:C41"/>
+    <mergeCell ref="AF23:AF41"/>
+    <mergeCell ref="O24:R26"/>
+    <mergeCell ref="V24:Y26"/>
+    <mergeCell ref="Z24:AA26"/>
+    <mergeCell ref="AB24:AC26"/>
+    <mergeCell ref="D24:N40"/>
     <mergeCell ref="BF15:BF17"/>
     <mergeCell ref="D19:K20"/>
     <mergeCell ref="M19:T20"/>
@@ -9802,78 +9796,217 @@
     <mergeCell ref="AV15:AV17"/>
     <mergeCell ref="AW15:AW17"/>
     <mergeCell ref="AX15:AX17"/>
-    <mergeCell ref="C23:C41"/>
-    <mergeCell ref="AF23:AF41"/>
-    <mergeCell ref="O24:R26"/>
-    <mergeCell ref="V24:Y26"/>
-    <mergeCell ref="Z24:AA26"/>
-    <mergeCell ref="AB24:AC26"/>
-    <mergeCell ref="D24:N40"/>
-    <mergeCell ref="AY15:AY17"/>
-    <mergeCell ref="X16:AA18"/>
-    <mergeCell ref="AB16:AC18"/>
-    <mergeCell ref="AD16:AE18"/>
-    <mergeCell ref="AG16:AJ18"/>
-    <mergeCell ref="AK16:AL18"/>
-    <mergeCell ref="AM16:AN18"/>
-    <mergeCell ref="D13:K14"/>
-    <mergeCell ref="M13:T14"/>
-    <mergeCell ref="X13:AE14"/>
-    <mergeCell ref="AG13:AN14"/>
-    <mergeCell ref="D16:G18"/>
-    <mergeCell ref="H16:I18"/>
-    <mergeCell ref="J16:K18"/>
-    <mergeCell ref="M16:P18"/>
-    <mergeCell ref="Q16:R18"/>
-    <mergeCell ref="S16:T18"/>
-    <mergeCell ref="X10:AA12"/>
-    <mergeCell ref="AB10:AC12"/>
-    <mergeCell ref="AD10:AE12"/>
-    <mergeCell ref="AG10:AJ12"/>
-    <mergeCell ref="AK10:AL12"/>
-    <mergeCell ref="AM10:AN12"/>
-    <mergeCell ref="AD5:AE7"/>
-    <mergeCell ref="AF5:AN7"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="W9:W21"/>
-    <mergeCell ref="D10:G12"/>
-    <mergeCell ref="H10:I12"/>
-    <mergeCell ref="J10:K12"/>
-    <mergeCell ref="M10:P12"/>
-    <mergeCell ref="Q10:R12"/>
-    <mergeCell ref="S10:T12"/>
-    <mergeCell ref="D5:G7"/>
-    <mergeCell ref="H5:I7"/>
-    <mergeCell ref="J5:K7"/>
-    <mergeCell ref="L5:T7"/>
-    <mergeCell ref="X5:AA7"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="AX2:AX4"/>
-    <mergeCell ref="AB5:AC7"/>
-    <mergeCell ref="B2:AP3"/>
-    <mergeCell ref="AT2:AT4"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="AV2:AV4"/>
+    <mergeCell ref="AG24:AJ26"/>
+    <mergeCell ref="AK24:AL26"/>
+    <mergeCell ref="AM24:AN26"/>
+    <mergeCell ref="O27:R28"/>
+    <mergeCell ref="V27:AC28"/>
+    <mergeCell ref="AG27:AN28"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="AG39:AN40"/>
+    <mergeCell ref="AG30:AJ32"/>
+    <mergeCell ref="AK30:AL32"/>
+    <mergeCell ref="AM30:AN32"/>
+    <mergeCell ref="AG33:AN34"/>
+    <mergeCell ref="AG36:AJ38"/>
+    <mergeCell ref="AK36:AL38"/>
+    <mergeCell ref="AM36:AN38"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="54" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="36" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{F4C40EA9-3578-924E-BF1B-802D85E6C5CE}">
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{C52E2EB6-BD76-1645-838C-EA4ABC745F92}">
           <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
           <x14:colorMarkers rgb="FFD00000"/>
           <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast theme="0" tint="-0.249977111117893"/>
+          <x14:colorLast rgb="FF00B050"/>
           <x14:colorHigh rgb="FFD00000"/>
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Team Metrics'!AW22:BB22</xm:f>
-              <xm:sqref>H5</xm:sqref>
+              <xm:f>'Team Metrics'!AW39:BB39</xm:f>
+              <xm:sqref>AK36</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="5.000000000000001E-2" manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{08A56B59-F19C-3B49-AA94-3E18910DA689}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FF00B050"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW38:BB38</xm:f>
+              <xm:sqref>AK30</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{FB7F1646-3097-0544-B21B-D763618232EC}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FF339966"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW37:BB37</xm:f>
+              <xm:sqref>AK24</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{2DFB55D3-4B11-F440-BFAC-22DA08EF9038}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW35:BB35</xm:f>
+              <xm:sqref>Z24</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{A5168FF9-78DB-8248-9AAF-8FE3FB223891}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFCC3399"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW33:BB33</xm:f>
+              <xm:sqref>AK16</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{93FA3AA0-7E52-E149-A6D5-ECD37C015879}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFCC3399"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW32:BB32</xm:f>
+              <xm:sqref>AB16</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{F1505BFD-1AD4-FB47-AE32-37CCBD8D61C0}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFCC3399"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW31:BB31</xm:f>
+              <xm:sqref>AK10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{A0F97C6B-D297-B74F-A0BD-1A05372E32AD}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFCC3399"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW30:BB30</xm:f>
+              <xm:sqref>AB10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{5D70A36A-8281-9E4B-ACB6-1E8652E5AEAE}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FF4472C4"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW28:BB28</xm:f>
+              <xm:sqref>Q16</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{E2C88339-FCB1-2041-BF1A-EF6E8F9A95A0}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FF4472C4"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW27:BB27</xm:f>
+              <xm:sqref>H16</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{7A4F7879-1C4B-3C4A-A294-1973EC8C5D8E}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FF4472C4"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW26:BB26</xm:f>
+              <xm:sqref>Q10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{38E95271-B073-1E48-BFC5-66D15BDE9BB0}">
+          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FF4472C4"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Team Metrics'!AW25:BB25</xm:f>
+              <xm:sqref>H10</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9893,195 +10026,19 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{38E95271-B073-1E48-BFC5-66D15BDE9BB0}">
+        <x14:sparklineGroup manualMax="1" manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{F4C40EA9-3578-924E-BF1B-802D85E6C5CE}">
           <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
           <x14:colorMarkers rgb="FFD00000"/>
           <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF4472C4"/>
+          <x14:colorLast theme="0" tint="-0.249977111117893"/>
           <x14:colorHigh rgb="FFD00000"/>
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Team Metrics'!AW25:BB25</xm:f>
-              <xm:sqref>H10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{7A4F7879-1C4B-3C4A-A294-1973EC8C5D8E}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF4472C4"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW26:BB26</xm:f>
-              <xm:sqref>Q10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{E2C88339-FCB1-2041-BF1A-EF6E8F9A95A0}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF4472C4"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW27:BB27</xm:f>
-              <xm:sqref>H16</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{5D70A36A-8281-9E4B-ACB6-1E8652E5AEAE}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF4472C4"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW28:BB28</xm:f>
-              <xm:sqref>Q16</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{A0F97C6B-D297-B74F-A0BD-1A05372E32AD}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFCC3399"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW30:BB30</xm:f>
-              <xm:sqref>AB10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{F1505BFD-1AD4-FB47-AE32-37CCBD8D61C0}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFCC3399"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW31:BB31</xm:f>
-              <xm:sqref>AK10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{93FA3AA0-7E52-E149-A6D5-ECD37C015879}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFCC3399"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW32:BB32</xm:f>
-              <xm:sqref>AB16</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{A5168FF9-78DB-8248-9AAF-8FE3FB223891}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFCC3399"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW33:BB33</xm:f>
-              <xm:sqref>AK16</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{2DFB55D3-4B11-F440-BFAC-22DA08EF9038}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW35:BB35</xm:f>
-              <xm:sqref>Z24</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{FB7F1646-3097-0544-B21B-D763618232EC}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF339966"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW37:BB37</xm:f>
-              <xm:sqref>AK24</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="5.000000000000001E-2" manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{08A56B59-F19C-3B49-AA94-3E18910DA689}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF00B050"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW38:BB38</xm:f>
-              <xm:sqref>AK30</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMin="0" type="column" displayEmptyCellsAs="gap" last="1" minAxisType="custom" xr2:uid="{C52E2EB6-BD76-1645-838C-EA4ABC745F92}">
-          <x14:colorSeries theme="0" tint="-4.9989318521683403E-2"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FF00B050"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Team Metrics'!AW39:BB39</xm:f>
-              <xm:sqref>AK36</xm:sqref>
+              <xm:f>'Team Metrics'!AW22:BB22</xm:f>
+              <xm:sqref>H5</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
